--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>scenario</t>
   </si>
@@ -119,6 +119,48 @@
   </si>
   <si>
     <t>biomass cofire rate</t>
+  </si>
+  <si>
+    <t>china-HeEtAl2017</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>kwn/t sinter</t>
+  </si>
+  <si>
+    <t>t solid fuel/t sinter</t>
+  </si>
+  <si>
+    <t>t flux/t sinter</t>
+  </si>
+  <si>
+    <t>pulverized coal</t>
+  </si>
+  <si>
+    <t>kwh/t hot metal</t>
+  </si>
+  <si>
+    <t>sinter demand</t>
+  </si>
+  <si>
+    <t>pellet demand</t>
+  </si>
+  <si>
+    <t>o2 in</t>
+  </si>
+  <si>
+    <t>m3/t hot steel</t>
+  </si>
+  <si>
+    <t>kwh/t hot steel</t>
+  </si>
+  <si>
+    <t>t/t hot steel</t>
   </si>
 </sst>
 </file>
@@ -455,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +542,17 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.754</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +566,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +656,29 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -610,13 +686,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -645,6 +725,18 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -654,6 +746,29 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="G5">
+        <v>4.93</v>
       </c>
     </row>
   </sheetData>
@@ -663,94 +778,132 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1.3141700000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +918,7 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,20 +943,46 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H5">
+        <v>23.5</v>
+      </c>
+      <c r="I5">
+        <v>51.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Sinter" sheetId="4" r:id="rId4"/>
     <sheet name="Iron" sheetId="5" r:id="rId5"/>
     <sheet name="Steel" sheetId="6" r:id="rId6"/>
+    <sheet name="Oxygen" sheetId="8" r:id="rId7"/>
+    <sheet name="Electricity" sheetId="9" r:id="rId8"/>
+    <sheet name="Fuel" sheetId="10" r:id="rId9"/>
+    <sheet name="Ref" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,8 +32,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (g/mol * mol/nM3 / g/kg) / kg/t  </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t>scenario</t>
   </si>
@@ -85,15 +132,6 @@
     <t>CaO in sinter</t>
   </si>
   <si>
-    <t>coke demand</t>
-  </si>
-  <si>
-    <t>coke-bio cofire</t>
-  </si>
-  <si>
-    <t>coke fuel</t>
-  </si>
-  <si>
     <t>secondary fuel type</t>
   </si>
   <si>
@@ -109,9 +147,6 @@
     <t>CaO demand</t>
   </si>
   <si>
-    <t>C-Fe Ratio of Ore</t>
-  </si>
-  <si>
     <t>scrap demand</t>
   </si>
   <si>
@@ -130,9 +165,6 @@
     <t>charcoal</t>
   </si>
   <si>
-    <t>kwn/t sinter</t>
-  </si>
-  <si>
     <t>t solid fuel/t sinter</t>
   </si>
   <si>
@@ -142,9 +174,6 @@
     <t>pulverized coal</t>
   </si>
   <si>
-    <t>kwh/t hot metal</t>
-  </si>
-  <si>
     <t>sinter demand</t>
   </si>
   <si>
@@ -154,20 +183,135 @@
     <t>o2 in</t>
   </si>
   <si>
-    <t>m3/t hot steel</t>
-  </si>
-  <si>
     <t>kwh/t hot steel</t>
   </si>
   <si>
-    <t>t/t hot steel</t>
+    <t>CONSTANTS</t>
+  </si>
+  <si>
+    <t>Molar Mass</t>
+  </si>
+  <si>
+    <t>g/mol</t>
+  </si>
+  <si>
+    <t>t / Nm3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>HCs (BTX)</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>kWh in MJ</t>
+  </si>
+  <si>
+    <t>kWh in GJ</t>
+  </si>
+  <si>
+    <t>mol in Nm3</t>
+  </si>
+  <si>
+    <t>GJ/t sinter</t>
+  </si>
+  <si>
+    <t>t sinter/t hot metal</t>
+  </si>
+  <si>
+    <t>t pellet / t hot metal</t>
+  </si>
+  <si>
+    <t>t CaO/t hot metal</t>
+  </si>
+  <si>
+    <t>t coke / t hot metal</t>
+  </si>
+  <si>
+    <t>metal demand</t>
+  </si>
+  <si>
+    <t>t scrap + iron / t hot steel</t>
+  </si>
+  <si>
+    <t>t scrap/t hot steel</t>
+  </si>
+  <si>
+    <t>t O2/t hot steel</t>
+  </si>
+  <si>
+    <t>primary fuel demand</t>
+  </si>
+  <si>
+    <t>primary fuel type</t>
+  </si>
+  <si>
+    <t>primary-bio cofire</t>
+  </si>
+  <si>
+    <t>% biofuel</t>
+  </si>
+  <si>
+    <t>t fuel / t hot metal</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>coking coal</t>
+  </si>
+  <si>
+    <t>GJ/t hot metal</t>
+  </si>
+  <si>
+    <t>combustion eff</t>
+  </si>
+  <si>
+    <t>O2 Recovery Eff</t>
+  </si>
+  <si>
+    <t>fueltype</t>
+  </si>
+  <si>
+    <t>biomass type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +335,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -208,18 +384,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,12 +829,23 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
         <v>0.754</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
@@ -561,15 +855,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11">
+        <f>(B4*$B$19)/1000/1000</f>
+        <v>5.3537967341839917E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10">
+        <v>16.042459999999998</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" ref="C5:C12" si="0">(B5*$B$19)/1000/1000</f>
+        <v>7.1573391630231102E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10">
+        <v>28.010100000000001</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2496698492013921E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44.009500000000003</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.963482644775587E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.0158800000000001</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>8.9938431337556905E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="10">
+        <v>18.015280000000001</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>8.0375122691175155E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10">
+        <f>(78.12+92.15+106.7)/3</f>
+        <v>92.323333333333338</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1190030040748338E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="10">
+        <v>28.013400000000001</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2498170786115822E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="10">
+        <v>31.998799999999999</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4276255911483892E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="19">
+        <f>B17/1000</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14">
+        <f>1/0.022414</f>
+        <v>44.614972784866602</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -595,6 +1096,14 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -604,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,24 +1167,47 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -686,16 +1218,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,16 +1262,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,25 +1286,49 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B5">
+        <v>0.04</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
         <v>5.1040000000000002E-2</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
         <v>0.14069999999999999</v>
       </c>
-      <c r="G5">
-        <v>4.93</v>
+      <c r="G6">
+        <f>4.93*Ref!B18</f>
+        <v>1.7748E-2</v>
       </c>
     </row>
   </sheetData>
@@ -778,118 +1338,192 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
       </c>
       <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
         <v>1.3141700000000001</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.28799999999999998</v>
       </c>
-      <c r="J5">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5">
-        <v>110</v>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <f>110*Ref!B18</f>
+        <v>0.39599999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -900,66 +1534,246 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <f>0.155+0.95</f>
+        <v>1.105</v>
+      </c>
+      <c r="C5">
+        <v>0.155</v>
+      </c>
+      <c r="D5">
+        <v>0.01</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <f>0.14+0.95</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6">
+        <f>35.5*Ref!B18</f>
+        <v>0.1278</v>
+      </c>
+      <c r="J6">
+        <f>51.08*Ref!C12</f>
+        <v>7.2923115195859714E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -973,19 +1787,86 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H5">
-        <v>23.5</v>
-      </c>
-      <c r="I5">
-        <v>51.08</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1283B08D-4FFA-7C46-B4D2-AB95B87674B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="8"/>
+    <workbookView xWindow="8920" yWindow="460" windowWidth="17600" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="Fuel" sheetId="10" r:id="rId9"/>
     <sheet name="Ref" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
   <si>
     <t>scenario</t>
   </si>
@@ -102,9 +103,6 @@
     <t>electricity demand</t>
   </si>
   <si>
-    <t>kwh/t coke out</t>
-  </si>
-  <si>
     <t>C to Slag</t>
   </si>
   <si>
@@ -123,12 +121,6 @@
     <t>CaO in pellets</t>
   </si>
   <si>
-    <t>coal fuel type</t>
-  </si>
-  <si>
-    <t>fuel type</t>
-  </si>
-  <si>
     <t>CaO in sinter</t>
   </si>
   <si>
@@ -171,21 +163,12 @@
     <t>t flux/t sinter</t>
   </si>
   <si>
-    <t>pulverized coal</t>
-  </si>
-  <si>
     <t>sinter demand</t>
   </si>
   <si>
     <t>pellet demand</t>
   </si>
   <si>
-    <t>o2 in</t>
-  </si>
-  <si>
-    <t>kwh/t hot steel</t>
-  </si>
-  <si>
     <t>CONSTANTS</t>
   </si>
   <si>
@@ -255,18 +238,6 @@
     <t>t coke / t hot metal</t>
   </si>
   <si>
-    <t>metal demand</t>
-  </si>
-  <si>
-    <t>t scrap + iron / t hot steel</t>
-  </si>
-  <si>
-    <t>t scrap/t hot steel</t>
-  </si>
-  <si>
-    <t>t O2/t hot steel</t>
-  </si>
-  <si>
     <t>primary fuel demand</t>
   </si>
   <si>
@@ -301,15 +272,64 @@
   </si>
   <si>
     <t>biomass type</t>
+  </si>
+  <si>
+    <t>ieaghg-reference</t>
+  </si>
+  <si>
+    <t>Remainder is lost to coal gas</t>
+  </si>
+  <si>
+    <t>GJ/t coke out</t>
+  </si>
+  <si>
+    <t>t CO2 in slag/t CO2 in CaCO3</t>
+  </si>
+  <si>
+    <t>GJ/t CaO</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>GJ electricity/GJ fuel</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>oxygen demand</t>
+  </si>
+  <si>
+    <t>PCI coal</t>
+  </si>
+  <si>
+    <t>t scrap/t crude steel</t>
+  </si>
+  <si>
+    <t>t O2/t crude steel</t>
+  </si>
+  <si>
+    <t>GJ/t crude steel</t>
+  </si>
+  <si>
+    <t>hot metal demand</t>
+  </si>
+  <si>
+    <t>t hot metal / t crude steel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -469,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,10 +519,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -779,20 +801,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -814,39 +836,57 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0.754</v>
       </c>
       <c r="C6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="25">
+        <f>1/1.2852</f>
+        <v>0.77808901338313108</v>
+      </c>
+      <c r="C7">
+        <v>0.126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -856,44 +896,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" s="10">
         <v>12</v>
@@ -903,9 +943,9 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B5" s="10">
         <v>16.042459999999998</v>
@@ -915,9 +955,9 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10">
         <v>28.010100000000001</v>
@@ -927,9 +967,9 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10">
         <v>44.009500000000003</v>
@@ -939,9 +979,9 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" s="10">
         <v>2.0158800000000001</v>
@@ -951,9 +991,9 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10">
         <v>18.015280000000001</v>
@@ -963,9 +1003,9 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B10" s="10">
         <f>(78.12+92.15+106.7)/3</f>
@@ -976,9 +1016,9 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11" s="10">
         <v>28.013400000000001</v>
@@ -988,9 +1028,9 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B12" s="10">
         <v>31.998799999999999</v>
@@ -1000,42 +1040,42 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B17" s="18">
         <v>3.6</v>
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B18" s="19">
         <f>B17/1000</f>
@@ -1043,9 +1083,9 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" s="14">
         <f>1/0.022414</f>
@@ -1060,50 +1100,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.108</v>
       </c>
     </row>
   </sheetData>
@@ -1112,74 +1169,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0.01</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1188,26 +1245,49 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -1217,88 +1297,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0.04</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -1307,21 +1387,21 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>0.14069999999999999</v>
@@ -1329,6 +1409,29 @@
       <c r="G6">
         <f>4.93*Ref!B18</f>
         <v>1.7748E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.1520000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1337,100 +1440,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1438,14 +1541,14 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>1.1499999999999999</v>
@@ -1460,33 +1563,33 @@
         <v>0.3</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>1.3141700000000001</v>
@@ -1501,29 +1604,71 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>0.20499999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M6">
         <f>110*Ref!B18</f>
         <v>0.39599999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <f>0.013*(56/100)</f>
+        <v>7.28E-3</v>
+      </c>
+      <c r="E7">
+        <v>0.3548</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>0.152</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0.10444000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1533,93 +1678,93 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <f>0.155+0.95</f>
-        <v>1.105</v>
+        <f>0.95</f>
+        <v>0.95</v>
       </c>
       <c r="C5">
         <v>0.155</v>
@@ -1628,34 +1773,46 @@
         <v>0.01</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <f>0.14+0.95</f>
-        <v>1.0899999999999999</v>
+        <f>0.95</f>
+        <v>0.95</v>
       </c>
       <c r="C6">
         <v>0.14000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
       </c>
       <c r="I6">
         <f>35.5*Ref!B18</f>
@@ -1664,6 +1821,41 @@
       <c r="J6">
         <f>51.08*Ref!C12</f>
         <v>7.2923115195859714E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <f>0.9058</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C7">
+        <f>0.1169+0.0731</f>
+        <v>0.19</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="25">
+        <f>0.9136*0.0757</f>
+        <v>6.9159520000000002E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J7">
+        <v>7.4236999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1673,59 +1865,70 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.140625" style="5"/>
+    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.3869199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1734,34 +1937,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.140625" style="5"/>
+    <col min="9" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1769,30 +1974,50 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1801,68 +2026,79 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="23"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1283B08D-4FFA-7C46-B4D2-AB95B87674B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B50B630-63A1-484F-9AD9-DB06D6E40E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="460" windowWidth="17600" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="460" windowWidth="23460" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Sinter" sheetId="4" r:id="rId4"/>
     <sheet name="Iron" sheetId="5" r:id="rId5"/>
     <sheet name="Steel" sheetId="6" r:id="rId6"/>
-    <sheet name="Oxygen" sheetId="8" r:id="rId7"/>
-    <sheet name="Electricity" sheetId="9" r:id="rId8"/>
-    <sheet name="Fuel" sheetId="10" r:id="rId9"/>
-    <sheet name="Ref" sheetId="7" r:id="rId10"/>
+    <sheet name="Finishing" sheetId="11" r:id="rId7"/>
+    <sheet name="Oxygen" sheetId="8" r:id="rId8"/>
+    <sheet name="Electricity" sheetId="9" r:id="rId9"/>
+    <sheet name="Fuel" sheetId="10" r:id="rId10"/>
+    <sheet name="Ref" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,6 +35,83 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{AD981447-F973-F247-BC51-C323055F1F2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">S.E. Tanzer: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Net: electricity use minus TRT electricity production
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{8535A299-AA3F-0A40-89B5-E88EABAE1390}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary energy demand (MJ/kg) * electrical generation efficiency used in paper</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -77,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
   <si>
     <t>scenario</t>
   </si>
@@ -320,6 +398,54 @@
   </si>
   <si>
     <t>t hot metal / t crude steel</t>
+  </si>
+  <si>
+    <t>CN coking coal</t>
+  </si>
+  <si>
+    <t>CN coke</t>
+  </si>
+  <si>
+    <t>GJ/t</t>
+  </si>
+  <si>
+    <t>PROXY CN electricity  mix  (HeEtAl2017)</t>
+  </si>
+  <si>
+    <t>japan-Kuramochi2016</t>
+  </si>
+  <si>
+    <t>JP coke</t>
+  </si>
+  <si>
+    <t>JP coal</t>
+  </si>
+  <si>
+    <t>RU coke</t>
+  </si>
+  <si>
+    <t>RU natural gas</t>
+  </si>
+  <si>
+    <t>russia-Kuronov2010</t>
+  </si>
+  <si>
+    <t>eff from IEA 2016</t>
+  </si>
+  <si>
+    <t>usa-andersenhyman2001</t>
+  </si>
+  <si>
+    <t>US coke</t>
+  </si>
+  <si>
+    <t>Mbtu/ton in GJ/tonne</t>
+  </si>
+  <si>
+    <t>meta-units</t>
+  </si>
+  <si>
+    <t>continuous casting+hot rolling</t>
   </si>
 </sst>
 </file>
@@ -331,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +512,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -521,6 +661,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -873,6 +1021,9 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -887,6 +1038,36 @@
       </c>
       <c r="D7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <f>1/1.43</f>
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="C8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <f>24.7/32</f>
+        <v>0.77187499999999998</v>
+      </c>
+      <c r="C10">
+        <f>0.02*Ref!B20</f>
+        <v>2.3259999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -896,16 +1077,106 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,6 +1363,15 @@
         <v>44.614972784866602</v>
       </c>
       <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20">
+        <f>1.163</f>
+        <v>1.163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1101,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,6 +1443,33 @@
         <v>0.108</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1170,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1289,6 +1596,34 @@
       </c>
       <c r="G7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>0.01</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1298,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1395,7 +1730,7 @@
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1432,6 +1767,40 @@
       </c>
       <c r="G7">
         <v>1.1520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>0.04</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1440,11 +1809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="J2" zoomScale="99" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1597,14 +1966,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
+      <c r="D6" s="27">
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0.28799999999999998</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1625,8 +1994,8 @@
         <v>25</v>
       </c>
       <c r="M6">
-        <f>110*Ref!B18</f>
-        <v>0.39599999999999996</v>
+        <f>(110-36.44)*Ref!B18</f>
+        <v>0.264816</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1671,25 +2040,125 @@
         <v>0.10444000000000001</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>1.17</v>
+      </c>
+      <c r="C8">
+        <v>0.12</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="30">
+        <f>70.2/54.4</f>
+        <v>1.2904411764705883</v>
+      </c>
+      <c r="E10">
+        <f>26.7/54.4</f>
+        <v>0.49080882352941174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10">
+        <f>0.06*Ref!B20</f>
+        <v>6.9779999999999995E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
@@ -1806,13 +2275,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
+      </c>
+      <c r="H6" s="28">
+        <f>H7</f>
+        <v>6.9159520000000002E-2</v>
       </c>
       <c r="I6">
         <f>35.5*Ref!B18</f>
@@ -1856,6 +2329,60 @@
       </c>
       <c r="J7">
         <v>7.4236999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>0.95</v>
+      </c>
+      <c r="C8">
+        <v>0.155</v>
+      </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="27">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="31">
+        <f>53.4/62.7</f>
+        <v>0.85167464114832525</v>
+      </c>
+      <c r="C10" s="31">
+        <f>17/62.7</f>
+        <v>0.27113237639553428</v>
+      </c>
+      <c r="I10">
+        <f>0.04*Ref!B20</f>
+        <v>4.6519999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1865,11 +2392,86 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBAB6A-CEA2-744B-A19C-F0BCF69F67CD}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <f>(0.05+0.33)*Ref!B20</f>
+        <v>0.44194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1899,6 +2501,9 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1919,6 +2524,14 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
+      <c r="B6" s="5">
+        <f>B7</f>
+        <v>0.87</v>
+      </c>
+      <c r="C6" s="5">
+        <f>8.2*0.3264</f>
+        <v>2.6764799999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1931,17 +2544,36 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="29">
+        <f>B7</f>
+        <v>0.87</v>
+      </c>
+      <c r="C8" s="29">
+        <f>C7</f>
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1967,7 +2599,9 @@
       <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2003,10 +2637,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>71</v>
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,89 +2654,41 @@
         <v>70</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="29">
+        <v>0.4773</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="5">
+        <f>18/39</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B50B630-63A1-484F-9AD9-DB06D6E40E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="460" windowWidth="23460" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="465" windowWidth="23460" windowHeight="17535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Fuel" sheetId="10" r:id="rId10"/>
     <sheet name="Ref" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +34,81 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>S.E. Tanzer</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.epa.gov/sites/production/files/2015-02/documents/tsd_iron_and_steel_epa_9-8-08.pdf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>S.E. Tanzer</author>
+  </authors>
+  <commentList>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+from other Kuronov study: https://link.springer.com/content/pdf/10.1007%2Fs11015-010-9247-8.pdf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
+    <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{AD981447-F973-F247-BC51-C323055F1F2E}">
+    <comment ref="M6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,17 +132,182 @@
         </r>
       </text>
     </comment>
+    <comment ref="C9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pellet demand % from https://link.springer.com/content/pdf/10.1007%2Fs11015-010-9247-8.pdf 
+Assumption of ratio of total ore-load demand</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.energystar.gov/ia/business/industry/Iron_Steel_Guide.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://link.springer.com/content/pdf/10.1007%2Fs11015-015-0141-2.pdf
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://link.springer.com/content/pdf/10.1007%2Fs11015-015-0141-2.pdf</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>S.E. Tanzer</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In 3.2.3: "90% of the raw steel is processed by continuous casting. "</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{8535A299-AA3F-0A40-89B5-E88EABAE1390}">
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary energy demand (MJ/kg) * electrical generation efficiency used in paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,13 +344,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="108">
   <si>
     <t>scenario</t>
   </si>
@@ -418,12 +651,6 @@
     <t>JP coke</t>
   </si>
   <si>
-    <t>JP coal</t>
-  </si>
-  <si>
-    <t>RU coke</t>
-  </si>
-  <si>
     <t>RU natural gas</t>
   </si>
   <si>
@@ -446,18 +673,56 @@
   </si>
   <si>
     <t>continuous casting+hot rolling</t>
+  </si>
+  <si>
+    <t>short ton in metric tonnes</t>
+  </si>
+  <si>
+    <t>steel loss</t>
+  </si>
+  <si>
+    <t>% to scrap</t>
+  </si>
+  <si>
+    <t>from https://www.energystar.gov/ia/business/industry/Iron_Steel_Guide.pdf</t>
+  </si>
+  <si>
+    <t>US natural gas</t>
+  </si>
+  <si>
+    <t>meta-source</t>
+  </si>
+  <si>
+    <t>http://www.infomine.ru/files/catalog/223/file_223_eng.pdf (rotary)</t>
+  </si>
+  <si>
+    <t>RU hard coal</t>
+  </si>
+  <si>
+    <t>IPCC JP coking coal</t>
+  </si>
+  <si>
+    <t>US coking coal</t>
+  </si>
+  <si>
+    <t>IPCC coke</t>
+  </si>
+  <si>
+    <t>IPCC JP PCI coal</t>
+  </si>
+  <si>
+    <t>IPCC JP coke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,13 +792,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -625,11 +930,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -648,10 +954,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -659,20 +962,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -949,20 +1263,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -987,7 +1301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -995,12 +1309,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1011,7 +1325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1025,11 +1339,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <f>1/1.2852</f>
         <v>0.77808901338313108</v>
       </c>
@@ -1040,34 +1354,49 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="22">
         <f>1/1.43</f>
         <v>0.69930069930069938</v>
       </c>
       <c r="C8">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
+      <c r="B10" s="37">
         <f>24.7/32</f>
         <v>0.77187499999999998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="38">
         <f>0.02*Ref!B20</f>
         <v>2.3259999999999999E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1077,66 +1406,66 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C7" t="s">
@@ -1146,19 +1475,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,33 +1496,33 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>32</v>
@@ -1202,7 +1531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
@@ -1214,7 +1543,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
@@ -1226,7 +1555,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1238,7 +1567,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
@@ -1250,7 +1579,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
@@ -1262,7 +1591,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1274,7 +1603,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
@@ -1287,7 +1616,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -1299,7 +1628,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
@@ -1311,66 +1640,75 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
       <c r="B16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="33">
         <v>3.6</v>
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="33">
         <f>B17/1000</f>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="33">
         <f>1/0.022414</f>
         <v>44.614972784866602</v>
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="31">
         <f>1.163</f>
         <v>1.163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="32">
+        <f>2000/2204.62</f>
+        <v>0.90718581887127947</v>
       </c>
     </row>
   </sheetData>
@@ -1380,19 +1718,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,8 +1740,11 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1414,17 +1755,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1432,7 +1773,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1443,55 +1784,79 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>0.108</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="24">
         <v>0.108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9">
+        <f>17*Ref!B18</f>
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
+      <c r="B10" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.108</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,22 +1879,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1552,7 +1917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1575,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1598,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1621,35 +1986,80 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>90</v>
+      </c>
+      <c r="B10" s="34">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="35">
+        <f>26*Ref!B21*Ref!B18</f>
+        <v>8.4912592646351759E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,8 +2081,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1689,17 +2102,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1722,7 +2135,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1746,7 +2159,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1769,7 +2182,7 @@
         <v>1.1520000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1785,54 +2198,95 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="24">
         <v>0.1</v>
       </c>
       <c r="G8">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="34">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
+      <c r="B10" s="34">
+        <f>1.4*Ref!B20/28</f>
+        <v>5.8149999999999993E-2</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="35">
+        <f>26*Ref!B21*Ref!B18</f>
+        <v>8.4912592646351759E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" zoomScale="99" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="D1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +2311,7 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
@@ -1873,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +2356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1910,12 +2364,12 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1956,7 +2410,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1966,7 +2420,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>0.01</v>
       </c>
       <c r="E6">
@@ -1985,7 +2439,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1998,7 +2452,7 @@
         <v>0.264816</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2008,7 +2462,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="23">
         <f>0.013*(56/100)</f>
         <v>7.28E-3</v>
       </c>
@@ -2036,11 +2490,11 @@
       <c r="L7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="22">
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2050,14 +2504,14 @@
       <c r="C8">
         <v>0.12</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>0.01</v>
       </c>
       <c r="E8" s="3">
         <v>0.36499999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2069,7 +2523,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2081,24 +2535,26 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
+        <v>88</v>
+      </c>
+      <c r="B9" s="34">
+        <f>0.85*1.15</f>
+        <v>0.97749999999999992</v>
+      </c>
+      <c r="C9" s="34">
+        <f>0.15*1.15</f>
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="D9" s="24">
         <v>0.01</v>
       </c>
       <c r="E9" s="3">
         <v>0.45300000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2110,7 +2566,7 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2118,21 +2574,48 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="30">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="27">
         <f>70.2/54.4</f>
         <v>1.2904411764705883</v>
       </c>
-      <c r="E10">
-        <f>26.7/54.4</f>
-        <v>0.49080882352941174</v>
+      <c r="D10" s="34">
+        <f>0.25*0.56</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0.32500000000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0.16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
       </c>
       <c r="M10">
         <f>0.06*Ref!B20</f>
@@ -2147,27 +2630,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2216,18 +2699,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2260,7 +2743,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2283,7 +2766,7 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="25">
         <f>H7</f>
         <v>6.9159520000000002E-2</v>
       </c>
@@ -2296,7 +2779,7 @@
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2320,7 +2803,7 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <f>0.9136*0.0757</f>
         <v>6.9159520000000002E-2</v>
       </c>
@@ -2331,7 +2814,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2345,7 +2828,7 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2353,36 +2836,78 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.155</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="24">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J9" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <f>53.4/62.7</f>
         <v>0.85167464114832525</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="28">
         <f>17/62.7</f>
         <v>0.27113237639553428</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.04</v>
       </c>
       <c r="I10">
         <f>0.04*Ref!B20</f>
         <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="J10" s="24">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2392,135 +2917,156 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBAB6A-CEA2-744B-A19C-F0BCF69F67CD}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>0.75*Electricity!B6</f>
+        <v>0.24480000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
       </c>
       <c r="B10">
         <f>(0.05+0.33)*Ref!B20</f>
         <v>0.44194</v>
       </c>
+      <c r="C10" s="22">
+        <f>(1-81.9/86.4)</f>
+        <v>5.208333333333337E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="5"/>
+    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +3079,7 @@
         <v>2.6764799999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2544,56 +3090,77 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <f>B7</f>
         <v>0.87</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="26">
         <f>C7</f>
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="26">
+        <f>B8</f>
+        <v>0.87</v>
+      </c>
+      <c r="C9" s="26">
+        <f>8.2*0.3264</f>
+        <v>2.6764799999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>90</v>
+      </c>
+      <c r="B10" s="26">
+        <f>B9</f>
+        <v>0.87</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1.3869199999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.1640625" style="5"/>
+    <col min="9" max="16384" width="10.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2608,31 +3175,31 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2643,49 +3210,55 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="5">
         <v>0.32</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="39">
         <v>0.4773</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="39">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>90</v>
-      </c>
-      <c r="B9" s="29">
-        <v>0.27550000000000002</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
       </c>
       <c r="B10" s="5">
         <f>18/39</f>
         <v>0.46153846153846156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="465" windowWidth="23460" windowHeight="17535" activeTab="2"/>
+    <workbookView xWindow="10260" yWindow="465" windowWidth="23460" windowHeight="17535" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,11 @@
     <sheet name="Finishing" sheetId="11" r:id="rId7"/>
     <sheet name="Oxygen" sheetId="8" r:id="rId8"/>
     <sheet name="Electricity" sheetId="9" r:id="rId9"/>
-    <sheet name="Fuel" sheetId="10" r:id="rId10"/>
-    <sheet name="Ref" sheetId="7" r:id="rId11"/>
+    <sheet name="Heat" sheetId="14" r:id="rId10"/>
+    <sheet name="CO2 Capture" sheetId="12" r:id="rId11"/>
+    <sheet name="CO2 Storage" sheetId="13" r:id="rId12"/>
+    <sheet name="Fuel" sheetId="10" r:id="rId13"/>
+    <sheet name="Ref" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -347,6 +350,114 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>S.E. Tanzer</author>
+    <author>Samantha Tanzer - TBM</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+estimated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+estimated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samantha Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+low pressure steam
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+estimated</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
@@ -388,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="132">
   <si>
     <t>scenario</t>
   </si>
@@ -459,12 +570,6 @@
     <t>biomass cofire rate</t>
   </si>
   <si>
-    <t>china-HeEtAl2017</t>
-  </si>
-  <si>
-    <t>coke</t>
-  </si>
-  <si>
     <t>charcoal</t>
   </si>
   <si>
@@ -585,9 +690,6 @@
     <t>biomass type</t>
   </si>
   <si>
-    <t>ieaghg-reference</t>
-  </si>
-  <si>
     <t>Remainder is lost to coal gas</t>
   </si>
   <si>
@@ -600,118 +702,199 @@
     <t>GJ/t CaO</t>
   </si>
   <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>GJ electricity/GJ fuel</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>oxygen demand</t>
+  </si>
+  <si>
+    <t>PCI coal</t>
+  </si>
+  <si>
+    <t>t scrap/t crude steel</t>
+  </si>
+  <si>
+    <t>t O2/t crude steel</t>
+  </si>
+  <si>
+    <t>GJ/t crude steel</t>
+  </si>
+  <si>
+    <t>hot metal demand</t>
+  </si>
+  <si>
+    <t>t hot metal / t crude steel</t>
+  </si>
+  <si>
+    <t>GJ/t</t>
+  </si>
+  <si>
+    <t>eff from IEA 2016</t>
+  </si>
+  <si>
+    <t>Mbtu/ton in GJ/tonne</t>
+  </si>
+  <si>
+    <t>meta-units</t>
+  </si>
+  <si>
+    <t>continuous casting+hot rolling</t>
+  </si>
+  <si>
+    <t>short ton in metric tonnes</t>
+  </si>
+  <si>
+    <t>steel loss</t>
+  </si>
+  <si>
+    <t>% to scrap</t>
+  </si>
+  <si>
+    <t>from https://www.energystar.gov/ia/business/industry/Iron_Steel_Guide.pdf</t>
+  </si>
+  <si>
+    <t>meta-source</t>
+  </si>
+  <si>
+    <t>http://www.infomine.ru/files/catalog/223/file_223_eng.pdf (rotary)</t>
+  </si>
+  <si>
+    <t>Electricity from recovered energy</t>
+  </si>
+  <si>
+    <t>% Electricity</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>% CO2 Collected</t>
+  </si>
+  <si>
+    <t>CO2 Capture Efficiency</t>
+  </si>
+  <si>
+    <t>Heat Demand</t>
+  </si>
+  <si>
+    <t>meta-scenario notes</t>
+  </si>
+  <si>
+    <t>t CO2 Collected / t CO2 in</t>
+  </si>
+  <si>
+    <t>t CO2 Captured / t CO2 Collected</t>
+  </si>
+  <si>
+    <t>GJ Electricity / t CO2 Captured</t>
+  </si>
+  <si>
+    <t>GJ Heat / t CO2 Captured</t>
+  </si>
+  <si>
+    <t>alternative to specifying a purge in factory connections</t>
+  </si>
+  <si>
+    <t>No compression losses assumed</t>
+  </si>
+  <si>
+    <t>Birat 2010-VSPA</t>
+  </si>
+  <si>
+    <t>VSPA+compression+cryo flash</t>
+  </si>
+  <si>
+    <t>Birat 2010-amine</t>
+  </si>
+  <si>
+    <t>amine + compression</t>
+  </si>
+  <si>
+    <t>Birat 2010-PSA</t>
+  </si>
+  <si>
+    <t>PSA+cryo distil+compression</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Ancillary Emissions</t>
+  </si>
+  <si>
+    <t>CO2 lost  / CO2 in</t>
+  </si>
+  <si>
+    <t>t CO2 / t CO2 stored</t>
+  </si>
+  <si>
+    <t>amine average from Kuromochi et al 2012</t>
+  </si>
+  <si>
+    <t>China-BF-base</t>
+  </si>
+  <si>
+    <t>EU-BF-base</t>
+  </si>
+  <si>
+    <t>Japan-BF-base</t>
+  </si>
+  <si>
+    <t>Russia-BF-base</t>
+  </si>
+  <si>
+    <t>USA-BF-base</t>
+  </si>
+  <si>
+    <t>coke - IPCC</t>
+  </si>
+  <si>
+    <t>coke - CN</t>
+  </si>
+  <si>
+    <t>coal coking - CN</t>
+  </si>
+  <si>
+    <t>coal coking - IPCC</t>
+  </si>
+  <si>
+    <t>coke - JP IPCC</t>
+  </si>
+  <si>
+    <t>coal PCI - JP IPCC</t>
+  </si>
+  <si>
+    <t>natural gas - RU</t>
+  </si>
+  <si>
+    <t>coke - US</t>
+  </si>
+  <si>
+    <t>natural gas - US</t>
+  </si>
+  <si>
+    <t>coal coking - JP IPCC</t>
+  </si>
+  <si>
+    <t>coal hard - RU</t>
+  </si>
+  <si>
+    <t>coal coking - US</t>
+  </si>
+  <si>
+    <t>electricity PROXY - CN</t>
+  </si>
+  <si>
+    <t>natural gas - IPCC</t>
+  </si>
+  <si>
     <t>natural gas</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>GJ electricity/GJ fuel</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>oxygen demand</t>
-  </si>
-  <si>
-    <t>PCI coal</t>
-  </si>
-  <si>
-    <t>t scrap/t crude steel</t>
-  </si>
-  <si>
-    <t>t O2/t crude steel</t>
-  </si>
-  <si>
-    <t>GJ/t crude steel</t>
-  </si>
-  <si>
-    <t>hot metal demand</t>
-  </si>
-  <si>
-    <t>t hot metal / t crude steel</t>
-  </si>
-  <si>
-    <t>CN coking coal</t>
-  </si>
-  <si>
-    <t>CN coke</t>
-  </si>
-  <si>
-    <t>GJ/t</t>
-  </si>
-  <si>
-    <t>PROXY CN electricity  mix  (HeEtAl2017)</t>
-  </si>
-  <si>
-    <t>japan-Kuramochi2016</t>
-  </si>
-  <si>
-    <t>JP coke</t>
-  </si>
-  <si>
-    <t>RU natural gas</t>
-  </si>
-  <si>
-    <t>russia-Kuronov2010</t>
-  </si>
-  <si>
-    <t>eff from IEA 2016</t>
-  </si>
-  <si>
-    <t>usa-andersenhyman2001</t>
-  </si>
-  <si>
-    <t>US coke</t>
-  </si>
-  <si>
-    <t>Mbtu/ton in GJ/tonne</t>
-  </si>
-  <si>
-    <t>meta-units</t>
-  </si>
-  <si>
-    <t>continuous casting+hot rolling</t>
-  </si>
-  <si>
-    <t>short ton in metric tonnes</t>
-  </si>
-  <si>
-    <t>steel loss</t>
-  </si>
-  <si>
-    <t>% to scrap</t>
-  </si>
-  <si>
-    <t>from https://www.energystar.gov/ia/business/industry/Iron_Steel_Guide.pdf</t>
-  </si>
-  <si>
-    <t>US natural gas</t>
-  </si>
-  <si>
-    <t>meta-source</t>
-  </si>
-  <si>
-    <t>http://www.infomine.ru/files/catalog/223/file_223_eng.pdf (rotary)</t>
-  </si>
-  <si>
-    <t>RU hard coal</t>
-  </si>
-  <si>
-    <t>IPCC JP coking coal</t>
-  </si>
-  <si>
-    <t>US coking coal</t>
-  </si>
-  <si>
-    <t>IPCC coke</t>
-  </si>
-  <si>
-    <t>IPCC JP PCI coal</t>
-  </si>
-  <si>
-    <t>IPCC JP coke</t>
   </si>
 </sst>
 </file>
@@ -722,7 +905,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +1008,35 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -930,12 +1142,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -958,9 +1171,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -982,11 +1192,22 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1267,7 +1488,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1306,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,18 +1537,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>0.754</v>
@@ -1336,14 +1560,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="22">
+        <v>113</v>
+      </c>
+      <c r="B7" s="21">
         <f>1/1.2852</f>
         <v>0.77808901338313108</v>
       </c>
@@ -1351,14 +1575,14 @@
         <v>0.126</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="22">
+        <v>114</v>
+      </c>
+      <c r="B8" s="21">
         <f>1/1.43</f>
         <v>0.69930069930069938</v>
       </c>
@@ -1366,37 +1590,37 @@
         <v>0.19</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="25">
+        <v>115</v>
+      </c>
+      <c r="B9" s="24">
         <v>0.7</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>0.2</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="37">
+        <v>116</v>
+      </c>
+      <c r="B10" s="36">
         <f>24.7/32</f>
         <v>0.77187499999999998</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <f>0.02*Ref!B20</f>
         <v>2.3259999999999999E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1407,10 +1631,536 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44">
+        <f>C5</f>
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="44">
+        <f>D5</f>
+        <v>1.05</v>
+      </c>
+      <c r="E4" s="44">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="43">
+        <v>0.63</v>
+      </c>
+      <c r="C5" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="43">
+        <v>0.63</v>
+      </c>
+      <c r="C6" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="44">
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="43">
+        <v>0.63</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="44">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="44">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1</v>
+      </c>
+      <c r="C9" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="44">
+        <v>3</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1</v>
+      </c>
+      <c r="C10" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="44">
+        <v>3</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1</v>
+      </c>
+      <c r="C11" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="44">
+        <v>3</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="44">
+        <v>3</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1</v>
+      </c>
+      <c r="C13" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="44">
+        <v>3</v>
+      </c>
+      <c r="F13" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>0.01</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8">
+        <v>0.01</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,14 +2175,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>64</v>
+      <c r="D1" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,42 +2202,87 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="D6" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>115</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1495,7 +2290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1510,14 +2305,14 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1525,15 +2320,15 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="10">
         <v>12</v>
@@ -1545,7 +2340,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="10">
         <v>16.042459999999998</v>
@@ -1557,7 +2352,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="10">
         <v>28.010100000000001</v>
@@ -1569,7 +2364,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10">
         <v>44.009500000000003</v>
@@ -1581,7 +2376,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="10">
         <v>2.0158800000000001</v>
@@ -1593,7 +2388,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="10">
         <v>18.015280000000001</v>
@@ -1605,7 +2400,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="10">
         <f>(78.12+92.15+106.7)/3</f>
@@ -1618,7 +2413,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10">
         <v>28.013400000000001</v>
@@ -1630,7 +2425,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="10">
         <v>31.998799999999999</v>
@@ -1652,61 +2447,61 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="33">
-        <v>3.6</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <f>B17/1000</f>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="33">
+      <c r="A19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="32">
         <f>1/0.022414</f>
         <v>44.614972784866602</v>
       </c>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="31">
+      <c r="A20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="30">
         <f>1.163</f>
         <v>1.163</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="32">
+      <c r="A21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="31">
         <f>2000/2204.62</f>
         <v>0.90718581887127947</v>
       </c>
@@ -1722,7 +2517,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,68 +2562,71 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0.1</v>
       </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6">
+        <v>112</v>
+      </c>
+      <c r="B6" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="23">
         <v>0.108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="24">
+        <v>113</v>
+      </c>
+      <c r="B7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7">
         <v>0.108</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="24">
+        <v>114</v>
+      </c>
+      <c r="B8" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>0.108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="24">
+        <v>115</v>
+      </c>
+      <c r="B9" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C9">
         <f>17*Ref!B18</f>
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>101</v>
+      <c r="D9" s="35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="24">
+        <v>116</v>
+      </c>
+      <c r="B10" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>0.108</v>
       </c>
     </row>
@@ -1844,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,19 +2694,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0.01</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1919,19 +2717,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1942,19 +2740,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1965,19 +2763,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>0.01</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>0.3</v>
@@ -1988,47 +2786,47 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="24">
+        <v>115</v>
+      </c>
+      <c r="B9" s="23">
         <v>0.01</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>24</v>
+      <c r="C9" t="s">
+        <v>117</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="24">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24">
+        <v>23</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="34">
+        <v>116</v>
+      </c>
+      <c r="B10" s="33">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="24">
+        <v>23</v>
+      </c>
+      <c r="F10" s="23">
         <v>0.1</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <f>26*Ref!B21*Ref!B18</f>
         <v>8.4912592646351759E-2</v>
       </c>
@@ -2045,7 +2843,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,16 +2888,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2114,19 +2912,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0.04</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -2137,19 +2935,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>0.14069999999999999</v>
@@ -2161,19 +2959,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>0.05</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>9.4E-2</v>
@@ -2184,21 +2982,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>0.04</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="24">
+        <v>23</v>
+      </c>
+      <c r="F8" s="23">
         <v>0.1</v>
       </c>
       <c r="G8">
@@ -2207,53 +3005,53 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="24">
+        <v>115</v>
+      </c>
+      <c r="B9" s="23">
         <v>0.05</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="34">
+        <v>23</v>
+      </c>
+      <c r="F9" s="33">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="34">
+        <v>116</v>
+      </c>
+      <c r="B10" s="33">
         <f>1.4*Ref!B20/28</f>
         <v>5.8149999999999993E-2</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="34">
-        <v>0</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="23">
         <v>0.1</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <f>26*Ref!B21*Ref!B18</f>
         <v>8.4912592646351759E-2</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2266,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,22 +3089,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -2332,28 +3130,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2371,7 +3169,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>1.1499999999999999</v>
@@ -2386,25 +3184,25 @@
         <v>0.3</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5">
         <v>0.24</v>
@@ -2412,7 +3210,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>1.3141700000000001</v>
@@ -2420,32 +3218,32 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>0.01</v>
       </c>
       <c r="E6">
         <v>0.28799999999999998</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>0.20499999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M6">
         <f>(110-36.44)*Ref!B18</f>
@@ -2454,7 +3252,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>1.1200000000000001</v>
@@ -2462,7 +3260,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <f>0.013*(56/100)</f>
         <v>7.28E-3</v>
       </c>
@@ -2470,33 +3268,33 @@
         <v>0.3548</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <v>0.152</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="22">
+        <v>23</v>
+      </c>
+      <c r="M7" s="21">
         <v>0.10444000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>1.17</v>
@@ -2504,32 +3302,32 @@
       <c r="C8">
         <v>0.12</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>0.01</v>
       </c>
       <c r="E8" s="3">
         <v>0.36499999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <v>0.14000000000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M8">
         <v>0.24</v>
@@ -2537,85 +3335,85 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="34">
+        <v>115</v>
+      </c>
+      <c r="B9" s="33">
         <f>0.85*1.15</f>
         <v>0.97749999999999992</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <f>0.15*1.15</f>
         <v>0.17249999999999999</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>0.01</v>
       </c>
       <c r="E9" s="3">
         <v>0.45300000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3">
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="24">
+        <v>23</v>
+      </c>
+      <c r="M9" s="23">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <f>70.2/54.4</f>
         <v>1.2904411764705883</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f>0.25*0.56</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>0.32500000000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="34">
+        <v>23</v>
+      </c>
+      <c r="I10" s="33">
         <v>0.16</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10">
         <f>0.06*Ref!B20</f>
@@ -2634,7 +3432,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I23" sqref="I23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -2679,7 +3477,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2687,16 +3485,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2712,7 +3510,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <f>0.95</f>
@@ -2725,13 +3523,13 @@
         <v>0.01</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>0.1</v>
@@ -2745,7 +3543,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <f>0.95</f>
@@ -2758,15 +3556,15 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="25">
+        <v>23</v>
+      </c>
+      <c r="H6" s="24">
         <f>H7</f>
         <v>6.9159520000000002E-2</v>
       </c>
@@ -2781,7 +3579,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <f>0.9058</f>
@@ -2795,15 +3593,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="22">
+        <v>23</v>
+      </c>
+      <c r="H7" s="21">
         <f>0.9136*0.0757</f>
         <v>6.9159520000000002E-2</v>
       </c>
@@ -2816,7 +3614,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>0.95</v>
@@ -2828,62 +3626,62 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="24">
+        <v>23</v>
+      </c>
+      <c r="H8" s="23">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="24">
+        <v>115</v>
+      </c>
+      <c r="B9" s="23">
         <v>0.95</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>0.155</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="24">
+        <v>23</v>
+      </c>
+      <c r="H9" s="23">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="28">
+        <v>116</v>
+      </c>
+      <c r="B10" s="27">
         <f>53.4/62.7</f>
         <v>0.85167464114832525</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <f>17/62.7</f>
         <v>0.27113237639553428</v>
       </c>
@@ -2891,22 +3689,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="24">
+        <v>23</v>
+      </c>
+      <c r="H10" s="23">
         <v>0.04</v>
       </c>
       <c r="I10">
         <f>0.04*Ref!B20</f>
         <v>4.6519999999999999E-2</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2921,7 +3719,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,15 +3737,15 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2955,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,12 +3763,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <f>0.75*Electricity!B6</f>
@@ -2979,28 +3777,28 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <f>(0.05+0.33)*Ref!B20</f>
         <v>0.44194</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <f>(1-81.9/86.4)</f>
         <v>5.208333333333337E-2</v>
       </c>
@@ -3017,7 +3815,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>9</v>
@@ -3048,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,12 +3861,19 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B6</f>
+        <v>0.87</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B6" s="5">
         <f>B7</f>
@@ -3081,7 +3886,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B7" s="5">
         <v>0.87</v>
@@ -3092,39 +3897,39 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="26">
+        <v>114</v>
+      </c>
+      <c r="B8" s="25">
         <f>B7</f>
         <v>0.87</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f>C7</f>
         <v>1.3869199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="26">
+        <v>115</v>
+      </c>
+      <c r="B9" s="25">
         <f>B8</f>
         <v>0.87</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f>8.2*0.3264</f>
         <v>2.6764799999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="26">
+        <v>116</v>
+      </c>
+      <c r="B10" s="25">
         <f>B9</f>
         <v>0.87</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -3137,131 +3942,163 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.140625" style="5"/>
+    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B6" s="5">
         <v>0.32640000000000002</v>
       </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B7" s="5">
         <v>0.32</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="39">
+        <v>114</v>
+      </c>
+      <c r="B8" s="38">
         <v>0.4773</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="39">
+        <v>115</v>
+      </c>
+      <c r="B9" s="38">
         <v>0.27550000000000002</v>
       </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B10" s="5">
         <f>18/39</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="C10" t="s">
-        <v>99</v>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="465" windowWidth="23460" windowHeight="17535" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="10260" yWindow="465" windowWidth="23460" windowHeight="17535" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="141">
   <si>
     <t>scenario</t>
   </si>
@@ -714,9 +714,6 @@
     <t>oxygen demand</t>
   </si>
   <si>
-    <t>PCI coal</t>
-  </si>
-  <si>
     <t>t scrap/t crude steel</t>
   </si>
   <si>
@@ -895,15 +892,46 @@
   </si>
   <si>
     <t>natural gas</t>
+  </si>
+  <si>
+    <t>multi-mean</t>
+  </si>
+  <si>
+    <t>India-BF-base</t>
+  </si>
+  <si>
+    <t>SoKorea-BF-base</t>
+  </si>
+  <si>
+    <t>meta-IEA2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Multi-mean</t>
+  </si>
+  <si>
+    <t>EU-BF-I</t>
+  </si>
+  <si>
+    <t>EU-BF-C</t>
+  </si>
+  <si>
+    <t>EU-BF-M</t>
+  </si>
+  <si>
+    <t>EU-BF-F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1039,7 +1067,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,6 +1077,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,7 +1182,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1189,7 +1223,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1201,6 +1234,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1485,19 +1525,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,8 +1553,14 @@
       <c r="D1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1522,7 +1571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1530,12 +1579,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <f>B7</f>
+        <v>0.77808901338313108</v>
+      </c>
+      <c r="C4" s="21">
+        <f>C7</f>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1549,9 +1606,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>0.754</v>
@@ -1560,12 +1617,12 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="21">
         <f>1/1.2852</f>
@@ -1575,12 +1632,12 @@
         <v>0.126</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="21">
         <f>1/1.43</f>
@@ -1590,12 +1647,12 @@
         <v>0.19</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="24">
         <v>0.7</v>
@@ -1604,23 +1661,119 @@
         <v>0.2</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="36">
+        <v>115</v>
+      </c>
+      <c r="B10" s="46">
         <f>24.7/32</f>
         <v>0.77187499999999998</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="47">
         <f>0.02*Ref!B20</f>
         <v>2.3259999999999999E-2</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
+      <c r="D10" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(B6:B10)</f>
+        <v>0.74065294253676606</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C6:C10)</f>
+        <v>0.10785199999999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="21">
+        <f>B$7</f>
+        <v>0.77808901338313108</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" ref="C12:D15" si="0">C$7</f>
+        <v>0.126</v>
+      </c>
+      <c r="D12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="21">
+        <f t="shared" ref="B13:B15" si="1">B$7</f>
+        <v>0.77808901338313108</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+      <c r="D13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="21">
+        <f t="shared" si="1"/>
+        <v>0.77808901338313108</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+      <c r="D14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="21">
+        <f t="shared" si="1"/>
+        <v>0.77808901338313108</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+      <c r="D15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E15">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1631,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,78 +1840,126 @@
         <v>0.8</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="5">
         <v>0.8</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5">
         <v>0.8</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="5">
         <v>0.8</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="5">
         <v>0.8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="5">
         <v>0.8</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11">
+        <f>B$7</f>
+        <v>0.8</v>
+      </c>
+      <c r="C11" t="str">
+        <f>C$7</f>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12">
+        <f>B$7</f>
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="str">
+        <f>C$7</f>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <f>B$7</f>
+        <v>0.8</v>
+      </c>
+      <c r="C13" t="str">
+        <f>C$7</f>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <f>B$7</f>
+        <v>0.8</v>
+      </c>
+      <c r="C14" t="str">
+        <f>C$7</f>
+        <v>natural gas - IPCC</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,255 +1981,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="40" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>1</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <f>C5</f>
         <v>0.9</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <f>D5</f>
         <v>1.05</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="42">
+        <v>0.63</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="43">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="42">
         <v>0.63</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C6" s="43">
         <v>0.9</v>
       </c>
-      <c r="D5" s="43">
-        <v>1.05</v>
-      </c>
-      <c r="E5" s="44">
-        <v>0</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="D6" s="42">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="43">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="42">
         <v>0.63</v>
       </c>
-      <c r="C6" s="44">
-        <v>0.9</v>
-      </c>
-      <c r="D6" s="43">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="44">
-        <v>3.2</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="C7" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="43">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="43">
-        <v>0.63</v>
-      </c>
-      <c r="C7" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="D7" s="44">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="44">
+        <v>111</v>
+      </c>
+      <c r="B8" s="43">
         <v>1</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <v>0.9</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <v>0.5</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>3</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>104</v>
+      <c r="F8" s="42" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="44">
+        <v>112</v>
+      </c>
+      <c r="B9" s="43">
         <v>1</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>0.9</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="43">
         <v>0.5</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>3</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>111</v>
+      <c r="F9" s="42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="44">
+        <v>113</v>
+      </c>
+      <c r="B10" s="43">
         <v>1</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="43">
         <v>0.9</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <v>0.5</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>3</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>111</v>
+      <c r="F10" s="42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="44">
+        <v>114</v>
+      </c>
+      <c r="B11" s="43">
         <v>1</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <v>0.9</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="43">
         <v>0.5</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <v>3</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>111</v>
+      <c r="F11" s="42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="44">
+        <v>115</v>
+      </c>
+      <c r="B12" s="43">
         <v>1</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="43">
         <v>0.9</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="43">
         <v>0.5</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <v>3</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>111</v>
+      <c r="F12" s="42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <v>1</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="43">
         <v>0.9</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="43">
         <v>0.5</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <v>3</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14">
+        <f>B$9</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F17" si="0">C$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>amine average from Kuromochi et al 2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:F17" si="1">B$9</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>amine average from Kuromochi et al 2012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>amine average from Kuromochi et al 2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>amine average from Kuromochi et al 2012</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2038,43 +2339,43 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>90</v>
+      <c r="A1" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2086,7 +2387,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -2097,7 +2398,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>0.01</v>
@@ -2108,7 +2409,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>0.01</v>
@@ -2119,7 +2420,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>0.01</v>
@@ -2130,7 +2431,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -2147,6 +2448,58 @@
         <v>0.01</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11">
+        <f>B$6</f>
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C14" si="0">C$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:C14" si="1">B$6</f>
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2160,13 +2513,13 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2204,7 +2557,7 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -2216,9 +2569,9 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -2230,9 +2583,9 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -2244,9 +2597,9 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -2258,9 +2611,9 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -2272,9 +2625,9 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -2490,7 +2843,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="30">
         <f>1.163</f>
@@ -2499,7 +2852,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="31">
         <f>2000/2204.62</f>
@@ -2514,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="B12:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,7 +2926,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="23">
         <v>7.0000000000000007E-2</v>
@@ -2584,7 +2937,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>7.0000000000000007E-2</v>
@@ -2595,7 +2948,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="23">
         <v>7.0000000000000007E-2</v>
@@ -2606,7 +2959,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="23">
         <v>7.0000000000000007E-2</v>
@@ -2616,17 +2969,82 @@
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="23">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(B6:B10)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C6:C10)</f>
+        <v>9.8639999999999992E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <f>B$7</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C15" si="0">C$7</f>
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:C15" si="1">B$7</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
     </row>
@@ -2640,10 +3058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,7 +3118,7 @@
         <v>0.01</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2717,13 +3135,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2740,13 +3158,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2763,13 +3181,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0.01</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2786,13 +3204,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="23">
         <v>0.01</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2809,13 +3227,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="33">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2824,11 +3242,145 @@
         <v>23</v>
       </c>
       <c r="F10" s="23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="34">
         <f>26*Ref!B21*Ref!B18</f>
         <v>8.4912592646351759E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(B6:B10)</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(D6:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE(F6:F10)</f>
+        <v>0.06</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(G6:G10)</f>
+        <v>4.4982518529270356E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <f>C$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D12">
+        <f>D$7</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f>E$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F12">
+        <f>F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>G$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f>C$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" t="str">
+        <f>E$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F13">
+        <f>F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>G$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <f>C$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f>E$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F14">
+        <f>F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>G$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C15" t="str">
+        <f>C$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15" t="str">
+        <f>E$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F15">
+        <f>F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>G$7</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2840,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,7 +3470,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2935,13 +3487,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2949,8 +3501,9 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6">
-        <v>0.14069999999999999</v>
+      <c r="F6" s="36">
+        <f>0.1407*0.56</f>
+        <v>7.8792000000000001E-2</v>
       </c>
       <c r="G6">
         <f>4.93*Ref!B18</f>
@@ -2959,13 +3512,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0.05</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2982,13 +3535,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0.04</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2997,7 +3550,8 @@
         <v>23</v>
       </c>
       <c r="F8" s="23">
-        <v>0.1</v>
+        <f>0.15*0.56</f>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G8">
         <v>0.14000000000000001</v>
@@ -3005,13 +3559,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="23">
         <v>0.05</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3028,14 +3582,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="33">
         <f>1.4*Ref!B20/28</f>
         <v>5.8149999999999993E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="33">
         <v>0</v>
@@ -3044,28 +3598,190 @@
         <v>23</v>
       </c>
       <c r="F10" s="23">
-        <v>0.1</v>
+        <f>0.15*0.56</f>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G10" s="34">
         <f>26*Ref!B21*Ref!B18</f>
         <v>8.4912592646351759E-2</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>5.8149999999999993E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="23">
+        <f>0.15*0.56</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="48">
+        <f>AVERAGE(B6:B11)</f>
+        <v>5.1223333333333322E-2</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48">
+        <f>AVERAGE(D6:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48">
+        <f>AVERAGE(F6:F11)</f>
+        <v>8.4915333333333343E-2</v>
+      </c>
+      <c r="G12" s="48">
+        <f>AVERAGE(G6:G11)</f>
+        <v>5.9030098774391963E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13">
+        <f>B$7</f>
+        <v>0.05</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:C17" si="0">C$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f>E$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F13">
+        <f>F$7</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="G13">
+        <f>G$7</f>
+        <v>1.1520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B16" si="1">B$7</f>
+        <v>0.05</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ref="E14:G16" si="2">E$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.1520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1.1520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1.1520000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,7 +3789,7 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -3166,6 +3882,54 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f>B7</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:M5" si="0">C7</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7.28E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.3548</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>charcoal</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+      <c r="J4" t="str">
+        <f>J11</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>charcoal</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.10444000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3184,7 +3948,7 @@
         <v>0.3</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5">
         <v>0.5</v>
@@ -3195,8 +3959,9 @@
       <c r="I5">
         <v>0.2</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>coal PCI - JP IPCC</v>
       </c>
       <c r="K5">
         <v>0.3</v>
@@ -3210,7 +3975,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>1.3141700000000001</v>
@@ -3219,13 +3984,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="23">
-        <v>0.01</v>
+        <f>0.04*(0.56)</f>
+        <v>2.2400000000000003E-2</v>
       </c>
       <c r="E6">
         <v>0.28799999999999998</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3237,7 +4003,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3252,7 +4018,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>1.1200000000000001</v>
@@ -3268,7 +4034,7 @@
         <v>0.3548</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3280,7 +4046,7 @@
         <v>0.152</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3294,7 +4060,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>1.17</v>
@@ -3303,13 +4069,14 @@
         <v>0.12</v>
       </c>
       <c r="D8" s="23">
-        <v>0.01</v>
+        <f>0.04*(0.56)</f>
+        <v>2.2400000000000003E-2</v>
       </c>
       <c r="E8" s="3">
         <v>0.36499999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3321,7 +4088,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3335,7 +4102,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="33">
         <f>0.85*1.15</f>
@@ -3346,13 +4113,14 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="D9" s="23">
-        <v>0.01</v>
+        <f>0.04*(0.56)</f>
+        <v>2.2400000000000003E-2</v>
       </c>
       <c r="E9" s="3">
         <v>0.45300000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -3364,7 +4132,7 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3378,7 +4146,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3395,7 +4163,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -3407,7 +4175,7 @@
         <v>0.16</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3418,6 +4186,297 @@
       <c r="M10">
         <f>0.06*Ref!B20</f>
         <v>6.9779999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="49">
+        <f>AVERAGE(B6:B11)</f>
+        <v>0.98027833333333325</v>
+      </c>
+      <c r="C12" s="49">
+        <f t="shared" ref="C12:E12" si="1">AVERAGE(C6:C11)</f>
+        <v>0.26382352941176473</v>
+      </c>
+      <c r="D12" s="49">
+        <f t="shared" si="1"/>
+        <v>3.741333333333334E-2</v>
+      </c>
+      <c r="E12" s="49">
+        <f t="shared" si="1"/>
+        <v>0.39596666666666663</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="49">
+        <f>AVERAGE(G6:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="49">
+        <f>AVERAGE(I6:I11)</f>
+        <v>0.1431</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="49">
+        <f>AVERAGE(K6:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="49">
+        <f>AVERAGE(M5:M11)</f>
+        <v>0.174148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13">
+        <f>B$7</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C13">
+        <f>C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="50">
+        <f>D$7*0.7</f>
+        <v>5.0959999999999998E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:F16" si="2">E$7</f>
+        <v>0.3548</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <f>I$7</f>
+        <v>0.152</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13:J16" si="3">J$7</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M16" si="4">M$7</f>
+        <v>0.10444000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:C16" si="5">B$7</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="50">
+        <f t="shared" ref="D14:D16" si="6">D$7*0.7</f>
+        <v>5.0959999999999998E-3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.3548</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I16" si="7">I$7</f>
+        <v>0.152</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0.10444000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="5"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="50">
+        <f t="shared" si="6"/>
+        <v>5.0959999999999998E-3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.3548</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>0.152</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0.10444000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="50">
+        <f t="shared" si="6"/>
+        <v>5.0959999999999998E-3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0.3548</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>0.152</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0.10444000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3429,10 +4488,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:I24"/>
+      <selection activeCell="B12" sqref="B12:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -3485,16 +4544,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
         <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3523,7 +4582,7 @@
         <v>0.01</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3543,7 +4602,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <f>0.95</f>
@@ -3556,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3566,7 +4625,7 @@
       </c>
       <c r="H6" s="24">
         <f>H7</f>
-        <v>6.9159520000000002E-2</v>
+        <v>7.975728E-2</v>
       </c>
       <c r="I6">
         <f>35.5*Ref!B18</f>
@@ -3579,7 +4638,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <f>0.9058</f>
@@ -3593,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3602,8 +4661,8 @@
         <v>23</v>
       </c>
       <c r="H7" s="21">
-        <f>0.9136*0.0757</f>
-        <v>6.9159520000000002E-2</v>
+        <f>0.9136*(0.0755+0.0118)</f>
+        <v>7.975728E-2</v>
       </c>
       <c r="I7">
         <v>7.1999999999999995E-2</v>
@@ -3614,7 +4673,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0.95</v>
@@ -3626,7 +4685,7 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3646,7 +4705,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="23">
         <v>0.95</v>
@@ -3658,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3675,7 +4734,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="27">
         <f>53.4/62.7</f>
@@ -3689,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3706,6 +4765,200 @@
       </c>
       <c r="J10" s="23">
         <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="23">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <f>B$7</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C12">
+        <f>C$7</f>
+        <v>0.19</v>
+      </c>
+      <c r="D12">
+        <f>D$7</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f>E$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="F12">
+        <f>F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f>G$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="H12">
+        <f>H$7</f>
+        <v>7.975728E-2</v>
+      </c>
+      <c r="I12">
+        <f>I$7</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J12">
+        <f>J$7</f>
+        <v>7.4236999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13">
+        <f>B$7</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C13">
+        <f>C$7</f>
+        <v>0.19</v>
+      </c>
+      <c r="D13">
+        <f>D$7</f>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f>E$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="F13">
+        <f>F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f>G$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="H13">
+        <f>H$7</f>
+        <v>7.975728E-2</v>
+      </c>
+      <c r="I13">
+        <f>I$7</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J13">
+        <f>J$7</f>
+        <v>7.4236999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14">
+        <f>B$7</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C14">
+        <f>C$7</f>
+        <v>0.19</v>
+      </c>
+      <c r="D14">
+        <f>D$7</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f>E$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="F14">
+        <f>F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>G$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="H14">
+        <f>H$7</f>
+        <v>7.975728E-2</v>
+      </c>
+      <c r="I14">
+        <f>I$7</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J14">
+        <f>J$7</f>
+        <v>7.4236999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f>B$7</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C15">
+        <f>C$7</f>
+        <v>0.19</v>
+      </c>
+      <c r="D15">
+        <f>D$7</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f>E$7</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="F15">
+        <f>F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>G$7</f>
+        <v>charcoal</v>
+      </c>
+      <c r="H15">
+        <f>H$7</f>
+        <v>7.975728E-2</v>
+      </c>
+      <c r="I15">
+        <f>I$7</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J15">
+        <f>J$7</f>
+        <v>7.4236999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3716,10 +4969,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,15 +4990,15 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3753,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,7 +5021,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <f>0.75*Electricity!B6</f>
@@ -3777,22 +5030,22 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <f>(0.05+0.33)*Ref!B20</f>
@@ -3801,6 +5054,58 @@
       <c r="C10" s="21">
         <f>(1-81.9/86.4)</f>
         <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>C$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>C$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>C$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>C$7</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3812,10 +5117,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3873,7 +5178,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="5">
         <f>B7</f>
@@ -3886,7 +5191,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5">
         <v>0.87</v>
@@ -3897,7 +5202,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="25">
         <f>B7</f>
@@ -3910,7 +5215,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="25">
         <f>B8</f>
@@ -3923,13 +5228,65 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="25">
         <f>B9</f>
         <v>0.87</v>
       </c>
       <c r="C10" s="25">
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11">
+        <f>B$7</f>
+        <v>0.87</v>
+      </c>
+      <c r="C11">
+        <f>C$7</f>
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12">
+        <f>B$7</f>
+        <v>0.87</v>
+      </c>
+      <c r="C12">
+        <f>C$7</f>
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <f>B$7</f>
+        <v>0.87</v>
+      </c>
+      <c r="C13">
+        <f>C$7</f>
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <f>B$7</f>
+        <v>0.87</v>
+      </c>
+      <c r="C14">
+        <f>C$7</f>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -3942,10 +5299,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B13" sqref="B13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3970,7 +5327,7 @@
         <v>59</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
@@ -3978,7 +5335,9 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3992,7 +5351,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="17"/>
     </row>
@@ -4017,12 +5376,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="5">
         <v>0.32640000000000002</v>
@@ -4031,12 +5390,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="F6" s="5">
+        <f>533/1278</f>
+        <v>0.41705790297339596</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5">
         <v>0.32</v>
@@ -4045,46 +5408,58 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="F7" s="5">
+        <f>57.7/129.5</f>
+        <v>0.44555984555984557</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="38">
+        <v>113</v>
+      </c>
+      <c r="B8" s="37">
         <v>0.4773</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="F8" s="5">
+        <f>90.4/189.6</f>
+        <v>0.47679324894514774</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="38">
+        <v>114</v>
+      </c>
+      <c r="B9" s="37">
         <v>0.27550000000000002</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="F9" s="5">
+        <f>93.6/340</f>
+        <v>0.2752941176470588</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="5">
         <f>18/39</f>
@@ -4094,7 +5469,129 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="F10" s="5">
+        <f>376/868</f>
+        <v>0.43317972350230416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="5">
+        <f>127.5/328.7</f>
+        <v>0.38789169455430483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="5">
+        <f>48/126.8</f>
+        <v>0.37854889589905366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13">
+        <f>B$7</f>
+        <v>0.32</v>
+      </c>
+      <c r="C13">
+        <f>C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f>D$7</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="E13">
+        <f>E$7</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>F$7</f>
+        <v>0.44555984555984557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14">
+        <f>B$7</f>
+        <v>0.32</v>
+      </c>
+      <c r="C14">
+        <f>C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
+        <f>D$7</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="E14">
+        <f>E$7</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>F$7</f>
+        <v>0.44555984555984557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <f>B$7</f>
+        <v>0.32</v>
+      </c>
+      <c r="C15">
+        <f>C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
+        <f>D$7</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="E15">
+        <f>E$7</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>F$7</f>
+        <v>0.44555984555984557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f>B$7</f>
+        <v>0.32</v>
+      </c>
+      <c r="C16">
+        <f>C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D16" t="str">
+        <f>D$7</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="E16">
+        <f>E$7</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>F$7</f>
+        <v>0.44555984555984557</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C591DEE0-69F1-C846-946D-008CECE906FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="465" windowWidth="23460" windowHeight="17535" activeTab="11"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="23460" windowHeight="17540" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
     <sheet name="Lime" sheetId="2" r:id="rId2"/>
     <sheet name="Pellets" sheetId="3" r:id="rId3"/>
     <sheet name="Sinter" sheetId="4" r:id="rId4"/>
-    <sheet name="Iron" sheetId="5" r:id="rId5"/>
+    <sheet name="Iron" sheetId="15" r:id="rId5"/>
     <sheet name="Steel" sheetId="6" r:id="rId6"/>
     <sheet name="Finishing" sheetId="11" r:id="rId7"/>
     <sheet name="Oxygen" sheetId="8" r:id="rId8"/>
@@ -27,7 +28,7 @@
     <sheet name="Fuel" sheetId="10" r:id="rId13"/>
     <sheet name="Ref" sheetId="7" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,12 +72,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,13 +106,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="M6" authorId="0" shapeId="0">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="1" shapeId="0">
+    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="1" shapeId="0">
+    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="1" shapeId="0">
+    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -238,12 +239,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -272,12 +273,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -348,13 +349,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Samantha Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="1" shapeId="0">
+    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -456,12 +457,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="140">
   <si>
     <t>scenario</t>
   </si>
@@ -885,9 +886,6 @@
     <t>coal coking - US</t>
   </si>
   <si>
-    <t>electricity PROXY - CN</t>
-  </si>
-  <si>
     <t>natural gas - IPCC</t>
   </si>
   <si>
@@ -906,9 +904,6 @@
     <t>meta-IEA2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Multi-mean</t>
   </si>
   <si>
@@ -922,16 +917,19 @@
   </si>
   <si>
     <t>EU-BF-F</t>
+  </si>
+  <si>
+    <t>PROXY electricity mix - CN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1237,17 +1235,17 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1524,23 +1522,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1569,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1579,7 +1577,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1589,14 @@
         <f>C7</f>
         <v>0.126</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1605,8 +1609,14 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1619,8 +1629,14 @@
       <c r="D6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -1634,8 +1650,14 @@
       <c r="D7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1649,8 +1671,14 @@
       <c r="D8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1663,8 +1691,14 @@
       <c r="D9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1679,10 +1713,16 @@
       <c r="D10" s="47" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <f>AVERAGE(B6:B10)</f>
@@ -1695,10 +1735,16 @@
       <c r="D11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="21">
         <f>B$7</f>
@@ -1715,10 +1761,13 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="21">
         <f t="shared" ref="B13:B15" si="1">B$7</f>
@@ -1735,10 +1784,13 @@
       <c r="E13">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="21">
         <f t="shared" si="1"/>
@@ -1755,10 +1807,13 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="21">
         <f t="shared" si="1"/>
@@ -1774,6 +1829,9 @@
       </c>
       <c r="E15">
         <v>0.05</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1783,16 +1841,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1816,7 +1874,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1824,7 +1882,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1832,7 +1890,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1840,23 +1898,23 @@
         <v>0.8</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="5">
         <v>0.8</v>
       </c>
-      <c r="C6" t="s">
-        <v>128</v>
+      <c r="C6" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -1864,11 +1922,11 @@
         <v>0.8</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1876,13 +1934,13 @@
         <v>0.8</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1896,7 +1954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1908,56 +1966,56 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:C14" si="0">B$7</f>
+        <v>0.8</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>137</v>
       </c>
-      <c r="B11">
-        <f>B$7</f>
+      <c r="B13">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="C11" t="str">
-        <f>C$7</f>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>138</v>
       </c>
-      <c r="B12">
-        <f>B$7</f>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="C12" t="str">
-        <f>C$7</f>
-        <v>natural gas - IPCC</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13">
-        <f>B$7</f>
-        <v>0.8</v>
-      </c>
-      <c r="C13" t="str">
-        <f>C$7</f>
-        <v>natural gas - IPCC</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14">
-        <f>B$7</f>
-        <v>0.8</v>
-      </c>
       <c r="C14" t="str">
-        <f>C$7</f>
+        <f t="shared" si="0"/>
         <v>natural gas - IPCC</v>
       </c>
     </row>
@@ -1967,20 +2025,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>89</v>
       </c>
@@ -2000,7 +2058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
@@ -2018,7 +2076,7 @@
       </c>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2090,7 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2111,7 @@
       </c>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>100</v>
       </c>
@@ -2073,7 +2131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>102</v>
       </c>
@@ -2093,7 +2151,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>104</v>
       </c>
@@ -2113,7 +2171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2133,7 +2191,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -2153,7 +2211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2173,7 +2231,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2193,7 +2251,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2213,7 +2271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>56</v>
       </c>
@@ -2231,9 +2289,9 @@
       </c>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <f>B$9</f>
@@ -2256,12 +2314,12 @@
         <v>amine average from Kuromochi et al 2012</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:F17" si="1">B$9</f>
+        <f t="shared" ref="B15:B17" si="1">B$9</f>
         <v>1</v>
       </c>
       <c r="C15">
@@ -2281,9 +2339,9 @@
         <v>amine average from Kuromochi et al 2012</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -2306,9 +2364,9 @@
         <v>amine average from Kuromochi et al 2012</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
@@ -2338,16 +2396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>89</v>
       </c>
@@ -2358,7 +2416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
@@ -2369,12 +2427,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
@@ -2385,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -2396,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -2407,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -2418,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2429,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2440,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2451,9 +2509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <f>B$6</f>
@@ -2464,12 +2522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:C14" si="1">B$6</f>
+        <f t="shared" ref="B12:B14" si="1">B$6</f>
         <v>0.01</v>
       </c>
       <c r="C12">
@@ -2477,9 +2535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -2490,9 +2548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -2509,22 +2567,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2538,22 +2596,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2567,7 +2625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -2581,7 +2639,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -2595,7 +2653,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2609,7 +2667,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -2623,7 +2681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2634,6 +2692,62 @@
         <v>23</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2644,33 +2758,33 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -2679,7 +2793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -2691,7 +2805,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -2703,7 +2817,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -2715,7 +2829,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2727,7 +2841,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -2739,7 +2853,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -2751,7 +2865,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -2764,7 +2878,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
@@ -2776,7 +2890,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
@@ -2788,31 +2902,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>43</v>
       </c>
@@ -2821,7 +2935,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>44</v>
       </c>
@@ -2831,7 +2945,7 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -2841,7 +2955,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>78</v>
       </c>
@@ -2850,7 +2964,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>81</v>
       </c>
@@ -2866,19 +2980,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +3006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2903,17 +3017,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2924,7 +3038,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -2935,7 +3049,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -2946,7 +3060,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2957,7 +3071,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -2972,7 +3086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2983,9 +3097,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <f>AVERAGE(B6:B10)</f>
@@ -2996,9 +3110,9 @@
         <v>9.8639999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <f>B$7</f>
@@ -3009,12 +3123,12 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:C15" si="1">B$7</f>
+        <f t="shared" ref="B13:B15" si="1">B$7</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C13">
@@ -3022,9 +3136,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -3035,9 +3149,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -3050,29 +3164,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3095,22 +3209,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3133,7 +3247,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -3156,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3179,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3202,7 +3316,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3225,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3249,9 +3363,9 @@
         <v>8.4912592646351759E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <f>AVERAGE(B6:B10)</f>
@@ -3270,116 +3384,116 @@
         <v>4.4982518529270356E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12">
-        <f>B$7</f>
+        <f t="shared" ref="B12:G12" si="0">B$7</f>
         <v>0</v>
       </c>
       <c r="C12" t="str">
-        <f>C$7</f>
+        <f t="shared" si="0"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D12">
-        <f>D$7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f>E$7</f>
+        <f t="shared" si="0"/>
         <v>charcoal</v>
       </c>
       <c r="F12">
-        <f>F$7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13">
-        <f>B$7</f>
+        <f t="shared" ref="B13:C15" si="1">B$7</f>
         <v>0</v>
       </c>
       <c r="C13" t="str">
-        <f>C$7</f>
+        <f t="shared" si="1"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D13">
         <v>0.5</v>
       </c>
       <c r="E13" t="str">
-        <f>E$7</f>
+        <f t="shared" ref="E13:G15" si="2">E$7</f>
         <v>charcoal</v>
       </c>
       <c r="F13">
-        <f>F$7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14">
-        <f>B$7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C14" t="str">
-        <f>C$7</f>
+        <f t="shared" si="1"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <f>E$7</f>
+        <f t="shared" si="2"/>
         <v>charcoal</v>
       </c>
       <c r="F14">
-        <f>F$7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>G$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15">
-        <f>B$7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C15" t="str">
-        <f>C$7</f>
+        <f t="shared" si="1"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D15">
         <v>0.2</v>
       </c>
       <c r="E15" t="str">
-        <f>E$7</f>
+        <f t="shared" si="2"/>
         <v>charcoal</v>
       </c>
       <c r="F15">
-        <f>F$7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>G$7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3391,25 +3505,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3452,17 +3566,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3485,7 +3599,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -3510,7 +3624,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3533,7 +3647,7 @@
         <v>1.1520000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3557,7 +3671,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3580,7 +3694,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3609,9 +3723,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <f>B10</f>
@@ -3634,9 +3748,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="48">
         <f>AVERAGE(B6:B11)</f>
@@ -3657,16 +3771,16 @@
         <v>5.9030098774391963E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <f>B$7</f>
         <v>0.05</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:C17" si="0">C$7</f>
+        <f t="shared" ref="C13:C16" si="0">C$7</f>
         <v>coke - IPCC</v>
       </c>
       <c r="D13">
@@ -3685,9 +3799,9 @@
         <v>1.1520000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B16" si="1">B$7</f>
@@ -3713,9 +3827,9 @@
         <v>1.1520000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -3741,9 +3855,9 @@
         <v>1.1520000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -3777,30 +3891,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07F5477-C9C4-FB43-AD00-3DA51A282F72}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3870,7 +3970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3878,7 +3978,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3887,31 +3987,31 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:M5" si="0">C7</f>
+        <f>C7</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>D7</f>
         <v>7.28E-3</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>E7</f>
         <v>0.3548</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
+        <f>F7</f>
         <v>coke - IPCC</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>G7</f>
         <v>0</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
+        <f>H7</f>
         <v>charcoal</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>I7</f>
         <v>0.152</v>
       </c>
       <c r="J4" t="str">
@@ -3919,19 +4019,19 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f>K7</f>
         <v>0</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f>L7</f>
         <v>charcoal</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f>M7</f>
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3960,7 +4060,7 @@
         <v>0.2</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f>J8</f>
         <v>coal PCI - JP IPCC</v>
       </c>
       <c r="K5">
@@ -3973,7 +4073,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -4016,7 +4116,7 @@
         <v>0.264816</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -4058,7 +4158,7 @@
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -4100,7 +4200,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -4144,7 +4244,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4188,9 +4288,9 @@
         <v>6.9779999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="23">
         <v>1.3</v>
@@ -4229,24 +4329,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="49">
         <f>AVERAGE(B6:B11)</f>
         <v>0.98027833333333325</v>
       </c>
       <c r="C12" s="49">
-        <f t="shared" ref="C12:E12" si="1">AVERAGE(C6:C11)</f>
+        <f>AVERAGE(C6:C11)</f>
         <v>0.26382352941176473</v>
       </c>
       <c r="D12" s="49">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D6:D11)</f>
         <v>3.741333333333334E-2</v>
       </c>
       <c r="E12" s="49">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E6:E11)</f>
         <v>0.39596666666666663</v>
       </c>
       <c r="F12" t="s">
@@ -4278,9 +4378,9 @@
         <v>0.174148</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <f>B$7</f>
@@ -4295,11 +4395,11 @@
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:F16" si="2">E$7</f>
+        <f>E$7</f>
         <v>0.3548</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="2"/>
+        <f>F$7</f>
         <v>coke - IPCC</v>
       </c>
       <c r="G13" s="3">
@@ -4313,7 +4413,7 @@
         <v>0.152</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J16" si="3">J$7</f>
+        <f>J$7</f>
         <v>coal coking - IPCC</v>
       </c>
       <c r="K13">
@@ -4323,32 +4423,32 @@
         <v>23</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M16" si="4">M$7</f>
+        <f>M$7</f>
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:C16" si="5">B$7</f>
+        <f>B$7</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
+        <f>C$7</f>
         <v>0</v>
       </c>
       <c r="D14" s="50">
-        <f t="shared" ref="D14:D16" si="6">D$7*0.7</f>
+        <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f>E$7</f>
         <v>0.3548</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="2"/>
+        <f>F$7</f>
         <v>coke - IPCC</v>
       </c>
       <c r="G14" s="3">
@@ -4358,11 +4458,11 @@
         <v>23</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I16" si="7">I$7</f>
+        <f>I$7</f>
         <v>0.152</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f>J$7</f>
         <v>coal coking - IPCC</v>
       </c>
       <c r="K14">
@@ -4372,32 +4472,32 @@
         <v>23</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f>M$7</f>
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15">
-        <f t="shared" si="5"/>
+        <f>B$7</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
+        <f>C$7</f>
         <v>0</v>
       </c>
       <c r="D15" s="50">
-        <f t="shared" si="6"/>
+        <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f>E$7</f>
         <v>0.3548</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="2"/>
+        <f>F$7</f>
         <v>coke - IPCC</v>
       </c>
       <c r="G15" s="3">
@@ -4407,11 +4507,11 @@
         <v>23</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f>I$7</f>
         <v>0.152</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f>J$7</f>
         <v>coal coking - IPCC</v>
       </c>
       <c r="K15">
@@ -4421,32 +4521,32 @@
         <v>23</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f>M$7</f>
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f>B$7</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f>C$7</f>
         <v>0</v>
       </c>
       <c r="D16" s="50">
-        <f t="shared" si="6"/>
+        <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f>E$7</f>
         <v>0.3548</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="2"/>
+        <f>F$7</f>
         <v>coke - IPCC</v>
       </c>
       <c r="G16" s="3">
@@ -4456,11 +4556,11 @@
         <v>23</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
+        <f>I$7</f>
         <v>0.152</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
+        <f>J$7</f>
         <v>coal coking - IPCC</v>
       </c>
       <c r="K16">
@@ -4470,44 +4570,38 @@
         <v>23</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f>M$7</f>
         <v>0.10444000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4539,7 +4633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4556,18 +4650,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4600,7 +4694,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -4636,7 +4730,7 @@
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -4671,7 +4765,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -4703,7 +4797,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -4732,7 +4826,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4767,9 +4861,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="23">
         <v>0.95</v>
@@ -4797,167 +4891,167 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:J15" si="0">B$7</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>charcoal</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7.975728E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>7.4236999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>charcoal</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>7.975728E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>7.4236999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>137</v>
       </c>
-      <c r="B12">
-        <f>B$7</f>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>0.90580000000000005</v>
       </c>
-      <c r="C12">
-        <f>C$7</f>
+      <c r="C14">
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="D12">
-        <f>D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E12" t="str">
-        <f>E$7</f>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="F12">
-        <f>F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
-        <f>G$7</f>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
         <v>charcoal</v>
       </c>
-      <c r="H12">
-        <f>H$7</f>
+      <c r="H14">
+        <f t="shared" si="0"/>
         <v>7.975728E-2</v>
       </c>
-      <c r="I12">
-        <f>I$7</f>
+      <c r="I14">
+        <f t="shared" si="0"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J12">
-        <f>J$7</f>
+      <c r="J14">
+        <f t="shared" si="0"/>
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>138</v>
       </c>
-      <c r="B13">
-        <f>B$7</f>
+      <c r="B15">
+        <f t="shared" si="0"/>
         <v>0.90580000000000005</v>
       </c>
-      <c r="C13">
-        <f>C$7</f>
+      <c r="C15">
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="D13">
-        <f>D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <f>E$7</f>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="F13">
-        <f>F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="str">
-        <f>G$7</f>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
         <v>charcoal</v>
       </c>
-      <c r="H13">
-        <f>H$7</f>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>7.975728E-2</v>
       </c>
-      <c r="I13">
-        <f>I$7</f>
+      <c r="I15">
+        <f t="shared" si="0"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J13">
-        <f>J$7</f>
-        <v>7.4236999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14">
-        <f>B$7</f>
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="C14">
-        <f>C$7</f>
-        <v>0.19</v>
-      </c>
-      <c r="D14">
-        <f>D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <f>E$7</f>
-        <v>coke - IPCC</v>
-      </c>
-      <c r="F14">
-        <f>F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
-        <f>G$7</f>
-        <v>charcoal</v>
-      </c>
-      <c r="H14">
-        <f>H$7</f>
-        <v>7.975728E-2</v>
-      </c>
-      <c r="I14">
-        <f>I$7</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="J14">
-        <f>J$7</f>
-        <v>7.4236999999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15">
-        <f>B$7</f>
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="C15">
-        <f>C$7</f>
-        <v>0.19</v>
-      </c>
-      <c r="D15">
-        <f>D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E15" t="str">
-        <f>E$7</f>
-        <v>coke - IPCC</v>
-      </c>
-      <c r="F15">
-        <f>F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G15" t="str">
-        <f>G$7</f>
-        <v>charcoal</v>
-      </c>
-      <c r="H15">
-        <f>H$7</f>
-        <v>7.975728E-2</v>
-      </c>
-      <c r="I15">
-        <f>I$7</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
       <c r="J15">
-        <f>J$7</f>
+        <f t="shared" si="0"/>
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
@@ -4968,21 +5062,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4993,7 +5087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -5001,7 +5095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5009,17 +5103,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5028,22 +5122,22 @@
         <v>0.24480000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5056,55 +5150,55 @@
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:C14" si="0">B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>137</v>
       </c>
-      <c r="B11">
-        <f>B$7</f>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f>C$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>138</v>
       </c>
-      <c r="B12">
-        <f>B$7</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>C$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13">
-        <f>B$7</f>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f>C$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
       <c r="B14">
-        <f>B$7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>C$7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5116,26 +5210,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.140625" style="5"/>
+    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5146,7 +5240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5154,17 +5248,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -5176,7 +5270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5189,7 +5283,7 @@
         <v>2.6764799999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5200,7 +5294,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5213,7 +5307,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5226,7 +5320,7 @@
         <v>2.6764799999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5238,55 +5332,55 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:C14" si="0">B$7</f>
+        <v>0.87</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>137</v>
       </c>
-      <c r="B11">
-        <f>B$7</f>
+      <c r="B13">
+        <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-      <c r="C11">
-        <f>C$7</f>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>138</v>
       </c>
-      <c r="B12">
-        <f>B$7</f>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-      <c r="C12">
-        <f>C$7</f>
-        <v>1.3869199999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13">
-        <f>B$7</f>
-        <v>0.87</v>
-      </c>
-      <c r="C13">
-        <f>C$7</f>
-        <v>1.3869199999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14">
-        <f>B$7</f>
-        <v>0.87</v>
-      </c>
       <c r="C14">
-        <f>C$7</f>
+        <f t="shared" si="0"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -5298,28 +5392,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F16"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.140625" style="5"/>
+    <col min="10" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5336,14 +5430,14 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5355,17 +5449,17 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -5376,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5390,14 +5484,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F6" s="5">
         <f>533/1278</f>
         <v>0.41705790297339596</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5408,14 +5502,14 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5">
         <f>57.7/129.5</f>
         <v>0.44555984555984557</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5426,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>77</v>
@@ -5436,7 +5530,7 @@
         <v>0.47679324894514774</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5457,7 +5551,7 @@
         <v>0.2752941176470588</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5476,121 +5570,121 @@
         <v>0.43317972350230416</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="5">
         <f>127.5/328.7</f>
         <v>0.38789169455430483</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="5">
         <f>48/126.8</f>
         <v>0.37854889589905366</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:F16" si="0">B$7</f>
+        <v>0.32</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.44555984555984557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.44555984555984557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>137</v>
       </c>
-      <c r="B13">
-        <f>B$7</f>
+      <c r="B15">
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="C13">
-        <f>C$7</f>
-        <v>0</v>
-      </c>
-      <c r="D13" t="str">
-        <f>D$7</f>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="E13">
-        <f>E$7</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>F$7</f>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
         <v>0.44555984555984557</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>138</v>
       </c>
-      <c r="B14">
-        <f>B$7</f>
+      <c r="B16">
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="C14">
-        <f>C$7</f>
-        <v>0</v>
-      </c>
-      <c r="D14" t="str">
-        <f>D$7</f>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="E14">
-        <f>E$7</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>F$7</f>
-        <v>0.44555984555984557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15">
-        <f>B$7</f>
-        <v>0.32</v>
-      </c>
-      <c r="C15">
-        <f>C$7</f>
-        <v>0</v>
-      </c>
-      <c r="D15" t="str">
-        <f>D$7</f>
-        <v>natural gas - IPCC</v>
-      </c>
-      <c r="E15">
-        <f>E$7</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>F$7</f>
-        <v>0.44555984555984557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16">
-        <f>B$7</f>
-        <v>0.32</v>
-      </c>
-      <c r="C16">
-        <f>C$7</f>
-        <v>0</v>
-      </c>
-      <c r="D16" t="str">
-        <f>D$7</f>
-        <v>natural gas - IPCC</v>
-      </c>
       <c r="E16">
-        <f>E$7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>F$7</f>
+        <f t="shared" si="0"/>
         <v>0.44555984555984557</v>
       </c>
     </row>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C591DEE0-69F1-C846-946D-008CECE906FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE4F72E-F0DE-EA47-9019-B4730168EC74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="23460" windowHeight="17540" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18500" windowHeight="17540" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -60,7 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 https://www.epa.gov/sites/production/files/2015-02/documents/tsd_iron_and_steel_epa_9-8-08.pdf</t>
@@ -363,7 +363,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -372,7 +372,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 estimated</t>
@@ -387,7 +387,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -396,7 +396,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 estimated</t>
@@ -411,7 +411,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samantha Tanzer - TBM:</t>
         </r>
@@ -420,7 +420,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 low pressure steam
@@ -436,7 +436,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -445,7 +445,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 estimated</t>
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="143">
   <si>
     <t>scenario</t>
   </si>
@@ -920,6 +920,15 @@
   </si>
   <si>
     <t>PROXY electricity mix - CN</t>
+  </si>
+  <si>
+    <t>ieaghg-reference</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>PCI coal</t>
   </si>
 </sst>
 </file>
@@ -931,7 +940,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,19 +1030,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1180,7 +1176,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1223,13 +1219,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1240,6 +1236,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1523,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1834,6 +1831,28 @@
         <v>23</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f>1/1.2852</f>
+        <v>0.77808901338313108</v>
+      </c>
+      <c r="C16">
+        <f>0.126</f>
+        <v>0.126</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1842,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1971,7 +1990,7 @@
         <v>135</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:C14" si="0">B$7</f>
+        <f t="shared" ref="B11:C15" si="0">B$7</f>
         <v>0.8</v>
       </c>
       <c r="C11" t="str">
@@ -2015,6 +2034,19 @@
         <v>0.8</v>
       </c>
       <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>natural gas - IPCC</v>
       </c>
@@ -2981,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3159,6 +3191,18 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f>0.07</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16">
         <v>0.108</v>
       </c>
     </row>
@@ -3172,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3497,6 +3541,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3506,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3644,7 +3711,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="G7">
-        <v>1.1520000000000001E-2</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3768,7 +3835,7 @@
       </c>
       <c r="G12" s="48">
         <f>AVERAGE(G6:G11)</f>
-        <v>5.9030098774391963E-2</v>
+        <v>7.631009877439196E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3796,7 +3863,7 @@
       </c>
       <c r="G13">
         <f>G$7</f>
-        <v>1.1520000000000001E-2</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3824,7 +3891,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>1.1520000000000001E-2</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3852,7 +3919,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>1.1520000000000001E-2</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3880,7 +3947,30 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>1.1520000000000001E-2</v>
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>0.05</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.1152</v>
       </c>
     </row>
   </sheetData>
@@ -3892,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07F5477-C9C4-FB43-AD00-3DA51A282F72}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3983,35 +4073,35 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>B7</f>
+        <f t="shared" ref="B4:I4" si="0">B7</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="C4">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>7.28E-3</v>
       </c>
       <c r="E4">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>0.3548</v>
       </c>
       <c r="F4" t="str">
-        <f>F7</f>
+        <f t="shared" si="0"/>
         <v>coke - IPCC</v>
       </c>
       <c r="G4">
-        <f>G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" t="str">
-        <f>H7</f>
+        <f t="shared" si="0"/>
         <v>charcoal</v>
       </c>
       <c r="I4">
-        <f>I7</f>
+        <f t="shared" si="0"/>
         <v>0.152</v>
       </c>
       <c r="J4" t="str">
@@ -4383,11 +4473,11 @@
         <v>135</v>
       </c>
       <c r="B13">
-        <f>B$7</f>
+        <f t="shared" ref="B13:C16" si="1">B$7</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="C13">
-        <f>C$7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="50">
@@ -4395,11 +4485,11 @@
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E13">
-        <f>E$7</f>
+        <f t="shared" ref="E13:F16" si="2">E$7</f>
         <v>0.3548</v>
       </c>
       <c r="F13" t="str">
-        <f>F$7</f>
+        <f t="shared" si="2"/>
         <v>coke - IPCC</v>
       </c>
       <c r="G13" s="3">
@@ -4409,11 +4499,11 @@
         <v>23</v>
       </c>
       <c r="I13">
-        <f>I$7</f>
+        <f t="shared" ref="I13:J16" si="3">I$7</f>
         <v>0.152</v>
       </c>
       <c r="J13" t="str">
-        <f>J$7</f>
+        <f t="shared" si="3"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="K13">
@@ -4432,11 +4522,11 @@
         <v>136</v>
       </c>
       <c r="B14">
-        <f>B$7</f>
+        <f t="shared" si="1"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="C14">
-        <f>C$7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14" s="50">
@@ -4444,11 +4534,11 @@
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E14">
-        <f>E$7</f>
+        <f t="shared" si="2"/>
         <v>0.3548</v>
       </c>
       <c r="F14" t="str">
-        <f>F$7</f>
+        <f t="shared" si="2"/>
         <v>coke - IPCC</v>
       </c>
       <c r="G14" s="3">
@@ -4458,11 +4548,11 @@
         <v>23</v>
       </c>
       <c r="I14">
-        <f>I$7</f>
+        <f t="shared" si="3"/>
         <v>0.152</v>
       </c>
       <c r="J14" t="str">
-        <f>J$7</f>
+        <f t="shared" si="3"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="K14">
@@ -4481,11 +4571,11 @@
         <v>137</v>
       </c>
       <c r="B15">
-        <f>B$7</f>
+        <f t="shared" si="1"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="C15">
-        <f>C$7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15" s="50">
@@ -4493,11 +4583,11 @@
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E15">
-        <f>E$7</f>
+        <f t="shared" si="2"/>
         <v>0.3548</v>
       </c>
       <c r="F15" t="str">
-        <f>F$7</f>
+        <f t="shared" si="2"/>
         <v>coke - IPCC</v>
       </c>
       <c r="G15" s="3">
@@ -4507,11 +4597,11 @@
         <v>23</v>
       </c>
       <c r="I15">
-        <f>I$7</f>
+        <f t="shared" si="3"/>
         <v>0.152</v>
       </c>
       <c r="J15" t="str">
-        <f>J$7</f>
+        <f t="shared" si="3"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="K15">
@@ -4530,11 +4620,11 @@
         <v>138</v>
       </c>
       <c r="B16">
-        <f>B$7</f>
+        <f t="shared" si="1"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="C16">
-        <f>C$7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="50">
@@ -4542,11 +4632,11 @@
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E16">
-        <f>E$7</f>
+        <f t="shared" si="2"/>
         <v>0.3548</v>
       </c>
       <c r="F16" t="str">
-        <f>F$7</f>
+        <f t="shared" si="2"/>
         <v>coke - IPCC</v>
       </c>
       <c r="G16" s="3">
@@ -4556,11 +4646,11 @@
         <v>23</v>
       </c>
       <c r="I16">
-        <f>I$7</f>
+        <f t="shared" si="3"/>
         <v>0.152</v>
       </c>
       <c r="J16" t="str">
-        <f>J$7</f>
+        <f t="shared" si="3"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="K16">
@@ -4572,6 +4662,48 @@
       <c r="M16">
         <f>M$7</f>
         <v>0.10444000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="50">
+        <f>0.013*0.56</f>
+        <v>7.28E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17">
+        <v>0.37331999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +4714,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:J15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4896,7 +5028,7 @@
         <v>135</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:J15" si="0">B$7</f>
+        <f t="shared" ref="B12:J16" si="0">B$7</f>
         <v>0.90580000000000005</v>
       </c>
       <c r="C12">
@@ -5051,6 +5183,42 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="J15">
+        <f t="shared" si="0"/>
+        <v>7.4236999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C16">
+        <f>0.1169+0.0731</f>
+        <v>0.19</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <f>0.0757*0.913606</f>
+        <v>6.9159974200000002E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>7.4236999999999997E-2</v>
       </c>
@@ -5211,10 +5379,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5337,7 +5505,7 @@
         <v>135</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:C14" si="0">B$7</f>
+        <f t="shared" ref="B11:C15" si="0">B$7</f>
         <v>0.87</v>
       </c>
       <c r="C11">
@@ -5380,6 +5548,19 @@
         <v>0.87</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>1.3869199999999999</v>
       </c>
@@ -5393,10 +5574,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5593,7 +5774,7 @@
         <v>135</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:F16" si="0">B$7</f>
+        <f t="shared" ref="B13:F17" si="0">B$7</f>
         <v>0.32</v>
       </c>
       <c r="C13">
@@ -5684,6 +5865,30 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.44555984555984557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>0.44555984555984557</v>
       </c>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE4F72E-F0DE-EA47-9019-B4730168EC74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18500" windowHeight="17540" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="Fuel" sheetId="10" r:id="rId13"/>
     <sheet name="Ref" sheetId="7" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,12 +71,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,13 +105,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="M6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="C9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="D10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="I10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,12 +238,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,12 +272,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +310,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary energy demand (MJ/kg) * electrical generation efficiency used in paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -349,13 +381,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Samantha Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="E6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -457,12 +489,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="143">
   <si>
     <t>scenario</t>
   </si>
@@ -934,7 +966,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1241,8 +1273,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1519,23 +1551,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +1598,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1593,7 +1625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1613,7 +1645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1633,7 +1665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -1654,7 +1686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1675,7 +1707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1695,7 +1727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1717,7 +1749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -1739,7 +1771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -1748,7 +1780,7 @@
         <v>0.77808901338313108</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" ref="C12:D15" si="0">C$7</f>
+        <f t="shared" ref="C12:D17" si="0">C$7</f>
         <v>0.126</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -1762,7 +1794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1785,7 +1817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -1808,7 +1840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -1831,7 +1863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1850,6 +1882,27 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <v>0.7</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1860,16 +1913,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1893,7 +1946,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1901,7 +1954,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1962,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1921,7 +1974,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1933,7 +1986,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -1945,7 +1998,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1959,7 +2012,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1973,7 +2026,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1985,7 +2038,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -1999,7 +2052,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -2012,7 +2065,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -2025,7 +2078,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2038,7 +2091,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -2049,6 +2102,17 @@
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2057,20 +2121,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>89</v>
       </c>
@@ -2090,7 +2154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
@@ -2108,7 +2172,7 @@
       </c>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
@@ -2122,7 +2186,7 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +2207,7 @@
       </c>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>100</v>
       </c>
@@ -2163,7 +2227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>102</v>
       </c>
@@ -2183,7 +2247,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>104</v>
       </c>
@@ -2203,7 +2267,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2223,7 +2287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -2243,7 +2307,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2263,7 +2327,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2283,7 +2347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2303,7 +2367,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>56</v>
       </c>
@@ -2321,7 +2385,7 @@
       </c>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -2346,7 +2410,7 @@
         <v>amine average from Kuromochi et al 2012</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -2371,7 +2435,7 @@
         <v>amine average from Kuromochi et al 2012</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2396,7 +2460,7 @@
         <v>amine average from Kuromochi et al 2012</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -2419,6 +2483,23 @@
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>amine average from Kuromochi et al 2012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="43">
+        <v>1</v>
+      </c>
+      <c r="C18" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="43">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2428,16 +2509,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>89</v>
       </c>
@@ -2448,7 +2529,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>79</v>
       </c>
@@ -2459,12 +2540,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -2486,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -2497,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -2508,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2519,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -2530,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2541,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -2550,16 +2631,16 @@
         <v>0.01</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C14" si="0">C$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C11:C15" si="0">C$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B14" si="1">B$6</f>
+        <f t="shared" ref="B12:B15" si="1">B$6</f>
         <v>0.01</v>
       </c>
       <c r="C12">
@@ -2567,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -2580,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2589,6 +2670,19 @@
         <v>0.01</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2599,22 +2693,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,22 +2722,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2657,7 +2751,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -2671,7 +2765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -2685,7 +2779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2699,7 +2793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -2713,7 +2807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2727,7 +2821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -2741,7 +2835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -2755,7 +2849,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -2769,7 +2863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2790,33 +2884,33 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -2837,7 +2931,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -2849,7 +2943,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -2861,7 +2955,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2873,7 +2967,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -2885,7 +2979,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -2897,7 +2991,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -2910,7 +3004,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
@@ -2922,7 +3016,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
@@ -2934,31 +3028,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>43</v>
       </c>
@@ -2967,7 +3061,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>44</v>
       </c>
@@ -2977,7 +3071,7 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
@@ -2987,7 +3081,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>78</v>
       </c>
@@ -2996,7 +3090,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>81</v>
       </c>
@@ -3012,19 +3106,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3049,17 +3143,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3070,7 +3164,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -3081,7 +3175,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3092,7 +3186,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3103,7 +3197,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3118,7 +3212,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3129,7 +3223,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -3142,7 +3236,7 @@
         <v>9.8639999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -3155,7 +3249,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3168,7 +3262,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -3181,7 +3275,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -3194,7 +3288,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -3206,31 +3300,44 @@
         <v>0.108</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <f>0.07</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.108</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3253,22 +3360,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3291,7 +3398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -3314,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3337,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3360,7 +3467,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3383,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3407,7 +3514,7 @@
         <v>8.4912592646351759E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -3428,7 +3535,7 @@
         <v>4.4982518529270356E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -3457,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -3485,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -3513,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -3541,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -3561,6 +3668,29 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <v>0.01</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
@@ -3572,25 +3702,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3633,17 +3763,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3666,7 +3796,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -3691,7 +3821,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3714,7 +3844,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3738,7 +3868,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3761,7 +3891,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3790,7 +3920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -3815,7 +3945,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -3838,7 +3968,7 @@
         <v>7.631009877439196E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -3866,7 +3996,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -3894,7 +4024,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -3922,7 +4052,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -3950,7 +4080,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>140</v>
       </c>
@@ -3981,16 +4111,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07F5477-C9C4-FB43-AD00-3DA51A282F72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +4161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4068,7 +4198,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4251,7 @@
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4163,7 +4293,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -4206,7 +4336,7 @@
         <v>0.264816</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -4248,7 +4378,7 @@
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -4290,7 +4420,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -4334,7 +4464,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4378,7 +4508,7 @@
         <v>6.9779999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -4419,7 +4549,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -4468,7 +4598,7 @@
         <v>0.174148</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -4517,7 +4647,7 @@
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -4566,7 +4696,7 @@
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -4615,7 +4745,7 @@
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -4664,7 +4794,7 @@
         <v>0.10444000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -4713,27 +4843,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4765,7 +4895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4782,18 +4912,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4826,7 +4956,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -4862,7 +4992,7 @@
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -4897,7 +5027,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -4929,7 +5059,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -4958,7 +5088,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4993,7 +5123,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -5023,7 +5153,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -5064,7 +5194,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -5105,7 +5235,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -5146,7 +5276,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -5187,7 +5317,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -5230,21 +5360,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5255,7 +5385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -5263,7 +5393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5271,17 +5401,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5290,22 +5420,22 @@
         <v>0.24480000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5318,7 +5448,7 @@
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -5331,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -5344,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -5357,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -5378,26 +5508,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="5"/>
+    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5408,7 +5538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5416,17 +5546,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -5438,7 +5568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5451,7 +5581,7 @@
         <v>2.6764799999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5462,7 +5592,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5475,7 +5605,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5488,7 +5618,7 @@
         <v>2.6764799999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5500,7 +5630,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -5513,7 +5643,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -5526,7 +5656,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -5539,7 +5669,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -5552,7 +5682,7 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -5563,6 +5693,19 @@
       <c r="C15">
         <f t="shared" si="0"/>
         <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="25">
+        <f>B15</f>
+        <v>0.87</v>
+      </c>
+      <c r="C16" s="25">
+        <f>8.2*0.3264</f>
+        <v>2.6764799999999997</v>
       </c>
     </row>
   </sheetData>
@@ -5573,28 +5716,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.1640625" style="5"/>
+    <col min="10" max="16384" width="10.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5618,7 +5761,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5630,17 +5773,17 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -5654,7 +5797,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5672,7 +5815,7 @@
         <v>0.41705790297339596</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -5690,7 +5833,7 @@
         <v>0.44555984555984557</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5711,7 +5854,7 @@
         <v>0.47679324894514774</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -5732,7 +5875,7 @@
         <v>0.2752941176470588</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5751,16 +5894,26 @@
         <v>0.43317972350230416</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
+      </c>
+      <c r="B11" s="37">
+        <f>127/328.7</f>
+        <v>0.38637055065409187</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="F11" s="5">
         <f>127.5/328.7</f>
         <v>0.38789169455430483</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -5769,7 +5922,7 @@
         <v>0.37854889589905366</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -5794,7 +5947,7 @@
         <v>0.44555984555984557</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -5819,7 +5972,7 @@
         <v>0.44555984555984557</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -5844,7 +5997,7 @@
         <v>0.44555984555984557</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -5869,7 +6022,7 @@
         <v>0.44555984555984557</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>140</v>
       </c>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <sheet name="Sinter" sheetId="4" r:id="rId4"/>
     <sheet name="Iron" sheetId="15" r:id="rId5"/>
     <sheet name="Steel" sheetId="6" r:id="rId6"/>
-    <sheet name="Finishing" sheetId="11" r:id="rId7"/>
-    <sheet name="Oxygen" sheetId="8" r:id="rId8"/>
-    <sheet name="Electricity" sheetId="9" r:id="rId9"/>
-    <sheet name="Heat" sheetId="14" r:id="rId10"/>
-    <sheet name="CO2 Capture" sheetId="12" r:id="rId11"/>
-    <sheet name="CO2 Storage" sheetId="13" r:id="rId12"/>
-    <sheet name="Fuel" sheetId="10" r:id="rId13"/>
+    <sheet name="Oxygen" sheetId="8" r:id="rId7"/>
+    <sheet name="Electricity" sheetId="9" r:id="rId8"/>
+    <sheet name="Heat" sheetId="14" r:id="rId9"/>
+    <sheet name="CO2 Capture" sheetId="12" r:id="rId10"/>
+    <sheet name="CO2 Storage" sheetId="13" r:id="rId11"/>
+    <sheet name="Fuel" sheetId="10" r:id="rId12"/>
+    <sheet name="EAF" sheetId="16" r:id="rId13"/>
     <sheet name="Ref" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -37,6 +37,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>S.E. Tanzer</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1/1.6 : http://ietd.iipnetwork.org/content/coke-making</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
@@ -70,7 +104,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
@@ -104,14 +138,14 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="M6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="1" shapeId="0">
+    <comment ref="G10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +243,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="1" shapeId="0">
+    <comment ref="K10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">S.E. Tanzer: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Currently from Bandwidth report typical; 1.88 is from natural gas and 2.13 from coal
+https://link.springer.com/content/pdf/10.1007%2Fs11015-015-0141-2.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +287,47 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://link.springer.com/content/pdf/10.1007%2Fs11015-015-0141-2.pdf</t>
+possibly *also* 43 m3/t HM? Unlcear if they're cumulative
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:
+increased from 0.162 to account for also 0.03 of oil and 0.002 of nat gas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">S.E. Tanzer:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.141 is oil. Nat gas not in SoA</t>
         </r>
       </text>
     </comment>
@@ -237,13 +335,13 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +361,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-In 3.2.3: "90% of the raw steel is processed by continuous casting. "</t>
+"minimum energy" thus maximum scrap</t>
         </r>
       </text>
     </comment>
@@ -271,7 +369,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -380,7 +478,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
@@ -488,7 +586,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -532,7 +630,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="175">
   <si>
     <t>scenario</t>
   </si>
@@ -774,21 +872,9 @@
     <t>meta-units</t>
   </si>
   <si>
-    <t>continuous casting+hot rolling</t>
-  </si>
-  <si>
     <t>short ton in metric tonnes</t>
   </si>
   <si>
-    <t>steel loss</t>
-  </si>
-  <si>
-    <t>% to scrap</t>
-  </si>
-  <si>
-    <t>from https://www.energystar.gov/ia/business/industry/Iron_Steel_Guide.pdf</t>
-  </si>
-  <si>
     <t>meta-source</t>
   </si>
   <si>
@@ -961,6 +1047,114 @@
   </si>
   <si>
     <t>PCI coal</t>
+  </si>
+  <si>
+    <t>Process CO2</t>
+  </si>
+  <si>
+    <t>Fuel Demand</t>
+  </si>
+  <si>
+    <t>Biofuel Cofire Rate</t>
+  </si>
+  <si>
+    <t>Biofuel Type</t>
+  </si>
+  <si>
+    <t>EU-BAT-minimum</t>
+  </si>
+  <si>
+    <t>EUROFER 2010</t>
+  </si>
+  <si>
+    <t>EUROFER 1990</t>
+  </si>
+  <si>
+    <t>t CO2 / t steel</t>
+  </si>
+  <si>
+    <t>GJ Electricity / t steel</t>
+  </si>
+  <si>
+    <t>Fresh Steel Demand</t>
+  </si>
+  <si>
+    <t>t fresh steel / t EAF steel</t>
+  </si>
+  <si>
+    <t>i.e. not scrap</t>
+  </si>
+  <si>
+    <t>EU-BF-base-2050</t>
+  </si>
+  <si>
+    <t>EU-BAT-average</t>
+  </si>
+  <si>
+    <t>theoretical minimum</t>
+  </si>
+  <si>
+    <t>from bandwidth study and (original is 1.36 HJ coke and 0.08 GJ Nat Gas)</t>
+  </si>
+  <si>
+    <t>bandwidth study; 0.01 GJ of nat gas added to coke breeze. 0.35GJ  from recovered heat excluded here</t>
+  </si>
+  <si>
+    <t>US-SOA</t>
+  </si>
+  <si>
+    <t>electricity use from bandwidth study</t>
+  </si>
+  <si>
+    <t>t O2 / t hot metal</t>
+  </si>
+  <si>
+    <t>EU-BF-base-2030</t>
+  </si>
+  <si>
+    <t>birat 2010</t>
+  </si>
+  <si>
+    <t>tertiary fuel deemand</t>
+  </si>
+  <si>
+    <t>tertiary fuel type</t>
+  </si>
+  <si>
+    <t>CaO Demand</t>
+  </si>
+  <si>
+    <t>Oxygen Demand</t>
+  </si>
+  <si>
+    <t>t O2/t EAF steel</t>
+  </si>
+  <si>
+    <t>US-Typical</t>
+  </si>
+  <si>
+    <t>EU-EAF-base</t>
+  </si>
+  <si>
+    <t>US-practical minimum</t>
+  </si>
+  <si>
+    <t>US practical minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>EU-EAF-base-2050</t>
+  </si>
+  <si>
+    <t>EU-EAF-base-2030</t>
+  </si>
+  <si>
+    <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2030</t>
+  </si>
+  <si>
+    <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2010</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1402,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1269,6 +1463,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1551,11 +1750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1766,7 @@
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1598,7 +1797,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1625,7 +1824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1645,9 +1844,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>0.754</v>
@@ -1656,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1665,9 +1864,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="21">
         <f>1/1.2852</f>
@@ -1677,7 +1876,7 @@
         <v>0.126</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1686,9 +1885,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="21">
         <f>1/1.43</f>
@@ -1698,7 +1897,7 @@
         <v>0.19</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1707,9 +1906,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="24">
         <v>0.7</v>
@@ -1718,7 +1917,7 @@
         <v>0.2</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1727,20 +1926,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="46">
         <f>24.7/32</f>
         <v>0.77187499999999998</v>
       </c>
       <c r="C10" s="47">
-        <f>0.02*Ref!B20</f>
-        <v>2.3259999999999999E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1748,21 +1946,24 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11">
+        <v>126</v>
+      </c>
+      <c r="B11" s="48">
         <f>AVERAGE(B6:B10)</f>
         <v>0.74065294253676606</v>
       </c>
       <c r="C11">
         <f>AVERAGE(C6:C10)</f>
-        <v>0.10785199999999999</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1771,16 +1972,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12" s="21">
         <f>B$7</f>
         <v>0.77808901338313108</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" ref="C12:D17" si="0">C$7</f>
+        <f t="shared" ref="C12:D22" si="0">C$7</f>
         <v>0.126</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -1794,9 +1995,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13" s="21">
         <f t="shared" ref="B13:B15" si="1">B$7</f>
@@ -1817,9 +2018,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" s="21">
         <f t="shared" si="1"/>
@@ -1840,9 +2041,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15" s="21">
         <f t="shared" si="1"/>
@@ -1863,11 +2064,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16">
+        <v>136</v>
+      </c>
+      <c r="B16" s="49">
         <f>1/1.2852</f>
         <v>0.77808901338313108</v>
       </c>
@@ -1887,7 +2088,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>0.7</v>
@@ -1904,228 +2105,166 @@
       </c>
       <c r="F17" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="54">
+        <f>0.83</f>
+        <v>0.83</v>
+      </c>
+      <c r="C18">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="48">
+        <f>1/1.22</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C19">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="21">
+        <f>1/1.3</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="48">
+        <f>1/1.22</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21" s="21" t="str">
+        <f t="shared" ref="D21:E21" si="2">D$7</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="52">
+        <f>30.23/(30.23+2)</f>
+        <v>0.93794601303133718</v>
+      </c>
+      <c r="D22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="52">
+        <f>(B10-3.16/3.24*B10)+B10</f>
+        <v>0.79093364197530858</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="52">
+        <f>30.23/(30.23+2.23)</f>
+        <v>0.93130006161429446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="52"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11:C15" si="0">B$7</f>
-        <v>0.8</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16">
-        <v>0.8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,22 +2275,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,16 +2298,16 @@
         <v>79</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F2" s="43"/>
     </row>
@@ -2177,10 +2316,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -2209,7 +2348,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="42">
         <v>0.63</v>
@@ -2224,12 +2363,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" s="42">
         <v>0.63</v>
@@ -2244,12 +2383,12 @@
         <v>3.2</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" s="42">
         <v>0.63</v>
@@ -2264,12 +2403,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B8" s="43">
         <v>1</v>
@@ -2284,12 +2423,12 @@
         <v>3</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B9" s="43">
         <v>1</v>
@@ -2304,12 +2443,12 @@
         <v>3</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B10" s="43">
         <v>1</v>
@@ -2324,12 +2463,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B11" s="43">
         <v>1</v>
@@ -2344,12 +2483,12 @@
         <v>3</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="43">
         <v>1</v>
@@ -2364,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,7 +2526,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <f>B$9</f>
@@ -2412,7 +2551,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B17" si="1">B$9</f>
@@ -2437,7 +2576,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -2462,7 +2601,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
@@ -2487,7 +2626,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="43">
         <v>1</v>
@@ -2500,6 +2639,36 @@
       </c>
       <c r="E18" s="43">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2508,25 +2677,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,10 +2703,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,7 +2727,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -2569,7 +2738,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0.01</v>
@@ -2580,7 +2749,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>0.01</v>
@@ -2591,7 +2760,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>0.01</v>
@@ -2602,7 +2771,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -2624,7 +2793,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <f>B$6</f>
@@ -2637,7 +2806,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:B15" si="1">B$6</f>
@@ -2650,7 +2819,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -2663,7 +2832,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -2676,7 +2845,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -2685,6 +2854,36 @@
       <c r="C15">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2692,12 +2891,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2952,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>67</v>
@@ -2767,7 +2966,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>67</v>
@@ -2781,7 +2980,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>67</v>
@@ -2795,7 +2994,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>67</v>
@@ -2809,7 +3008,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>67</v>
@@ -2823,10 +3022,10 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>23</v>
@@ -2837,10 +3036,10 @@
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>23</v>
@@ -2851,10 +3050,10 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>23</v>
@@ -2865,21 +3064,426 @@
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.44</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1.454</v>
+      </c>
+      <c r="D9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1.98</v>
+      </c>
+      <c r="D10">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11">
+        <v>1.454</v>
+      </c>
+      <c r="D11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12">
+        <v>1.33</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>1.71</v>
+      </c>
+      <c r="D13">
+        <f>0.18/47.1</f>
+        <v>3.8216560509554136E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14">
+        <v>1.65</v>
+      </c>
+      <c r="D14">
+        <f>0.51/47.1</f>
+        <v>1.0828025477707006E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15">
+        <v>1.44</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3092,7 +3696,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="31">
         <f>2000/2204.62</f>
@@ -3107,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,7 +3733,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3166,7 +3770,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="23">
         <v>7.0000000000000007E-2</v>
@@ -3177,7 +3781,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>7.0000000000000007E-2</v>
@@ -3188,7 +3792,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="23">
         <v>7.0000000000000007E-2</v>
@@ -3199,7 +3803,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="23">
         <v>7.0000000000000007E-2</v>
@@ -3209,12 +3813,12 @@
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="23">
         <v>7.0000000000000007E-2</v>
@@ -3225,7 +3829,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <f>AVERAGE(B6:B10)</f>
@@ -3238,7 +3842,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <f>B$7</f>
@@ -3251,7 +3855,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:B15" si="1">B$7</f>
@@ -3264,7 +3868,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -3277,7 +3881,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -3290,7 +3894,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <f>0.07</f>
@@ -3302,7 +3906,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <f>0.07</f>
@@ -3310,6 +3914,11 @@
       </c>
       <c r="C17">
         <v>0.108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3322,10 +3931,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3946,7 @@
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3360,22 +3969,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3383,7 +3992,7 @@
         <v>0.01</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3398,15 +4007,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3421,16 +4030,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <f>0.6/28.2</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="C7" t="s">
         <v>112</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -3438,21 +4048,22 @@
         <v>23</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>0.018*0.56</f>
+        <v>1.008E-2</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>0.01</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3467,15 +4078,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="23">
         <v>0.01</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3490,12 +4101,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="33">
-        <v>2.5999999999999999E-2</v>
+        <v>111</v>
+      </c>
+      <c r="B10" s="34">
+        <f>0.37/30.23</f>
+        <v>1.2239497188223619E-2</v>
       </c>
       <c r="C10" t="s">
         <v>119</v>
@@ -3510,17 +4122,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="34">
-        <f>26*Ref!B21*Ref!B18</f>
-        <v>8.4912592646351759E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <f>AVERAGE(B6:B10)</f>
-        <v>9.1999999999999998E-3</v>
+        <v>1.0703218586580894E-2</v>
       </c>
       <c r="D11">
         <f>AVERAGE(D6:D10)</f>
@@ -3528,20 +4142,20 @@
       </c>
       <c r="F11">
         <f>AVERAGE(F6:F10)</f>
-        <v>0.06</v>
+        <v>6.2015999999999995E-2</v>
       </c>
       <c r="G11">
         <f>AVERAGE(G6:G10)</f>
-        <v>4.4982518529270356E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.047999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:G12" si="0">B$7</f>
-        <v>0</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3557,20 +4171,20 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.008E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:C15" si="1">B$7</f>
-        <v>0</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
@@ -3585,20 +4199,20 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.008E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
@@ -3613,20 +4227,20 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.008E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
@@ -3641,22 +4255,22 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.008E-2</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3673,13 +4287,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>0.01</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3692,6 +4306,56 @@
       </c>
       <c r="G17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20">
+        <f>0.5/28.2</f>
+        <v>1.7730496453900711E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <f>0.018*0.56</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3703,16 +4367,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -3781,7 +4445,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3798,13 +4462,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3823,13 +4487,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>0.05</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3846,13 +4510,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>0.04</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3870,13 +4534,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="23">
         <v>0.05</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3888,19 +4552,19 @@
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="G9" s="23">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="33">
-        <f>1.4*Ref!B20/28</f>
-        <v>5.8149999999999993E-2</v>
+        <v>111</v>
+      </c>
+      <c r="B10" s="52">
+        <f>1.44/30.23</f>
+        <v>4.7634799867681106E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D10" s="33">
         <v>0</v>
@@ -3913,23 +4577,23 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G10" s="34">
-        <f>26*Ref!B21*Ref!B18</f>
-        <v>8.4912592646351759E-2</v>
+        <f>0.1</f>
+        <v>0.1</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B11">
-        <f>B10</f>
-        <v>5.8149999999999993E-2</v>
+        <f>B9</f>
+        <v>0.05</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3942,16 +4606,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G11" s="23">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B12" s="48">
         <f>AVERAGE(B6:B11)</f>
-        <v>5.1223333333333322E-2</v>
+        <v>4.8112466644613515E-2</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48">
@@ -3965,12 +4629,12 @@
       </c>
       <c r="G12" s="48">
         <f>AVERAGE(G6:G11)</f>
-        <v>7.631009877439196E-2</v>
+        <v>9.5491333333333331E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <f>B$7</f>
@@ -3998,7 +4662,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B16" si="1">B$7</f>
@@ -4026,7 +4690,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -4054,7 +4718,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -4080,15 +4744,15 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B17">
         <v>0.05</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4101,6 +4765,128 @@
       </c>
       <c r="G17">
         <v>0.1152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="49">
+        <f>B20</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="23">
+        <f>(0.56*131.1+10.2)/1000</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G18">
+        <f>G20</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="27">
+        <f>1.2766/28.2</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <f>(0.56*131.1+10.2)/1000</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G19" s="23">
+        <f>(0.092+0.155)/2</f>
+        <v>0.1235</v>
+      </c>
+      <c r="H19">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="53">
+        <f>1.254/28.2</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="23">
+        <f>(0.56*131.1+10.2)/1000</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G20">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H20">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="53">
+        <f>1.2/28.2</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="52">
+        <f>1.37/30.23</f>
+        <v>4.531921931855773E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="53">
+        <f>1.29/28.2</f>
+        <v>4.5744680851063833E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4112,15 +4898,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4134,34 +4920,46 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4174,23 +4972,29 @@
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4198,60 +5002,60 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:I4" si="0">B7</f>
-        <v>1.1200000000000001</v>
+        <f t="shared" ref="B4:K4" si="0">B7</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>7.28E-3</v>
       </c>
       <c r="E4">
+        <f>E7</f>
+        <v>0.10444000000000001</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>0.3548</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="str">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>charcoal</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.152</v>
       </c>
-      <c r="J4" t="str">
-        <f>J11</f>
+      <c r="L4" t="str">
+        <f>L11</f>
         <v>coal coking - IPCC</v>
-      </c>
-      <c r="K4">
-        <f>K7</f>
-        <v>0</v>
-      </c>
-      <c r="L4" t="str">
-        <f>L7</f>
-        <v>charcoal</v>
       </c>
       <c r="M4">
         <f>M7</f>
-        <v>0.10444000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N4" t="str">
+        <f>N7</f>
+        <v>charcoal</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4264,38 +5068,38 @@
       <c r="D5" s="3">
         <v>0.15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
+        <v>0.24</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.3</v>
       </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5">
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5">
         <v>0.5</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5">
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
         <v>0.2</v>
       </c>
-      <c r="J5" t="str">
-        <f>J8</f>
+      <c r="L5" t="str">
+        <f>L8</f>
         <v>coal PCI - JP IPCC</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.3</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>1.3141700000000001</v>
@@ -4308,79 +5112,79 @@
         <v>2.2400000000000003E-2</v>
       </c>
       <c r="E6">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="J6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6">
         <f>(110-36.44)*Ref!B18</f>
         <v>0.264816</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D7" s="22">
         <f>0.013*(56/100)</f>
         <v>7.28E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="21">
+        <v>0.10444000000000001</v>
+      </c>
+      <c r="G7">
         <v>0.3548</v>
       </c>
-      <c r="F7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
         <v>0.152</v>
       </c>
-      <c r="J7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0.10444000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>1.17</v>
@@ -4392,37 +5196,37 @@
         <f>0.04*(0.56)</f>
         <v>2.2400000000000003E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
+        <v>0.24</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="M8">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="33">
         <f>0.85*1.15</f>
@@ -4436,37 +5240,37 @@
         <f>0.04*(0.56)</f>
         <v>2.2400000000000003E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.45300000000000001</v>
       </c>
-      <c r="F9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="J9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4479,38 +5283,39 @@
         <f>0.25*0.56</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E10" s="33">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="E10">
+        <v>0.27</v>
+      </c>
+      <c r="G10" s="33">
+        <f>12.26/30.23</f>
+        <v>0.40555739331789614</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="33">
-        <v>0.16</v>
+        <v>119</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K10" s="33">
+        <f>(1.88+2.13)/47</f>
+        <v>8.5319148936170208E-2</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="M10">
-        <f>0.06*Ref!B20</f>
-        <v>6.9779999999999995E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B11" s="23">
         <v>1.3</v>
@@ -4521,282 +5326,282 @@
       <c r="D11" s="23">
         <v>0.01</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.59</v>
       </c>
-      <c r="F11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3">
         <v>0.11</v>
       </c>
-      <c r="J11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B12" s="49">
         <f>AVERAGE(B6:B11)</f>
-        <v>0.98027833333333325</v>
+        <v>0.97694500000000006</v>
       </c>
       <c r="C12" s="49">
         <f>AVERAGE(C6:C11)</f>
-        <v>0.26382352941176473</v>
+        <v>0.32215686274509808</v>
       </c>
       <c r="D12" s="49">
         <f>AVERAGE(D6:D11)</f>
         <v>3.741333333333334E-2</v>
       </c>
       <c r="E12" s="49">
-        <f>AVERAGE(E6:E11)</f>
-        <v>0.39596666666666663</v>
-      </c>
-      <c r="F12" t="s">
-        <v>116</v>
+        <f>AVERAGE(E5:E11)</f>
+        <v>0.20275085714285715</v>
       </c>
       <c r="G12" s="49">
         <f>AVERAGE(G6:G11)</f>
-        <v>0</v>
+        <v>0.40939289888631603</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I12" s="49">
         <f>AVERAGE(I6:I11)</f>
-        <v>0.1431</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="K12" s="49">
         <f>AVERAGE(K6:K11)</f>
-        <v>0</v>
+        <v>0.13065319148936169</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="M12" s="49">
-        <f>AVERAGE(M5:M11)</f>
-        <v>0.174148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <f>AVERAGE(M6:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:C16" si="1">B$7</f>
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D13" s="50">
         <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:F16" si="2">E$7</f>
+        <f>E$7</f>
+        <v>0.10444000000000001</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:H16" si="2">G$7</f>
         <v>0.3548</v>
       </c>
-      <c r="F13" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="2"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:J16" si="3">I$7</f>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:L16" si="3">K$7</f>
         <v>0.152</v>
       </c>
-      <c r="J13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="3"/>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13">
-        <f>M$7</f>
-        <v>0.10444000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D14" s="50">
         <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E14">
+        <f>E$7</f>
+        <v>0.10444000000000001</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>0.3548</v>
       </c>
-      <c r="F14" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="2"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>0.152</v>
       </c>
-      <c r="J14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="3"/>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14">
-        <f>M$7</f>
-        <v>0.10444000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D15" s="50">
         <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E15">
+        <f>E$7</f>
+        <v>0.10444000000000001</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>0.3548</v>
       </c>
-      <c r="F15" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="2"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>0.152</v>
       </c>
-      <c r="J15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="3"/>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15">
-        <f>M$7</f>
-        <v>0.10444000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D16" s="50">
         <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
       <c r="E16">
+        <f>E$7</f>
+        <v>0.10444000000000001</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>0.3548</v>
       </c>
-      <c r="F16" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="2"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16">
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>0.152</v>
       </c>
-      <c r="J16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="3"/>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.5</v>
       </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16">
-        <f>M$7</f>
-        <v>0.10444000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B17">
         <v>1.1200000000000001</v>
@@ -4809,45 +5614,262 @@
         <v>7.28E-3</v>
       </c>
       <c r="E17">
+        <v>0.37331999999999999</v>
+      </c>
+      <c r="F17">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G17">
         <v>0.35489999999999999</v>
       </c>
-      <c r="F17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="3">
         <v>0.152</v>
       </c>
-      <c r="J17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="M17">
-        <v>0.37331999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="E18">
+        <v>0.09</v>
+      </c>
+      <c r="G18">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.107</v>
+      </c>
+      <c r="G19">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>0.16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20">
+        <v>1088</v>
+      </c>
+      <c r="C20">
+        <v>358</v>
+      </c>
+      <c r="D20">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F20">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20">
+        <v>0.19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.107</v>
+      </c>
+      <c r="G21">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22">
+        <v>1.2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G22">
+        <f>10.42/30.23</f>
+        <v>0.34469070459808138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23">
+        <v>0.09</v>
+      </c>
+      <c r="G23">
+        <f>11.49/30.23</f>
+        <v>0.38008600727753888</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23">
+        <f>(2.69+1.41)/31.2</f>
+        <v>0.13141025641025642</v>
+      </c>
+      <c r="L23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24">
+        <f>11.04/30.23</f>
+        <v>0.36520013231888848</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,6 +5883,7 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4938,7 +5961,7 @@
         <v>0.01</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4958,7 +5981,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <f>0.95</f>
@@ -4971,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4994,7 +6017,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <f>0.9058</f>
@@ -5008,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5029,7 +6052,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>0.95</v>
@@ -5041,7 +6064,7 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5061,7 +6084,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="23">
         <v>0.95</v>
@@ -5073,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5090,7 +6113,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="27">
         <f>53.4/62.7</f>
@@ -5100,11 +6123,12 @@
         <f>17/62.7</f>
         <v>0.27113237639553428</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" s="21">
+        <f>0.43/47.1</f>
+        <v>9.1295116772823776E-3</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5116,8 +6140,7 @@
         <v>0.04</v>
       </c>
       <c r="I10">
-        <f>0.04*Ref!B20</f>
-        <v>4.6519999999999999E-2</v>
+        <v>0.13</v>
       </c>
       <c r="J10" s="23">
         <v>7.0000000000000007E-2</v>
@@ -5125,7 +6148,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B11" s="23">
         <v>0.95</v>
@@ -5137,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F11" s="23">
         <v>0</v>
@@ -5155,7 +6178,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:J16" si="0">B$7</f>
@@ -5196,7 +6219,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -5237,7 +6260,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -5278,7 +6301,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -5319,7 +6342,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>0.90580000000000005</v>
@@ -5332,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -5353,151 +6376,73 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6">
-        <f>0.75*Electricity!B6</f>
-        <v>0.24480000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10">
-        <f>(0.05+0.33)*Ref!B20</f>
-        <v>0.44194</v>
-      </c>
-      <c r="C10" s="21">
-        <f>(1-81.9/86.4)</f>
-        <v>5.208333333333337E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11:C14" si="0">B$7</f>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20">
+        <f>0.788</f>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C20">
+        <v>0.34</v>
+      </c>
+      <c r="D20">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20">
+        <v>0.03</v>
+      </c>
+      <c r="I20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J20">
+        <f>49.5*Ref!C12</f>
+        <v>7.0667466761845266E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="21">
+        <f>0.4/47.1</f>
+        <v>8.4925690021231421E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -5507,12 +6452,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+      <selection activeCell="A17" sqref="A17:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5570,7 +6515,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5">
         <f>B7</f>
@@ -5583,7 +6528,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5">
         <v>0.87</v>
@@ -5594,7 +6539,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="25">
         <f>B7</f>
@@ -5607,7 +6552,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="25">
         <f>B8</f>
@@ -5620,7 +6565,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="25">
         <f>B9</f>
@@ -5632,7 +6577,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:C15" si="0">B$7</f>
@@ -5645,7 +6590,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -5658,7 +6603,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -5671,7 +6616,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -5684,7 +6629,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -5697,7 +6642,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B16" s="25">
         <f>B15</f>
@@ -5706,6 +6651,36 @@
       <c r="C16" s="25">
         <f>8.2*0.3264</f>
         <v>2.6764799999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5715,12 +6690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5745,7 +6720,7 @@
         <v>59</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
@@ -5754,7 +6729,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -5769,7 +6744,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G2" s="17"/>
     </row>
@@ -5794,21 +6769,21 @@
         <v>0</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5">
-        <v>0.32640000000000002</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5">
         <f>533/1278</f>
@@ -5817,7 +6792,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5">
         <v>0.32</v>
@@ -5826,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F7" s="5">
         <f>57.7/129.5</f>
@@ -5835,7 +6810,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="37">
         <v>0.4773</v>
@@ -5844,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>77</v>
@@ -5856,7 +6831,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="37">
         <v>0.27550000000000002</v>
@@ -5865,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>77</v>
@@ -5877,7 +6852,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="5">
         <f>18/39</f>
@@ -5887,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F10" s="5">
         <f>376/868</f>
@@ -5896,7 +6871,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B11" s="37">
         <f>127/328.7</f>
@@ -5906,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F11" s="5">
         <f>127.5/328.7</f>
@@ -5915,7 +6890,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F12" s="5">
         <f>48/126.8</f>
@@ -5924,7 +6899,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:F17" si="0">B$7</f>
@@ -5949,7 +6924,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -5974,7 +6949,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -5999,7 +6974,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -6024,7 +6999,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -6035,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -6044,10 +7019,290 @@
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0.44555984555984557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:C15" si="0">B$7</f>
+        <v>0.8</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Coke" sheetId="1" r:id="rId1"/>
+    <sheet name="Coke" sheetId="17" r:id="rId1"/>
     <sheet name="Lime" sheetId="2" r:id="rId2"/>
     <sheet name="Pellets" sheetId="3" r:id="rId3"/>
     <sheet name="Sinter" sheetId="4" r:id="rId4"/>
@@ -63,6 +63,30 @@
           </rPr>
           <t xml:space="preserve">
 1/1.6 : http://ietd.iipnetwork.org/content/coke-making</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+from bandwidth study</t>
         </r>
       </text>
     </comment>
@@ -630,7 +654,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="174">
   <si>
     <t>scenario</t>
   </si>
@@ -1103,9 +1127,6 @@
     <t>US-SOA</t>
   </si>
   <si>
-    <t>electricity use from bandwidth study</t>
-  </si>
-  <si>
     <t>t O2 / t hot metal</t>
   </si>
   <si>
@@ -1142,9 +1163,6 @@
     <t>US practical minimum</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>EU-EAF-base-2050</t>
   </si>
   <si>
@@ -1155,6 +1173,9 @@
   </si>
   <si>
     <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2010</t>
+  </si>
+  <si>
+    <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2050</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1187,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1306,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1751,22 +1785,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1796,16 +1831,23 @@
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1817,6 +1859,9 @@
         <f>C7</f>
         <v>0.126</v>
       </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -1824,7 +1869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1844,7 +1889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -1864,7 +1909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1885,7 +1930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -1906,7 +1951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -1926,7 +1971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -1946,11 +1991,8 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -1972,16 +2014,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="21">
-        <f>B$7</f>
+        <f t="shared" ref="B12:D15" si="0">B$7</f>
         <v>0.77808901338313108</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" ref="C12:D22" si="0">C$7</f>
+        <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
       <c r="D12" s="21" t="str">
@@ -1995,12 +2037,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
       <c r="B13" s="21">
-        <f t="shared" ref="B13:B15" si="1">B$7</f>
+        <f t="shared" si="0"/>
         <v>0.77808901338313108</v>
       </c>
       <c r="C13" s="21">
@@ -2018,12 +2060,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77808901338313108</v>
       </c>
       <c r="C14" s="21">
@@ -2041,12 +2083,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77808901338313108</v>
       </c>
       <c r="C15" s="21">
@@ -2064,7 +2106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -2097,7 +2139,7 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D17:D22" si="1">D$7</f>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E17">
@@ -2109,7 +2151,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B18" s="54">
         <f>0.83</f>
@@ -2119,7 +2161,7 @@
         <v>0.02</v>
       </c>
       <c r="D18" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E18">
@@ -2131,7 +2173,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="48">
         <f>1/1.22</f>
@@ -2141,7 +2183,7 @@
         <v>0.02</v>
       </c>
       <c r="D19" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E19">
@@ -2163,7 +2205,7 @@
         <v>0.1</v>
       </c>
       <c r="D20" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E20">
@@ -2185,7 +2227,7 @@
         <v>0.02</v>
       </c>
       <c r="D21" s="21" t="str">
-        <f t="shared" ref="D21:E21" si="2">D$7</f>
+        <f t="shared" si="1"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E21">
@@ -2203,8 +2245,11 @@
         <f>30.23/(30.23+2)</f>
         <v>0.93794601303133718</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E22">
@@ -2237,25 +2282,93 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="52">
         <f>30.23/(30.23+2.23)</f>
         <v>0.93130006161429446</v>
       </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="54">
+        <f>0.83</f>
+        <v>0.83</v>
+      </c>
+      <c r="C25">
+        <v>0.02</v>
+      </c>
+      <c r="D25" s="21" t="str">
+        <f t="shared" ref="D25" si="2">D$7</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>170</v>
+      </c>
+      <c r="B26" s="48">
+        <f>1/1.22</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C26">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="21" t="str">
+        <f t="shared" ref="D26" si="3">D$7</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="21">
+        <f>1/1.2852</f>
+        <v>0.77808901338313108</v>
+      </c>
+      <c r="C27">
+        <v>0.126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2648,7 +2761,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,7 +2976,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2893,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,30 +3193,126 @@
       <c r="A15" t="s">
         <v>151</v>
       </c>
+      <c r="B15" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>156</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +3326,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,10 +3367,10 @@
         <v>148</v>
       </c>
       <c r="I1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
         <v>163</v>
-      </c>
-      <c r="J1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3181,7 +3390,7 @@
         <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3298,7 +3507,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3327,7 +3536,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3356,7 +3565,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3387,6 +3596,9 @@
       <c r="A11" t="s">
         <v>143</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>1.454</v>
       </c>
@@ -3401,6 +3613,9 @@
       </c>
       <c r="G11" t="s">
         <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2.5000000000000001E-2</v>
@@ -3410,6 +3625,9 @@
       <c r="A12" t="s">
         <v>153</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>1.33</v>
       </c>
@@ -3424,12 +3642,18 @@
       </c>
       <c r="G12" t="s">
         <v>23</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>156</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>1.71</v>
       </c>
@@ -3446,10 +3670,16 @@
       <c r="G13" t="s">
         <v>23</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1.65</v>
@@ -3467,10 +3697,16 @@
       <c r="G14" t="s">
         <v>23</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>1.44</v>
@@ -3480,6 +3716,15 @@
       </c>
       <c r="E15" t="s">
         <v>120</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3711,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3919,6 +4164,56 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
+      </c>
+      <c r="B18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.108</v>
       </c>
     </row>
   </sheetData>
@@ -3934,7 +4229,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4310,12 +4605,52 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="B18">
+        <f>0.6/28.2</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <f>0.018*0.56</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G18">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>151</v>
+      </c>
+      <c r="B19">
+        <f>0.6/28.2</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <f>0.018*0.56</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4367,10 +4702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4882,11 +5217,37 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="53">
         <f>1.29/28.2</f>
         <v>4.5744680851063833E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="49">
+        <f>0.044</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="23">
+        <f>(0.56*131.1+10.2)/1000</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G24">
+        <f>G26</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4905,6 +5266,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4950,10 +5314,10 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" t="s">
         <v>161</v>
-      </c>
-      <c r="P1" t="s">
-        <v>162</v>
       </c>
       <c r="Q1" t="s">
         <v>2</v>
@@ -4976,7 +5340,7 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -5679,12 +6043,12 @@
         <v>23</v>
       </c>
       <c r="Q18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="23">
         <v>1.3</v>
@@ -5850,7 +6214,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24">
         <f>11.04/30.23</f>
@@ -5869,7 +6233,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B18" sqref="B18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6380,10 +6744,70 @@
       <c r="A17" t="s">
         <v>151</v>
       </c>
+      <c r="B17">
+        <f>0.9058</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C17">
+        <f>0.1169+0.0731</f>
+        <v>0.19</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="21">
+        <f>0.9136*(0.0755+0.0118)</f>
+        <v>7.975728E-2</v>
+      </c>
+      <c r="I17">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J17">
+        <v>7.4236999999999997E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="B18">
+        <f>0.9058</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C18">
+        <f>0.1169+0.0731</f>
+        <v>0.19</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="21">
+        <f>0.9136*(0.0755+0.0118)</f>
+        <v>7.975728E-2</v>
+      </c>
+      <c r="I18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J18">
+        <v>7.4236999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -6454,10 +6878,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6653,34 +7077,79 @@
         <v>2.6764799999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.3869199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.3869199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6694,8 +7163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6801,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="F7" s="5">
         <f>57.7/129.5</f>
@@ -6911,7 +7380,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
+        <v>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2010</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -6936,7 +7405,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
+        <v>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2010</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -6961,7 +7430,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
+        <v>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2010</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -6986,7 +7455,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>natural gas - IPCC</v>
+        <v>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2010</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -7029,39 +7498,55 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>169</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>170</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>166</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>156</v>
-      </c>
+      <c r="D23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7279,7 +7764,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="17" r:id="rId1"/>
@@ -90,6 +90,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="B43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1/1.6 : http://ietd.iipnetwork.org/content/coke-making</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C68" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+from bandwidth study</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -124,6 +172,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.epa.gov/sites/production/files/2015-02/documents/tsd_iron_and_steel_epa_9-8-08.pdf</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -135,6 +207,30 @@
   </authors>
   <commentList>
     <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+from other Kuronov study: https://link.springer.com/content/pdf/10.1007%2Fs11015-010-9247-8.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,6 +448,96 @@
             <family val="2"/>
           </rPr>
           <t>0.141 is oil. Nat gas not in SoA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+possibly *also* 43 m3/t HM? Unlcear if they're cumulative
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:
+increased from 0.162 to account for also 0.03 of oil and 0.002 of nat gas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+possibly *also* 43 m3/t HM? Unlcear if they're cumulative
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+possibly *also* 43 m3/t HM? Unlcear if they're cumulative
+</t>
         </r>
       </text>
     </comment>
@@ -654,7 +840,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="241">
   <si>
     <t>scenario</t>
   </si>
@@ -1176,6 +1362,207 @@
   </si>
   <si>
     <t>PROXY fuel mix (1:1 energy:mass unit)- Eurofer Electricity 2050</t>
+  </si>
+  <si>
+    <t>EU-EAF-2015</t>
+  </si>
+  <si>
+    <t>EU-EAF-2030</t>
+  </si>
+  <si>
+    <t>EU-EAFB-2030</t>
+  </si>
+  <si>
+    <t>EU-EAF-2050</t>
+  </si>
+  <si>
+    <t>EU-EAFB-2050</t>
+  </si>
+  <si>
+    <t>CH-EAF-2015</t>
+  </si>
+  <si>
+    <t>CH-EAF-2030</t>
+  </si>
+  <si>
+    <t>CH-EAFB-2030</t>
+  </si>
+  <si>
+    <t>CH-EAF-2050</t>
+  </si>
+  <si>
+    <t>CH-EAFB-2050</t>
+  </si>
+  <si>
+    <t>wood chips</t>
+  </si>
+  <si>
+    <t>EU BAT Average</t>
+  </si>
+  <si>
+    <t>EU BAT Minimum</t>
+  </si>
+  <si>
+    <t>Own projection based on US Bandwidth Study</t>
+  </si>
+  <si>
+    <t>He et al</t>
+  </si>
+  <si>
+    <t>rice husk</t>
+  </si>
+  <si>
+    <t>US bandwidth study (2015)</t>
+  </si>
+  <si>
+    <t>EU-BAT-min</t>
+  </si>
+  <si>
+    <t>EU-BAT-avg</t>
+  </si>
+  <si>
+    <t>4200MJ</t>
+  </si>
+  <si>
+    <t>3300MJ</t>
+  </si>
+  <si>
+    <t>Annual Shaft Kiln</t>
+  </si>
+  <si>
+    <t>Mixed Shaft Kiln</t>
+  </si>
+  <si>
+    <t>EU-BAT-max</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.apenergy.2015.04.091</t>
+  </si>
+  <si>
+    <t>http://www.infomine.ru/files/catalog/223/file_223_eng.pdf</t>
+  </si>
+  <si>
+    <t>GJ/t Pellet</t>
+  </si>
+  <si>
+    <t>EU-0B-2015</t>
+  </si>
+  <si>
+    <t>EU-0B-2030</t>
+  </si>
+  <si>
+    <t>EU-0B-2050</t>
+  </si>
+  <si>
+    <t>EU-IB-2015</t>
+  </si>
+  <si>
+    <t>EU-IB-2030</t>
+  </si>
+  <si>
+    <t>EU-CB-2015</t>
+  </si>
+  <si>
+    <t>EU-CB-2030</t>
+  </si>
+  <si>
+    <t>EU-CB-2050</t>
+  </si>
+  <si>
+    <t>EU-TB-2015</t>
+  </si>
+  <si>
+    <t>EU-FB-2015</t>
+  </si>
+  <si>
+    <t>CH-0B-2015</t>
+  </si>
+  <si>
+    <t>CH-0B-2030</t>
+  </si>
+  <si>
+    <t>CH-0B-2050</t>
+  </si>
+  <si>
+    <t>CH-IB-2015</t>
+  </si>
+  <si>
+    <t>CH-IB-2030</t>
+  </si>
+  <si>
+    <t>CH-CB-2015</t>
+  </si>
+  <si>
+    <t>CH-CB-2030</t>
+  </si>
+  <si>
+    <t>CH-CB-2050</t>
+  </si>
+  <si>
+    <t>CH-TB-2015</t>
+  </si>
+  <si>
+    <t>CH-FB-2015</t>
+  </si>
+  <si>
+    <t>JP-0B-2015</t>
+  </si>
+  <si>
+    <t>JP-IB-2015</t>
+  </si>
+  <si>
+    <t>JP-CB-2015</t>
+  </si>
+  <si>
+    <t>JP-TB-2015</t>
+  </si>
+  <si>
+    <t>JP-FB-2015</t>
+  </si>
+  <si>
+    <t>RU-0B-2015</t>
+  </si>
+  <si>
+    <t>RU-IB-2015</t>
+  </si>
+  <si>
+    <t>RU-CB-2015</t>
+  </si>
+  <si>
+    <t>RU-TB-2015</t>
+  </si>
+  <si>
+    <t>RU-FB-2015</t>
+  </si>
+  <si>
+    <t>US-0B-2015</t>
+  </si>
+  <si>
+    <t>US-IB-2015</t>
+  </si>
+  <si>
+    <t>US-CB-2015</t>
+  </si>
+  <si>
+    <t>US-TB-2015</t>
+  </si>
+  <si>
+    <t>US-FB-2015</t>
+  </si>
+  <si>
+    <t>IN-0B-2015</t>
+  </si>
+  <si>
+    <t>IN-IB-2015</t>
+  </si>
+  <si>
+    <t>IN-CB-2015</t>
+  </si>
+  <si>
+    <t>IN-TB-2015</t>
+  </si>
+  <si>
+    <t>IN-FB-2015</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1574,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1707,50 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1341,7 +1772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1429,6 +1860,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1436,7 +1876,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1489,7 +1929,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1502,6 +1941,79 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1785,15 +2297,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1801,7 +2316,7 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,8 +2335,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1835,7 +2353,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1847,8 +2365,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="21">
@@ -1869,8 +2387,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B5">
@@ -1889,8 +2407,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B6">
@@ -1909,8 +2427,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="21">
@@ -1930,8 +2448,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="21">
@@ -1951,71 +2469,71 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="60">
         <v>0.7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="61">
         <v>0.2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="62">
+        <v>0</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="63">
         <f>24.7/32</f>
         <v>0.77187499999999998</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="62">
         <v>0.12</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="62">
+        <v>0</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="64">
         <f>AVERAGE(B6:B10)</f>
         <v>0.74065294253676606</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="62">
         <f>AVERAGE(C6:C10)</f>
         <v>0.12720000000000001</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="62">
+        <v>0</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="21">
@@ -2037,8 +2555,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B13" s="21">
@@ -2060,8 +2578,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="21">
@@ -2083,8 +2601,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="21">
@@ -2106,11 +2624,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="48">
         <f>1/1.2852</f>
         <v>0.77808901338313108</v>
       </c>
@@ -2128,8 +2646,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B17">
@@ -2149,11 +2667,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="53">
         <f>0.83</f>
         <v>0.83</v>
       </c>
@@ -2171,11 +2689,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="47">
         <f>1/1.22</f>
         <v>0.81967213114754101</v>
       </c>
@@ -2193,8 +2711,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="21">
@@ -2215,11 +2733,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="47">
         <f>1/1.22</f>
         <v>0.81967213114754101</v>
       </c>
@@ -2237,11 +2755,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="51">
         <f>30.23/(30.23+2)</f>
         <v>0.93794601303133718</v>
       </c>
@@ -2259,18 +2777,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="51">
         <f>(B10-3.16/3.24*B10)+B10</f>
         <v>0.79093364197530858</v>
       </c>
       <c r="C23">
         <v>0.1</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>123</v>
       </c>
       <c r="E23">
@@ -2280,18 +2798,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="51">
         <f>30.23/(30.23+2.23)</f>
         <v>0.93130006161429446</v>
       </c>
       <c r="C24">
         <v>0.1</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="46" t="s">
         <v>123</v>
       </c>
       <c r="E24">
@@ -2301,11 +2819,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="53">
         <f>0.83</f>
         <v>0.83</v>
       </c>
@@ -2323,11 +2841,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="47">
         <f>1/1.22</f>
         <v>0.81967213114754101</v>
       </c>
@@ -2345,44 +2863,1187 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="31">
         <f>1/1.2852</f>
         <v>0.77808901338313108</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="30">
         <v>0.126</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="96">
+        <f>1/1.3</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C28" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="99">
+        <v>0</v>
+      </c>
+      <c r="F28" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="71">
+        <f>1/1.22</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C29" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="72">
+        <v>0.84</v>
+      </c>
+      <c r="C30" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="21">
+        <f>B$28</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C31" s="21">
+        <f>C$28</f>
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="21" t="str">
+        <f>D$28</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="47">
+        <f>B$29</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C32">
+        <f>C$29</f>
+        <v>0.02</v>
+      </c>
+      <c r="D32" t="str">
+        <f>D$29</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="21">
+        <f>B$28</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C33" s="21">
+        <f>C$28</f>
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="21" t="str">
+        <f>D$28</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E33" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="47">
+        <f>B$29</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C34">
+        <f>C$29</f>
+        <v>0.02</v>
+      </c>
+      <c r="D34" t="str">
+        <f>D$29</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E34" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35">
+        <f>B$30</f>
+        <v>0.84</v>
+      </c>
+      <c r="C35">
+        <f>C$30</f>
+        <v>0.02</v>
+      </c>
+      <c r="D35" t="str">
+        <f>D$30</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E35" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="21">
+        <f t="shared" ref="B36:D38" si="4">B$28</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C36" s="21">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E36" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="21">
+        <f t="shared" si="4"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C37" s="21">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E37" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="21">
+        <f t="shared" si="4"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C38" s="21">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="47">
+        <f>B$29</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C39">
+        <f>C$29</f>
+        <v>0.02</v>
+      </c>
+      <c r="D39" t="str">
+        <f>D$29</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="47">
+        <f>B$29</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C40">
+        <f>C$29</f>
+        <v>0.02</v>
+      </c>
+      <c r="D40" t="str">
+        <f>D$29</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E40" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41">
+        <f>B$30</f>
+        <v>0.84</v>
+      </c>
+      <c r="C41">
+        <f>C$30</f>
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="str">
+        <f>D$30</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="66">
+        <f>B$30</f>
+        <v>0.84</v>
+      </c>
+      <c r="C42" s="66">
+        <f>C$30</f>
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="66" t="str">
+        <f>D$30</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E42" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="F42" s="66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="86">
+        <f>1/1.3</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C44" s="72">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="85">
+        <f>1/1.22</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C45" s="72">
+        <v>0.02</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46">
+        <f>B$43</f>
+        <v>0.754</v>
+      </c>
+      <c r="C46">
+        <f>C$43</f>
+        <v>0</v>
+      </c>
+      <c r="D46" t="str">
+        <f>D$43</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="21">
+        <f>B$44</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C47" s="21">
+        <f>C$44</f>
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="21" t="str">
+        <f>D$44</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48">
+        <f>B$43</f>
+        <v>0.754</v>
+      </c>
+      <c r="C48">
+        <f>C$43</f>
+        <v>0</v>
+      </c>
+      <c r="D48" t="str">
+        <f>D$43</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E48" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="21">
+        <f>B$44</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C49" s="21">
+        <f>C$44</f>
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="21" t="str">
+        <f>D$44</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E49" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="47">
+        <f>B$45</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C50" s="47">
+        <f>C$45</f>
+        <v>0.02</v>
+      </c>
+      <c r="D50" s="47" t="str">
+        <f>D$45</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E50" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51">
+        <f>B$43</f>
+        <v>0.754</v>
+      </c>
+      <c r="C51">
+        <f>C$43</f>
+        <v>0</v>
+      </c>
+      <c r="D51" t="str">
+        <f>D$43</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E51" s="56">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:D52" si="5">B$43</f>
+        <v>0.754</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="5"/>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E52" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53">
+        <f>B$43</f>
+        <v>0.754</v>
+      </c>
+      <c r="C53">
+        <f>C$43</f>
+        <v>0</v>
+      </c>
+      <c r="D53" t="str">
+        <f>D$43</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="21">
+        <f>B$44</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C54" s="21">
+        <f>C$44</f>
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="21" t="str">
+        <f>D$44</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="21">
+        <f>B$44</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C55" s="21">
+        <f>C$44</f>
+        <v>0.1</v>
+      </c>
+      <c r="D55" s="21" t="str">
+        <f>D$44</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E55" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="47">
+        <f>B$45</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C56" s="47">
+        <f>C$45</f>
+        <v>0.02</v>
+      </c>
+      <c r="D56" s="47" t="str">
+        <f>D$45</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="87">
+        <f>B$45</f>
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C57" s="87">
+        <f>C$45</f>
+        <v>0.02</v>
+      </c>
+      <c r="D57" s="87" t="str">
+        <f>D$45</f>
+        <v>coal coking - CN</v>
+      </c>
+      <c r="E57" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="F57" s="66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="75">
+        <f>1/1.43</f>
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="21">
+        <f t="shared" ref="B59:B62" si="6">B$58</f>
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="C59" s="21">
+        <f t="shared" ref="C59:D62" si="7">C$58</f>
+        <v>0.19</v>
+      </c>
+      <c r="D59" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>coal coking - JP IPCC</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="21">
+        <f t="shared" si="6"/>
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="C60" s="21">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="D60" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>coal coking - JP IPCC</v>
+      </c>
+      <c r="E60" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="21">
+        <f t="shared" si="6"/>
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="C61" s="21">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="D61" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>coal coking - JP IPCC</v>
+      </c>
+      <c r="E61" s="56">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="65">
+        <f t="shared" si="6"/>
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="C62" s="65">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="D62" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v>coal coking - JP IPCC</v>
+      </c>
+      <c r="E62" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="F62" s="66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="76">
+        <v>0.7</v>
+      </c>
+      <c r="C63" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="D63" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="21">
+        <f t="shared" ref="B64:B67" si="8">B$63</f>
+        <v>0.7</v>
+      </c>
+      <c r="C64" s="21">
+        <f t="shared" ref="C64:D67" si="9">C$63</f>
+        <v>0.2</v>
+      </c>
+      <c r="D64" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>coal hard - RU</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="21">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="C65" s="21">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="D65" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>coal hard - RU</v>
+      </c>
+      <c r="E65" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="21">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="C66" s="21">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="D66" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>coal hard - RU</v>
+      </c>
+      <c r="E66" s="56">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="65">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="C67" s="65">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="D67" s="65" t="str">
+        <f t="shared" si="9"/>
+        <v>coal hard - RU</v>
+      </c>
+      <c r="E67" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="F67" s="66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68" s="79">
+        <f>24.7/32</f>
+        <v>0.77187499999999998</v>
+      </c>
+      <c r="C68" s="78">
+        <v>0.12</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="21">
+        <f t="shared" ref="B69:B72" si="10">B$68</f>
+        <v>0.77187499999999998</v>
+      </c>
+      <c r="C69" s="21">
+        <f t="shared" ref="C69:D72" si="11">C$68</f>
+        <v>0.12</v>
+      </c>
+      <c r="D69" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>coal coking - US</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="21">
+        <f t="shared" si="10"/>
+        <v>0.77187499999999998</v>
+      </c>
+      <c r="C70" s="21">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+      <c r="D70" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>coal coking - US</v>
+      </c>
+      <c r="E70" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" s="21">
+        <f t="shared" si="10"/>
+        <v>0.77187499999999998</v>
+      </c>
+      <c r="C71" s="21">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+      <c r="D71" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>coal coking - US</v>
+      </c>
+      <c r="E71" s="56">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" s="65">
+        <f t="shared" si="10"/>
+        <v>0.77187499999999998</v>
+      </c>
+      <c r="C72" s="65">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+      <c r="D72" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v>coal coking - US</v>
+      </c>
+      <c r="E72" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="F72" s="66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C73" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="D73" s="75" t="str">
+        <f t="shared" ref="D73" si="12">D$7</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="21">
+        <f t="shared" ref="B74:B77" si="13">B$73</f>
+        <v>0.7</v>
+      </c>
+      <c r="C74" s="21">
+        <f t="shared" ref="C74:D77" si="14">C$73</f>
+        <v>0.2</v>
+      </c>
+      <c r="D74" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="21">
+        <f t="shared" si="13"/>
+        <v>0.7</v>
+      </c>
+      <c r="C75" s="21">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="D75" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E75" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="21">
+        <f t="shared" si="13"/>
+        <v>0.7</v>
+      </c>
+      <c r="C76" s="21">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="D76" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E76" s="56">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="65">
+        <f t="shared" si="13"/>
+        <v>0.7</v>
+      </c>
+      <c r="C77" s="65">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="D77" s="65" t="str">
+        <f t="shared" si="14"/>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E77" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="F77" s="66" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2782,6 +4443,256 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="67" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2792,13 +4703,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
@@ -2997,6 +4911,256 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="67" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3006,15 +5170,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -3313,6 +5477,256 @@
       </c>
       <c r="D23" s="23" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="67" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3323,10 +5737,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,6 +6139,56 @@
       </c>
       <c r="H15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3956,18 +6420,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="81" customWidth="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3977,11 +6448,17 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3992,17 +6469,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4013,7 +6490,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -4024,7 +6501,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4035,7 +6512,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4046,7 +6523,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -4057,11 +6534,11 @@
         <f>17*Ref!B18</f>
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -4072,7 +6549,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -4085,7 +6562,7 @@
         <v>9.8639999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -4098,7 +6575,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -4111,7 +6588,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -4124,7 +6601,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -4137,7 +6614,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -4149,54 +6626,72 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17">
+        <f>5*Ref!B18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18">
+        <v>0.05</v>
+      </c>
+      <c r="C18">
+        <f>25*Ref!B18</f>
+        <v>0.09</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19">
+        <v>0.05</v>
+      </c>
+      <c r="C19">
+        <f>40*Ref!B18</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>127</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <f>0.07</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C17">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C18">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C19">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="C20">
         <v>0.108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>7.0000000000000007E-2</v>
@@ -4205,9 +6700,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B22">
         <v>7.0000000000000007E-2</v>
@@ -4216,25 +6711,742 @@
         <v>0.108</v>
       </c>
     </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.108</v>
+      </c>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+    </row>
+    <row r="26" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="98">
+        <v>0.09</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="80">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="80">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29">
+        <f>B$26</f>
+        <v>0.05</v>
+      </c>
+      <c r="C29">
+        <f>C$26</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30">
+        <f>B$27</f>
+        <v>0.05</v>
+      </c>
+      <c r="C30">
+        <f>C$27</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:C31" si="2">B$26</f>
+        <v>0.05</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32">
+        <f>B$27</f>
+        <v>0.05</v>
+      </c>
+      <c r="C32">
+        <f>C$27</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33">
+        <f>B$28</f>
+        <v>0.05</v>
+      </c>
+      <c r="C33">
+        <f>C$28</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:C34" si="3">B$26</f>
+        <v>0.05</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:C35" si="4">B$26</f>
+        <v>0.05</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36">
+        <f>B$26</f>
+        <v>0.05</v>
+      </c>
+      <c r="C36">
+        <f>C$26</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37">
+        <f>B$27</f>
+        <v>0.05</v>
+      </c>
+      <c r="C37">
+        <f>C$27</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38">
+        <f>B$27</f>
+        <v>0.05</v>
+      </c>
+      <c r="C38">
+        <f>C$27</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39">
+        <f>B$28</f>
+        <v>0.05</v>
+      </c>
+      <c r="C39">
+        <f>C$28</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="66">
+        <f>B$28</f>
+        <v>0.05</v>
+      </c>
+      <c r="C40" s="66">
+        <f>C$28</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C41" s="1">
+        <f>45*Ref!B18</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D41" s="82">
+        <v>150</v>
+      </c>
+      <c r="E41" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C42" s="1">
+        <f>18*Ref!B18</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="D42" s="82">
+        <v>130</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="80">
+        <v>0.05</v>
+      </c>
+      <c r="C43" s="80">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="E43" s="82"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44">
+        <f>B$41</f>
+        <v>0.05</v>
+      </c>
+      <c r="C44">
+        <f>C$41</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <f>B$42</f>
+        <v>0.05</v>
+      </c>
+      <c r="C45">
+        <f>C$42</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46">
+        <f>B$41</f>
+        <v>0.05</v>
+      </c>
+      <c r="C46">
+        <f>C$41</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47">
+        <f>B$42</f>
+        <v>0.05</v>
+      </c>
+      <c r="C47">
+        <f>C$42</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48">
+        <f>B$43</f>
+        <v>0.05</v>
+      </c>
+      <c r="C48">
+        <f>C$43</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49">
+        <f>B$41</f>
+        <v>0.05</v>
+      </c>
+      <c r="C49">
+        <f>C$41</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50:C50" si="5">B$41</f>
+        <v>0.05</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51">
+        <f>B$41</f>
+        <v>0.05</v>
+      </c>
+      <c r="C51">
+        <f>C$41</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52">
+        <f>B$42</f>
+        <v>0.05</v>
+      </c>
+      <c r="C52">
+        <f>C$42</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53">
+        <f>B$42</f>
+        <v>0.05</v>
+      </c>
+      <c r="C53">
+        <f>C$42</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54">
+        <f>B$43</f>
+        <v>0.05</v>
+      </c>
+      <c r="C54">
+        <f>C$43</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="66">
+        <f>B$43</f>
+        <v>0.05</v>
+      </c>
+      <c r="C55" s="66">
+        <f>C$43</f>
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="80">
+        <v>0.05</v>
+      </c>
+      <c r="C56" s="80">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:C60" si="6">B$56</f>
+        <v>0.05</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="66">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="C60" s="66">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61">
+        <v>0.05</v>
+      </c>
+      <c r="C61">
+        <f>17*Ref!B18</f>
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62:C65" si="7">B$61</f>
+        <v>0.05</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="7"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="7"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="7"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="66">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="C65" s="66">
+        <f t="shared" si="7"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C66" s="77">
+        <f>20*Ref!B18</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="62">
+        <f t="shared" ref="B67:C70" si="8">B$66</f>
+        <v>0.05</v>
+      </c>
+      <c r="C67" s="62">
+        <f t="shared" si="8"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" s="62">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="C68" s="62">
+        <f t="shared" si="8"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" s="62">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="C69" s="62">
+        <f t="shared" si="8"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" s="84">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="C70" s="84">
+        <f t="shared" si="8"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" s="80">
+        <v>0.05</v>
+      </c>
+      <c r="C71" s="80">
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="62">
+        <f t="shared" ref="B72:C75" si="9">B$71</f>
+        <v>0.05</v>
+      </c>
+      <c r="C72" s="62">
+        <f t="shared" si="9"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="62">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="C73" s="62">
+        <f t="shared" si="9"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="62">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="C74" s="62">
+        <f t="shared" si="9"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="84">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="C75" s="84">
+        <f t="shared" si="9"/>
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId1"/>
+    <hyperlink ref="F41" r:id="rId2" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F42" r:id="rId3" tooltip="Persistent link using digital object identifier"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -4263,11 +7475,17 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4279,7 +7497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4302,7 +7520,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -4325,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4347,10 +7565,10 @@
         <v>1.008E-2</v>
       </c>
       <c r="G7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4366,14 +7584,14 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="33">
         <v>0.3</v>
       </c>
       <c r="G8">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -4396,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -4423,7 +7641,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -4441,10 +7659,10 @@
       </c>
       <c r="G11">
         <f>AVERAGE(G6:G10)</f>
-        <v>15.047999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.3000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -4470,10 +7688,10 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -4498,10 +7716,10 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -4526,10 +7744,10 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -4554,10 +7772,10 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -4580,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -4603,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -4625,10 +7843,11 @@
         <v>1.008E-2</v>
       </c>
       <c r="G18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f>0.075</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -4650,16 +7869,17 @@
         <v>1.008E-2</v>
       </c>
       <c r="G19">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <f>0.075</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>152</v>
       </c>
       <c r="B20">
-        <f>0.5/28.2</f>
-        <v>1.7730496453900711E-2</v>
+        <f>0.563/28.2</f>
+        <v>1.9964539007092198E-2</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
@@ -4675,23 +7895,1411 @@
         <v>1.008E-2</v>
       </c>
       <c r="G20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f>0.075</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>0.563/28.2</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G21">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>156</v>
       </c>
+    </row>
+    <row r="24" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="99">
+        <f>0.563/28.2</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="99">
+        <v>0</v>
+      </c>
+      <c r="E24" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="99">
+        <f>0.018*0.56</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G24" s="99">
+        <f>0.075</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25">
+        <f>0.563/28.2</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26">
+        <f>0.563/28.2</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="G26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27">
+        <f>B$24</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C27" t="str">
+        <f>C$24</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D27">
+        <f>D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F27">
+        <f>F$24</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G27">
+        <f>G$24</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28">
+        <f>B$25</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:G28" si="3">C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29">
+        <f>B$24</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C29" t="str">
+        <f>C$24</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D29" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E29" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F29">
+        <f>F$24</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G29">
+        <f>G$24</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30">
+        <f>B$25</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ref="C30:G31" si="4">C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D30" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31">
+        <f>B$25</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="4"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D31" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32">
+        <f>B$24</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C32" t="str">
+        <f>C$24</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D32" s="56">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F32">
+        <f>F$24</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G32">
+        <f>G$24</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33">
+        <f>B$24</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C33" t="str">
+        <f>C$24</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D33" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33">
+        <f>F$24</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G33">
+        <f>G$24</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34">
+        <f>B$24</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C34" t="str">
+        <f>C$24</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D34" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34">
+        <f>F$24</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G34">
+        <f>G$24</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35">
+        <f>B$25</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" ref="C35:G36" si="5">C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="5"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36">
+        <f>B$25</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="5"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D36" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="5"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37">
+        <f>B$25</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37:G38" si="6">C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D37" s="56">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="6"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="66">
+        <f>B$25</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C38" s="66" t="str">
+        <f t="shared" si="6"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D38" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="66" t="str">
+        <f t="shared" si="6"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F38" s="66">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="G38" s="66">
+        <f t="shared" si="6"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="80">
+        <v>0.01</v>
+      </c>
+      <c r="G39" s="80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="80">
+        <f>0.563/28.2</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="80">
+        <f>0.018*0.56</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G40" s="80">
+        <f>0.075</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="80">
+        <f>0.563/28.2</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="80">
+        <v>0.01</v>
+      </c>
+      <c r="G41" s="80">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42">
+        <f>B$41</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C42" t="str">
+        <f>C$41</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D42">
+        <f>D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F42">
+        <f>F$41</f>
+        <v>0.01</v>
+      </c>
+      <c r="G42">
+        <f>G$41</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43">
+        <f>B$40</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C43" t="str">
+        <f>C$40</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:E43" si="7">D$25</f>
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="7"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F43">
+        <f>F$40</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G43">
+        <f>G$40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44">
+        <f>B$39</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C44" t="str">
+        <f>C$39</f>
+        <v>coke - CN</v>
+      </c>
+      <c r="D44" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E44" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F44">
+        <f>F$39</f>
+        <v>0.01</v>
+      </c>
+      <c r="G44">
+        <f>G$39</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45">
+        <f>B$40</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C45" t="str">
+        <f>C$40</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D45" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ref="E45:E46" si="8">E$25</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F45">
+        <f>F$40</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G45">
+        <f>G$40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46">
+        <f>B$41</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C46" t="str">
+        <f>C$41</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D46" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="8"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F46">
+        <f>F$41</f>
+        <v>0.01</v>
+      </c>
+      <c r="G46">
+        <f>G$41</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47">
+        <f>B$39</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C47" t="str">
+        <f>C$39</f>
+        <v>coke - CN</v>
+      </c>
+      <c r="D47" s="56">
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F47">
+        <f>F$39</f>
+        <v>0.01</v>
+      </c>
+      <c r="G47">
+        <f>G$39</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f>B$39</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C48" t="str">
+        <f>C$39</f>
+        <v>coke - CN</v>
+      </c>
+      <c r="D48" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48">
+        <f>F$39</f>
+        <v>0.01</v>
+      </c>
+      <c r="G48">
+        <f>G$39</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49">
+        <f>B$39</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C49" t="str">
+        <f>C$39</f>
+        <v>coke - CN</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49">
+        <f>F$39</f>
+        <v>0.01</v>
+      </c>
+      <c r="G49">
+        <f>G$39</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50">
+        <f>B$40</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C50" t="str">
+        <f>C$40</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:E53" si="9">D$25</f>
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="9"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F50">
+        <f>F$40</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G50">
+        <f>G$40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51">
+        <f>B$40</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C51" t="str">
+        <f>C$40</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D51" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="9"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F51">
+        <f>F$40</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="G51">
+        <f>G$40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52">
+        <f>B$41</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C52" t="str">
+        <f>C$41</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D52" s="56">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="9"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:G53" si="10">F$41</f>
+        <v>0.01</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="10"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="66">
+        <f>B$41</f>
+        <v>1.9964539007092198E-2</v>
+      </c>
+      <c r="C53" s="66" t="str">
+        <f>C$41</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D53" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="66" t="str">
+        <f t="shared" si="9"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F53" s="66">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="G53" s="66">
+        <f t="shared" si="10"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55">
+        <f>B$54</f>
+        <v>0.01</v>
+      </c>
+      <c r="C55" t="str">
+        <f>C$54</f>
+        <v>coke - JP IPCC</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:E57" si="11">D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="11"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F55">
+        <f>F$54</f>
+        <v>0.3</v>
+      </c>
+      <c r="G55">
+        <f>G$54</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56">
+        <f>B$54</f>
+        <v>0.01</v>
+      </c>
+      <c r="C56" t="str">
+        <f>C$54</f>
+        <v>coke - JP IPCC</v>
+      </c>
+      <c r="D56" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="11"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F56">
+        <f>F$54</f>
+        <v>0.3</v>
+      </c>
+      <c r="G56">
+        <f>G$54</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57">
+        <f>B$54</f>
+        <v>0.01</v>
+      </c>
+      <c r="C57" t="str">
+        <f>C$54</f>
+        <v>coke - JP IPCC</v>
+      </c>
+      <c r="D57" s="56">
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="11"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F57">
+        <f>F$54</f>
+        <v>0.3</v>
+      </c>
+      <c r="G57">
+        <f>G$54</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="66">
+        <f>B$54</f>
+        <v>0.01</v>
+      </c>
+      <c r="C58" s="66" t="str">
+        <f>C$54</f>
+        <v>coke - JP IPCC</v>
+      </c>
+      <c r="D58" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="66">
+        <f>F$54</f>
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="66">
+        <f>G$54</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="80">
+        <v>0.01</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="80">
+        <v>0</v>
+      </c>
+      <c r="G59" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="62">
+        <f>B$59</f>
+        <v>0.01</v>
+      </c>
+      <c r="C60" s="62" t="str">
+        <f>C$59</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:E62" si="12">D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="12"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F60" s="62">
+        <f>F$59</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="62">
+        <f>G$59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="62">
+        <f>B$59</f>
+        <v>0.01</v>
+      </c>
+      <c r="C61" s="62" t="str">
+        <f>C$59</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D61" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="12"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F61" s="62">
+        <f>F$59</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="62">
+        <f>G$59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="62">
+        <f>B$59</f>
+        <v>0.01</v>
+      </c>
+      <c r="C62" s="62" t="str">
+        <f>C$59</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D62" s="56">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="12"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F62" s="62">
+        <f>F$59</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="62">
+        <f>G$59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="84">
+        <f>B$59</f>
+        <v>0.01</v>
+      </c>
+      <c r="C63" s="84" t="str">
+        <f>C$59</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D63" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="84">
+        <f>F$59</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="84">
+        <f>G$59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="88">
+        <f>0.37/30.23</f>
+        <v>1.2239497188223619E-2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="80">
+        <v>0</v>
+      </c>
+      <c r="G64" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="21">
+        <f>B$64</f>
+        <v>1.2239497188223619E-2</v>
+      </c>
+      <c r="C65" s="21" t="str">
+        <f>C$64</f>
+        <v>coke - US</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:E67" si="13">D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="13"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F65" s="21">
+        <f>F$64</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="21">
+        <f>G$64</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="21">
+        <f>B$64</f>
+        <v>1.2239497188223619E-2</v>
+      </c>
+      <c r="C66" s="21" t="str">
+        <f>C$64</f>
+        <v>coke - US</v>
+      </c>
+      <c r="D66" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="13"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F66" s="21">
+        <f>F$64</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="21">
+        <f>G$64</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="21">
+        <f>B$64</f>
+        <v>1.2239497188223619E-2</v>
+      </c>
+      <c r="C67" s="21" t="str">
+        <f>C$64</f>
+        <v>coke - US</v>
+      </c>
+      <c r="D67" s="56">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="13"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F67" s="21">
+        <f>F$64</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="21">
+        <f>G$64</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="65">
+        <f>B$64</f>
+        <v>1.2239497188223619E-2</v>
+      </c>
+      <c r="C68" s="65" t="str">
+        <f>C$64</f>
+        <v>coke - US</v>
+      </c>
+      <c r="D68" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="65">
+        <f>F$64</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="65">
+        <f>G$64</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="80">
+        <v>0.01</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="80">
+        <v>0</v>
+      </c>
+      <c r="G69" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="63">
+        <f>B$69</f>
+        <v>0.01</v>
+      </c>
+      <c r="C70" s="63" t="str">
+        <f>C$69</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:E72" si="14">D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="14"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F70" s="63">
+        <f>F$69</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="63">
+        <f>G$69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" s="63">
+        <f>B$69</f>
+        <v>0.01</v>
+      </c>
+      <c r="C71" s="63" t="str">
+        <f>C$69</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D71" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="14"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F71" s="63">
+        <f>F$69</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="63">
+        <f>G$69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" s="63">
+        <f>B$69</f>
+        <v>0.01</v>
+      </c>
+      <c r="C72" s="63" t="str">
+        <f>C$69</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D72" s="56">
+        <v>1</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="14"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F72" s="63">
+        <f>F$69</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="63">
+        <f>G$69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="89">
+        <f>B$69</f>
+        <v>0.01</v>
+      </c>
+      <c r="C73" s="89" t="str">
+        <f>C$69</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D73" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E73" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="89">
+        <f>F$69</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="89">
+        <f>G$69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4702,16 +9310,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -4772,7 +9383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4795,7 +9406,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -4820,7 +9431,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4843,7 +9454,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4867,7 +9478,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -4890,11 +9501,11 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="51">
         <f>1.44/30.23</f>
         <v>4.7634799867681106E-2</v>
       </c>
@@ -4919,7 +9530,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -4944,30 +9555,30 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="47">
         <f>AVERAGE(B6:B11)</f>
         <v>4.8112466644613515E-2</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47">
         <f>AVERAGE(D6:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48">
+      <c r="E12" s="47"/>
+      <c r="F12" s="47">
         <f>AVERAGE(F6:F11)</f>
         <v>8.4915333333333343E-2</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="47">
         <f>AVERAGE(G6:G11)</f>
         <v>9.5491333333333331E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -4995,7 +9606,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -5023,7 +9634,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -5051,7 +9662,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -5079,8 +9690,8 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>136</v>
       </c>
       <c r="B17">
@@ -5102,11 +9713,11 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <f>B20</f>
         <v>4.4468085106382983E-2</v>
       </c>
@@ -5128,7 +9739,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -5157,11 +9768,11 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="52">
         <f>1.254/28.2</f>
         <v>4.4468085106382983E-2</v>
       </c>
@@ -5185,11 +9796,11 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
         <f>1.2/28.2</f>
         <v>4.2553191489361701E-2</v>
       </c>
@@ -5200,11 +9811,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="51">
         <f>1.37/30.23</f>
         <v>4.531921931855773E-2</v>
       </c>
@@ -5215,40 +9826,1422 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="52">
         <f>1.29/28.2</f>
         <v>4.5744680851063833E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="102">
         <f>0.044</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="23">
+      <c r="D24" s="30">
+        <v>0</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="58">
         <f>(0.56*131.1+10.2)/1000</f>
         <v>8.3615999999999996E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="30">
         <f>G26</f>
-        <v>0</v>
-      </c>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="103">
+        <f>1.2766/28.2</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="99">
+        <v>0</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="98">
+        <f>(0.56*131.1+10.2)/1000</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G25" s="104">
+        <f>(0.092+0.155)/2</f>
+        <v>0.1235</v>
+      </c>
+      <c r="H25" s="98">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="91">
+        <f>1.254/28.2</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="80">
+        <f>(0.56*131.1+10.2)/1000</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="91">
+        <f>1.254/28.2</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="80">
+        <f>(0.56*131.1+10.2)/1000</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G27" s="80">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="48">
+        <f>B$25</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C28" s="48" t="str">
+        <f>C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D28">
+        <f>D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F28" s="48">
+        <f>F$25</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G28" s="48">
+        <f>G$25</f>
+        <v>0.1235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="21">
+        <f>B$26</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C29" s="21" t="str">
+        <f>C$26</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:E29" si="3">D$25</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F29" s="21">
+        <f>F$26</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G29" s="21">
+        <f>G$26</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="48">
+        <f>B$25</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C30" s="48" t="str">
+        <f>C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D30" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E30" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F30" s="48">
+        <f>F$25</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G30" s="48">
+        <f>G$25</f>
+        <v>0.1235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="21">
+        <f>B$26</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C31" s="21" t="str">
+        <f>C$26</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D31" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" ref="E31:E32" si="4">E$25</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F31" s="21">
+        <f>F$26</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G31" s="21">
+        <f>G$26</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="21">
+        <f t="shared" ref="B32:C32" si="5">B$27</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C32" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D32" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" ref="F32:G32" si="6">F$27</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="6"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="48">
+        <f>B$25</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C33" s="48" t="str">
+        <f>C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D33" s="56">
+        <v>1</v>
+      </c>
+      <c r="E33" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F33" s="48">
+        <f>F$25</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G33" s="48">
+        <f>G$25</f>
+        <v>0.1235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="48">
+        <f>B$25</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C34" s="48" t="str">
+        <f>C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D34" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="48">
+        <f>F$25</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G34" s="48">
+        <f>G$25</f>
+        <v>0.1235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="48">
+        <f>B$25</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C35" s="48" t="str">
+        <f>C$25</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D35" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="48">
+        <f>F$25</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G35" s="48">
+        <f>G$25</f>
+        <v>0.1235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="21">
+        <f>B$26</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C36" s="21" t="str">
+        <f>C$26</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:E39" si="7">D$25</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="7"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F36" s="21">
+        <f>F$26</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G36" s="21">
+        <f>G$26</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="21">
+        <f>B$26</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C37" s="21" t="str">
+        <f>C$26</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D37" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="7"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F37" s="21">
+        <f>F$26</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G37" s="21">
+        <f>G$26</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="21">
+        <f t="shared" ref="B38:C39" si="8">B$27</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C38" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D38" s="56">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="7"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F38" s="21">
+        <f t="shared" ref="F38:G39" si="9">F$27</f>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="9"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="65">
+        <f t="shared" si="8"/>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C39" s="65" t="str">
+        <f t="shared" si="8"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D39" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F39" s="65">
+        <f t="shared" si="9"/>
+        <v>8.3615999999999996E-2</v>
+      </c>
+      <c r="G39" s="65">
+        <f t="shared" si="9"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="92">
+        <f>0.1407*0.56</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <f>4.93*Ref!B72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="90">
+        <f>1.2766/28.2</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="92">
+        <f>0.1407*0.56</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <f>4.93*Ref!B73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="91">
+        <f>1.254/28.2</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="92">
+        <f>0.1407*0.56</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <f>4.93*Ref!B74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:C45" si="10">B$40</f>
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="10"/>
+        <v>coke - CN</v>
+      </c>
+      <c r="D43">
+        <f>D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:G43" si="11">F$40</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="48">
+        <f>B$41</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C44" s="48" t="str">
+        <f>C$41</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:E44" si="12">D$25</f>
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="12"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F44" s="48">
+        <f>F$41</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G44" s="48">
+        <f>G$41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="10"/>
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="10"/>
+        <v>coke - CN</v>
+      </c>
+      <c r="D45" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E45" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:G45" si="13">F$40</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="48">
+        <f>B$41</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C46" s="48" t="str">
+        <f>C$41</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D46" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ref="E46:E47" si="14">E$25</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F46" s="48">
+        <f>F$41</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G46" s="48">
+        <f>G$41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="21">
+        <f>B$42</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C47" s="21" t="str">
+        <f>C$42</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D47" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="14"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F47" s="21">
+        <f>F$42</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G47" s="21">
+        <f>G$42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:C48" si="15">B$40</f>
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="15"/>
+        <v>coke - CN</v>
+      </c>
+      <c r="D48" s="56">
+        <v>1</v>
+      </c>
+      <c r="E48" t="str">
+        <f>E$24</f>
+        <v>charcoal</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:G48" si="16">F$40</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:C50" si="17">B$40</f>
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="17"/>
+        <v>coke - CN</v>
+      </c>
+      <c r="D49" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:G50" si="18">F$40</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="17"/>
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="17"/>
+        <v>coke - CN</v>
+      </c>
+      <c r="D50" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="18"/>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="48">
+        <f>B$41</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C51" s="48" t="str">
+        <f>C$41</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:E54" si="19">D$25</f>
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="19"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F51" s="48">
+        <f>F$41</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G51" s="48">
+        <f>G$41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="48">
+        <f>B$41</f>
+        <v>4.5269503546099293E-2</v>
+      </c>
+      <c r="C52" s="48" t="str">
+        <f>C$41</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D52" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="19"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F52" s="48">
+        <f>F$41</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G52" s="48">
+        <f>G$41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="21">
+        <f>B$42</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C53" s="21" t="str">
+        <f>C$42</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D53" s="56">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="19"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F53" s="21">
+        <f>F$42</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G53" s="21">
+        <f>G$42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="66" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="65">
+        <f>B$42</f>
+        <v>4.4468085106382983E-2</v>
+      </c>
+      <c r="C54" s="65" t="str">
+        <f>C$42</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D54" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="66" t="str">
+        <f t="shared" si="19"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F54" s="65">
+        <f>F$42</f>
+        <v>7.8792000000000001E-2</v>
+      </c>
+      <c r="G54" s="65">
+        <f>G$42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="80">
+        <f>0.15*0.56</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:C59" si="20">B$55</f>
+        <v>0.04</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="20"/>
+        <v>coke - JP IPCC</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:E58" si="21">D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="21"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:G59" si="22">F$55</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="22"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="20"/>
+        <v>0.04</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="20"/>
+        <v>coke - JP IPCC</v>
+      </c>
+      <c r="D57" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="21"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="22"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="22"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="20"/>
+        <v>0.04</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="20"/>
+        <v>coke - JP IPCC</v>
+      </c>
+      <c r="D58" s="56">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="21"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="22"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="22"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="66">
+        <f t="shared" si="20"/>
+        <v>0.04</v>
+      </c>
+      <c r="C59" s="66" t="str">
+        <f t="shared" si="20"/>
+        <v>coke - JP IPCC</v>
+      </c>
+      <c r="D59" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E59" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="66">
+        <f t="shared" si="22"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G59" s="66">
+        <f t="shared" si="22"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="80">
+        <v>0.05</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="93">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="G60" s="80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="62">
+        <f t="shared" ref="B61:C64" si="23">B$60</f>
+        <v>0.05</v>
+      </c>
+      <c r="C61" s="62" t="str">
+        <f t="shared" si="23"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:E63" si="24">D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="24"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F61" s="62">
+        <f t="shared" ref="F61:G64" si="25">F$60</f>
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="G61" s="62">
+        <f t="shared" si="25"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="62">
+        <f t="shared" si="23"/>
+        <v>0.05</v>
+      </c>
+      <c r="C62" s="62" t="str">
+        <f t="shared" si="23"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D62" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="24"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F62" s="62">
+        <f t="shared" si="25"/>
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="G62" s="62">
+        <f t="shared" si="25"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="62">
+        <f t="shared" si="23"/>
+        <v>0.05</v>
+      </c>
+      <c r="C63" s="62" t="str">
+        <f t="shared" si="23"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D63" s="56">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="24"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F63" s="62">
+        <f t="shared" si="25"/>
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="G63" s="62">
+        <f t="shared" si="25"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="84">
+        <f t="shared" si="23"/>
+        <v>0.05</v>
+      </c>
+      <c r="C64" s="84" t="str">
+        <f t="shared" si="23"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D64" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E64" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="84">
+        <f t="shared" si="25"/>
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="G64" s="84">
+        <f t="shared" si="25"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="51">
+        <f>1.44/30.23</f>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="33">
+        <v>0</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="23">
+        <f>0.15*0.56</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G65" s="34">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="47">
+        <f t="shared" ref="B66:C69" si="26">B$65</f>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C66" s="47" t="str">
+        <f t="shared" si="26"/>
+        <v>coke - US</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:E68" si="27">D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="27"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F66" s="47">
+        <f t="shared" ref="F66:G69" si="28">F$65</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G66" s="47">
+        <f t="shared" si="28"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" s="47">
+        <f t="shared" si="26"/>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C67" s="47" t="str">
+        <f t="shared" si="26"/>
+        <v>coke - US</v>
+      </c>
+      <c r="D67" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="27"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F67" s="47">
+        <f t="shared" si="28"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G67" s="47">
+        <f t="shared" si="28"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="47">
+        <f t="shared" si="26"/>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C68" s="47" t="str">
+        <f t="shared" si="26"/>
+        <v>coke - US</v>
+      </c>
+      <c r="D68" s="56">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="27"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F68" s="47">
+        <f t="shared" si="28"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G68" s="47">
+        <f t="shared" si="28"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="87">
+        <f t="shared" si="26"/>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C69" s="87" t="str">
+        <f t="shared" si="26"/>
+        <v>coke - US</v>
+      </c>
+      <c r="D69" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E69" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="87">
+        <f t="shared" si="28"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G69" s="87">
+        <f t="shared" si="28"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="105">
+        <f>1.44/30.23</f>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="80">
+        <f>0.15*0.56</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G70" s="80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" s="64">
+        <f>B$70</f>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C71" s="64" t="str">
+        <f>C$70</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:E73" si="29">D$24</f>
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="29"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F71" s="64">
+        <f t="shared" ref="F71:G74" si="30">F$70</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G71" s="64">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" s="64">
+        <f>B$70</f>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C72" s="64" t="str">
+        <f>C$70</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D72" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="29"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F72" s="64">
+        <f t="shared" si="30"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G72" s="64">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="64">
+        <f>B$70</f>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C73" s="64" t="str">
+        <f>C$70</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D73" s="56">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="29"/>
+        <v>charcoal</v>
+      </c>
+      <c r="F73" s="64">
+        <f t="shared" si="30"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G73" s="64">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" s="94">
+        <f>B$70</f>
+        <v>4.7634799867681106E-2</v>
+      </c>
+      <c r="C74" s="94" t="str">
+        <f>C$70</f>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="D74" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="94">
+        <f t="shared" si="30"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G74" s="94">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5259,15 +11252,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5722,44 +11718,44 @@
       <c r="A12" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <f>AVERAGE(B6:B11)</f>
         <v>0.97694500000000006</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <f>AVERAGE(C6:C11)</f>
         <v>0.32215686274509808</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <f>AVERAGE(D6:D11)</f>
         <v>3.741333333333334E-2</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="48">
         <f>AVERAGE(E5:E11)</f>
         <v>0.20275085714285715</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="48">
         <f>AVERAGE(G6:G11)</f>
         <v>0.40939289888631603</v>
       </c>
       <c r="H12" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="48">
         <f>AVERAGE(I6:I11)</f>
         <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="48">
         <f>AVERAGE(K6:K11)</f>
         <v>0.13065319148936169</v>
       </c>
       <c r="L12" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="48">
         <f>AVERAGE(M6:M11)</f>
         <v>0</v>
       </c>
@@ -5779,7 +11775,7 @@
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
@@ -5828,7 +11824,7 @@
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
@@ -5877,7 +11873,7 @@
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
@@ -5926,7 +11922,7 @@
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <f>D$7*0.7</f>
         <v>5.0959999999999998E-3</v>
       </c>
@@ -5973,7 +11969,7 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <f>0.013*0.56</f>
         <v>7.28E-3</v>
       </c>
@@ -6212,13 +12208,568 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:17" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="66">
         <f>11.04/30.23</f>
         <v>0.36520013231888848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1088</v>
+      </c>
+      <c r="C25" s="1">
+        <v>358</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="80">
+        <v>1.2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="F26" s="80">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="80">
+        <v>1.2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="F27" s="80">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28">
+        <f>B$25</f>
+        <v>1088</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:J30" si="4">C$25</f>
+        <v>358</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="4"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28">
+        <f>K$25</f>
+        <v>0.19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="106">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30">
+        <f>B$25</f>
+        <v>1088</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>358</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="4"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30">
+        <f>K$25</f>
+        <v>0.19</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="106">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33">
+        <f>B$25</f>
+        <v>1088</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:J34" si="5">C$25</f>
+        <v>358</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="5"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33">
+        <f>K$25</f>
+        <v>0.19</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33" s="106">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34">
+        <f>B$25</f>
+        <v>1088</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="5"/>
+        <v>coke - IPCC</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34">
+        <f>K$25</f>
+        <v>0.19</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="67" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6230,15 +12781,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:J18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -6869,6 +13420,256 @@
         <v>0.09</v>
       </c>
     </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="67" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6878,15 +13679,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -7152,6 +13953,257 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7161,15 +14213,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -7545,9 +14597,257 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7556,13 +14856,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -7785,6 +15088,256 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="67" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="17" r:id="rId1"/>
@@ -2107,7 +2107,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2582,7 +2582,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3817,15 +3817,15 @@
         <v>175</v>
       </c>
       <c r="B43" s="47">
-        <f>B$33</f>
+        <f t="shared" ref="B43:D44" si="5">B$33</f>
         <v>0.81967213114754101</v>
       </c>
       <c r="C43">
-        <f>C$33</f>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="D43" t="str">
-        <f>D$33</f>
+        <f t="shared" si="5"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E43">
@@ -3840,15 +3840,15 @@
         <v>176</v>
       </c>
       <c r="B44" s="47">
-        <f>B$33</f>
+        <f t="shared" si="5"/>
         <v>0.81967213114754101</v>
       </c>
       <c r="C44">
-        <f>C$33</f>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="D44" t="str">
-        <f>D$33</f>
+        <f t="shared" si="5"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E44" s="56">
@@ -3863,15 +3863,15 @@
         <v>177</v>
       </c>
       <c r="B45">
-        <f>B$34</f>
+        <f t="shared" ref="B45:D46" si="6">B$34</f>
         <v>0.84</v>
       </c>
       <c r="C45">
-        <f>C$34</f>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="D45" t="str">
-        <f>D$34</f>
+        <f t="shared" si="6"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E45">
@@ -3886,15 +3886,15 @@
         <v>178</v>
       </c>
       <c r="B46" s="67">
-        <f>B$34</f>
+        <f t="shared" si="6"/>
         <v>0.84</v>
       </c>
       <c r="C46" s="67">
-        <f>C$34</f>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="D46" s="67" t="str">
-        <f>D$34</f>
+        <f t="shared" si="6"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E46" s="69">
@@ -4112,15 +4112,15 @@
         <v>220</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56:D56" si="5">B$47</f>
+        <f t="shared" ref="B56:D56" si="7">B$47</f>
         <v>0.754</v>
       </c>
       <c r="C56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E56" s="56">
@@ -4162,15 +4162,15 @@
         <v>180</v>
       </c>
       <c r="B58" s="21">
-        <f>B$48</f>
+        <f t="shared" ref="B58:D59" si="8">B$48</f>
         <v>0.76923076923076916</v>
       </c>
       <c r="C58" s="21">
-        <f>C$48</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="D58" s="21" t="str">
-        <f>D$48</f>
+        <f t="shared" si="8"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E58">
@@ -4185,15 +4185,15 @@
         <v>181</v>
       </c>
       <c r="B59" s="21">
-        <f>B$48</f>
+        <f t="shared" si="8"/>
         <v>0.76923076923076916</v>
       </c>
       <c r="C59" s="21">
-        <f>C$48</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="D59" s="21" t="str">
-        <f>D$48</f>
+        <f t="shared" si="8"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E59" s="56">
@@ -4208,15 +4208,15 @@
         <v>182</v>
       </c>
       <c r="B60" s="47">
-        <f>B$49</f>
+        <f t="shared" ref="B60:D61" si="9">B$49</f>
         <v>0.81967213114754101</v>
       </c>
       <c r="C60" s="47">
-        <f>C$49</f>
+        <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
       <c r="D60" s="47" t="str">
-        <f>D$49</f>
+        <f t="shared" si="9"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E60">
@@ -4231,15 +4231,15 @@
         <v>183</v>
       </c>
       <c r="B61" s="89">
-        <f>B$49</f>
+        <f t="shared" si="9"/>
         <v>0.81967213114754101</v>
       </c>
       <c r="C61" s="89">
-        <f>C$49</f>
+        <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
       <c r="D61" s="89" t="str">
-        <f>D$49</f>
+        <f t="shared" si="9"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E61" s="69">
@@ -4275,15 +4275,15 @@
         <v>222</v>
       </c>
       <c r="B63" s="21">
-        <f t="shared" ref="B63:B66" si="6">B$62</f>
+        <f t="shared" ref="B63:B66" si="10">B$62</f>
         <v>0.69930069930069938</v>
       </c>
       <c r="C63" s="21">
-        <f t="shared" ref="C63:D66" si="7">C$62</f>
+        <f t="shared" ref="C63:D66" si="11">C$62</f>
         <v>0.19</v>
       </c>
       <c r="D63" s="21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>coal coking - JP IPCC</v>
       </c>
       <c r="E63">
@@ -4298,15 +4298,15 @@
         <v>223</v>
       </c>
       <c r="B64" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.69930069930069938</v>
       </c>
       <c r="C64" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.19</v>
       </c>
       <c r="D64" s="21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>coal coking - JP IPCC</v>
       </c>
       <c r="E64" s="56">
@@ -4321,15 +4321,15 @@
         <v>224</v>
       </c>
       <c r="B65" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.69930069930069938</v>
       </c>
       <c r="C65" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.19</v>
       </c>
       <c r="D65" s="21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>coal coking - JP IPCC</v>
       </c>
       <c r="E65" s="56">
@@ -4344,15 +4344,15 @@
         <v>225</v>
       </c>
       <c r="B66" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.69930069930069938</v>
       </c>
       <c r="C66" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.19</v>
       </c>
       <c r="D66" s="66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>coal coking - JP IPCC</v>
       </c>
       <c r="E66" s="69">
@@ -4387,15 +4387,15 @@
         <v>227</v>
       </c>
       <c r="B68" s="21">
-        <f t="shared" ref="B68:B71" si="8">B$67</f>
+        <f t="shared" ref="B68:B71" si="12">B$67</f>
         <v>0.7</v>
       </c>
       <c r="C68" s="21">
-        <f t="shared" ref="C68:D71" si="9">C$67</f>
+        <f t="shared" ref="C68:D71" si="13">C$67</f>
         <v>0.2</v>
       </c>
       <c r="D68" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>coal hard - RU</v>
       </c>
       <c r="E68">
@@ -4410,15 +4410,15 @@
         <v>228</v>
       </c>
       <c r="B69" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="C69" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="D69" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>coal hard - RU</v>
       </c>
       <c r="E69" s="56">
@@ -4433,15 +4433,15 @@
         <v>229</v>
       </c>
       <c r="B70" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="C70" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="D70" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>coal hard - RU</v>
       </c>
       <c r="E70" s="56">
@@ -4456,15 +4456,15 @@
         <v>230</v>
       </c>
       <c r="B71" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="C71" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="D71" s="66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>coal hard - RU</v>
       </c>
       <c r="E71" s="69">
@@ -4503,15 +4503,15 @@
         <v>232</v>
       </c>
       <c r="B73" s="21">
-        <f t="shared" ref="B73:B76" si="10">B$72</f>
+        <f t="shared" ref="B73:B76" si="14">B$72</f>
         <v>0.77187499999999998</v>
       </c>
       <c r="C73" s="21">
-        <f t="shared" ref="C73:D76" si="11">C$72</f>
+        <f t="shared" ref="C73:D76" si="15">C$72</f>
         <v>0.12</v>
       </c>
       <c r="D73" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>coal coking - US</v>
       </c>
       <c r="E73">
@@ -4526,15 +4526,15 @@
         <v>233</v>
       </c>
       <c r="B74" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.77187499999999998</v>
       </c>
       <c r="C74" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.12</v>
       </c>
       <c r="D74" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>coal coking - US</v>
       </c>
       <c r="E74" s="56">
@@ -4549,15 +4549,15 @@
         <v>234</v>
       </c>
       <c r="B75" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.77187499999999998</v>
       </c>
       <c r="C75" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.12</v>
       </c>
       <c r="D75" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>coal coking - US</v>
       </c>
       <c r="E75" s="56">
@@ -4572,15 +4572,15 @@
         <v>235</v>
       </c>
       <c r="B76" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.77187499999999998</v>
       </c>
       <c r="C76" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.12</v>
       </c>
       <c r="D76" s="66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>coal coking - US</v>
       </c>
       <c r="E76" s="69">
@@ -4601,7 +4601,7 @@
         <v>0.2</v>
       </c>
       <c r="D77" s="76" t="str">
-        <f t="shared" ref="D77" si="12">D$7</f>
+        <f t="shared" ref="D77" si="16">D$7</f>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E77">
@@ -4616,15 +4616,15 @@
         <v>237</v>
       </c>
       <c r="B78" s="21">
-        <f t="shared" ref="B78:B81" si="13">B$77</f>
+        <f t="shared" ref="B78:B81" si="17">B$77</f>
         <v>0.7</v>
       </c>
       <c r="C78" s="21">
-        <f t="shared" ref="C78:D81" si="14">C$77</f>
+        <f t="shared" ref="C78:D81" si="18">C$77</f>
         <v>0.2</v>
       </c>
       <c r="D78" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E78">
@@ -4639,15 +4639,15 @@
         <v>238</v>
       </c>
       <c r="B79" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.7</v>
       </c>
       <c r="C79" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
       <c r="D79" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E79" s="56">
@@ -4662,15 +4662,15 @@
         <v>239</v>
       </c>
       <c r="B80" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.7</v>
       </c>
       <c r="C80" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
       <c r="D80" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E80" s="56">
@@ -4685,15 +4685,15 @@
         <v>240</v>
       </c>
       <c r="B81" s="66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.7</v>
       </c>
       <c r="C81" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
       <c r="D81" s="66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E81" s="69">
@@ -5774,7 +5774,7 @@
         <v>223</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:E59" si="19">B$55</f>
+        <f t="shared" ref="B57:B59" si="19">B$55</f>
         <v>1</v>
       </c>
       <c r="C57">
@@ -5875,7 +5875,7 @@
         <v>228</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:E64" si="21">B$60</f>
+        <f t="shared" ref="B62:B64" si="21">B$60</f>
         <v>1</v>
       </c>
       <c r="C62">
@@ -5976,7 +5976,7 @@
         <v>233</v>
       </c>
       <c r="B67" s="62">
-        <f t="shared" ref="B67:E69" si="23">B$65</f>
+        <f t="shared" ref="B67:B69" si="23">B$65</f>
         <v>1</v>
       </c>
       <c r="C67" s="62">
@@ -6077,7 +6077,7 @@
         <v>238</v>
       </c>
       <c r="B72" s="62">
-        <f t="shared" ref="B72:E74" si="25">B$70</f>
+        <f t="shared" ref="B72:B74" si="25">B$70</f>
         <v>1</v>
       </c>
       <c r="C72" s="62">
@@ -6456,11 +6456,11 @@
         <v>209</v>
       </c>
       <c r="B30">
-        <f>B$22</f>
+        <f t="shared" ref="B30:C32" si="2">B$22</f>
         <v>0.01</v>
       </c>
       <c r="C30">
-        <f>C$22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6469,11 +6469,11 @@
         <v>210</v>
       </c>
       <c r="B31">
-        <f>B$22</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="C31">
-        <f>C$22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6482,11 +6482,11 @@
         <v>174</v>
       </c>
       <c r="B32">
-        <f>B$22</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="C32">
-        <f>C$22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6495,11 +6495,11 @@
         <v>175</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:C34" si="2">B$23</f>
+        <f t="shared" ref="B33:C34" si="3">B$23</f>
         <v>0.01</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6508,11 +6508,11 @@
         <v>176</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6521,11 +6521,11 @@
         <v>177</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:C36" si="3">B$24</f>
+        <f t="shared" ref="B35:C36" si="4">B$24</f>
         <v>0.01</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6534,11 +6534,11 @@
         <v>178</v>
       </c>
       <c r="B36" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="C36" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6645,11 +6645,11 @@
         <v>219</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:C47" si="4">B$37</f>
+        <f t="shared" ref="B45:C47" si="5">B$37</f>
         <v>0.01</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6658,11 +6658,11 @@
         <v>220</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6671,11 +6671,11 @@
         <v>179</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6684,11 +6684,11 @@
         <v>180</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:C49" si="5">B$38</f>
+        <f t="shared" ref="B48:C49" si="6">B$38</f>
         <v>0.01</v>
       </c>
       <c r="C48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6697,11 +6697,11 @@
         <v>181</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6710,11 +6710,11 @@
         <v>182</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:C51" si="6">B$39</f>
+        <f t="shared" ref="B50:C51" si="7">B$39</f>
         <v>0.01</v>
       </c>
       <c r="C50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6723,11 +6723,11 @@
         <v>183</v>
       </c>
       <c r="B51" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
       <c r="C51" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
         <v>0.01</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:C56" si="7">C$52</f>
+        <f t="shared" ref="C53:C56" si="8">C$52</f>
         <v>0</v>
       </c>
     </row>
@@ -6760,11 +6760,11 @@
         <v>223</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:C56" si="8">B$52</f>
+        <f t="shared" ref="B54:B56" si="9">B$52</f>
         <v>0.01</v>
       </c>
       <c r="C54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6773,11 +6773,11 @@
         <v>224</v>
       </c>
       <c r="B55">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="C55">
         <f t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6786,11 +6786,11 @@
         <v>225</v>
       </c>
       <c r="B56" s="67">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="C56" s="67">
         <f t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="C56" s="67">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
         <v>0.01</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:C61" si="9">C$57</f>
+        <f t="shared" ref="C58:C61" si="10">C$57</f>
         <v>0</v>
       </c>
     </row>
@@ -6823,11 +6823,11 @@
         <v>228</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:C61" si="10">B$57</f>
+        <f t="shared" ref="B59:B61" si="11">B$57</f>
         <v>0.01</v>
       </c>
       <c r="C59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -6836,11 +6836,11 @@
         <v>229</v>
       </c>
       <c r="B60">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="C60">
         <f t="shared" si="10"/>
-        <v>0.01</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6849,11 +6849,11 @@
         <v>230</v>
       </c>
       <c r="B61" s="67">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="C61" s="67">
         <f t="shared" si="10"/>
-        <v>0.01</v>
-      </c>
-      <c r="C61" s="67">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
         <v>0.01</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:C66" si="11">C$62</f>
+        <f t="shared" ref="C63:C66" si="12">C$62</f>
         <v>0</v>
       </c>
     </row>
@@ -6886,11 +6886,11 @@
         <v>233</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:C66" si="12">B$62</f>
+        <f t="shared" ref="B64:B66" si="13">B$62</f>
         <v>0.01</v>
       </c>
       <c r="C64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6899,11 +6899,11 @@
         <v>234</v>
       </c>
       <c r="B65">
+        <f t="shared" si="13"/>
+        <v>0.01</v>
+      </c>
+      <c r="C65">
         <f t="shared" si="12"/>
-        <v>0.01</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6912,11 +6912,11 @@
         <v>235</v>
       </c>
       <c r="B66" s="67">
+        <f t="shared" si="13"/>
+        <v>0.01</v>
+      </c>
+      <c r="C66" s="67">
         <f t="shared" si="12"/>
-        <v>0.01</v>
-      </c>
-      <c r="C66" s="67">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
         <v>0.01</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C71" si="13">C$67</f>
+        <f t="shared" ref="C68:C71" si="14">C$67</f>
         <v>0</v>
       </c>
     </row>
@@ -6949,11 +6949,11 @@
         <v>238</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:C71" si="14">B$67</f>
+        <f t="shared" ref="B69:B71" si="15">B$67</f>
         <v>0.01</v>
       </c>
       <c r="C69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6962,11 +6962,11 @@
         <v>239</v>
       </c>
       <c r="B70">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="14"/>
-        <v>0.01</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6975,11 +6975,11 @@
         <v>240</v>
       </c>
       <c r="B71" s="67">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="C71" s="67">
         <f t="shared" si="14"/>
-        <v>0.01</v>
-      </c>
-      <c r="C71" s="67">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -10634,27 +10634,27 @@
         <v>204</v>
       </c>
       <c r="B28">
-        <f>B$25</f>
+        <f t="shared" ref="B28:G28" si="3">B$25</f>
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C28" t="str">
-        <f>C$25</f>
+        <f t="shared" si="3"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D28">
-        <f>D$25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <f>E$25</f>
+        <f t="shared" si="3"/>
         <v>charcoal</v>
       </c>
       <c r="F28">
-        <f>F$25</f>
+        <f t="shared" si="3"/>
         <v>1.008E-2</v>
       </c>
       <c r="G28">
-        <f>G$25</f>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -10667,23 +10667,23 @@
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:G29" si="3">C$26</f>
+        <f t="shared" ref="C29:G29" si="4">C$26</f>
         <v>coke - IPCC</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>charcoal</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -10724,22 +10724,22 @@
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:G32" si="4">C$26</f>
+        <f t="shared" ref="C31:G32" si="5">C$26</f>
         <v>coke - IPCC</v>
       </c>
       <c r="D31" s="56">
         <v>0.5</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>charcoal</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -10752,22 +10752,22 @@
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D32" s="56">
         <v>0.5</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>charcoal</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -10776,11 +10776,11 @@
         <v>209</v>
       </c>
       <c r="B33">
-        <f>B$25</f>
+        <f t="shared" ref="B33:C35" si="6">B$25</f>
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C33" t="str">
-        <f>C$25</f>
+        <f t="shared" si="6"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D33" s="56">
@@ -10804,11 +10804,11 @@
         <v>210</v>
       </c>
       <c r="B34">
-        <f>B$25</f>
+        <f t="shared" si="6"/>
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C34" t="str">
-        <f>C$25</f>
+        <f t="shared" si="6"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D34" s="56">
@@ -10831,11 +10831,11 @@
         <v>174</v>
       </c>
       <c r="B35">
-        <f>B$25</f>
+        <f t="shared" si="6"/>
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C35" t="str">
-        <f>C$25</f>
+        <f t="shared" si="6"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D35" s="56">
@@ -10862,23 +10862,23 @@
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36:G37" si="5">C$26</f>
+        <f t="shared" ref="C36:G37" si="7">C$26</f>
         <v>coke - IPCC</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>charcoal</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -10891,22 +10891,22 @@
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D37" s="56">
         <v>0.5</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>charcoal</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -10919,22 +10919,22 @@
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ref="C38:G39" si="6">C$26</f>
+        <f t="shared" ref="C38:G39" si="8">C$26</f>
         <v>coke - IPCC</v>
       </c>
       <c r="D38" s="56">
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
         <v>1.9964539007092198E-2</v>
       </c>
       <c r="C39" s="67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D39" s="69">
         <v>0.5</v>
       </c>
       <c r="E39" s="67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
       <c r="F39" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="G39" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -11081,11 +11081,11 @@
         <v>coke - CN</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:E44" si="7">D$26</f>
+        <f t="shared" ref="D44:E44" si="9">D$26</f>
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>charcoal</v>
       </c>
       <c r="F44">
@@ -11141,7 +11141,7 @@
         <v>0.5</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" ref="E46:E47" si="8">E$26</f>
+        <f t="shared" ref="E46:E47" si="10">E$26</f>
         <v>charcoal</v>
       </c>
       <c r="F46">
@@ -11169,7 +11169,7 @@
         <v>0.5</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>charcoal</v>
       </c>
       <c r="F47">
@@ -11186,11 +11186,11 @@
         <v>219</v>
       </c>
       <c r="B48">
-        <f>B$40</f>
+        <f t="shared" ref="B48:C50" si="11">B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C48" t="str">
-        <f>C$40</f>
+        <f t="shared" si="11"/>
         <v>coke - CN</v>
       </c>
       <c r="D48" s="56">
@@ -11201,11 +11201,11 @@
         <v>charcoal</v>
       </c>
       <c r="F48">
-        <f>F$40</f>
+        <f t="shared" ref="F48:G50" si="12">F$40</f>
         <v>0.01</v>
       </c>
       <c r="G48">
-        <f>G$40</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
     </row>
@@ -11214,11 +11214,11 @@
         <v>220</v>
       </c>
       <c r="B49">
-        <f>B$40</f>
+        <f t="shared" si="11"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C49" t="str">
-        <f>C$40</f>
+        <f t="shared" si="11"/>
         <v>coke - CN</v>
       </c>
       <c r="D49" s="56">
@@ -11228,11 +11228,11 @@
         <v>184</v>
       </c>
       <c r="F49">
-        <f>F$40</f>
+        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
       <c r="G49">
-        <f>G$40</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
     </row>
@@ -11241,11 +11241,11 @@
         <v>179</v>
       </c>
       <c r="B50">
-        <f>B$40</f>
+        <f t="shared" si="11"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C50" t="str">
-        <f>C$40</f>
+        <f t="shared" si="11"/>
         <v>coke - CN</v>
       </c>
       <c r="D50" s="3">
@@ -11255,11 +11255,11 @@
         <v>23</v>
       </c>
       <c r="F50">
-        <f>F$40</f>
+        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
       <c r="G50">
-        <f>G$40</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
     </row>
@@ -11276,11 +11276,11 @@
         <v>coke - CN</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:E54" si="9">D$26</f>
+        <f t="shared" ref="D51:E54" si="13">D$26</f>
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>charcoal</v>
       </c>
       <c r="F51">
@@ -11308,7 +11308,7 @@
         <v>0.5</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>charcoal</v>
       </c>
       <c r="F52">
@@ -11336,15 +11336,15 @@
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>charcoal</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:G54" si="10">F$42</f>
+        <f t="shared" ref="F53:G54" si="14">F$42</f>
         <v>0.01</v>
       </c>
       <c r="G53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -11364,15 +11364,15 @@
         <v>0.5</v>
       </c>
       <c r="E54" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>charcoal</v>
       </c>
       <c r="F54" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="G54" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -11404,27 +11404,27 @@
         <v>222</v>
       </c>
       <c r="B56">
-        <f>B$55</f>
+        <f t="shared" ref="B56:C59" si="15">B$55</f>
         <v>0.01</v>
       </c>
       <c r="C56" t="str">
-        <f>C$55</f>
+        <f t="shared" si="15"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:E58" si="11">D$25</f>
+        <f t="shared" ref="D56:E58" si="16">D$25</f>
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>charcoal</v>
       </c>
       <c r="F56">
-        <f>F$55</f>
+        <f t="shared" ref="F56:G59" si="17">F$55</f>
         <v>0.3</v>
       </c>
       <c r="G56">
-        <f>G$55</f>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -11433,26 +11433,26 @@
         <v>223</v>
       </c>
       <c r="B57">
-        <f>B$55</f>
+        <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
       <c r="C57" t="str">
-        <f>C$55</f>
+        <f t="shared" si="15"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="D57" s="56">
         <v>0.5</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>charcoal</v>
       </c>
       <c r="F57">
-        <f>F$55</f>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="G57">
-        <f>G$55</f>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -11461,26 +11461,26 @@
         <v>224</v>
       </c>
       <c r="B58">
-        <f>B$55</f>
+        <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
       <c r="C58" t="str">
-        <f>C$55</f>
+        <f t="shared" si="15"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="D58" s="56">
         <v>1</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>charcoal</v>
       </c>
       <c r="F58">
-        <f>F$55</f>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="G58">
-        <f>G$55</f>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -11489,11 +11489,11 @@
         <v>225</v>
       </c>
       <c r="B59" s="67">
-        <f>B$55</f>
+        <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
       <c r="C59" s="67" t="str">
-        <f>C$55</f>
+        <f t="shared" si="15"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="D59" s="69">
@@ -11503,11 +11503,11 @@
         <v>184</v>
       </c>
       <c r="F59" s="67">
-        <f>F$55</f>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="G59" s="67">
-        <f>G$55</f>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -11539,27 +11539,27 @@
         <v>227</v>
       </c>
       <c r="B61" s="62">
-        <f>B$60</f>
+        <f t="shared" ref="B61:C64" si="18">B$60</f>
         <v>0.01</v>
       </c>
       <c r="C61" s="62" t="str">
-        <f>C$60</f>
+        <f t="shared" si="18"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:E63" si="12">D$25</f>
+        <f t="shared" ref="D61:E63" si="19">D$25</f>
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>charcoal</v>
       </c>
       <c r="F61" s="62">
-        <f>F$60</f>
+        <f t="shared" ref="F61:G64" si="20">F$60</f>
         <v>0</v>
       </c>
       <c r="G61" s="62">
-        <f>G$60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -11568,26 +11568,26 @@
         <v>228</v>
       </c>
       <c r="B62" s="62">
-        <f>B$60</f>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
       <c r="C62" s="62" t="str">
-        <f>C$60</f>
+        <f t="shared" si="18"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D62" s="56">
         <v>0.5</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>charcoal</v>
       </c>
       <c r="F62" s="62">
-        <f>F$60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G62" s="62">
-        <f>G$60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -11596,26 +11596,26 @@
         <v>229</v>
       </c>
       <c r="B63" s="62">
-        <f>B$60</f>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
       <c r="C63" s="62" t="str">
-        <f>C$60</f>
+        <f t="shared" si="18"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D63" s="56">
         <v>1</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>charcoal</v>
       </c>
       <c r="F63" s="62">
-        <f>F$60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G63" s="62">
-        <f>G$60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -11624,11 +11624,11 @@
         <v>230</v>
       </c>
       <c r="B64" s="86">
-        <f>B$60</f>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
       <c r="C64" s="86" t="str">
-        <f>C$60</f>
+        <f t="shared" si="18"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D64" s="69">
@@ -11638,11 +11638,11 @@
         <v>184</v>
       </c>
       <c r="F64" s="86">
-        <f>F$60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G64" s="86">
-        <f>G$60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -11678,27 +11678,27 @@
         <v>232</v>
       </c>
       <c r="B66" s="21">
-        <f>B$65</f>
+        <f t="shared" ref="B66:C69" si="21">B$65</f>
         <v>1.2239497188223619E-2</v>
       </c>
       <c r="C66" s="21" t="str">
-        <f>C$65</f>
+        <f t="shared" si="21"/>
         <v>coke - US</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:E68" si="13">D$25</f>
+        <f t="shared" ref="D66:E68" si="22">D$25</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>charcoal</v>
       </c>
       <c r="F66" s="21">
-        <f>F$65</f>
+        <f t="shared" ref="F66:G69" si="23">F$65</f>
         <v>0</v>
       </c>
       <c r="G66" s="21">
-        <f>G$65</f>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
     </row>
@@ -11707,26 +11707,26 @@
         <v>233</v>
       </c>
       <c r="B67" s="21">
-        <f>B$65</f>
+        <f t="shared" si="21"/>
         <v>1.2239497188223619E-2</v>
       </c>
       <c r="C67" s="21" t="str">
-        <f>C$65</f>
+        <f t="shared" si="21"/>
         <v>coke - US</v>
       </c>
       <c r="D67" s="56">
         <v>0.5</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>charcoal</v>
       </c>
       <c r="F67" s="21">
-        <f>F$65</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G67" s="21">
-        <f>G$65</f>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
     </row>
@@ -11735,26 +11735,26 @@
         <v>234</v>
       </c>
       <c r="B68" s="21">
-        <f>B$65</f>
+        <f t="shared" si="21"/>
         <v>1.2239497188223619E-2</v>
       </c>
       <c r="C68" s="21" t="str">
-        <f>C$65</f>
+        <f t="shared" si="21"/>
         <v>coke - US</v>
       </c>
       <c r="D68" s="56">
         <v>1</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>charcoal</v>
       </c>
       <c r="F68" s="21">
-        <f>F$65</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G68" s="21">
-        <f>G$65</f>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
     </row>
@@ -11763,11 +11763,11 @@
         <v>235</v>
       </c>
       <c r="B69" s="66">
-        <f>B$65</f>
+        <f t="shared" si="21"/>
         <v>1.2239497188223619E-2</v>
       </c>
       <c r="C69" s="66" t="str">
-        <f>C$65</f>
+        <f t="shared" si="21"/>
         <v>coke - US</v>
       </c>
       <c r="D69" s="69">
@@ -11777,11 +11777,11 @@
         <v>184</v>
       </c>
       <c r="F69" s="66">
-        <f>F$65</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G69" s="66">
-        <f>G$65</f>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
     </row>
@@ -11813,27 +11813,27 @@
         <v>237</v>
       </c>
       <c r="B71" s="63">
-        <f>B$70</f>
+        <f t="shared" ref="B71:C74" si="24">B$70</f>
         <v>0.01</v>
       </c>
       <c r="C71" s="63" t="str">
-        <f>C$70</f>
+        <f t="shared" si="24"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:E73" si="14">D$25</f>
+        <f t="shared" ref="D71:E73" si="25">D$25</f>
         <v>0</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>charcoal</v>
       </c>
       <c r="F71" s="63">
-        <f>F$70</f>
+        <f t="shared" ref="F71:G74" si="26">F$70</f>
         <v>0</v>
       </c>
       <c r="G71" s="63">
-        <f>G$70</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -11842,26 +11842,26 @@
         <v>238</v>
       </c>
       <c r="B72" s="63">
-        <f>B$70</f>
+        <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
       <c r="C72" s="63" t="str">
-        <f>C$70</f>
+        <f t="shared" si="24"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D72" s="56">
         <v>0.5</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>charcoal</v>
       </c>
       <c r="F72" s="63">
-        <f>F$70</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G72" s="63">
-        <f>G$70</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -11870,26 +11870,26 @@
         <v>239</v>
       </c>
       <c r="B73" s="63">
-        <f>B$70</f>
+        <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
       <c r="C73" s="63" t="str">
-        <f>C$70</f>
+        <f t="shared" si="24"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D73" s="56">
         <v>1</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>charcoal</v>
       </c>
       <c r="F73" s="63">
-        <f>F$70</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G73" s="63">
-        <f>G$70</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -11898,11 +11898,11 @@
         <v>240</v>
       </c>
       <c r="B74" s="91">
-        <f>B$70</f>
+        <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
       <c r="C74" s="91" t="str">
-        <f>C$70</f>
+        <f t="shared" si="24"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D74" s="69">
@@ -11912,11 +11912,11 @@
         <v>184</v>
       </c>
       <c r="F74" s="91">
-        <f>F$70</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G74" s="91">
-        <f>G$70</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -12753,11 +12753,11 @@
         <v>209</v>
       </c>
       <c r="B35" s="48">
-        <f>B$27</f>
+        <f t="shared" ref="B35:C37" si="7">B$27</f>
         <v>4.5269503546099293E-2</v>
       </c>
       <c r="C35" s="48" t="str">
-        <f>C$27</f>
+        <f t="shared" si="7"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D35" s="56">
@@ -12768,11 +12768,11 @@
         <v>charcoal</v>
       </c>
       <c r="F35" s="48">
-        <f>F$27</f>
+        <f t="shared" ref="F35:G37" si="8">F$27</f>
         <v>8.3615999999999996E-2</v>
       </c>
       <c r="G35" s="48">
-        <f>G$27</f>
+        <f t="shared" si="8"/>
         <v>0.1235</v>
       </c>
     </row>
@@ -12781,11 +12781,11 @@
         <v>210</v>
       </c>
       <c r="B36" s="48">
-        <f>B$27</f>
+        <f t="shared" si="7"/>
         <v>4.5269503546099293E-2</v>
       </c>
       <c r="C36" s="48" t="str">
-        <f>C$27</f>
+        <f t="shared" si="7"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D36" s="56">
@@ -12795,11 +12795,11 @@
         <v>184</v>
       </c>
       <c r="F36" s="48">
-        <f>F$27</f>
+        <f t="shared" si="8"/>
         <v>8.3615999999999996E-2</v>
       </c>
       <c r="G36" s="48">
-        <f>G$27</f>
+        <f t="shared" si="8"/>
         <v>0.1235</v>
       </c>
     </row>
@@ -12808,11 +12808,11 @@
         <v>174</v>
       </c>
       <c r="B37" s="48">
-        <f>B$27</f>
+        <f t="shared" si="7"/>
         <v>4.5269503546099293E-2</v>
       </c>
       <c r="C37" s="48" t="str">
-        <f>C$27</f>
+        <f t="shared" si="7"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D37" s="56">
@@ -12822,11 +12822,11 @@
         <v>184</v>
       </c>
       <c r="F37" s="48">
-        <f>F$27</f>
+        <f t="shared" si="8"/>
         <v>8.3615999999999996E-2</v>
       </c>
       <c r="G37" s="48">
-        <f>G$27</f>
+        <f t="shared" si="8"/>
         <v>0.1235</v>
       </c>
     </row>
@@ -12843,11 +12843,11 @@
         <v>coke - IPCC</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:E41" si="7">D$27</f>
+        <f t="shared" ref="D38:E41" si="9">D$27</f>
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>charcoal</v>
       </c>
       <c r="F38" s="21">
@@ -12875,7 +12875,7 @@
         <v>0.5</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>charcoal</v>
       </c>
       <c r="F39" s="21">
@@ -12892,26 +12892,26 @@
         <v>177</v>
       </c>
       <c r="B40" s="21">
-        <f t="shared" ref="B40:C41" si="8">B$29</f>
+        <f t="shared" ref="B40:C41" si="10">B$29</f>
         <v>4.4468085106382983E-2</v>
       </c>
       <c r="C40" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D40" s="56">
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>charcoal</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" ref="F40:G41" si="9">F$29</f>
+        <f t="shared" ref="F40:G41" si="11">F$29</f>
         <v>8.3615999999999996E-2</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
     </row>
@@ -12920,26 +12920,26 @@
         <v>178</v>
       </c>
       <c r="B41" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.4468085106382983E-2</v>
       </c>
       <c r="C41" s="66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D41" s="69">
         <v>0.5</v>
       </c>
       <c r="E41" s="67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>charcoal</v>
       </c>
       <c r="F41" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.3615999999999996E-2</v>
       </c>
       <c r="G41" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
     </row>
@@ -13025,11 +13025,11 @@
         <v>214</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:C47" si="10">B$42</f>
+        <f t="shared" ref="B45:C47" si="12">B$42</f>
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>coke - CN</v>
       </c>
       <c r="D45">
@@ -13041,11 +13041,11 @@
         <v>charcoal</v>
       </c>
       <c r="F45" s="82">
-        <f t="shared" ref="F45:G45" si="11">F$42</f>
+        <f t="shared" ref="F45:G45" si="13">F$42</f>
         <v>7.8792000000000001E-2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7748E-2</v>
       </c>
     </row>
@@ -13062,11 +13062,11 @@
         <v>coke - IPCC</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:E46" si="12">D$27</f>
+        <f t="shared" ref="D46:E46" si="14">D$27</f>
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>charcoal</v>
       </c>
       <c r="F46" s="48">
@@ -13083,11 +13083,11 @@
         <v>216</v>
       </c>
       <c r="B47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>coke - CN</v>
       </c>
       <c r="D47" s="56">
@@ -13098,11 +13098,11 @@
         <v>charcoal</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:G47" si="13">F$42</f>
+        <f t="shared" ref="F47:G47" si="15">F$42</f>
         <v>7.8792000000000001E-2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7748E-2</v>
       </c>
     </row>
@@ -13122,7 +13122,7 @@
         <v>0.5</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" ref="E48:E49" si="14">E$27</f>
+        <f t="shared" ref="E48:E49" si="16">E$27</f>
         <v>charcoal</v>
       </c>
       <c r="F48" s="48">
@@ -13150,7 +13150,7 @@
         <v>0.5</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>charcoal</v>
       </c>
       <c r="F49" s="21">
@@ -13167,11 +13167,11 @@
         <v>219</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:C50" si="15">B$42</f>
+        <f t="shared" ref="B50:C50" si="17">B$42</f>
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>coke - CN</v>
       </c>
       <c r="D50" s="56">
@@ -13182,11 +13182,11 @@
         <v>charcoal</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:G50" si="16">F$42</f>
+        <f t="shared" ref="F50:G50" si="18">F$42</f>
         <v>7.8792000000000001E-2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7748E-2</v>
       </c>
     </row>
@@ -13195,11 +13195,11 @@
         <v>220</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:C52" si="17">B$42</f>
+        <f t="shared" ref="B51:C52" si="19">B$42</f>
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>coke - CN</v>
       </c>
       <c r="D51" s="56">
@@ -13209,11 +13209,11 @@
         <v>184</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:G52" si="18">F$42</f>
+        <f t="shared" ref="F51:G52" si="20">F$42</f>
         <v>7.8792000000000001E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.7748E-2</v>
       </c>
     </row>
@@ -13222,11 +13222,11 @@
         <v>179</v>
       </c>
       <c r="B52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>coke - CN</v>
       </c>
       <c r="D52" s="56">
@@ -13236,11 +13236,11 @@
         <v>184</v>
       </c>
       <c r="F52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.8792000000000001E-2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.7748E-2</v>
       </c>
     </row>
@@ -13257,11 +13257,11 @@
         <v>coke - IPCC</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:E56" si="19">D$27</f>
+        <f t="shared" ref="D53:E56" si="21">D$27</f>
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="F53" s="48">
@@ -13289,7 +13289,7 @@
         <v>0.5</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="F54" s="48">
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="F55" s="21">
@@ -13345,7 +13345,7 @@
         <v>0.5</v>
       </c>
       <c r="E56" s="67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="F56" s="66">
@@ -13386,27 +13386,27 @@
         <v>222</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58:C61" si="20">B$57</f>
+        <f t="shared" ref="B58:C61" si="22">B$57</f>
         <v>0.04</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:E60" si="21">D$24</f>
+        <f t="shared" ref="D58:E60" si="23">D$24</f>
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58:G61" si="22">F$57</f>
+        <f t="shared" ref="F58:G61" si="24">F$57</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -13415,26 +13415,26 @@
         <v>223</v>
       </c>
       <c r="B59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.04</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="D59" s="56">
         <v>0.5</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
       <c r="F59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -13443,26 +13443,26 @@
         <v>224</v>
       </c>
       <c r="B60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.04</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="D60" s="56">
         <v>1</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
       <c r="F60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -13471,11 +13471,11 @@
         <v>225</v>
       </c>
       <c r="B61" s="67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.04</v>
       </c>
       <c r="C61" s="67" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="D61" s="69">
@@ -13485,11 +13485,11 @@
         <v>184</v>
       </c>
       <c r="F61" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G61" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -13521,27 +13521,27 @@
         <v>227</v>
       </c>
       <c r="B63" s="62">
-        <f t="shared" ref="B63:C66" si="23">B$62</f>
+        <f t="shared" ref="B63:C66" si="25">B$62</f>
         <v>0.05</v>
       </c>
       <c r="C63" s="62" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:E65" si="24">D$24</f>
+        <f t="shared" ref="D63:E65" si="26">D$24</f>
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>charcoal</v>
       </c>
       <c r="F63" s="62">
-        <f t="shared" ref="F63:G66" si="25">F$62</f>
+        <f t="shared" ref="F63:G66" si="27">F$62</f>
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="G63" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13550,26 +13550,26 @@
         <v>228</v>
       </c>
       <c r="B64" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.05</v>
       </c>
       <c r="C64" s="62" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D64" s="56">
         <v>0.5</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>charcoal</v>
       </c>
       <c r="F64" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="G64" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13578,26 +13578,26 @@
         <v>229</v>
       </c>
       <c r="B65" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.05</v>
       </c>
       <c r="C65" s="62" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D65" s="56">
         <v>1</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>charcoal</v>
       </c>
       <c r="F65" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="G65" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13606,11 +13606,11 @@
         <v>230</v>
       </c>
       <c r="B66" s="86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.05</v>
       </c>
       <c r="C66" s="86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D66" s="69">
@@ -13620,11 +13620,11 @@
         <v>184</v>
       </c>
       <c r="F66" s="86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="G66" s="86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13662,27 +13662,27 @@
         <v>232</v>
       </c>
       <c r="B68" s="47">
-        <f t="shared" ref="B68:C71" si="26">B$67</f>
+        <f t="shared" ref="B68:C71" si="28">B$67</f>
         <v>4.7634799867681106E-2</v>
       </c>
       <c r="C68" s="47" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coke - US</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:E70" si="27">D$24</f>
+        <f t="shared" ref="D68:E70" si="29">D$24</f>
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>charcoal</v>
       </c>
       <c r="F68" s="47">
-        <f t="shared" ref="F68:G71" si="28">F$67</f>
+        <f t="shared" ref="F68:G71" si="30">F$67</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G68" s="47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13691,26 +13691,26 @@
         <v>233</v>
       </c>
       <c r="B69" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.7634799867681106E-2</v>
       </c>
       <c r="C69" s="47" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coke - US</v>
       </c>
       <c r="D69" s="56">
         <v>0.5</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>charcoal</v>
       </c>
       <c r="F69" s="47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G69" s="47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13719,26 +13719,26 @@
         <v>234</v>
       </c>
       <c r="B70" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.7634799867681106E-2</v>
       </c>
       <c r="C70" s="47" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coke - US</v>
       </c>
       <c r="D70" s="56">
         <v>1</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>charcoal</v>
       </c>
       <c r="F70" s="47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G70" s="47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13747,11 +13747,11 @@
         <v>235</v>
       </c>
       <c r="B71" s="89">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.7634799867681106E-2</v>
       </c>
       <c r="C71" s="89" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>coke - US</v>
       </c>
       <c r="D71" s="69">
@@ -13761,11 +13761,11 @@
         <v>184</v>
       </c>
       <c r="F71" s="89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G71" s="89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13799,27 +13799,27 @@
         <v>237</v>
       </c>
       <c r="B73" s="64">
-        <f>B$72</f>
+        <f t="shared" ref="B73:C76" si="31">B$72</f>
         <v>4.7634799867681106E-2</v>
       </c>
       <c r="C73" s="64" t="str">
-        <f>C$72</f>
+        <f t="shared" si="31"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:E75" si="29">D$24</f>
+        <f t="shared" ref="D73:E75" si="32">D$24</f>
         <v>0</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>charcoal</v>
       </c>
       <c r="F73" s="64">
-        <f t="shared" ref="F73:G76" si="30">F$72</f>
+        <f t="shared" ref="F73:G76" si="33">F$72</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G73" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13828,26 +13828,26 @@
         <v>238</v>
       </c>
       <c r="B74" s="64">
-        <f>B$72</f>
+        <f t="shared" si="31"/>
         <v>4.7634799867681106E-2</v>
       </c>
       <c r="C74" s="64" t="str">
-        <f>C$72</f>
+        <f t="shared" si="31"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D74" s="56">
         <v>0.5</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>charcoal</v>
       </c>
       <c r="F74" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G74" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13856,26 +13856,26 @@
         <v>239</v>
       </c>
       <c r="B75" s="64">
-        <f>B$72</f>
+        <f t="shared" si="31"/>
         <v>4.7634799867681106E-2</v>
       </c>
       <c r="C75" s="64" t="str">
-        <f>C$72</f>
+        <f t="shared" si="31"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D75" s="56">
         <v>1</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>charcoal</v>
       </c>
       <c r="F75" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G75" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13884,11 +13884,11 @@
         <v>240</v>
       </c>
       <c r="B76" s="97">
-        <f>B$72</f>
+        <f t="shared" si="31"/>
         <v>4.7634799867681106E-2</v>
       </c>
       <c r="C76" s="97" t="str">
-        <f>C$72</f>
+        <f t="shared" si="31"/>
         <v>coke - IPCC</v>
       </c>
       <c r="D76" s="69">
@@ -13898,11 +13898,11 @@
         <v>184</v>
       </c>
       <c r="F76" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G76" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
     </row>
@@ -13920,11 +13920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15305,35 +15305,35 @@
         <v>1.9275E-2</v>
       </c>
       <c r="E37">
-        <f>E$34</f>
+        <f t="shared" ref="E37:L37" si="4">E$34</f>
         <v>0.107</v>
       </c>
       <c r="F37" s="99">
-        <f>F$34</f>
+        <f t="shared" si="4"/>
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="G37">
-        <f>G$34</f>
+        <f t="shared" si="4"/>
         <v>0.28199999999999997</v>
       </c>
       <c r="H37" t="str">
-        <f>H$34</f>
+        <f t="shared" si="4"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I37">
-        <f>I$34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J37" t="str">
-        <f>J$34</f>
+        <f t="shared" si="4"/>
         <v>charcoal</v>
       </c>
       <c r="K37">
-        <f>K$34</f>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="L37" t="str">
-        <f>L$34</f>
+        <f t="shared" si="4"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="M37" s="56">
@@ -15414,35 +15414,35 @@
         <v>1.9275E-2</v>
       </c>
       <c r="E39">
-        <f>E$34</f>
+        <f t="shared" ref="E39:L39" si="5">E$34</f>
         <v>0.107</v>
       </c>
       <c r="F39" s="99">
-        <f>F$34</f>
+        <f t="shared" si="5"/>
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="G39">
-        <f>G$34</f>
+        <f t="shared" si="5"/>
         <v>0.28199999999999997</v>
       </c>
       <c r="H39" t="str">
-        <f>H$34</f>
+        <f t="shared" si="5"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I39">
-        <f>I$34</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J39" t="str">
-        <f>J$34</f>
+        <f t="shared" si="5"/>
         <v>charcoal</v>
       </c>
       <c r="K39">
-        <f>K$34</f>
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
       <c r="L39" t="str">
-        <f>L$34</f>
+        <f t="shared" si="5"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="M39" s="56">
@@ -15470,35 +15470,35 @@
         <v>1.9275E-2</v>
       </c>
       <c r="E40">
-        <f>E$35</f>
+        <f t="shared" ref="E40:L40" si="6">E$35</f>
         <v>0.107</v>
       </c>
       <c r="F40" s="99">
-        <f>F$35</f>
+        <f t="shared" si="6"/>
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="G40">
-        <f>G$35</f>
+        <f t="shared" si="6"/>
         <v>0.21149999999999997</v>
       </c>
       <c r="H40" t="str">
-        <f>H$35</f>
+        <f t="shared" si="6"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I40">
-        <f>I$35</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40" t="str">
-        <f>J$35</f>
+        <f t="shared" si="6"/>
         <v>charcoal</v>
       </c>
       <c r="K40">
-        <f>K$35</f>
+        <f t="shared" si="6"/>
         <v>0.12</v>
       </c>
       <c r="L40" t="str">
-        <f>L$35</f>
+        <f t="shared" si="6"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="M40" s="56">
@@ -15526,19 +15526,19 @@
         <v>1.9275E-2</v>
       </c>
       <c r="E41">
-        <f>E$33</f>
+        <f t="shared" ref="E41:H42" si="7">E$33</f>
         <v>0.26800000000000002</v>
       </c>
       <c r="F41" s="99">
-        <f>F$33</f>
+        <f t="shared" si="7"/>
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="G41">
-        <f>G$33</f>
+        <f t="shared" si="7"/>
         <v>0.35899999999999999</v>
       </c>
       <c r="H41" t="str">
-        <f>H$33</f>
+        <f t="shared" si="7"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I41" s="1">
@@ -15578,19 +15578,19 @@
         <v>2.3130000000000001E-2</v>
       </c>
       <c r="E42" s="67">
-        <f>E$33</f>
+        <f t="shared" si="7"/>
         <v>0.26800000000000002</v>
       </c>
       <c r="F42" s="100">
-        <f>F$33</f>
+        <f t="shared" si="7"/>
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="G42" s="67">
-        <f>G$33</f>
+        <f t="shared" si="7"/>
         <v>0.35899999999999999</v>
       </c>
       <c r="H42" s="67" t="str">
-        <f>H$33</f>
+        <f t="shared" si="7"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I42" s="114">
@@ -15821,27 +15821,27 @@
         <v>0.21185280000000001</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:L47" si="4">G$44</f>
+        <f t="shared" ref="G47:L47" si="8">G$44</f>
         <v>0.28799999999999998</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>coke - CN</v>
       </c>
       <c r="I47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20499999999999999</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>coal coking - CN</v>
       </c>
       <c r="M47" s="56">
@@ -15922,27 +15922,27 @@
         <v>0.21185280000000001</v>
       </c>
       <c r="G49">
-        <f>G$44</f>
+        <f t="shared" ref="G49:L49" si="9">G$44</f>
         <v>0.28799999999999998</v>
       </c>
       <c r="H49" t="str">
-        <f>H$44</f>
+        <f t="shared" si="9"/>
         <v>coke - CN</v>
       </c>
       <c r="I49">
-        <f>I$44</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J49" t="str">
-        <f>J$44</f>
+        <f t="shared" si="9"/>
         <v>charcoal</v>
       </c>
       <c r="K49">
-        <f>K$44</f>
+        <f t="shared" si="9"/>
         <v>0.20499999999999999</v>
       </c>
       <c r="L49" t="str">
-        <f>L$44</f>
+        <f t="shared" si="9"/>
         <v>coal coking - CN</v>
       </c>
       <c r="M49" s="56">
@@ -15973,27 +15973,27 @@
         <v>0.15888959999999999</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:L50" si="5">G$45</f>
+        <f t="shared" ref="G50:L50" si="10">G$45</f>
         <v>0.23039999999999999</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>coke - CN</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>charcoal</v>
       </c>
       <c r="K50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.16400000000000001</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>coal coking - CN</v>
       </c>
       <c r="M50" s="56">
@@ -16024,23 +16024,23 @@
         <v>0.264816</v>
       </c>
       <c r="G51">
-        <f>G$43</f>
+        <f t="shared" ref="G51:K52" si="11">G$43</f>
         <v>0.36199999999999999</v>
       </c>
       <c r="H51" t="str">
-        <f>H$43</f>
+        <f t="shared" si="11"/>
         <v>coke - CN</v>
       </c>
       <c r="I51">
-        <f>I$43</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J51" t="str">
-        <f>J$43</f>
+        <f t="shared" si="11"/>
         <v>charcoal</v>
       </c>
       <c r="K51">
-        <f>K$43</f>
+        <f t="shared" si="11"/>
         <v>0.14899999999999999</v>
       </c>
       <c r="L51" s="3" t="s">
@@ -16075,23 +16075,23 @@
       </c>
       <c r="F52" s="100"/>
       <c r="G52" s="67">
-        <f>G$43</f>
+        <f t="shared" si="11"/>
         <v>0.36199999999999999</v>
       </c>
       <c r="H52" s="67" t="str">
-        <f>H$43</f>
+        <f t="shared" si="11"/>
         <v>coke - CN</v>
       </c>
       <c r="I52" s="67">
-        <f>I$43</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J52" s="67" t="str">
-        <f>J$43</f>
+        <f t="shared" si="11"/>
         <v>charcoal</v>
       </c>
       <c r="K52" s="67">
-        <f>K$43</f>
+        <f t="shared" si="11"/>
         <v>0.14899999999999999</v>
       </c>
       <c r="L52" s="65" t="s">
@@ -16168,27 +16168,27 @@
         <v>0.24</v>
       </c>
       <c r="G54">
-        <f t="shared" ref="G54:L57" si="6">G$53</f>
+        <f t="shared" ref="G54:L57" si="12">G$53</f>
         <v>0.36499999999999999</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="I54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>charcoal</v>
       </c>
       <c r="K54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>coal PCI - JP IPCC</v>
       </c>
       <c r="M54" s="113">
@@ -16203,7 +16203,7 @@
         <v>223</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:E57" si="7">B$53</f>
+        <f t="shared" ref="B55:B57" si="13">B$53</f>
         <v>1.17</v>
       </c>
       <c r="C55">
@@ -16219,27 +16219,27 @@
         <v>0.24</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="I55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>charcoal</v>
       </c>
       <c r="K55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>coal PCI - JP IPCC</v>
       </c>
       <c r="M55" s="113">
@@ -16254,7 +16254,7 @@
         <v>224</v>
       </c>
       <c r="B56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.17</v>
       </c>
       <c r="C56">
@@ -16270,27 +16270,27 @@
         <v>0.24</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="I56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>charcoal</v>
       </c>
       <c r="K56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>coal PCI - JP IPCC</v>
       </c>
       <c r="M56" s="113">
@@ -16305,7 +16305,7 @@
         <v>225</v>
       </c>
       <c r="B57" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.17</v>
       </c>
       <c r="C57" s="67">
@@ -16322,27 +16322,27 @@
       </c>
       <c r="F57" s="100"/>
       <c r="G57" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="H57" s="67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="I57" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J57" s="67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>charcoal</v>
       </c>
       <c r="K57" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="L57" s="67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>coal PCI - JP IPCC</v>
       </c>
       <c r="M57" s="124">
@@ -16406,39 +16406,39 @@
         <v>0.97749999999999992</v>
       </c>
       <c r="C59" s="62">
-        <f t="shared" ref="C59:E62" si="8">C$58</f>
+        <f t="shared" ref="C59:E62" si="14">C$58</f>
         <v>0.17249999999999999</v>
       </c>
       <c r="D59" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2400000000000003E-2</v>
       </c>
       <c r="E59" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="G59" s="62">
-        <f t="shared" ref="G59:L62" si="9">G$58</f>
+        <f t="shared" ref="G59:L62" si="15">G$58</f>
         <v>0.45300000000000001</v>
       </c>
       <c r="H59" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I59" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J59" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>charcoal</v>
       </c>
       <c r="K59" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="L59" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>natural gas - RU</v>
       </c>
       <c r="M59" s="113">
@@ -16453,43 +16453,43 @@
         <v>228</v>
       </c>
       <c r="B60" s="62">
-        <f t="shared" ref="B60:E62" si="10">B$58</f>
+        <f t="shared" ref="B60:B62" si="16">B$58</f>
         <v>0.97749999999999992</v>
       </c>
       <c r="C60" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17249999999999999</v>
       </c>
       <c r="D60" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2400000000000003E-2</v>
       </c>
       <c r="E60" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="G60" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.45300000000000001</v>
       </c>
       <c r="H60" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I60" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J60" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>charcoal</v>
       </c>
       <c r="K60" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="L60" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>natural gas - RU</v>
       </c>
       <c r="M60" s="113">
@@ -16504,43 +16504,43 @@
         <v>229</v>
       </c>
       <c r="B61" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.97749999999999992</v>
       </c>
       <c r="C61" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17249999999999999</v>
       </c>
       <c r="D61" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2400000000000003E-2</v>
       </c>
       <c r="E61" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="G61" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.45300000000000001</v>
       </c>
       <c r="H61" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I61" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J61" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>charcoal</v>
       </c>
       <c r="K61" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="L61" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>natural gas - RU</v>
       </c>
       <c r="M61" s="113">
@@ -16555,44 +16555,44 @@
         <v>230</v>
       </c>
       <c r="B62" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.97749999999999992</v>
       </c>
       <c r="C62" s="86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.17249999999999999</v>
       </c>
       <c r="D62" s="86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2400000000000003E-2</v>
       </c>
       <c r="E62" s="86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="F62" s="100"/>
       <c r="G62" s="86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.45300000000000001</v>
       </c>
       <c r="H62" s="86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I62" s="86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J62" s="86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>charcoal</v>
       </c>
       <c r="K62" s="86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="L62" s="86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>natural gas - RU</v>
       </c>
       <c r="M62" s="124">
@@ -16660,39 +16660,39 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:E67" si="11">C$63</f>
+        <f t="shared" ref="C64:E67" si="17">C$63</f>
         <v>1.2904411764705883</v>
       </c>
       <c r="D64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="E64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.27</v>
       </c>
       <c r="G64">
-        <f t="shared" ref="G64:L67" si="12">G$63</f>
+        <f t="shared" ref="G64:L67" si="18">G$63</f>
         <v>0.40555739331789614</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>coke - US</v>
       </c>
       <c r="I64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>charcoal</v>
       </c>
       <c r="K64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8.5319148936170208E-2</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>natural gas - US</v>
       </c>
       <c r="M64" s="113">
@@ -16707,43 +16707,43 @@
         <v>233</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:E67" si="13">B$63</f>
+        <f t="shared" ref="B65:B67" si="19">B$63</f>
         <v>0</v>
       </c>
       <c r="C65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.2904411764705883</v>
       </c>
       <c r="D65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="E65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.27</v>
       </c>
       <c r="G65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.40555739331789614</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>coke - US</v>
       </c>
       <c r="I65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>charcoal</v>
       </c>
       <c r="K65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8.5319148936170208E-2</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>natural gas - US</v>
       </c>
       <c r="M65" s="113">
@@ -16758,43 +16758,43 @@
         <v>234</v>
       </c>
       <c r="B66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.2904411764705883</v>
       </c>
       <c r="D66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="E66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.27</v>
       </c>
       <c r="G66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.40555739331789614</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>coke - US</v>
       </c>
       <c r="I66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>charcoal</v>
       </c>
       <c r="K66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8.5319148936170208E-2</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>natural gas - US</v>
       </c>
       <c r="M66" s="113">
@@ -16809,44 +16809,44 @@
         <v>235</v>
       </c>
       <c r="B67" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C67" s="67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.2904411764705883</v>
       </c>
       <c r="D67" s="67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="E67" s="67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.27</v>
       </c>
       <c r="F67" s="100"/>
       <c r="G67" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.40555739331789614</v>
       </c>
       <c r="H67" s="67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>coke - US</v>
       </c>
       <c r="I67" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J67" s="67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>charcoal</v>
       </c>
       <c r="K67" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8.5319148936170208E-2</v>
       </c>
       <c r="L67" s="67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>natural gas - US</v>
       </c>
       <c r="M67" s="124">
@@ -16910,39 +16910,39 @@
         <v>1.3</v>
       </c>
       <c r="C69" s="62">
-        <f t="shared" ref="C69:E72" si="14">C$68</f>
+        <f t="shared" ref="C69:E72" si="20">C$68</f>
         <v>0</v>
       </c>
       <c r="D69" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.01</v>
       </c>
       <c r="E69" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.1</v>
       </c>
       <c r="G69" s="62">
-        <f t="shared" ref="G69:L72" si="15">G$68</f>
+        <f t="shared" ref="G69:L72" si="21">G$68</f>
         <v>0.59</v>
       </c>
       <c r="H69" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I69" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J69" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="K69" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.11</v>
       </c>
       <c r="L69" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="M69" s="113">
@@ -16957,43 +16957,43 @@
         <v>238</v>
       </c>
       <c r="B70" s="62">
-        <f t="shared" ref="B70:E72" si="16">B$68</f>
+        <f t="shared" ref="B70:B72" si="22">B$68</f>
         <v>1.3</v>
       </c>
       <c r="C70" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D70" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.01</v>
       </c>
       <c r="E70" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.1</v>
       </c>
       <c r="G70" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.59</v>
       </c>
       <c r="H70" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I70" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J70" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="K70" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.11</v>
       </c>
       <c r="L70" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="M70" s="113">
@@ -17008,43 +17008,43 @@
         <v>239</v>
       </c>
       <c r="B71" s="62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.3</v>
       </c>
       <c r="C71" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D71" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.01</v>
       </c>
       <c r="E71" s="62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.1</v>
       </c>
       <c r="G71" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.59</v>
       </c>
       <c r="H71" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I71" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J71" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="K71" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.11</v>
       </c>
       <c r="L71" s="62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="M71" s="113">
@@ -17059,44 +17059,44 @@
         <v>240</v>
       </c>
       <c r="B72" s="86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.3</v>
       </c>
       <c r="C72" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D72" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.01</v>
       </c>
       <c r="E72" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.1</v>
       </c>
       <c r="F72" s="100"/>
       <c r="G72" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.59</v>
       </c>
       <c r="H72" s="86" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>coke - IPCC</v>
       </c>
       <c r="I72" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J72" s="86" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="K72" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.11</v>
       </c>
       <c r="L72" s="86" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="M72" s="124">
@@ -17936,39 +17936,39 @@
         <v>204</v>
       </c>
       <c r="B28">
-        <f>B$25</f>
+        <f t="shared" ref="B28:J28" si="1">B$25</f>
         <v>0.9</v>
       </c>
       <c r="C28">
-        <f>C$25</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="D28">
-        <f>D$25</f>
+        <f t="shared" si="1"/>
         <v>8.5106382978723406E-3</v>
       </c>
       <c r="E28" t="str">
-        <f>E$25</f>
+        <f t="shared" si="1"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F28">
-        <f>F$25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>G$25</f>
+        <f t="shared" si="1"/>
         <v>charcoal</v>
       </c>
       <c r="H28">
-        <f>H$25</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I28">
-        <f>I$25</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="J28">
-        <f>J$25</f>
+        <f t="shared" si="1"/>
         <v>8.5657535468903354E-2</v>
       </c>
     </row>
@@ -17981,35 +17981,35 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:J29" si="1">C$26</f>
+        <f t="shared" ref="C29:J29" si="2">C$26</f>
         <v>0.34</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>charcoal</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0667466761845266E-2</v>
       </c>
     </row>
@@ -18018,39 +18018,39 @@
         <v>206</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:J30" si="2">B$25</f>
+        <f t="shared" ref="B30:J30" si="3">B$25</f>
         <v>0.9</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5106382978723406E-3</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>charcoal</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5657535468903354E-2</v>
       </c>
     </row>
@@ -18059,39 +18059,39 @@
         <v>207</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:J31" si="3">B$26</f>
+        <f t="shared" ref="B31:J31" si="4">B$26</f>
         <v>0.78800000000000003</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>charcoal</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0667466761845266E-2</v>
       </c>
     </row>
@@ -18104,35 +18104,35 @@
         <v xml:space="preserve">                             </v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:J32" si="4">C$27</f>
+        <f t="shared" ref="C32:J32" si="5">C$27</f>
         <v>0.34</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>charcoal</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
       <c r="I32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0667466761845266E-2</v>
       </c>
     </row>
@@ -18141,39 +18141,39 @@
         <v>209</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:J35" si="5">B$25</f>
+        <f t="shared" ref="B33:J35" si="6">B$25</f>
         <v>0.9</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5106382978723406E-3</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>charcoal</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5657535468903354E-2</v>
       </c>
     </row>
@@ -18182,39 +18182,39 @@
         <v>210</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5106382978723406E-3</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>charcoal</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="J34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5657535468903354E-2</v>
       </c>
     </row>
@@ -18223,39 +18223,39 @@
         <v>174</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5106382978723406E-3</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>charcoal</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5657535468903354E-2</v>
       </c>
     </row>
@@ -18264,39 +18264,39 @@
         <v>175</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:J37" si="6">B$26</f>
+        <f t="shared" ref="B36:J37" si="7">B$26</f>
         <v>0.78800000000000003</v>
       </c>
       <c r="C36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34</v>
       </c>
       <c r="D36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>charcoal</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0667466761845266E-2</v>
       </c>
     </row>
@@ -18305,39 +18305,39 @@
         <v>176</v>
       </c>
       <c r="B37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.78800000000000003</v>
       </c>
       <c r="C37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34</v>
       </c>
       <c r="D37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>charcoal</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0667466761845266E-2</v>
       </c>
     </row>
@@ -18346,39 +18346,39 @@
         <v>177</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" ref="B38:J42" si="7">B$27</f>
+        <f t="shared" ref="B38:J42" si="8">B$27</f>
         <v xml:space="preserve">                             </v>
       </c>
       <c r="C38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34</v>
       </c>
       <c r="D38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
       <c r="H38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.03</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.03</v>
       </c>
       <c r="J38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.0667466761845266E-2</v>
       </c>
     </row>
@@ -18387,39 +18387,39 @@
         <v>178</v>
       </c>
       <c r="B39" s="67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                             </v>
       </c>
       <c r="C39" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34</v>
       </c>
       <c r="D39" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E39" s="67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F39" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G39" s="67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
       <c r="H39" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.03</v>
       </c>
       <c r="I39" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.03</v>
       </c>
       <c r="J39" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.0667466761845266E-2</v>
       </c>
     </row>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
       <c r="H41" s="131">
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
       <c r="H42" s="131">
@@ -18535,35 +18535,35 @@
         <v>1.0050000000000001</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:J43" si="8">C$40</f>
+        <f t="shared" ref="C43:J43" si="9">C$40</f>
         <v>0.01</v>
       </c>
       <c r="D43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>coke - CN</v>
       </c>
       <c r="F43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>charcoal</v>
       </c>
       <c r="H43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13</v>
       </c>
       <c r="J43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18576,35 +18576,35 @@
         <v>0.95</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:J44" si="9">C$41</f>
+        <f t="shared" ref="C44:J44" si="10">C$41</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="D44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>coke - CN</v>
       </c>
       <c r="F44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>charcoal</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1278</v>
       </c>
       <c r="J44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18613,39 +18613,39 @@
         <v>216</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:J45" si="10">B$40</f>
+        <f t="shared" ref="B45:J45" si="11">B$40</f>
         <v>1.0050000000000001</v>
       </c>
       <c r="C45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="D45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>coke - CN</v>
       </c>
       <c r="F45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>charcoal</v>
       </c>
       <c r="H45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13</v>
       </c>
       <c r="J45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18654,39 +18654,39 @@
         <v>217</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:J46" si="11">B$41</f>
+        <f t="shared" ref="B46:J46" si="12">B$41</f>
         <v>0.95</v>
       </c>
       <c r="C46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="D46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>coke - CN</v>
       </c>
       <c r="F46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>charcoal</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1278</v>
       </c>
       <c r="J46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18699,35 +18699,35 @@
         <v>0.8</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:J47" si="12">C$42</f>
+        <f t="shared" ref="C47:J47" si="13">C$42</f>
         <v>0.3</v>
       </c>
       <c r="D47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>coke - CN</v>
       </c>
       <c r="F47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>charcoal</v>
       </c>
       <c r="H47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18736,39 +18736,39 @@
         <v>219</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:J50" si="13">B$40</f>
+        <f t="shared" ref="B48:J50" si="14">B$40</f>
         <v>1.0050000000000001</v>
       </c>
       <c r="C48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="D48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>coke - CN</v>
       </c>
       <c r="F48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>charcoal</v>
       </c>
       <c r="H48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13</v>
       </c>
       <c r="J48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18777,39 +18777,39 @@
         <v>220</v>
       </c>
       <c r="B49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0050000000000001</v>
       </c>
       <c r="C49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="D49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>coke - CN</v>
       </c>
       <c r="F49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>charcoal</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13</v>
       </c>
       <c r="J49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18818,39 +18818,39 @@
         <v>179</v>
       </c>
       <c r="B50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0050000000000001</v>
       </c>
       <c r="C50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="D50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>coke - CN</v>
       </c>
       <c r="F50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>charcoal</v>
       </c>
       <c r="H50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13</v>
       </c>
       <c r="J50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18859,39 +18859,39 @@
         <v>180</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:J52" si="14">B$41</f>
+        <f t="shared" ref="B51:J52" si="15">B$41</f>
         <v>0.95</v>
       </c>
       <c r="C51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="D51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>coke - CN</v>
       </c>
       <c r="F51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>charcoal</v>
       </c>
       <c r="H51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1278</v>
       </c>
       <c r="J51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18900,39 +18900,39 @@
         <v>181</v>
       </c>
       <c r="B52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
       <c r="C52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="D52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>coke - CN</v>
       </c>
       <c r="F52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>charcoal</v>
       </c>
       <c r="H52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1278</v>
       </c>
       <c r="J52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18941,39 +18941,39 @@
         <v>182</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:J54" si="15">B$42</f>
+        <f t="shared" ref="B53:J54" si="16">B$42</f>
         <v>0.8</v>
       </c>
       <c r="C53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
       <c r="D53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>coke - CN</v>
       </c>
       <c r="F53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>charcoal</v>
       </c>
       <c r="H53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -18982,39 +18982,39 @@
         <v>183</v>
       </c>
       <c r="B54" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="C54" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
       <c r="D54" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E54" s="67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>coke - CN</v>
       </c>
       <c r="F54" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G54" s="67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>charcoal</v>
       </c>
       <c r="H54" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0733333333333334E-2</v>
       </c>
       <c r="I54" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J54" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.2923115195859714E-2</v>
       </c>
     </row>
@@ -19059,35 +19059,35 @@
         <v>0.95</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:J59" si="16">C$55</f>
+        <f t="shared" ref="C56:J59" si="17">C$55</f>
         <v>0.155</v>
       </c>
       <c r="D56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="F56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>charcoal</v>
       </c>
       <c r="H56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="J56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19096,39 +19096,39 @@
         <v>223</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:J59" si="17">B$55</f>
+        <f t="shared" ref="B57:B59" si="18">B$55</f>
         <v>0.95</v>
       </c>
       <c r="C57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.155</v>
       </c>
       <c r="D57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="F57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>charcoal</v>
       </c>
       <c r="H57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="J57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19137,39 +19137,39 @@
         <v>224</v>
       </c>
       <c r="B58">
+        <f t="shared" si="18"/>
+        <v>0.95</v>
+      </c>
+      <c r="C58">
         <f t="shared" si="17"/>
-        <v>0.95</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="16"/>
         <v>0.155</v>
       </c>
       <c r="D58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="F58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>charcoal</v>
       </c>
       <c r="H58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="J58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19178,39 +19178,39 @@
         <v>225</v>
       </c>
       <c r="B59" s="67">
+        <f t="shared" si="18"/>
+        <v>0.95</v>
+      </c>
+      <c r="C59" s="67">
         <f t="shared" si="17"/>
-        <v>0.95</v>
-      </c>
-      <c r="C59" s="67">
-        <f t="shared" si="16"/>
         <v>0.155</v>
       </c>
       <c r="D59" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
       <c r="E59" s="67" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>coke - JP IPCC</v>
       </c>
       <c r="F59" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G59" s="67" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>charcoal</v>
       </c>
       <c r="H59" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I59" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="J59" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19255,35 +19255,35 @@
         <v>0.95</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:J64" si="18">C$60</f>
+        <f t="shared" ref="C61:J64" si="19">C$60</f>
         <v>0.155</v>
       </c>
       <c r="D61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>coke - IPCC</v>
       </c>
       <c r="F61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>charcoal</v>
       </c>
       <c r="H61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13</v>
       </c>
       <c r="J61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19292,39 +19292,39 @@
         <v>228</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:J64" si="19">B$60</f>
+        <f t="shared" ref="B62:B64" si="20">B$60</f>
         <v>0.95</v>
       </c>
       <c r="C62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.155</v>
       </c>
       <c r="D62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>coke - IPCC</v>
       </c>
       <c r="F62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>charcoal</v>
       </c>
       <c r="H62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13</v>
       </c>
       <c r="J62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19333,39 +19333,39 @@
         <v>229</v>
       </c>
       <c r="B63">
+        <f t="shared" si="20"/>
+        <v>0.95</v>
+      </c>
+      <c r="C63">
         <f t="shared" si="19"/>
-        <v>0.95</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="18"/>
         <v>0.155</v>
       </c>
       <c r="D63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>coke - IPCC</v>
       </c>
       <c r="F63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>charcoal</v>
       </c>
       <c r="H63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13</v>
       </c>
       <c r="J63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19374,39 +19374,39 @@
         <v>230</v>
       </c>
       <c r="B64" s="67">
+        <f t="shared" si="20"/>
+        <v>0.95</v>
+      </c>
+      <c r="C64" s="67">
         <f t="shared" si="19"/>
-        <v>0.95</v>
-      </c>
-      <c r="C64" s="67">
-        <f t="shared" si="18"/>
         <v>0.155</v>
       </c>
       <c r="D64" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E64" s="67" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>coke - IPCC</v>
       </c>
       <c r="F64" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G64" s="67" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>charcoal</v>
       </c>
       <c r="H64" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I64" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13</v>
       </c>
       <c r="J64" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19457,35 +19457,35 @@
         <v>0.85167464114832525</v>
       </c>
       <c r="C66" s="48">
-        <f t="shared" ref="C66:J69" si="20">C$65</f>
+        <f t="shared" ref="C66:J69" si="21">C$65</f>
         <v>0.27113237639553428</v>
       </c>
       <c r="D66" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.1295116772823776E-3</v>
       </c>
       <c r="E66" s="48" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>natural gas - US</v>
       </c>
       <c r="F66" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G66" s="48" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="H66" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.04</v>
       </c>
       <c r="I66" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.13</v>
       </c>
       <c r="J66" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19494,39 +19494,39 @@
         <v>233</v>
       </c>
       <c r="B67" s="48">
-        <f t="shared" ref="B67:J69" si="21">B$65</f>
+        <f t="shared" ref="B67:B69" si="22">B$65</f>
         <v>0.85167464114832525</v>
       </c>
       <c r="C67" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.27113237639553428</v>
       </c>
       <c r="D67" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.1295116772823776E-3</v>
       </c>
       <c r="E67" s="48" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>natural gas - US</v>
       </c>
       <c r="F67" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G67" s="48" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="H67" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.04</v>
       </c>
       <c r="I67" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.13</v>
       </c>
       <c r="J67" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19535,39 +19535,39 @@
         <v>234</v>
       </c>
       <c r="B68" s="48">
+        <f t="shared" si="22"/>
+        <v>0.85167464114832525</v>
+      </c>
+      <c r="C68" s="48">
         <f t="shared" si="21"/>
-        <v>0.85167464114832525</v>
-      </c>
-      <c r="C68" s="48">
-        <f t="shared" si="20"/>
         <v>0.27113237639553428</v>
       </c>
       <c r="D68" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.1295116772823776E-3</v>
       </c>
       <c r="E68" s="48" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>natural gas - US</v>
       </c>
       <c r="F68" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G68" s="48" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="H68" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.04</v>
       </c>
       <c r="I68" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.13</v>
       </c>
       <c r="J68" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19576,39 +19576,39 @@
         <v>235</v>
       </c>
       <c r="B69" s="92">
+        <f t="shared" si="22"/>
+        <v>0.85167464114832525</v>
+      </c>
+      <c r="C69" s="92">
         <f t="shared" si="21"/>
-        <v>0.85167464114832525</v>
-      </c>
-      <c r="C69" s="92">
-        <f t="shared" si="20"/>
         <v>0.27113237639553428</v>
       </c>
       <c r="D69" s="92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.1295116772823776E-3</v>
       </c>
       <c r="E69" s="92" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>natural gas - US</v>
       </c>
       <c r="F69" s="92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G69" s="92" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
       <c r="H69" s="92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.04</v>
       </c>
       <c r="I69" s="92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.13</v>
       </c>
       <c r="J69" s="92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19653,35 +19653,35 @@
         <v>0.95</v>
       </c>
       <c r="C71" s="132">
-        <f t="shared" ref="C71:J74" si="22">C$70</f>
+        <f t="shared" ref="C71:J74" si="23">C$70</f>
         <v>0.15</v>
       </c>
       <c r="D71" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E71" s="132" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>coke - IPCC</v>
       </c>
       <c r="F71" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G71" s="132" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
       <c r="H71" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I71" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="J71" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19690,39 +19690,39 @@
         <v>238</v>
       </c>
       <c r="B72" s="132">
-        <f t="shared" ref="B72:J74" si="23">B$70</f>
+        <f t="shared" ref="B72:B74" si="24">B$70</f>
         <v>0.95</v>
       </c>
       <c r="C72" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
       <c r="D72" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E72" s="132" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>coke - IPCC</v>
       </c>
       <c r="F72" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G72" s="132" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
       <c r="H72" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I72" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="J72" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19731,39 +19731,39 @@
         <v>239</v>
       </c>
       <c r="B73" s="132">
+        <f t="shared" si="24"/>
+        <v>0.95</v>
+      </c>
+      <c r="C73" s="132">
         <f t="shared" si="23"/>
-        <v>0.95</v>
-      </c>
-      <c r="C73" s="132">
-        <f t="shared" si="22"/>
         <v>0.15</v>
       </c>
       <c r="D73" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E73" s="132" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>coke - IPCC</v>
       </c>
       <c r="F73" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G73" s="132" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
       <c r="H73" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I73" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="J73" s="132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19772,39 +19772,39 @@
         <v>240</v>
       </c>
       <c r="B74" s="133">
+        <f t="shared" si="24"/>
+        <v>0.95</v>
+      </c>
+      <c r="C74" s="133">
         <f t="shared" si="23"/>
-        <v>0.95</v>
-      </c>
-      <c r="C74" s="133">
-        <f t="shared" si="22"/>
         <v>0.15</v>
       </c>
       <c r="D74" s="133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E74" s="133" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>coke - IPCC</v>
       </c>
       <c r="F74" s="133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G74" s="133" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
       <c r="H74" s="133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I74" s="133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="J74" s="133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -20262,11 +20262,11 @@
         <v>209</v>
       </c>
       <c r="B37">
-        <f>B$29</f>
+        <f t="shared" ref="B37:C39" si="2">B$29</f>
         <v>0.87</v>
       </c>
       <c r="C37" s="21">
-        <f>C$29</f>
+        <f t="shared" si="2"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20275,11 +20275,11 @@
         <v>210</v>
       </c>
       <c r="B38">
-        <f>B$29</f>
+        <f t="shared" si="2"/>
         <v>0.87</v>
       </c>
       <c r="C38" s="21">
-        <f>C$29</f>
+        <f t="shared" si="2"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20288,11 +20288,11 @@
         <v>174</v>
       </c>
       <c r="B39">
-        <f>B$29</f>
+        <f t="shared" si="2"/>
         <v>0.87</v>
       </c>
       <c r="C39" s="21">
-        <f>C$29</f>
+        <f t="shared" si="2"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20366,11 +20366,11 @@
         <v>212</v>
       </c>
       <c r="B45" s="115">
-        <f t="shared" ref="B45:C46" si="2">B$7</f>
+        <f t="shared" ref="B45:C45" si="3">B$7</f>
         <v>0.87</v>
       </c>
       <c r="C45" s="135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20456,11 +20456,11 @@
         <v>219</v>
       </c>
       <c r="B52">
-        <f>B$44</f>
+        <f t="shared" ref="B52:C54" si="4">B$44</f>
         <v>0.87</v>
       </c>
       <c r="C52" s="21">
-        <f>C$44</f>
+        <f t="shared" si="4"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20469,11 +20469,11 @@
         <v>220</v>
       </c>
       <c r="B53">
-        <f>B$44</f>
+        <f t="shared" si="4"/>
         <v>0.87</v>
       </c>
       <c r="C53" s="21">
-        <f>C$44</f>
+        <f t="shared" si="4"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20482,11 +20482,11 @@
         <v>179</v>
       </c>
       <c r="B54">
-        <f>B$44</f>
+        <f t="shared" si="4"/>
         <v>0.87</v>
       </c>
       <c r="C54" s="21">
-        <f>C$44</f>
+        <f t="shared" si="4"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20521,11 +20521,11 @@
         <v>182</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:C58" si="3">B$46</f>
+        <f t="shared" ref="B57:C58" si="5">B$46</f>
         <v>0.87</v>
       </c>
       <c r="C57" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1700546770503895</v>
       </c>
     </row>
@@ -20534,11 +20534,11 @@
         <v>183</v>
       </c>
       <c r="B58" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.87</v>
       </c>
       <c r="C58" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1700546770503895</v>
       </c>
     </row>
@@ -20547,11 +20547,11 @@
         <v>221</v>
       </c>
       <c r="B59" s="110">
-        <f t="shared" ref="B59:C59" si="4">B$7</f>
+        <f t="shared" ref="B59:C59" si="6">B$7</f>
         <v>0.87</v>
       </c>
       <c r="C59" s="138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20564,7 +20564,7 @@
         <v>0.87</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C63" si="5">C$59</f>
+        <f t="shared" ref="C60:C63" si="7">C$59</f>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20573,11 +20573,11 @@
         <v>223</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:C63" si="6">B$59</f>
+        <f t="shared" ref="B61:B63" si="8">B$59</f>
         <v>0.87</v>
       </c>
       <c r="C61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20586,11 +20586,11 @@
         <v>224</v>
       </c>
       <c r="B62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.87</v>
       </c>
       <c r="C62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20599,11 +20599,11 @@
         <v>225</v>
       </c>
       <c r="B63" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.87</v>
       </c>
       <c r="C63" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
         <v>0.87</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C68" si="7">C$64</f>
+        <f t="shared" ref="C65:C68" si="9">C$64</f>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20638,11 +20638,11 @@
         <v>228</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:C68" si="8">B$64</f>
+        <f t="shared" ref="B66:B68" si="10">B$64</f>
         <v>0.87</v>
       </c>
       <c r="C66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20651,11 +20651,11 @@
         <v>229</v>
       </c>
       <c r="B67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.87</v>
       </c>
       <c r="C67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20664,11 +20664,11 @@
         <v>230</v>
       </c>
       <c r="B68" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.87</v>
       </c>
       <c r="C68" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20677,11 +20677,11 @@
         <v>231</v>
       </c>
       <c r="B69" s="115">
-        <f t="shared" ref="B69:C69" si="9">B$7</f>
+        <f t="shared" ref="B69:C69" si="11">B$7</f>
         <v>0.87</v>
       </c>
       <c r="C69" s="135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20694,7 +20694,7 @@
         <v>0.87</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:C73" si="10">C$69</f>
+        <f t="shared" ref="C70:C73" si="12">C$69</f>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20703,11 +20703,11 @@
         <v>233</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:C73" si="11">B$69</f>
+        <f t="shared" ref="B71:B73" si="13">B$69</f>
         <v>0.87</v>
       </c>
       <c r="C71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20716,11 +20716,11 @@
         <v>234</v>
       </c>
       <c r="B72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.87</v>
       </c>
       <c r="C72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20729,11 +20729,11 @@
         <v>235</v>
       </c>
       <c r="B73" s="67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.87</v>
       </c>
       <c r="C73" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3869199999999999</v>
       </c>
     </row>
@@ -20759,7 +20759,7 @@
         <v>0.87</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C78" si="12">C$74</f>
+        <f t="shared" ref="C75:C78" si="14">C$74</f>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20768,11 +20768,11 @@
         <v>238</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:C78" si="13">B$74</f>
+        <f t="shared" ref="B76:B78" si="15">B$74</f>
         <v>0.87</v>
       </c>
       <c r="C76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20781,11 +20781,11 @@
         <v>239</v>
       </c>
       <c r="B77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.87</v>
       </c>
       <c r="C77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -20794,11 +20794,11 @@
         <v>240</v>
       </c>
       <c r="B78" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.87</v>
       </c>
       <c r="C78" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.6764799999999997</v>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
         <v>223</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:D57" si="17">B$53</f>
+        <f t="shared" ref="B55:B57" si="17">B$53</f>
         <v>1</v>
       </c>
       <c r="C55">
@@ -21811,7 +21811,7 @@
         <v>228</v>
       </c>
       <c r="B60" s="62">
-        <f t="shared" ref="B60:D62" si="19">B$58</f>
+        <f t="shared" ref="B60:B62" si="19">B$58</f>
         <v>1</v>
       </c>
       <c r="C60" s="62">
@@ -21893,7 +21893,7 @@
         <v>233</v>
       </c>
       <c r="B65" s="62">
-        <f t="shared" ref="B65:D67" si="21">B$63</f>
+        <f t="shared" ref="B65:B67" si="21">B$63</f>
         <v>1</v>
       </c>
       <c r="C65" s="62">
@@ -21975,7 +21975,7 @@
         <v>238</v>
       </c>
       <c r="B70" s="62">
-        <f t="shared" ref="B70:D72" si="23">B$68</f>
+        <f t="shared" ref="B70:B72" si="23">B$68</f>
         <v>1</v>
       </c>
       <c r="C70" s="62">
@@ -22988,7 +22988,7 @@
         <v>223</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:D57" si="17">B$53</f>
+        <f t="shared" ref="B55:B57" si="17">B$53</f>
         <v>0.8</v>
       </c>
       <c r="C55">
@@ -23079,7 +23079,7 @@
         <v>228</v>
       </c>
       <c r="B60" s="62">
-        <f t="shared" ref="B60:D62" si="19">B$58</f>
+        <f t="shared" ref="B60:B62" si="19">B$58</f>
         <v>0.8</v>
       </c>
       <c r="C60" s="62">
@@ -23170,7 +23170,7 @@
         <v>233</v>
       </c>
       <c r="B65" s="62">
-        <f t="shared" ref="B65:D67" si="21">B$63</f>
+        <f t="shared" ref="B65:B67" si="21">B$63</f>
         <v>0.8</v>
       </c>
       <c r="C65" s="62">
@@ -23261,7 +23261,7 @@
         <v>238</v>
       </c>
       <c r="B70" s="62">
-        <f t="shared" ref="B70:D72" si="23">B$68</f>
+        <f t="shared" ref="B70:B72" si="23">B$68</f>
         <v>0.8</v>
       </c>
       <c r="C70" s="62">

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="17" r:id="rId1"/>
@@ -1254,7 +1254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="280">
   <si>
     <t>scenario</t>
   </si>
@@ -2045,9 +2045,6 @@
     <t>US-typical</t>
   </si>
   <si>
-    <t xml:space="preserve">                             </t>
-  </si>
-  <si>
     <t>Bandwidth Study</t>
   </si>
   <si>
@@ -2096,7 +2093,7 @@
     <t>PROXY - IN 2016</t>
   </si>
   <si>
-    <t>IPCC - natural gas</t>
+    <t>raw rice husk</t>
   </si>
 </sst>
 </file>
@@ -2899,10 +2896,10 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,7 +3757,7 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="E40" s="56">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>23</v>
@@ -4715,7 +4712,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
@@ -6993,7 +6990,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7652,10 +7649,10 @@
         <v>67</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -7697,7 +7694,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -7724,8 +7721,8 @@
       <c r="C53" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="93" t="s">
-        <v>69</v>
+      <c r="D53" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7794,8 +7791,8 @@
       <c r="C58" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="93" t="s">
-        <v>69</v>
+      <c r="D58" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8004,8 +8001,8 @@
       <c r="C73" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="93" t="s">
-        <v>69</v>
+      <c r="D73" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -9036,7 +9033,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10048,10 +10045,10 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11209,7 +11206,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55" t="s">
         <v>220</v>
       </c>
@@ -11224,8 +11221,8 @@
       <c r="D49" s="56">
         <v>0.2</v>
       </c>
-      <c r="E49" t="s">
-        <v>184</v>
+      <c r="E49" s="67" t="s">
+        <v>189</v>
       </c>
       <c r="F49">
         <f t="shared" si="12"/>
@@ -11276,7 +11273,7 @@
         <v>coke - CN</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:E54" si="13">D$26</f>
+        <f t="shared" ref="D51:E53" si="13">D$26</f>
         <v>0</v>
       </c>
       <c r="E51" t="str">
@@ -11363,9 +11360,8 @@
       <c r="D54" s="69">
         <v>0.5</v>
       </c>
-      <c r="E54" s="67" t="str">
-        <f t="shared" si="13"/>
-        <v>charcoal</v>
+      <c r="E54" s="67" t="s">
+        <v>189</v>
       </c>
       <c r="F54" s="67">
         <f t="shared" si="14"/>
@@ -11500,7 +11496,7 @@
         <v>0.2</v>
       </c>
       <c r="E59" s="67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F59" s="67">
         <f t="shared" si="17"/>
@@ -11909,7 +11905,7 @@
         <v>0.2</v>
       </c>
       <c r="E74" s="67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F74" s="91">
         <f t="shared" si="26"/>
@@ -11934,11 +11930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13167,11 +13163,11 @@
         <v>219</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:C50" si="17">B$42</f>
+        <f>B$42</f>
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="B50:C50" si="17">C$42</f>
         <v>coke - CN</v>
       </c>
       <c r="D50" s="56">
@@ -13190,7 +13186,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="55" t="s">
         <v>220</v>
       </c>
@@ -13205,8 +13201,8 @@
       <c r="D51" s="56">
         <v>0.2</v>
       </c>
-      <c r="E51" t="s">
-        <v>184</v>
+      <c r="E51" s="67" t="s">
+        <v>189</v>
       </c>
       <c r="F51">
         <f t="shared" ref="F51:G52" si="20">F$42</f>
@@ -13217,7 +13213,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="55" t="s">
         <v>179</v>
       </c>
@@ -13232,8 +13228,8 @@
       <c r="D52" s="56">
         <v>0.2</v>
       </c>
-      <c r="E52" t="s">
-        <v>184</v>
+      <c r="E52" s="67" t="s">
+        <v>189</v>
       </c>
       <c r="F52">
         <f t="shared" si="20"/>
@@ -13482,7 +13478,7 @@
         <v>0.2</v>
       </c>
       <c r="E61" s="67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F61" s="67">
         <f t="shared" si="24"/>
@@ -13895,7 +13891,7 @@
         <v>0.2</v>
       </c>
       <c r="E76" s="67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F76" s="97">
         <f t="shared" si="33"/>
@@ -13920,11 +13916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14083,7 +14079,7 @@
         <v>charcoal</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -14125,7 +14121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -14171,7 +14167,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>243</v>
       </c>
@@ -14217,7 +14213,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>244</v>
       </c>
@@ -14243,7 +14239,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -14275,7 +14271,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -14292,7 +14288,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -14334,7 +14330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -14376,7 +14372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -14394,7 +14390,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -14438,7 +14434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -14466,7 +14462,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -14511,7 +14507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -14555,7 +14551,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>259</v>
       </c>
@@ -14574,7 +14570,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -14623,7 +14619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -14672,7 +14668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -14721,7 +14717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -14770,7 +14766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -14819,7 +14815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -14864,7 +14860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -14902,7 +14898,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -14940,7 +14936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -14984,7 +14980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>143</v>
       </c>
@@ -15001,7 +14997,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -15034,7 +15030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -15068,7 +15064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>262</v>
       </c>
@@ -15090,7 +15086,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>167</v>
       </c>
@@ -15105,10 +15101,10 @@
         <v>201</v>
       </c>
       <c r="B33" s="104">
-        <v>1088</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="C33" s="104">
-        <v>358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D33" s="104">
         <v>2.5700000000000001E-2</v>
@@ -15242,11 +15238,11 @@
       </c>
       <c r="B36">
         <f>B$33</f>
-        <v>1088</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="C36">
         <f>C$33</f>
-        <v>358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D36">
         <f>D$33*0.75</f>
@@ -15350,11 +15346,11 @@
       </c>
       <c r="B38">
         <f>B$33</f>
-        <v>1088</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="C38">
         <f>C$33</f>
-        <v>358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D38">
         <f>D$33*0.75</f>
@@ -15515,11 +15511,11 @@
       </c>
       <c r="B41">
         <f>B$33</f>
-        <v>1088</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="C41">
         <f>C$33</f>
-        <v>358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D41">
         <f>D$33*0.75</f>
@@ -15567,11 +15563,11 @@
       </c>
       <c r="B42" s="67">
         <f>B$33</f>
-        <v>1088</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="C42" s="67">
         <f>C$33</f>
-        <v>358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D42" s="67">
         <f>D$33*0.9</f>
@@ -16101,7 +16097,7 @@
         <v>0.5</v>
       </c>
       <c r="N52" s="67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16348,8 +16344,8 @@
       <c r="M57" s="124">
         <v>0.5</v>
       </c>
-      <c r="N57" s="65" t="s">
-        <v>184</v>
+      <c r="N57" s="67" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16621,7 +16617,7 @@
         <v>0.27</v>
       </c>
       <c r="F63" s="121"/>
-      <c r="G63" s="96">
+      <c r="G63" s="90">
         <f>12.26/30.23</f>
         <v>0.40555739331789614</v>
       </c>
@@ -16671,7 +16667,7 @@
         <f t="shared" si="17"/>
         <v>0.27</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="21">
         <f t="shared" ref="G64:L67" si="18">G$63</f>
         <v>0.40555739331789614</v>
       </c>
@@ -16722,7 +16718,7 @@
         <f t="shared" si="17"/>
         <v>0.27</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="21">
         <f t="shared" si="18"/>
         <v>0.40555739331789614</v>
       </c>
@@ -16773,7 +16769,7 @@
         <f t="shared" si="17"/>
         <v>0.27</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="21">
         <f t="shared" si="18"/>
         <v>0.40555739331789614</v>
       </c>
@@ -16825,7 +16821,7 @@
         <v>0.27</v>
       </c>
       <c r="F67" s="100"/>
-      <c r="G67" s="67">
+      <c r="G67" s="66">
         <f t="shared" si="18"/>
         <v>0.40555739331789614</v>
       </c>
@@ -17102,8 +17098,8 @@
       <c r="M72" s="124">
         <v>0.5</v>
       </c>
-      <c r="N72" s="65" t="s">
-        <v>184</v>
+      <c r="N72" s="67" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -17118,10 +17114,10 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17902,8 +17898,9 @@
       <c r="A27" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>263</v>
+      <c r="B27" s="1">
+        <f>0.788</f>
+        <v>0.78800000000000003</v>
       </c>
       <c r="C27" s="1">
         <v>0.34</v>
@@ -18099,9 +18096,9 @@
       <c r="A32" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32">
         <f>B$27</f>
-        <v xml:space="preserve">                             </v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="C32">
         <f t="shared" ref="C32:J32" si="5">C$27</f>
@@ -18345,9 +18342,9 @@
       <c r="A38" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38">
         <f t="shared" ref="B38:J42" si="8">B$27</f>
-        <v xml:space="preserve">                             </v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="C38">
         <f t="shared" si="8"/>
@@ -18386,9 +18383,9 @@
       <c r="A39" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="67" t="str">
+      <c r="B39" s="67">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                             </v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="C39" s="67">
         <f t="shared" si="8"/>
@@ -19445,7 +19442,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -20053,7 +20050,7 @@
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21" s="5">
         <v>0.87</v>
@@ -20063,7 +20060,7 @@
         <v>0.54</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -20078,12 +20075,12 @@
         <v>0.1908</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23" s="5">
         <v>0.87</v>
@@ -20093,12 +20090,12 @@
         <v>1.1700546770503895</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24" s="5">
         <v>0.87</v>
@@ -20108,7 +20105,7 @@
         <v>1.6113468505068942</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -20174,7 +20171,7 @@
         <v>1.1700546770503895</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -20189,7 +20186,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -20819,7 +20816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -21212,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21226,7 +21223,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21240,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21458,7 +21455,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21472,7 +21469,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21486,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21704,7 +21701,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21786,7 +21783,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21868,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21950,7 +21947,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -22036,7 +22033,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22418,8 +22415,9 @@
       <c r="C23" s="104">
         <v>0</v>
       </c>
-      <c r="D23" s="104" t="s">
-        <v>280</v>
+      <c r="D23" s="105" t="str">
+        <f t="shared" ref="D23:D25" si="1">D$53</f>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="104"/>
@@ -22434,8 +22432,9 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="104" t="s">
-        <v>280</v>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>natural gas - IPCC</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -22448,8 +22447,9 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="104" t="s">
-        <v>280</v>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>natural gas - IPCC</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -22461,12 +22461,12 @@
         <v>0.8</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:D26" si="1">C$23</f>
+        <f t="shared" ref="C26:D26" si="2">C$23</f>
         <v>0</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="2"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -22480,12 +22480,12 @@
         <v>0.85</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:D27" si="2">C$24</f>
+        <f t="shared" ref="C27:D27" si="3">C$24</f>
         <v>0</v>
       </c>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="3"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -22495,16 +22495,16 @@
         <v>206</v>
       </c>
       <c r="B28" s="5">
-        <f t="shared" ref="B28:D28" si="3">B$23</f>
+        <f t="shared" ref="B28:D28" si="4">B$23</f>
         <v>0.8</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="4"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -22514,16 +22514,16 @@
         <v>207</v>
       </c>
       <c r="B29" s="5">
-        <f t="shared" ref="B29:D29" si="4">B$24</f>
+        <f t="shared" ref="B29:D29" si="5">B$24</f>
         <v>0.85</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="5"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -22537,12 +22537,12 @@
         <v>0.9</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:D30" si="5">C$25</f>
+        <f t="shared" ref="C30:D30" si="6">C$25</f>
         <v>0</v>
       </c>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="6"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -22552,16 +22552,16 @@
         <v>209</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" ref="B31:D33" si="6">B$23</f>
+        <f t="shared" ref="B31:D33" si="7">B$23</f>
         <v>0.8</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D31" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="7"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -22571,16 +22571,16 @@
         <v>210</v>
       </c>
       <c r="B32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D32" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="7"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -22590,16 +22590,16 @@
         <v>174</v>
       </c>
       <c r="B33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D33" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="7"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -22609,16 +22609,16 @@
         <v>175</v>
       </c>
       <c r="B34" s="5">
-        <f t="shared" ref="B34:D35" si="7">B$24</f>
+        <f t="shared" ref="B34:D35" si="8">B$24</f>
         <v>0.85</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D34" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="8"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -22628,16 +22628,16 @@
         <v>176</v>
       </c>
       <c r="B35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D35" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="8"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -22647,16 +22647,16 @@
         <v>177</v>
       </c>
       <c r="B36" s="5">
-        <f t="shared" ref="B36:D37" si="8">B$25</f>
+        <f t="shared" ref="B36:D37" si="9">B$25</f>
         <v>0.9</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D36" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="9"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -22666,16 +22666,16 @@
         <v>178</v>
       </c>
       <c r="B37" s="140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
       <c r="C37" s="140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D37" s="140" t="str">
-        <f t="shared" si="8"/>
-        <v>IPCC - natural gas</v>
+        <f t="shared" si="9"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
@@ -22731,11 +22731,11 @@
         <v>0.8</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:D43" si="9">C$38</f>
+        <f t="shared" ref="C41:D43" si="10">C$38</f>
         <v>0</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E41"/>
@@ -22750,11 +22750,11 @@
         <v>0.85</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:D42" si="10">C$39</f>
+        <f t="shared" ref="C42:D42" si="11">C$39</f>
         <v>0</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E42"/>
@@ -22769,11 +22769,11 @@
         <v>0.8</v>
       </c>
       <c r="C43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E43"/>
@@ -22784,15 +22784,15 @@
         <v>217</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44:D44" si="11">B$39</f>
+        <f t="shared" ref="B44:D44" si="12">B$39</f>
         <v>0.85</v>
       </c>
       <c r="C44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E44"/>
@@ -22807,11 +22807,11 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="12">C$40</f>
+        <f t="shared" ref="C45:D45" si="13">C$40</f>
         <v>0</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E45"/>
@@ -22826,11 +22826,11 @@
         <v>0.8</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:D48" si="13">C$38</f>
+        <f t="shared" ref="C46:D48" si="14">C$38</f>
         <v>0</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E46"/>
@@ -22845,11 +22845,11 @@
         <v>0.8</v>
       </c>
       <c r="C47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E47"/>
@@ -22864,11 +22864,11 @@
         <v>0.8</v>
       </c>
       <c r="C48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E48"/>
@@ -22879,15 +22879,15 @@
         <v>180</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:D50" si="14">B$39</f>
+        <f t="shared" ref="B49:D50" si="15">B$39</f>
         <v>0.85</v>
       </c>
       <c r="C49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E49"/>
@@ -22898,15 +22898,15 @@
         <v>181</v>
       </c>
       <c r="B50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.85</v>
       </c>
       <c r="C50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E50"/>
@@ -22917,15 +22917,15 @@
         <v>182</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:D52" si="15">B$40</f>
+        <f t="shared" ref="B51:D52" si="16">B$40</f>
         <v>0.9</v>
       </c>
       <c r="C51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E51"/>
@@ -22936,15 +22936,15 @@
         <v>183</v>
       </c>
       <c r="B52" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="C52" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D52" s="67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>coal coking - CN</v>
       </c>
       <c r="E52" s="67"/>
@@ -22973,11 +22973,11 @@
         <v>0.8</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D57" si="16">C$53</f>
+        <f t="shared" ref="C54:D57" si="17">C$53</f>
         <v>0</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E54"/>
@@ -22988,15 +22988,15 @@
         <v>223</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:B57" si="17">B$53</f>
+        <f t="shared" ref="B55:B57" si="18">B$53</f>
         <v>0.8</v>
       </c>
       <c r="C55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E55"/>
@@ -23007,15 +23007,15 @@
         <v>224</v>
       </c>
       <c r="B56">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="C56">
         <f t="shared" si="17"/>
-        <v>0.8</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E56"/>
@@ -23026,15 +23026,15 @@
         <v>225</v>
       </c>
       <c r="B57" s="67">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="C57" s="67">
         <f t="shared" si="17"/>
-        <v>0.8</v>
-      </c>
-      <c r="C57" s="67">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D57" s="67" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E57" s="67"/>
@@ -23064,11 +23064,11 @@
         <v>0.8</v>
       </c>
       <c r="C59" s="62">
-        <f t="shared" ref="C59:D62" si="18">C$58</f>
+        <f t="shared" ref="C59:D62" si="19">C$58</f>
         <v>0</v>
       </c>
       <c r="D59" s="62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E59"/>
@@ -23079,15 +23079,15 @@
         <v>228</v>
       </c>
       <c r="B60" s="62">
-        <f t="shared" ref="B60:B62" si="19">B$58</f>
+        <f t="shared" ref="B60:B62" si="20">B$58</f>
         <v>0.8</v>
       </c>
       <c r="C60" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D60" s="62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E60"/>
@@ -23098,15 +23098,15 @@
         <v>229</v>
       </c>
       <c r="B61" s="62">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="C61" s="62">
         <f t="shared" si="19"/>
-        <v>0.8</v>
-      </c>
-      <c r="C61" s="62">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D61" s="62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E61"/>
@@ -23117,15 +23117,15 @@
         <v>230</v>
       </c>
       <c r="B62" s="86">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="C62" s="86">
         <f t="shared" si="19"/>
-        <v>0.8</v>
-      </c>
-      <c r="C62" s="86">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D62" s="86" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E62" s="67"/>
@@ -23155,11 +23155,11 @@
         <v>0.8</v>
       </c>
       <c r="C64" s="62">
-        <f t="shared" ref="C64:D67" si="20">C$63</f>
+        <f t="shared" ref="C64:D67" si="21">C$63</f>
         <v>0</v>
       </c>
       <c r="D64" s="62" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E64"/>
@@ -23170,15 +23170,15 @@
         <v>233</v>
       </c>
       <c r="B65" s="62">
-        <f t="shared" ref="B65:B67" si="21">B$63</f>
+        <f t="shared" ref="B65:B67" si="22">B$63</f>
         <v>0.8</v>
       </c>
       <c r="C65" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D65" s="62" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E65"/>
@@ -23189,15 +23189,15 @@
         <v>234</v>
       </c>
       <c r="B66" s="62">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="C66" s="62">
         <f t="shared" si="21"/>
-        <v>0.8</v>
-      </c>
-      <c r="C66" s="62">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D66" s="62" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E66"/>
@@ -23208,15 +23208,15 @@
         <v>235</v>
       </c>
       <c r="B67" s="86">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="C67" s="86">
         <f t="shared" si="21"/>
-        <v>0.8</v>
-      </c>
-      <c r="C67" s="86">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D67" s="86" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="E67" s="67"/>
@@ -23246,11 +23246,11 @@
         <v>0.8</v>
       </c>
       <c r="C69" s="62">
-        <f t="shared" ref="C69:D72" si="22">C$68</f>
+        <f t="shared" ref="C69:D72" si="23">C$68</f>
         <v>0</v>
       </c>
       <c r="D69" s="62" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E69"/>
@@ -23261,15 +23261,15 @@
         <v>238</v>
       </c>
       <c r="B70" s="62">
-        <f t="shared" ref="B70:B72" si="23">B$68</f>
+        <f t="shared" ref="B70:B72" si="24">B$68</f>
         <v>0.8</v>
       </c>
       <c r="C70" s="62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D70" s="62" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E70"/>
@@ -23280,15 +23280,15 @@
         <v>239</v>
       </c>
       <c r="B71" s="62">
+        <f t="shared" si="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="C71" s="62">
         <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="C71" s="62">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D71" s="62" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E71"/>
@@ -23299,15 +23299,15 @@
         <v>240</v>
       </c>
       <c r="B72" s="86">
+        <f t="shared" si="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="C72" s="86">
         <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="C72" s="86">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D72" s="86" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E72" s="67"/>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18495" windowHeight="17535" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="17" r:id="rId1"/>
@@ -1254,7 +1254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="282">
   <si>
     <t>scenario</t>
   </si>
@@ -2094,6 +2094,12 @@
   </si>
   <si>
     <t>raw rice husk</t>
+  </si>
+  <si>
+    <t>coal coking - Birat</t>
+  </si>
+  <si>
+    <t>coke - Birat</t>
   </si>
 </sst>
 </file>
@@ -2429,7 +2435,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2540,7 +2546,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2610,6 +2615,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2895,11 +2902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55:XFD55"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,15 +2973,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="21">
-        <f>B7</f>
-        <v>0.77808901338313108</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="21">
-        <f>C7</f>
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3554,27 +3559,27 @@
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101" t="s">
+    <row r="32" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="102">
+      <c r="B32" s="101">
         <f>1/1.3</f>
         <v>0.76923076923076916</v>
       </c>
-      <c r="C32" s="103">
+      <c r="C32" s="102">
         <v>0.1</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="105">
-        <v>0</v>
-      </c>
-      <c r="F32" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="105" t="s">
+      <c r="E32" s="104">
+        <v>0</v>
+      </c>
+      <c r="F32" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="104" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3905,11 +3910,12 @@
       <c r="A47" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="81">
         <v>0.754</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
+      <c r="C47" s="73">
+        <f>35*3.6/1000</f>
+        <v>0.126</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>114</v>
@@ -3919,21 +3925,19 @@
       </c>
       <c r="F47" t="s">
         <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="88">
-        <f>1/1.3</f>
-        <v>0.76923076923076916</v>
-      </c>
-      <c r="C48" s="73">
-        <v>0.1</v>
+      <c r="B48" s="145">
+        <f>1/1.326</f>
+        <v>0.75414781297134237</v>
+      </c>
+      <c r="C48" s="71">
+        <f>35*3.6/1000</f>
+        <v>0.126</v>
       </c>
       <c r="D48" s="81" t="s">
         <v>114</v>
@@ -3943,6 +3947,9 @@
       </c>
       <c r="F48" t="s">
         <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3976,7 +3983,7 @@
       </c>
       <c r="C50">
         <f>C$47</f>
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="D50" t="str">
         <f>D$47</f>
@@ -3995,11 +4002,11 @@
       </c>
       <c r="B51" s="21">
         <f>B$48</f>
-        <v>0.76923076923076916</v>
+        <v>0.75414781297134237</v>
       </c>
       <c r="C51" s="21">
         <f>C$48</f>
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="D51" s="21" t="str">
         <f>D$48</f>
@@ -4022,7 +4029,7 @@
       </c>
       <c r="C52">
         <f>C$47</f>
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="D52" t="str">
         <f>D$47</f>
@@ -4041,11 +4048,11 @@
       </c>
       <c r="B53" s="21">
         <f>B$48</f>
-        <v>0.76923076923076916</v>
+        <v>0.75414781297134237</v>
       </c>
       <c r="C53" s="21">
         <f>C$48</f>
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="D53" s="21" t="str">
         <f>D$48</f>
@@ -4091,7 +4098,7 @@
       </c>
       <c r="C55">
         <f>C$47</f>
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="D55" t="str">
         <f>D$47</f>
@@ -4114,7 +4121,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="7"/>
@@ -4137,7 +4144,7 @@
       </c>
       <c r="C57">
         <f>C$47</f>
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="D57" t="str">
         <f>D$47</f>
@@ -4160,11 +4167,11 @@
       </c>
       <c r="B58" s="21">
         <f t="shared" ref="B58:D59" si="8">B$48</f>
-        <v>0.76923076923076916</v>
+        <v>0.75414781297134237</v>
       </c>
       <c r="C58" s="21">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="D58" s="21" t="str">
         <f t="shared" si="8"/>
@@ -4183,11 +4190,11 @@
       </c>
       <c r="B59" s="21">
         <f t="shared" si="8"/>
-        <v>0.76923076923076916</v>
+        <v>0.75414781297134237</v>
       </c>
       <c r="C59" s="21">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="D59" s="21" t="str">
         <f t="shared" si="8"/>
@@ -4227,15 +4234,15 @@
       <c r="A61" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="89">
+      <c r="B61" s="88">
         <f t="shared" si="9"/>
         <v>0.81967213114754101</v>
       </c>
-      <c r="C61" s="89">
+      <c r="C61" s="88">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="D61" s="89" t="str">
+      <c r="D61" s="88" t="str">
         <f t="shared" si="9"/>
         <v>coal coking - CN</v>
       </c>
@@ -5122,20 +5129,20 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
+    <row r="25" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="104">
+      <c r="B25" s="103">
         <v>1</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="103">
         <v>0.9</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="103">
         <v>0.5</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="103">
         <v>3</v>
       </c>
     </row>
@@ -5429,16 +5436,16 @@
       <c r="A40" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="129">
+      <c r="B40" s="128">
         <v>1</v>
       </c>
-      <c r="C40" s="129">
+      <c r="C40" s="128">
         <v>0.9</v>
       </c>
-      <c r="D40" s="129">
+      <c r="D40" s="128">
         <v>0.5</v>
       </c>
-      <c r="E40" s="129">
+      <c r="E40" s="128">
         <v>3</v>
       </c>
     </row>
@@ -5732,16 +5739,16 @@
       <c r="A55" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="B55" s="129">
+      <c r="B55" s="128">
         <v>1</v>
       </c>
-      <c r="C55" s="129">
+      <c r="C55" s="128">
         <v>0.9</v>
       </c>
-      <c r="D55" s="129">
+      <c r="D55" s="128">
         <v>0.5</v>
       </c>
-      <c r="E55" s="129">
+      <c r="E55" s="128">
         <v>3</v>
       </c>
     </row>
@@ -5833,16 +5840,16 @@
       <c r="A60" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B60" s="129">
+      <c r="B60" s="128">
         <v>1</v>
       </c>
-      <c r="C60" s="129">
+      <c r="C60" s="128">
         <v>0.9</v>
       </c>
-      <c r="D60" s="129">
+      <c r="D60" s="128">
         <v>0.5</v>
       </c>
-      <c r="E60" s="129">
+      <c r="E60" s="128">
         <v>3</v>
       </c>
     </row>
@@ -5934,16 +5941,16 @@
       <c r="A65" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="129">
+      <c r="B65" s="128">
         <v>1</v>
       </c>
-      <c r="C65" s="129">
+      <c r="C65" s="128">
         <v>0.9</v>
       </c>
-      <c r="D65" s="129">
+      <c r="D65" s="128">
         <v>0.5</v>
       </c>
-      <c r="E65" s="129">
+      <c r="E65" s="128">
         <v>3</v>
       </c>
     </row>
@@ -6035,16 +6042,16 @@
       <c r="A70" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="B70" s="129">
+      <c r="B70" s="128">
         <v>1</v>
       </c>
-      <c r="C70" s="129">
+      <c r="C70" s="128">
         <v>0.9</v>
       </c>
-      <c r="D70" s="129">
+      <c r="D70" s="128">
         <v>0.5</v>
       </c>
-      <c r="E70" s="129">
+      <c r="E70" s="128">
         <v>3</v>
       </c>
     </row>
@@ -6350,14 +6357,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+    <row r="22" spans="1:3" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="110">
+      <c r="B22" s="109">
         <v>0.01</v>
       </c>
-      <c r="C22" s="110">
+      <c r="C22" s="109">
         <v>0</v>
       </c>
     </row>
@@ -6543,10 +6550,10 @@
       <c r="A37" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="115">
+      <c r="B37" s="114">
         <v>0.01</v>
       </c>
-      <c r="C37" s="115">
+      <c r="C37" s="114">
         <v>0</v>
       </c>
     </row>
@@ -7025,17 +7032,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="141" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
+    <row r="4" spans="1:4" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="143" t="s">
+      <c r="C4" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="142" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7291,17 +7298,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="141" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="141" t="s">
+    <row r="23" spans="1:4" s="140" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="143" t="s">
+      <c r="C23" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="142" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7505,13 +7512,13 @@
       <c r="A38" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="93" t="s">
+      <c r="C38" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="92" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7715,10 +7722,10 @@
       <c r="A53" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B53" s="144" t="s">
+      <c r="B53" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="93" t="s">
+      <c r="C53" s="92" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="23" t="s">
@@ -7785,10 +7792,10 @@
       <c r="A58" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="B58" s="144" t="s">
+      <c r="B58" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="93" t="s">
+      <c r="C58" s="92" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="23" t="s">
@@ -7855,13 +7862,13 @@
       <c r="A63" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="144" t="s">
+      <c r="B63" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="93" t="s">
+      <c r="C63" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="92" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7925,13 +7932,13 @@
       <c r="A68" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="B68" s="144" t="s">
+      <c r="B68" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="93" t="s">
+      <c r="C68" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="92" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7995,10 +8002,10 @@
       <c r="A73" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="144" t="s">
+      <c r="B73" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="93" t="s">
+      <c r="C73" s="92" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="23" t="s">
@@ -8452,7 +8459,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="67" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="144" t="s">
         <v>244</v>
       </c>
       <c r="D17" s="67">
@@ -9033,7 +9040,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9085,6 +9092,12 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -9350,21 +9363,21 @@
       <c r="C25" s="30">
         <v>0.108</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-    </row>
-    <row r="26" spans="1:6" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="101" t="s">
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+    </row>
+    <row r="26" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="104">
+      <c r="B26" s="103">
         <v>0.05</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="103">
         <v>0.09</v>
       </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
@@ -10045,10 +10058,10 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10103,6 +10116,25 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -10540,7 +10572,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
         <v>244</v>
       </c>
@@ -10552,28 +10584,28 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
+    <row r="25" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="105">
+      <c r="B25" s="104">
         <f>0.563/28.2</f>
         <v>1.9964539007092198E-2</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="105">
-        <v>0</v>
-      </c>
-      <c r="E25" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="105">
+      <c r="D25" s="104">
+        <v>0</v>
+      </c>
+      <c r="E25" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="104">
         <f>0.018*0.56</f>
         <v>1.008E-2</v>
       </c>
-      <c r="G25" s="105">
+      <c r="G25" s="104">
         <f>0.075</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -11646,7 +11678,7 @@
       <c r="A65" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="90">
+      <c r="B65" s="89">
         <f>0.37/30.23</f>
         <v>1.2239497188223619E-2</v>
       </c>
@@ -11662,7 +11694,7 @@
       <c r="F65" s="81">
         <v>0</v>
       </c>
-      <c r="G65" s="90">
+      <c r="G65" s="89">
         <v>0.1</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -11893,11 +11925,11 @@
       <c r="A74" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="91">
+      <c r="B74" s="90">
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="C74" s="91" t="str">
+      <c r="C74" s="90" t="str">
         <f t="shared" si="24"/>
         <v>coke - IPCC</v>
       </c>
@@ -11907,11 +11939,11 @@
       <c r="E74" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="F74" s="91">
+      <c r="F74" s="90">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="G74" s="91">
+      <c r="G74" s="90">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -11930,11 +11962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11944,7 +11976,7 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12000,6 +12032,26 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="21">
+        <f>0.012/1.4</f>
+        <v>8.5714285714285719E-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="21">
+        <f>0.133*0.56/1.3</f>
+        <v>5.7292307692307691E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -12457,7 +12509,7 @@
       <c r="A24" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="108">
+      <c r="B24" s="107">
         <f>0.044</f>
         <v>4.3999999999999997E-2</v>
       </c>
@@ -12495,11 +12547,11 @@
       <c r="E25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="118">
+      <c r="F25" s="117">
         <f>0.1407*0.56</f>
         <v>7.8792000000000001E-2</v>
       </c>
-      <c r="G25" s="119">
+      <c r="G25" s="118">
         <f>4.93*Ref!B18</f>
         <v>1.7748E-2</v>
       </c>
@@ -12508,14 +12560,14 @@
       <c r="A26" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="108">
+      <c r="B26" s="107">
         <f>43.2/0.88</f>
         <v>49.090909090909093</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="116">
+      <c r="F26" s="115">
         <f>0.01109*(56/12)</f>
         <v>5.1753333333333332E-2</v>
       </c>
@@ -12523,32 +12575,32 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
+    <row r="27" spans="1:8" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="109">
+      <c r="B27" s="108">
         <f>1.2766/28.2</f>
         <v>4.5269503546099293E-2</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="105">
-        <v>0</v>
-      </c>
-      <c r="E27" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="104">
+      <c r="D27" s="104">
+        <v>0</v>
+      </c>
+      <c r="E27" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="103">
         <f>(0.56*131.1+10.2)/1000</f>
         <v>8.3615999999999996E-2</v>
       </c>
-      <c r="G27" s="110">
+      <c r="G27" s="109">
         <f>(0.092+0.155)/2</f>
         <v>0.1235</v>
       </c>
-      <c r="H27" s="104">
+      <c r="H27" s="103">
         <v>2004</v>
       </c>
     </row>
@@ -12556,7 +12608,7 @@
       <c r="A28" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="95">
+      <c r="B28" s="94">
         <f>1.254/28.2</f>
         <v>4.4468085106382983E-2</v>
       </c>
@@ -12581,7 +12633,7 @@
       <c r="A29" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="95">
+      <c r="B29" s="94">
         <f>1.254/28.2</f>
         <v>4.4468085106382983E-2</v>
       </c>
@@ -12943,7 +12995,7 @@
       <c r="A42" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="81">
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -12955,7 +13007,7 @@
       <c r="E42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="117">
+      <c r="F42" s="116">
         <f>0.1407*0.56</f>
         <v>7.8792000000000001E-2</v>
       </c>
@@ -12968,9 +13020,8 @@
       <c r="A43" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="94">
-        <f>1.2766/28.2</f>
-        <v>4.5269503546099293E-2</v>
+      <c r="B43" s="1">
+        <v>5.1040000000000002E-2</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>112</v>
@@ -12981,7 +13032,7 @@
       <c r="E43" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="117">
+      <c r="F43" s="116">
         <f>0.1407*0.56</f>
         <v>7.8792000000000001E-2</v>
       </c>
@@ -12994,7 +13045,7 @@
       <c r="A44" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="95">
+      <c r="B44" s="94">
         <f>1.254/28.2</f>
         <v>4.4468085106382983E-2</v>
       </c>
@@ -13007,7 +13058,7 @@
       <c r="E44" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="117">
+      <c r="F44" s="116">
         <f>0.1407*0.56</f>
         <v>7.8792000000000001E-2</v>
       </c>
@@ -13051,7 +13102,7 @@
       </c>
       <c r="B46" s="48">
         <f>B$43</f>
-        <v>4.5269503546099293E-2</v>
+        <v>5.1040000000000002E-2</v>
       </c>
       <c r="C46" s="48" t="str">
         <f>C$43</f>
@@ -13108,7 +13159,7 @@
       </c>
       <c r="B48" s="48">
         <f>B$43</f>
-        <v>4.5269503546099293E-2</v>
+        <v>5.1040000000000002E-2</v>
       </c>
       <c r="C48" s="48" t="str">
         <f>C$43</f>
@@ -13167,7 +13218,7 @@
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" ref="B50:C50" si="17">C$42</f>
+        <f t="shared" ref="C50" si="17">C$42</f>
         <v>coke - CN</v>
       </c>
       <c r="D50" s="56">
@@ -13246,7 +13297,7 @@
       </c>
       <c r="B53" s="48">
         <f>B$43</f>
-        <v>4.5269503546099293E-2</v>
+        <v>5.1040000000000002E-2</v>
       </c>
       <c r="C53" s="48" t="str">
         <f>C$43</f>
@@ -13275,7 +13326,7 @@
       </c>
       <c r="B54" s="48">
         <f>B$43</f>
-        <v>4.5269503546099293E-2</v>
+        <v>5.1040000000000002E-2</v>
       </c>
       <c r="C54" s="48" t="str">
         <f>C$43</f>
@@ -13505,7 +13556,7 @@
       <c r="E62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="96">
+      <c r="F62" s="95">
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="G62" s="81">
@@ -13742,11 +13793,11 @@
       <c r="A71" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="B71" s="89">
+      <c r="B71" s="88">
         <f t="shared" si="28"/>
         <v>4.7634799867681106E-2</v>
       </c>
-      <c r="C71" s="89" t="str">
+      <c r="C71" s="88" t="str">
         <f t="shared" si="28"/>
         <v>coke - US</v>
       </c>
@@ -13756,11 +13807,11 @@
       <c r="E71" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="F71" s="89">
+      <c r="F71" s="88">
         <f t="shared" si="30"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="G71" s="89">
+      <c r="G71" s="88">
         <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
@@ -13769,7 +13820,7 @@
       <c r="A72" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="111">
+      <c r="B72" s="110">
         <f>1.44/30.23</f>
         <v>4.7634799867681106E-2</v>
       </c>
@@ -13879,11 +13930,11 @@
       <c r="A76" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="B76" s="97">
+      <c r="B76" s="96">
         <f t="shared" si="31"/>
         <v>4.7634799867681106E-2</v>
       </c>
-      <c r="C76" s="97" t="str">
+      <c r="C76" s="96" t="str">
         <f t="shared" si="31"/>
         <v>coke - IPCC</v>
       </c>
@@ -13893,11 +13944,11 @@
       <c r="E76" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="F76" s="97">
+      <c r="F76" s="96">
         <f t="shared" si="33"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="G76" s="97">
+      <c r="G76" s="96">
         <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
@@ -13917,16 +13968,16 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="99"/>
+    <col min="6" max="6" width="11.42578125" style="98"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13946,7 +13997,7 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="98" t="s">
         <v>70</v>
       </c>
       <c r="G1" t="s">
@@ -13999,7 +14050,7 @@
       <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="98" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -14031,31 +14082,30 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:K4" si="0">B11</f>
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>7.28E-3</v>
+        <f>0.109*0.56</f>
+        <v>6.1040000000000004E-2</v>
       </c>
       <c r="E4">
-        <f>E11</f>
-        <v>0.10444000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="98">
+        <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.3548</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>coke - IPCC</v>
+        <f>0.382*0.8</f>
+        <v>0.30560000000000004</v>
+      </c>
+      <c r="H4" t="s">
+        <v>281</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:K4" si="0">I11</f>
         <v>0</v>
       </c>
       <c r="J4" t="str">
@@ -14063,12 +14113,10 @@
         <v>charcoal</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0.152</v>
-      </c>
-      <c r="L4" t="str">
-        <f>L17</f>
-        <v>coal coking - IPCC</v>
+        <v>0.187</v>
+      </c>
+      <c r="L4" t="s">
+        <v>280</v>
       </c>
       <c r="M4">
         <f>M11</f>
@@ -14079,7 +14127,7 @@
         <v>charcoal</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -14121,7 +14169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -14167,7 +14215,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>243</v>
       </c>
@@ -14213,7 +14261,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>244</v>
       </c>
@@ -14239,7 +14287,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -14271,7 +14319,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -14288,7 +14336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -14330,7 +14378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -14372,7 +14420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -14390,7 +14438,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -14434,7 +14482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -14462,7 +14510,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -14507,7 +14555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -14551,7 +14599,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>259</v>
       </c>
@@ -14570,7 +14618,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -14619,7 +14667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -14668,7 +14716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -14717,7 +14765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -14766,7 +14814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -14815,7 +14863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -14832,7 +14880,7 @@
       <c r="E24">
         <v>0.37331999999999999</v>
       </c>
-      <c r="F24" s="99">
+      <c r="F24" s="98">
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="G24">
@@ -14860,7 +14908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -14898,7 +14946,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -14936,7 +14984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -14952,7 +15000,7 @@
       <c r="E27">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F27" s="99">
+      <c r="F27" s="98">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="G27">
@@ -14980,7 +15028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>143</v>
       </c>
@@ -14997,7 +15045,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -15030,7 +15078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -15064,7 +15112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>262</v>
       </c>
@@ -15086,57 +15134,57 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="126"/>
+      <c r="F32" s="125"/>
       <c r="G32" s="30">
         <f>11.04/30.23</f>
         <v>0.36520013231888848</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="101" t="s">
+    <row r="33" spans="1:17" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="104">
+      <c r="B33" s="103">
         <v>1.0880000000000001</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="103">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="103">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="E33" s="104">
+      <c r="E33" s="103">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F33" s="127">
+      <c r="F33" s="126">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="G33" s="104">
+      <c r="G33" s="103">
         <v>0.35899999999999999</v>
       </c>
-      <c r="H33" s="104" t="s">
+      <c r="H33" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="104">
-        <v>0</v>
-      </c>
-      <c r="J33" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="104">
+      <c r="I33" s="103">
+        <v>0</v>
+      </c>
+      <c r="J33" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="103">
         <v>0.19</v>
       </c>
-      <c r="L33" s="104" t="s">
+      <c r="L33" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="104">
-        <v>0</v>
-      </c>
-      <c r="N33" s="104" t="s">
+      <c r="M33" s="103">
+        <v>0</v>
+      </c>
+      <c r="N33" s="103" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15157,7 +15205,7 @@
       <c r="E34" s="1">
         <v>0.107</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="121">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="G34" s="1">
@@ -15202,7 +15250,7 @@
       <c r="E35" s="1">
         <v>0.107</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="121">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="G35" s="1">
@@ -15252,7 +15300,7 @@
         <f>E$33</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="F36" s="99">
+      <c r="F36" s="98">
         <f>F$33</f>
         <v>5.4399999999999997E-2</v>
       </c>
@@ -15277,7 +15325,7 @@
       <c r="L36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M36" s="112">
+      <c r="M36" s="111">
         <v>1</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -15304,7 +15352,7 @@
         <f t="shared" ref="E37:L37" si="4">E$34</f>
         <v>0.107</v>
       </c>
-      <c r="F37" s="99">
+      <c r="F37" s="98">
         <f t="shared" si="4"/>
         <v>5.4399999999999997E-2</v>
       </c>
@@ -15360,7 +15408,7 @@
         <f>E$33</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="F38" s="99">
+      <c r="F38" s="98">
         <f>F$33</f>
         <v>5.4399999999999997E-2</v>
       </c>
@@ -15385,7 +15433,7 @@
       <c r="L38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M38" s="113">
+      <c r="M38" s="112">
         <v>1</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -15413,7 +15461,7 @@
         <f t="shared" ref="E39:L39" si="5">E$34</f>
         <v>0.107</v>
       </c>
-      <c r="F39" s="99">
+      <c r="F39" s="98">
         <f t="shared" si="5"/>
         <v>5.4399999999999997E-2</v>
       </c>
@@ -15469,7 +15517,7 @@
         <f t="shared" ref="E40:L40" si="6">E$35</f>
         <v>0.107</v>
       </c>
-      <c r="F40" s="99">
+      <c r="F40" s="98">
         <f t="shared" si="6"/>
         <v>5.4399999999999997E-2</v>
       </c>
@@ -15525,7 +15573,7 @@
         <f t="shared" ref="E41:H42" si="7">E$33</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="F41" s="99">
+      <c r="F41" s="98">
         <f t="shared" si="7"/>
         <v>5.4399999999999997E-2</v>
       </c>
@@ -15550,7 +15598,7 @@
       <c r="L41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M41" s="113">
+      <c r="M41" s="112">
         <v>1</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -15577,7 +15625,7 @@
         <f t="shared" si="7"/>
         <v>0.26800000000000002</v>
       </c>
-      <c r="F42" s="100">
+      <c r="F42" s="99">
         <f t="shared" si="7"/>
         <v>5.4399999999999997E-2</v>
       </c>
@@ -15589,20 +15637,20 @@
         <f t="shared" si="7"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="I42" s="114">
-        <v>0</v>
-      </c>
-      <c r="J42" s="114" t="s">
+      <c r="I42" s="113">
+        <v>0</v>
+      </c>
+      <c r="J42" s="113" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="67">
         <f>K$33</f>
         <v>0.19</v>
       </c>
-      <c r="L42" s="114" t="s">
+      <c r="L42" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="M42" s="124">
+      <c r="M42" s="123">
         <v>0.5</v>
       </c>
       <c r="N42" s="65" t="s">
@@ -15626,7 +15674,7 @@
         <f>(110-36.44)*Ref!B$18</f>
         <v>0.264816</v>
       </c>
-      <c r="F43" s="123">
+      <c r="F43" s="122">
         <f>K43*0.78*(32/12)</f>
         <v>0.30991999999999997</v>
       </c>
@@ -15671,11 +15719,11 @@
       <c r="D44" s="81">
         <v>0</v>
       </c>
-      <c r="E44" s="120">
+      <c r="E44" s="119">
         <f>E43*0.8</f>
         <v>0.21185280000000001</v>
       </c>
-      <c r="F44" s="121"/>
+      <c r="F44" s="120"/>
       <c r="G44" s="1">
         <v>0.28799999999999998</v>
       </c>
@@ -15714,11 +15762,11 @@
       <c r="D45" s="81">
         <v>0</v>
       </c>
-      <c r="E45" s="120">
+      <c r="E45" s="119">
         <f>E43*0.6</f>
         <v>0.15888959999999999</v>
       </c>
-      <c r="F45" s="121"/>
+      <c r="F45" s="120"/>
       <c r="G45" s="1">
         <f>G44*0.8</f>
         <v>0.23039999999999999</v>
@@ -16042,7 +16090,7 @@
       <c r="L51" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M51" s="112">
+      <c r="M51" s="111">
         <v>1</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -16069,7 +16117,7 @@
         <f>E$43</f>
         <v>0.264816</v>
       </c>
-      <c r="F52" s="100"/>
+      <c r="F52" s="99"/>
       <c r="G52" s="67">
         <f t="shared" si="11"/>
         <v>0.36199999999999999</v>
@@ -16117,7 +16165,7 @@
       <c r="E53" s="1">
         <v>0.24</v>
       </c>
-      <c r="F53" s="121"/>
+      <c r="F53" s="120"/>
       <c r="G53" s="1">
         <v>0.36499999999999999</v>
       </c>
@@ -16187,7 +16235,7 @@
         <f t="shared" si="12"/>
         <v>coal PCI - JP IPCC</v>
       </c>
-      <c r="M54" s="113">
+      <c r="M54" s="112">
         <v>1</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -16238,7 +16286,7 @@
         <f t="shared" si="12"/>
         <v>coal PCI - JP IPCC</v>
       </c>
-      <c r="M55" s="113">
+      <c r="M55" s="112">
         <v>1</v>
       </c>
       <c r="N55" s="3" t="s">
@@ -16289,7 +16337,7 @@
         <f t="shared" si="12"/>
         <v>coal PCI - JP IPCC</v>
       </c>
-      <c r="M56" s="113">
+      <c r="M56" s="112">
         <v>1</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -16316,7 +16364,7 @@
         <f>E$53</f>
         <v>0.24</v>
       </c>
-      <c r="F57" s="100"/>
+      <c r="F57" s="99"/>
       <c r="G57" s="67">
         <f t="shared" si="12"/>
         <v>0.36499999999999999</v>
@@ -16341,7 +16389,7 @@
         <f t="shared" si="12"/>
         <v>coal PCI - JP IPCC</v>
       </c>
-      <c r="M57" s="124">
+      <c r="M57" s="123">
         <v>0.5</v>
       </c>
       <c r="N57" s="67" t="s">
@@ -16352,11 +16400,11 @@
       <c r="A58" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B58" s="96">
+      <c r="B58" s="95">
         <f>0.85*1.15</f>
         <v>0.97749999999999992</v>
       </c>
-      <c r="C58" s="96">
+      <c r="C58" s="95">
         <f>0.15*1.15</f>
         <v>0.17249999999999999</v>
       </c>
@@ -16367,7 +16415,7 @@
       <c r="E58" s="81">
         <v>0.2</v>
       </c>
-      <c r="F58" s="121"/>
+      <c r="F58" s="120"/>
       <c r="G58" s="1">
         <v>0.45300000000000001</v>
       </c>
@@ -16437,7 +16485,7 @@
         <f t="shared" si="15"/>
         <v>natural gas - RU</v>
       </c>
-      <c r="M59" s="113">
+      <c r="M59" s="112">
         <v>1</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -16488,7 +16536,7 @@
         <f t="shared" si="15"/>
         <v>natural gas - RU</v>
       </c>
-      <c r="M60" s="113">
+      <c r="M60" s="112">
         <v>1</v>
       </c>
       <c r="N60" s="3" t="s">
@@ -16539,7 +16587,7 @@
         <f t="shared" si="15"/>
         <v>natural gas - RU</v>
       </c>
-      <c r="M61" s="113">
+      <c r="M61" s="112">
         <v>1</v>
       </c>
       <c r="N61" s="3" t="s">
@@ -16566,7 +16614,7 @@
         <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
-      <c r="F62" s="100"/>
+      <c r="F62" s="99"/>
       <c r="G62" s="86">
         <f t="shared" si="15"/>
         <v>0.45300000000000001</v>
@@ -16591,7 +16639,7 @@
         <f t="shared" si="15"/>
         <v>natural gas - RU</v>
       </c>
-      <c r="M62" s="124">
+      <c r="M62" s="123">
         <v>0.5</v>
       </c>
       <c r="N62" s="65" t="s">
@@ -16605,19 +16653,19 @@
       <c r="B63" s="1">
         <v>0</v>
       </c>
-      <c r="C63" s="125">
+      <c r="C63" s="124">
         <f>70.2/54.4</f>
         <v>1.2904411764705883</v>
       </c>
-      <c r="D63" s="96">
+      <c r="D63" s="95">
         <f>0.25*0.56</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="E63" s="1">
         <v>0.27</v>
       </c>
-      <c r="F63" s="121"/>
-      <c r="G63" s="90">
+      <c r="F63" s="120"/>
+      <c r="G63" s="89">
         <f>12.26/30.23</f>
         <v>0.40555739331789614</v>
       </c>
@@ -16630,7 +16678,7 @@
       <c r="J63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="96">
+      <c r="K63" s="95">
         <f>(1.88+2.13)/47</f>
         <v>8.5319148936170208E-2</v>
       </c>
@@ -16691,7 +16739,7 @@
         <f t="shared" si="18"/>
         <v>natural gas - US</v>
       </c>
-      <c r="M64" s="113">
+      <c r="M64" s="112">
         <v>1</v>
       </c>
       <c r="N64" s="3" t="s">
@@ -16742,7 +16790,7 @@
         <f t="shared" si="18"/>
         <v>natural gas - US</v>
       </c>
-      <c r="M65" s="113">
+      <c r="M65" s="112">
         <v>1</v>
       </c>
       <c r="N65" s="3" t="s">
@@ -16793,7 +16841,7 @@
         <f t="shared" si="18"/>
         <v>natural gas - US</v>
       </c>
-      <c r="M66" s="113">
+      <c r="M66" s="112">
         <v>1</v>
       </c>
       <c r="N66" s="3" t="s">
@@ -16820,7 +16868,7 @@
         <f t="shared" si="17"/>
         <v>0.27</v>
       </c>
-      <c r="F67" s="100"/>
+      <c r="F67" s="99"/>
       <c r="G67" s="66">
         <f t="shared" si="18"/>
         <v>0.40555739331789614</v>
@@ -16845,7 +16893,7 @@
         <f t="shared" si="18"/>
         <v>natural gas - US</v>
       </c>
-      <c r="M67" s="124">
+      <c r="M67" s="123">
         <v>0.5</v>
       </c>
       <c r="N67" s="65" t="s">
@@ -16868,7 +16916,7 @@
       <c r="E68" s="81">
         <v>0.1</v>
       </c>
-      <c r="F68" s="121"/>
+      <c r="F68" s="120"/>
       <c r="G68" s="1">
         <v>0.59</v>
       </c>
@@ -16941,7 +16989,7 @@
         <f t="shared" si="21"/>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="M69" s="113">
+      <c r="M69" s="112">
         <v>1</v>
       </c>
       <c r="N69" s="3" t="s">
@@ -16992,7 +17040,7 @@
         <f t="shared" si="21"/>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="M70" s="113">
+      <c r="M70" s="112">
         <v>1</v>
       </c>
       <c r="N70" s="3" t="s">
@@ -17043,7 +17091,7 @@
         <f t="shared" si="21"/>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="M71" s="113">
+      <c r="M71" s="112">
         <v>1</v>
       </c>
       <c r="N71" s="3" t="s">
@@ -17070,7 +17118,7 @@
         <f t="shared" si="20"/>
         <v>0.1</v>
       </c>
-      <c r="F72" s="100"/>
+      <c r="F72" s="99"/>
       <c r="G72" s="86">
         <f t="shared" si="21"/>
         <v>0.59</v>
@@ -17095,7 +17143,7 @@
         <f t="shared" si="21"/>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="M72" s="124">
+      <c r="M72" s="123">
         <v>0.5</v>
       </c>
       <c r="N72" s="67" t="s">
@@ -17117,7 +17165,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17196,6 +17244,30 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="48">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -17308,7 +17380,7 @@
       <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="97">
         <f>0.0023*(56/12)</f>
         <v>1.0733333333333334E-2</v>
       </c>
@@ -17826,36 +17898,36 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
+    <row r="25" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="104">
+      <c r="B25" s="103">
         <v>0.9</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="103">
         <v>0.2</v>
       </c>
-      <c r="D25" s="128">
+      <c r="D25" s="127">
         <f>0.4/47</f>
         <v>8.5106382978723406E-3</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="104">
-        <v>0</v>
-      </c>
-      <c r="G25" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="104">
+      <c r="F25" s="103">
+        <v>0</v>
+      </c>
+      <c r="G25" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="103">
         <v>0.05</v>
       </c>
-      <c r="I25" s="104">
+      <c r="I25" s="103">
         <v>0.1</v>
       </c>
-      <c r="J25" s="104">
+      <c r="J25" s="103">
         <f>60*Ref!$C$12</f>
         <v>8.5657535468903354E-2</v>
       </c>
@@ -17877,10 +17949,10 @@
       <c r="E26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="129">
-        <v>0</v>
-      </c>
-      <c r="G26" s="129" t="s">
+      <c r="F26" s="128">
+        <v>0</v>
+      </c>
+      <c r="G26" s="128" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="1">
@@ -17914,7 +17986,7 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="129" t="s">
+      <c r="G27" s="128" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="1">
@@ -18444,7 +18516,7 @@
       <c r="G40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="130">
+      <c r="H40" s="129">
         <f>0.0023*(56/12)</f>
         <v>1.0733333333333334E-2</v>
       </c>
@@ -18452,7 +18524,7 @@
         <v>0.13</v>
       </c>
       <c r="J40" s="81">
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18478,7 +18550,7 @@
         <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
-      <c r="H41" s="131">
+      <c r="H41" s="130">
         <f>0.0023*(56/12)</f>
         <v>1.0733333333333334E-2</v>
       </c>
@@ -18486,7 +18558,7 @@
         <v>0.1278</v>
       </c>
       <c r="J41" s="1">
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18512,7 +18584,7 @@
         <f t="shared" si="8"/>
         <v>charcoal</v>
       </c>
-      <c r="H42" s="131">
+      <c r="H42" s="130">
         <f>0.0023*(56/12)</f>
         <v>1.0733333333333334E-2</v>
       </c>
@@ -18520,7 +18592,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J42" s="81">
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -18561,7 +18633,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="9"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -18602,7 +18674,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="10"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -18643,7 +18715,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="11"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -18684,7 +18756,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="12"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -18725,7 +18797,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="13"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -18766,7 +18838,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="14"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -18807,7 +18879,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="14"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -18848,7 +18920,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="14"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -18889,7 +18961,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="15"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -18930,7 +19002,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="15"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -18971,7 +19043,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="16"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19012,7 +19084,7 @@
       </c>
       <c r="J54" s="67">
         <f t="shared" si="16"/>
-        <v>7.2923115195859714E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -19411,11 +19483,11 @@
       <c r="A65" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="94">
+      <c r="B65" s="93">
         <f>53.4/62.7</f>
         <v>0.85167464114832525</v>
       </c>
-      <c r="C65" s="94">
+      <c r="C65" s="93">
         <f>17/62.7</f>
         <v>0.27113237639553428</v>
       </c>
@@ -19572,39 +19644,39 @@
       <c r="A69" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="B69" s="92">
+      <c r="B69" s="91">
         <f t="shared" si="22"/>
         <v>0.85167464114832525</v>
       </c>
-      <c r="C69" s="92">
+      <c r="C69" s="91">
         <f t="shared" si="21"/>
         <v>0.27113237639553428</v>
       </c>
-      <c r="D69" s="92">
+      <c r="D69" s="91">
         <f t="shared" si="21"/>
         <v>9.1295116772823776E-3</v>
       </c>
-      <c r="E69" s="92" t="str">
+      <c r="E69" s="91" t="str">
         <f t="shared" si="21"/>
         <v>natural gas - US</v>
       </c>
-      <c r="F69" s="92">
+      <c r="F69" s="91">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="G69" s="92" t="str">
+      <c r="G69" s="91" t="str">
         <f t="shared" si="21"/>
         <v>charcoal</v>
       </c>
-      <c r="H69" s="92">
+      <c r="H69" s="91">
         <f t="shared" si="21"/>
         <v>0.04</v>
       </c>
-      <c r="I69" s="92">
+      <c r="I69" s="91">
         <f t="shared" si="21"/>
         <v>0.13</v>
       </c>
-      <c r="J69" s="92">
+      <c r="J69" s="91">
         <f t="shared" si="21"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -19645,39 +19717,39 @@
       <c r="A71" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="132">
+      <c r="B71" s="131">
         <f>B$70</f>
         <v>0.95</v>
       </c>
-      <c r="C71" s="132">
+      <c r="C71" s="131">
         <f t="shared" ref="C71:J74" si="23">C$70</f>
         <v>0.15</v>
       </c>
-      <c r="D71" s="132">
+      <c r="D71" s="131">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E71" s="132" t="str">
+      <c r="E71" s="131" t="str">
         <f t="shared" si="23"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="F71" s="132">
+      <c r="F71" s="131">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G71" s="132" t="str">
+      <c r="G71" s="131" t="str">
         <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
-      <c r="H71" s="132">
+      <c r="H71" s="131">
         <f t="shared" si="23"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="I71" s="132">
+      <c r="I71" s="131">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="J71" s="132">
+      <c r="J71" s="131">
         <f t="shared" si="23"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -19686,39 +19758,39 @@
       <c r="A72" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="B72" s="132">
+      <c r="B72" s="131">
         <f t="shared" ref="B72:B74" si="24">B$70</f>
         <v>0.95</v>
       </c>
-      <c r="C72" s="132">
+      <c r="C72" s="131">
         <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
-      <c r="D72" s="132">
+      <c r="D72" s="131">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E72" s="132" t="str">
+      <c r="E72" s="131" t="str">
         <f t="shared" si="23"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="F72" s="132">
+      <c r="F72" s="131">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G72" s="132" t="str">
+      <c r="G72" s="131" t="str">
         <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
-      <c r="H72" s="132">
+      <c r="H72" s="131">
         <f t="shared" si="23"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="I72" s="132">
+      <c r="I72" s="131">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="J72" s="132">
+      <c r="J72" s="131">
         <f t="shared" si="23"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -19727,39 +19799,39 @@
       <c r="A73" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="B73" s="132">
+      <c r="B73" s="131">
         <f t="shared" si="24"/>
         <v>0.95</v>
       </c>
-      <c r="C73" s="132">
+      <c r="C73" s="131">
         <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
-      <c r="D73" s="132">
+      <c r="D73" s="131">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E73" s="132" t="str">
+      <c r="E73" s="131" t="str">
         <f t="shared" si="23"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="F73" s="132">
+      <c r="F73" s="131">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G73" s="132" t="str">
+      <c r="G73" s="131" t="str">
         <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
-      <c r="H73" s="132">
+      <c r="H73" s="131">
         <f t="shared" si="23"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="I73" s="132">
+      <c r="I73" s="131">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="J73" s="132">
+      <c r="J73" s="131">
         <f t="shared" si="23"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -19768,39 +19840,39 @@
       <c r="A74" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="133">
+      <c r="B74" s="132">
         <f t="shared" si="24"/>
         <v>0.95</v>
       </c>
-      <c r="C74" s="133">
+      <c r="C74" s="132">
         <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
-      <c r="D74" s="133">
+      <c r="D74" s="132">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E74" s="133" t="str">
+      <c r="E74" s="132" t="str">
         <f t="shared" si="23"/>
         <v>coke - IPCC</v>
       </c>
-      <c r="F74" s="133">
+      <c r="F74" s="132">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G74" s="133" t="str">
+      <c r="G74" s="132" t="str">
         <f t="shared" si="23"/>
         <v>charcoal</v>
       </c>
-      <c r="H74" s="133">
+      <c r="H74" s="132">
         <f t="shared" si="23"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="I74" s="133">
+      <c r="I74" s="132">
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-      <c r="J74" s="133">
+      <c r="J74" s="132">
         <f t="shared" si="23"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -20146,15 +20218,15 @@
         <v>1.3869199999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+    <row r="29" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="104">
+      <c r="B29" s="103">
         <f t="shared" ref="B29:C29" si="1">B$7</f>
         <v>0.87</v>
       </c>
-      <c r="C29" s="128">
+      <c r="C29" s="127">
         <f t="shared" si="1"/>
         <v>1.3869199999999999</v>
       </c>
@@ -20166,7 +20238,7 @@
       <c r="B30" s="4">
         <v>0.87</v>
       </c>
-      <c r="C30" s="134">
+      <c r="C30" s="133">
         <f>0.464/Ref!C$12*Ref!B$18</f>
         <v>1.1700546770503895</v>
       </c>
@@ -20181,7 +20253,7 @@
       <c r="B31" s="4">
         <v>0.87</v>
       </c>
-      <c r="C31" s="134">
+      <c r="C31" s="133">
         <f>150*Ref!B$18</f>
         <v>0.54</v>
       </c>
@@ -20353,7 +20425,7 @@
         <f>0.87</f>
         <v>0.87</v>
       </c>
-      <c r="C44" s="134">
+      <c r="C44" s="133">
         <f>8.2*0.3264</f>
         <v>2.6764799999999997</v>
       </c>
@@ -20362,11 +20434,11 @@
       <c r="A45" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="B45" s="115">
+      <c r="B45" s="114">
         <f t="shared" ref="B45:C45" si="3">B$7</f>
         <v>0.87</v>
       </c>
-      <c r="C45" s="135">
+      <c r="C45" s="134">
         <f t="shared" si="3"/>
         <v>1.3869199999999999</v>
       </c>
@@ -20375,10 +20447,10 @@
       <c r="A46" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="136">
+      <c r="B46" s="135">
         <v>0.87</v>
       </c>
-      <c r="C46" s="137">
+      <c r="C46" s="136">
         <f>0.464/Ref!C$12*Ref!B$18</f>
         <v>1.1700546770503895</v>
       </c>
@@ -20543,11 +20615,11 @@
       <c r="A59" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="110">
+      <c r="B59" s="109">
         <f t="shared" ref="B59:C59" si="6">B$7</f>
         <v>0.87</v>
       </c>
-      <c r="C59" s="138">
+      <c r="C59" s="137">
         <f t="shared" si="6"/>
         <v>1.3869199999999999</v>
       </c>
@@ -20608,11 +20680,11 @@
       <c r="A64" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="136">
+      <c r="B64" s="135">
         <f>0.87</f>
         <v>0.87</v>
       </c>
-      <c r="C64" s="136">
+      <c r="C64" s="135">
         <f>8.2*0.3264</f>
         <v>2.6764799999999997</v>
       </c>
@@ -20673,11 +20745,11 @@
       <c r="A69" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B69" s="115">
+      <c r="B69" s="114">
         <f t="shared" ref="B69:C69" si="11">B$7</f>
         <v>0.87</v>
       </c>
-      <c r="C69" s="135">
+      <c r="C69" s="134">
         <f t="shared" si="11"/>
         <v>1.3869199999999999</v>
       </c>
@@ -20738,11 +20810,11 @@
       <c r="A74" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="B74" s="136">
+      <c r="B74" s="135">
         <f>0.87</f>
         <v>0.87</v>
       </c>
-      <c r="C74" s="136">
+      <c r="C74" s="135">
         <f>8.2*0.3264</f>
         <v>2.6764799999999997</v>
       </c>
@@ -20816,8 +20888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20879,6 +20951,15 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -21198,17 +21279,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+    <row r="23" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="139">
+      <c r="B23" s="138">
         <v>1</v>
       </c>
-      <c r="C23" s="104">
-        <v>0</v>
-      </c>
-      <c r="D23" s="105" t="s">
+      <c r="C23" s="103">
+        <v>0</v>
+      </c>
+      <c r="D23" s="104" t="s">
         <v>269</v>
       </c>
     </row>
@@ -21431,15 +21512,15 @@
       <c r="A37" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="140">
+      <c r="B37" s="139">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="C37" s="140">
+      <c r="C37" s="139">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D37" s="140" t="str">
+      <c r="D37" s="139" t="str">
         <f t="shared" si="8"/>
         <v>PROXY - EU 2040</v>
       </c>
@@ -22406,21 +22487,21 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="100" t="s">
         <v>201</v>
       </c>
       <c r="B23" s="7">
         <v>0.8</v>
       </c>
-      <c r="C23" s="104">
-        <v>0</v>
-      </c>
-      <c r="D23" s="105" t="str">
+      <c r="C23" s="103">
+        <v>0</v>
+      </c>
+      <c r="D23" s="104" t="str">
         <f t="shared" ref="D23:D25" si="1">D$53</f>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
@@ -22665,15 +22746,15 @@
       <c r="A37" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="140">
+      <c r="B37" s="139">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="C37" s="140">
+      <c r="C37" s="139">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D37" s="140" t="str">
+      <c r="D37" s="139" t="str">
         <f t="shared" si="9"/>
         <v>natural gas - IPCC</v>
       </c>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2767898-1641-3E4D-8608-1628F3A5C034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AA76AB-7E7D-C248-937C-D6D7B3CFA783}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23020" windowHeight="17540" tabRatio="598" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="460" windowWidth="23020" windowHeight="17540" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="17" r:id="rId1"/>
@@ -81,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -90,7 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 from bandwidth study</t>
@@ -105,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -114,7 +114,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Using the carbon content of coking coal (0.78) and the carbon content of coke (0.88)
@@ -154,7 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -163,7 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 from bandwidth study</t>
@@ -178,6 +178,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
@@ -228,13 +229,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="F55" authorId="1" shapeId="0" xr:uid="{8B48044C-1CC0-6A4E-AD06-9A19433FCF6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">S.E. Tanzer: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.028 in Kuromochi
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -243,12 +268,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://www.epa.gov/sites/production/files/2015-02/documents/tsd_iron_and_steel_epa_9-8-08.pdf</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://www.epa.gov/sites/production/files/2015-02/documents/tsd_iron_and_steel_epa_9-8-08.pdf</t>
         </r>
       </text>
     </comment>
@@ -260,6 +294,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -310,13 +345,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="F42" authorId="1" shapeId="0" xr:uid="{F90DB6D9-F63D-5048-9EBE-9BD03F4E7ADB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.079 in source
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -325,12 +394,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-from other Kuronov study: https://link.springer.com/content/pdf/10.1007%2Fs11015-010-9247-8.pdf</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>from other Kuronov study: https://link.springer.com/content/pdf/10.1007%2Fs11015-010-9247-8.pdf</t>
         </r>
       </text>
     </comment>
@@ -585,7 +663,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -594,12 +672,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-possibly *also* 43 m3/t HM? Unlcear if they're cumulative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">possibly *also* 43 m3/t HM? Unlcear if they're cumulative
 </t>
         </r>
       </text>
@@ -610,62 +697,22 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>S.E. Tanzer:
-increased from 0.162 to account for also 0.03 of oil and 0.002 of nat gas</t>
+          <t xml:space="preserve">S.E. Tanzer:
+</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="F34" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
-      <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>S.E. Tanzer:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-possibly *also* 43 m3/t HM? Unlcear if they're cumulative
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F35" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>S.E. Tanzer:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-possibly *also* 43 m3/t HM? Unlcear if they're cumulative
-</t>
+          <t>increased from 0.162 to account for also 0.03 of oil and 0.002 of nat gas</t>
         </r>
       </text>
     </comment>
@@ -723,7 +770,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -732,13 +779,41 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Pellet demand % from https://link.springer.com/content/pdf/10.1007%2Fs11015-010-9247-8.pdf 
-Assumption of ratio of total ore-load demand</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Pellet demand % from https://link.springer.com/content/pdf/10.1007%2Fs11015-010-9247-8.pdf 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumption of ratio of total ore-load demand</t>
         </r>
       </text>
     </comment>
@@ -748,7 +823,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -757,12 +832,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://www.energystar.gov/ia/business/industry/Iron_Steel_Guide.pdf</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://www.energystar.gov/ia/business/industry/Iron_Steel_Guide.pdf</t>
         </r>
       </text>
     </comment>
@@ -772,7 +856,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -781,12 +865,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://link.springer.com/content/pdf/10.1007%2Fs11015-015-0141-2.pdf
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://link.springer.com/content/pdf/10.1007%2Fs11015-015-0141-2.pdf
 </t>
         </r>
       </text>
@@ -823,6 +916,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
@@ -849,13 +943,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="K25" authorId="1" shapeId="0" xr:uid="{6B5757CB-D3EC-154E-AC7D-F51C840D563C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -864,12 +992,55 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-"minimum energy" thus maximum scrap</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"minimum energy" thus maximum scrap</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="1" shapeId="0" xr:uid="{ED342AC1-17AE-184D-8CAE-653B5A010EF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
         </r>
       </text>
     </comment>
@@ -903,6 +1074,312 @@
             <family val="2"/>
           </rPr>
           <t>"minimum energy" thus maximum scrap</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="1" shapeId="0" xr:uid="{2750DA75-9C24-D24C-80C2-DC9BAB20820B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I40" authorId="1" shapeId="0" xr:uid="{46BF4046-CA30-8243-966C-2E6DF862F3B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.011 in Li et al 2012
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K40" authorId="1" shapeId="0" xr:uid="{547FC95C-BECE-B040-BC53-447D83115E2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K41" authorId="1" shapeId="0" xr:uid="{0DF3E8BE-3650-CB40-8E5A-02049B3822DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K42" authorId="1" shapeId="0" xr:uid="{1F4EA053-97A9-3440-ADE1-F0F08B84840E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K55" authorId="1" shapeId="0" xr:uid="{1BD27ED2-8F15-274B-87AB-7232135B2AD1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K60" authorId="1" shapeId="0" xr:uid="{43CDF44C-2C86-8B45-A0C8-AEA213E418BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K65" authorId="1" shapeId="0" xr:uid="{4A764E90-CE42-534A-AF38-0AA0D5046AE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K70" authorId="1" shapeId="0" xr:uid="{9A6DF3C9-E0EF-144E-860A-5D846AAB9155}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.073 in source
+</t>
         </r>
       </text>
     </comment>
@@ -1270,7 +1747,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="291">
   <si>
     <t>scenario</t>
   </si>
@@ -2121,9 +2598,6 @@
     <t>rice hulls - IPCC</t>
   </si>
   <si>
-    <t>raw rice hulls - IPCC</t>
-  </si>
-  <si>
     <t>wood air dry - IPCC</t>
   </si>
   <si>
@@ -2143,6 +2617,9 @@
   </si>
   <si>
     <t>sum of scrap + HM</t>
+  </si>
+  <si>
+    <t>coal bituminous - IPCC</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2631,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2273,19 +2750,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2554,7 +3018,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2574,26 +3038,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2608,25 +3072,25 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -2640,7 +3104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2651,12 +3115,12 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2666,19 +3130,19 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2974,10 +3438,10 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3056,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3096,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3117,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3138,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3158,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3179,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3201,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3224,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3247,7 +3711,7 @@
         <v>0.05</v>
       </c>
       <c r="F13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3270,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3293,7 +3757,7 @@
         <v>0.05</v>
       </c>
       <c r="F15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3315,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3336,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3358,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3380,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3402,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3424,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3446,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3467,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3488,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3510,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -3532,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3553,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -3649,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="88" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G32" s="88" t="s">
         <v>182</v>
@@ -3673,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
         <v>183</v>
@@ -3696,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
         <v>184</v>
@@ -3722,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3745,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3768,7 +4232,7 @@
         <v>0.05</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3791,7 +4255,7 @@
         <v>0.05</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3814,7 +4278,7 @@
         <v>0.05</v>
       </c>
       <c r="F39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3837,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3857,10 +4321,10 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="E41" s="53">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3883,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3906,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3926,10 +4390,10 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="E44" s="53">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3952,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3997,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4022,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G48" t="s">
         <v>185</v>
@@ -4046,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4069,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4092,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4115,7 +4579,7 @@
         <v>0.05</v>
       </c>
       <c r="F52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4138,7 +4602,7 @@
         <v>0.05</v>
       </c>
       <c r="F53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4161,7 +4625,7 @@
         <v>0.05</v>
       </c>
       <c r="F54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4184,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4204,10 +4668,10 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="E56" s="53">
-        <v>0.05</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>282</v>
+        <v>0.02</v>
+      </c>
+      <c r="F56" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4230,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K57">
         <f>9.99/0.02931</f>
@@ -4257,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4279,8 +4743,8 @@
       <c r="E59" s="53">
         <v>0.05</v>
       </c>
-      <c r="F59" s="30" t="s">
-        <v>282</v>
+      <c r="F59" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4303,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4326,7 +4790,7 @@
         <v>0.05</v>
       </c>
       <c r="F61" s="62" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4348,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4371,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4394,7 +4858,7 @@
         <v>0.05</v>
       </c>
       <c r="F64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -4417,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="62" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4437,10 +4901,10 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="E66" s="64">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F66" s="62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4460,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4483,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4506,7 +4970,7 @@
         <v>0.05</v>
       </c>
       <c r="F69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4529,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="62" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4549,10 +5013,10 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="E71" s="64">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F71" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4573,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G72" t="s">
         <v>186</v>
@@ -4599,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4622,7 +5086,7 @@
         <v>0.05</v>
       </c>
       <c r="F74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4645,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="62" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4665,10 +5129,10 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="E76" s="64">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F76" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4690,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -4713,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -4736,7 +5200,7 @@
         <v>0.05</v>
       </c>
       <c r="F79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -4759,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="62" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4779,10 +5243,10 @@
         <v>coal coking - IPCC</v>
       </c>
       <c r="E81" s="64">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F81" s="62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4803,7 +5267,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6230,7 +6694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -7077,8 +7541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7121,7 +7585,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="112" t="s">
         <v>68</v>
@@ -7135,7 +7599,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>68</v>
@@ -7149,7 +7613,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>68</v>
@@ -7163,7 +7627,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>68</v>
@@ -7177,7 +7641,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>68</v>
@@ -7191,7 +7655,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>68</v>
@@ -7205,7 +7669,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>68</v>
@@ -7219,7 +7683,7 @@
         <v>114</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>68</v>
@@ -7233,7 +7697,7 @@
         <v>114</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>68</v>
@@ -7247,7 +7711,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>68</v>
@@ -7261,7 +7725,7 @@
         <v>114</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>68</v>
@@ -7275,7 +7739,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>68</v>
@@ -7289,7 +7753,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>68</v>
@@ -7303,7 +7767,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>68</v>
@@ -7317,7 +7781,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>68</v>
@@ -7331,7 +7795,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>68</v>
@@ -7345,7 +7809,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>68</v>
@@ -7359,7 +7823,7 @@
         <v>66</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>68</v>
@@ -7373,7 +7837,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>68</v>
@@ -7387,7 +7851,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="112" t="s">
         <v>68</v>
@@ -7401,7 +7865,7 @@
         <v>66</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>68</v>
@@ -7415,7 +7879,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>68</v>
@@ -7429,7 +7893,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>68</v>
@@ -7443,7 +7907,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>68</v>
@@ -7457,7 +7921,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>68</v>
@@ -7471,7 +7935,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>68</v>
@@ -7485,7 +7949,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>68</v>
@@ -7499,7 +7963,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>68</v>
@@ -7513,21 +7977,21 @@
         <v>66</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>206</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>285</v>
+      <c r="C33" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>68</v>
@@ -7541,7 +8005,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>68</v>
@@ -7555,7 +8019,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>68</v>
@@ -7569,7 +8033,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>68</v>
@@ -7583,7 +8047,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>68</v>
@@ -7597,7 +8061,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D38" s="81" t="s">
         <v>68</v>
@@ -7611,7 +8075,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>68</v>
@@ -7625,7 +8089,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>68</v>
@@ -7639,7 +8103,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>68</v>
@@ -7653,7 +8117,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>68</v>
@@ -7667,7 +8131,7 @@
         <v>66</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>68</v>
@@ -7681,7 +8145,7 @@
         <v>66</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>68</v>
@@ -7695,7 +8159,7 @@
         <v>66</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>68</v>
@@ -7709,7 +8173,7 @@
         <v>66</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>68</v>
@@ -7723,24 +8187,24 @@
         <v>66</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>216</v>
       </c>
       <c r="B48" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>282</v>
+      <c r="C48" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>283</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -7751,7 +8215,7 @@
         <v>66</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>68</v>
@@ -7765,7 +8229,7 @@
         <v>66</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>68</v>
@@ -7779,10 +8243,10 @@
         <v>66</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>283</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -7793,7 +8257,7 @@
         <v>66</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>68</v>
@@ -7807,10 +8271,10 @@
         <v>66</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7821,7 +8285,7 @@
         <v>66</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>68</v>
@@ -7835,7 +8299,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>68</v>
@@ -7849,7 +8313,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>68</v>
@@ -7863,7 +8327,7 @@
         <v>66</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>68</v>
@@ -7876,11 +8340,11 @@
       <c r="B58" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="D58" s="81" t="s">
+      <c r="C58" s="60" t="s">
         <v>283</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7891,7 +8355,7 @@
         <v>66</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>68</v>
@@ -7905,7 +8369,7 @@
         <v>66</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>68</v>
@@ -7919,7 +8383,7 @@
         <v>66</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>68</v>
@@ -7933,7 +8397,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>68</v>
@@ -7946,8 +8410,8 @@
       <c r="B63" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="81" t="s">
-        <v>285</v>
+      <c r="C63" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="D63" s="81" t="s">
         <v>68</v>
@@ -7961,7 +8425,7 @@
         <v>66</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>68</v>
@@ -7975,7 +8439,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>68</v>
@@ -7989,7 +8453,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>68</v>
@@ -8003,7 +8467,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>68</v>
@@ -8016,8 +8480,8 @@
       <c r="B68" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="81" t="s">
-        <v>285</v>
+      <c r="C68" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="D68" s="81" t="s">
         <v>68</v>
@@ -8031,7 +8495,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>68</v>
@@ -8045,7 +8509,7 @@
         <v>66</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>68</v>
@@ -8059,7 +8523,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D71" s="23" t="s">
         <v>68</v>
@@ -8073,7 +8537,7 @@
         <v>66</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>68</v>
@@ -8086,11 +8550,11 @@
       <c r="B73" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="81" t="s">
+      <c r="C73" s="60" t="s">
         <v>283</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8104,7 +8568,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8184,7 +8648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C4" s="47">
         <v>1.5</v>
@@ -8199,7 +8663,7 @@
         <v>0.3</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H4" s="21">
         <v>0.01</v>
@@ -8231,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H5" s="21">
         <v>0</v>
@@ -8259,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H6" s="21">
         <v>0</v>
@@ -8287,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H7" s="21">
         <v>0</v>
@@ -8315,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H8" s="21">
         <v>0</v>
@@ -8345,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H9" s="21">
         <v>0</v>
@@ -8375,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H10" s="21">
         <v>0</v>
@@ -8403,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H11" s="21">
         <v>0</v>
@@ -8436,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H12" s="21">
         <v>0</v>
@@ -8469,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H13" s="21">
         <v>0</v>
@@ -8498,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H14" s="21">
         <v>0</v>
@@ -8527,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H15" s="21">
         <v>0</v>
@@ -8555,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H16" s="21">
         <v>0</v>
@@ -8603,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H18" s="31">
         <v>0</v>
@@ -8636,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H19" s="21">
         <v>0</v>
@@ -8669,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H20" s="21">
         <v>0</v>
@@ -8702,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H21" s="21">
         <v>0</v>
@@ -8735,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H22" s="61">
         <v>0</v>
@@ -8768,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H23" s="31">
         <v>0</v>
@@ -8801,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H24" s="21">
         <v>0</v>
@@ -8834,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H25" s="21">
         <v>0</v>
@@ -8867,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H26" s="21">
         <v>0</v>
@@ -8900,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H27" s="61">
         <v>0</v>
@@ -9146,10 +9610,10 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:C75"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10170,7 +10634,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10237,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -10260,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10283,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10307,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7">
         <f>0.018*0.56</f>
@@ -10331,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" s="33">
         <v>0.3</v>
@@ -10354,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F9" s="23">
         <v>0</v>
@@ -10378,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F10" s="23">
         <v>0</v>
@@ -10538,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -10561,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -10585,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F18">
         <f>0.018*0.56</f>
@@ -10611,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F19">
         <f>0.018*0.56</f>
@@ -10637,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20">
         <f>0.018*0.56</f>
@@ -10663,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F21" s="23">
         <v>0.01</v>
@@ -10709,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F25" s="98">
         <f>0.018*0.56</f>
@@ -10735,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F26" s="101">
         <v>0.01</v>
@@ -10759,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F27" s="101">
         <v>0.01</v>
@@ -10954,7 +11418,7 @@
         <v>0.2</v>
       </c>
       <c r="E34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" s="21">
         <f>F$25</f>
@@ -10981,7 +11445,7 @@
         <v>0.2</v>
       </c>
       <c r="E35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="21">
         <f>F$25</f>
@@ -11110,7 +11574,7 @@
         <v>207</v>
       </c>
       <c r="B40" s="101">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>111</v>
@@ -11119,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F40" s="101">
         <v>0.01</v>
@@ -11143,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F41" s="101">
         <f>0.018*0.56</f>
@@ -11169,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F42" s="101">
         <v>0.01</v>
@@ -11242,7 +11706,7 @@
       </c>
       <c r="B45" s="21">
         <f>B$40</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C45" t="str">
         <f>C$40</f>
@@ -11326,7 +11790,7 @@
       </c>
       <c r="B48" s="21">
         <f t="shared" ref="B48:C50" si="11">B$40</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="11"/>
@@ -11354,7 +11818,7 @@
       </c>
       <c r="B49" s="21">
         <f t="shared" si="11"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="11"/>
@@ -11363,8 +11827,8 @@
       <c r="D49" s="53">
         <v>0.2</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>282</v>
+      <c r="E49" t="s">
+        <v>283</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" si="12"/>
@@ -11381,7 +11845,7 @@
       </c>
       <c r="B50" s="21">
         <f t="shared" si="11"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="11"/>
@@ -11391,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="12"/>
@@ -11503,7 +11967,7 @@
         <v>0.5</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F54" s="61">
         <f t="shared" si="14"/>
@@ -11528,11 +11992,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F55" s="101">
-        <f>0.05*(0.56)</f>
-        <v>2.8000000000000004E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G55" s="68">
         <v>0.14000000000000001</v>
@@ -11560,7 +12023,7 @@
       </c>
       <c r="F56" s="21">
         <f t="shared" ref="F56:G59" si="17">F$55</f>
-        <v>2.8000000000000004E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G56" s="21">
         <f t="shared" si="17"/>
@@ -11588,7 +12051,7 @@
       </c>
       <c r="F57" s="21">
         <f t="shared" si="17"/>
-        <v>2.8000000000000004E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G57" s="21">
         <f t="shared" si="17"/>
@@ -11616,7 +12079,7 @@
       </c>
       <c r="F58" s="21">
         <f t="shared" si="17"/>
-        <v>2.8000000000000004E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G58" s="21">
         <f t="shared" si="17"/>
@@ -11643,7 +12106,7 @@
       </c>
       <c r="F59" s="61">
         <f t="shared" si="17"/>
-        <v>2.8000000000000004E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G59" s="61">
         <f t="shared" si="17"/>
@@ -11655,7 +12118,7 @@
         <v>222</v>
       </c>
       <c r="B60" s="101">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C60" s="88" t="s">
         <v>111</v>
@@ -11664,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F60" s="101">
         <v>0.01</v>
@@ -11679,7 +12142,7 @@
       </c>
       <c r="B61" s="58">
         <f t="shared" ref="B61:C64" si="18">B$60</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C61" s="57" t="str">
         <f t="shared" si="18"/>
@@ -11708,7 +12171,7 @@
       </c>
       <c r="B62" s="58">
         <f t="shared" si="18"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C62" s="57" t="str">
         <f t="shared" si="18"/>
@@ -11736,7 +12199,7 @@
       </c>
       <c r="B63" s="58">
         <f t="shared" si="18"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C63" s="57" t="str">
         <f t="shared" si="18"/>
@@ -11764,7 +12227,7 @@
       </c>
       <c r="B64" s="79">
         <f t="shared" si="18"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C64" s="76" t="str">
         <f t="shared" si="18"/>
@@ -11774,7 +12237,7 @@
         <v>0.2</v>
       </c>
       <c r="E64" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F64" s="79">
         <f t="shared" si="20"/>
@@ -11790,8 +12253,7 @@
         <v>227</v>
       </c>
       <c r="B65" s="78">
-        <f>0.37/30.23</f>
-        <v>1.2239497188223619E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C65" s="88" t="s">
         <v>111</v>
@@ -11800,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F65" s="101">
         <v>0.01</v>
@@ -11818,7 +12280,7 @@
       </c>
       <c r="B66" s="21">
         <f t="shared" ref="B66:C69" si="21">B$65</f>
-        <v>1.2239497188223619E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C66" s="21" t="str">
         <f t="shared" si="21"/>
@@ -11847,7 +12309,7 @@
       </c>
       <c r="B67" s="21">
         <f t="shared" si="21"/>
-        <v>1.2239497188223619E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C67" s="21" t="str">
         <f t="shared" si="21"/>
@@ -11875,7 +12337,7 @@
       </c>
       <c r="B68" s="21">
         <f t="shared" si="21"/>
-        <v>1.2239497188223619E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C68" s="21" t="str">
         <f t="shared" si="21"/>
@@ -11903,7 +12365,7 @@
       </c>
       <c r="B69" s="61">
         <f t="shared" si="21"/>
-        <v>1.2239497188223619E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C69" s="61" t="str">
         <f t="shared" si="21"/>
@@ -11913,7 +12375,7 @@
         <v>0.2</v>
       </c>
       <c r="E69" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F69" s="61">
         <f t="shared" si="23"/>
@@ -11929,7 +12391,7 @@
         <v>232</v>
       </c>
       <c r="B70" s="72">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C70" s="88" t="s">
         <v>111</v>
@@ -11938,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F70" s="101">
         <v>0.01</v>
@@ -11953,7 +12415,7 @@
       </c>
       <c r="B71" s="58">
         <f t="shared" ref="B71:C74" si="24">B$70</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C71" s="58" t="str">
         <f t="shared" si="24"/>
@@ -11982,7 +12444,7 @@
       </c>
       <c r="B72" s="58">
         <f t="shared" si="24"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C72" s="58" t="str">
         <f t="shared" si="24"/>
@@ -12010,7 +12472,7 @@
       </c>
       <c r="B73" s="58">
         <f t="shared" si="24"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C73" s="58" t="str">
         <f t="shared" si="24"/>
@@ -12038,7 +12500,7 @@
       </c>
       <c r="B74" s="79">
         <f t="shared" si="24"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C74" s="79" t="str">
         <f t="shared" si="24"/>
@@ -12048,7 +12510,7 @@
         <v>0.2</v>
       </c>
       <c r="E74" s="62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F74" s="79">
         <f t="shared" si="26"/>
@@ -12073,11 +12535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12154,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4" s="21">
         <f>0.133*0.56/1.3</f>
@@ -12178,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F5" s="21">
         <v>0.1</v>
@@ -12201,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F6" s="122">
         <f>0.1407*0.56</f>
@@ -12226,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="21">
         <v>9.4E-2</v>
@@ -12249,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" s="24">
         <f>0.15*0.56</f>
@@ -12273,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F9" s="34">
         <v>8.4699999999999998E-2</v>
@@ -12297,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F10" s="24">
         <f>0.15*0.56</f>
@@ -12326,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F11" s="24">
         <f>0.15*0.56</f>
@@ -12485,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F17" s="21">
         <v>9.4E-2</v>
@@ -12509,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F18" s="24">
         <f>(0.56*131.1+10.2)/1000</f>
@@ -12535,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F19" s="21">
         <f>(0.56*131.1+10.2)/1000</f>
@@ -12564,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20" s="24">
         <f>(0.56*131.1+10.2)/1000</f>
@@ -12635,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F24" s="123">
         <f>(0.56*131.1+10.2)/1000</f>
@@ -12660,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F25" s="124">
         <f>0.1407*0.56</f>
@@ -12706,11 +13168,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F27" s="98">
-        <f>(0.56*131.1+10.2)/1000</f>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G27" s="107">
         <f>(0.092+0.155)/2</f>
@@ -12735,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F28" s="101">
         <f>(0.56*131.1+10.2)/1000</f>
@@ -12760,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F29" s="101">
         <f>(0.56*131.1+10.2)/1000</f>
@@ -12792,7 +13253,7 @@
       </c>
       <c r="F30" s="21">
         <f>F$27</f>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G30" s="21">
         <f>G$27</f>
@@ -12849,7 +13310,7 @@
       </c>
       <c r="F32" s="21">
         <f>F$27</f>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G32" s="21">
         <f>G$27</f>
@@ -12933,7 +13394,7 @@
       </c>
       <c r="F35" s="21">
         <f t="shared" ref="F35:G37" si="8">F$27</f>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G35" s="21">
         <f t="shared" si="8"/>
@@ -12956,11 +13417,11 @@
         <v>0.2</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="21">
         <f t="shared" si="8"/>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="8"/>
@@ -12983,11 +13444,11 @@
         <v>0.2</v>
       </c>
       <c r="E37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F37" s="21">
         <f t="shared" si="8"/>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G37" s="21">
         <f t="shared" si="8"/>
@@ -13121,11 +13582,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F42" s="126">
-        <f>0.1407*0.56</f>
-        <v>7.8792000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G42" s="68">
         <f>4.93*Ref!B$18</f>
@@ -13146,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F43" s="126">
         <f>0.1407*0.56</f>
@@ -13172,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F44" s="126">
         <f>0.1407*0.56</f>
@@ -13205,7 +13665,7 @@
       </c>
       <c r="F45" s="84">
         <f t="shared" ref="F45:G45" si="13">F$42</f>
-        <v>7.8792000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="13"/>
@@ -13262,7 +13722,7 @@
       </c>
       <c r="F47" s="21">
         <f t="shared" ref="F47:G47" si="15">F$42</f>
-        <v>7.8792000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="15"/>
@@ -13346,14 +13806,14 @@
       </c>
       <c r="F50" s="21">
         <f t="shared" ref="F50:G50" si="18">F$42</f>
-        <v>7.8792000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="18"/>
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="52" t="s">
         <v>216</v>
       </c>
@@ -13368,19 +13828,19 @@
       <c r="D51" s="53">
         <v>0.2</v>
       </c>
-      <c r="E51" s="62" t="s">
-        <v>282</v>
+      <c r="E51" t="s">
+        <v>283</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" ref="F51:G52" si="20">F$42</f>
-        <v>7.8792000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" si="20"/>
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
         <v>177</v>
       </c>
@@ -13393,14 +13853,15 @@
         <v>coke - IPCC</v>
       </c>
       <c r="D52" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>282</v>
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" ref="D52:E56" si="21">E$27</f>
+        <v>charcoal - IPCC</v>
       </c>
       <c r="F52" s="21">
         <f t="shared" si="20"/>
-        <v>7.8792000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G52" s="21">
         <f t="shared" si="20"/>
@@ -13420,7 +13881,7 @@
         <v>coke - IPCC</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:E56" si="21">D$27</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E53" t="str">
@@ -13534,11 +13995,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F57" s="101">
-        <f>0.12*0.56</f>
-        <v>6.720000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G57" s="68">
         <v>0.14000000000000001</v>
@@ -13566,7 +14026,7 @@
       </c>
       <c r="F58" s="21">
         <f t="shared" ref="F58:G61" si="24">F$57</f>
-        <v>6.720000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G58" s="21">
         <f t="shared" si="24"/>
@@ -13594,7 +14054,7 @@
       </c>
       <c r="F59" s="21">
         <f t="shared" si="24"/>
-        <v>6.720000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G59" s="21">
         <f t="shared" si="24"/>
@@ -13622,7 +14082,7 @@
       </c>
       <c r="F60" s="21">
         <f t="shared" si="24"/>
-        <v>6.720000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G60" s="21">
         <f t="shared" si="24"/>
@@ -13644,12 +14104,12 @@
       <c r="D61" s="64">
         <v>0.2</v>
       </c>
-      <c r="E61" s="62" t="s">
-        <v>282</v>
+      <c r="E61" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="F61" s="61">
         <f t="shared" si="24"/>
-        <v>6.720000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G61" s="61">
         <f t="shared" si="24"/>
@@ -13670,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F62" s="78">
         <v>8.4699999999999998E-2</v>
@@ -13780,7 +14240,7 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F66" s="79">
         <f t="shared" si="27"/>
@@ -13806,11 +14266,10 @@
         <v>0</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F67" s="24">
-        <f>0.15*0.56</f>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G67" s="34">
         <f>0.1</f>
@@ -13842,7 +14301,7 @@
       </c>
       <c r="F68" s="21">
         <f t="shared" ref="F68:G71" si="30">F$67</f>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G68" s="21">
         <f t="shared" si="30"/>
@@ -13870,7 +14329,7 @@
       </c>
       <c r="F69" s="21">
         <f t="shared" si="30"/>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G69" s="21">
         <f t="shared" si="30"/>
@@ -13898,7 +14357,7 @@
       </c>
       <c r="F70" s="21">
         <f t="shared" si="30"/>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G70" s="21">
         <f t="shared" si="30"/>
@@ -13921,11 +14380,11 @@
         <v>0.2</v>
       </c>
       <c r="E71" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F71" s="61">
         <f t="shared" si="30"/>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G71" s="61">
         <f t="shared" si="30"/>
@@ -13947,11 +14406,10 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F72" s="101">
-        <f>0.15*0.56</f>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G72" s="101">
         <v>0.1</v>
@@ -13979,7 +14437,7 @@
       </c>
       <c r="F73" s="58">
         <f t="shared" ref="F73:G76" si="33">F$72</f>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G73" s="58">
         <f t="shared" si="33"/>
@@ -14007,7 +14465,7 @@
       </c>
       <c r="F74" s="58">
         <f t="shared" si="33"/>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G74" s="58">
         <f t="shared" si="33"/>
@@ -14035,7 +14493,7 @@
       </c>
       <c r="F75" s="58">
         <f t="shared" si="33"/>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G75" s="58">
         <f t="shared" si="33"/>
@@ -14057,12 +14515,12 @@
       <c r="D76" s="64">
         <v>0.2</v>
       </c>
-      <c r="E76" s="62" t="s">
-        <v>282</v>
+      <c r="E76" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="F76" s="79">
         <f t="shared" si="33"/>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G76" s="79">
         <f t="shared" si="33"/>
@@ -14084,10 +14542,10 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14142,7 +14600,7 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P1" t="s">
         <v>159</v>
@@ -14270,7 +14728,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K5" s="21">
         <v>0.2</v>
@@ -14283,7 +14741,7 @@
         <v>0.3</v>
       </c>
       <c r="N5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14314,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K6" s="21">
         <v>0.20499999999999999</v>
@@ -14326,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q6" t="s">
         <v>185</v>
@@ -14360,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K7" s="21">
         <v>0.20499999999999999</v>
@@ -14372,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q7" t="s">
         <v>185</v>
@@ -14418,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K9" s="21">
         <v>149</v>
@@ -14430,7 +14888,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q9" t="s">
         <v>237</v>
@@ -14480,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K11" s="21">
         <v>0.152</v>
@@ -14492,7 +14950,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14522,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K12" s="21">
         <v>0.14000000000000001</v>
@@ -14534,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14584,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K14" s="22">
         <v>9.1600000000000001E-2</v>
@@ -14596,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14656,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K16" s="34">
         <f>(1.88+2.13)/47</f>
@@ -14669,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14698,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K17" s="22">
         <v>0.11</v>
@@ -14710,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q17" t="s">
         <v>251</v>
@@ -14767,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K19" s="21">
         <f>AVERAGE(K6:K17)</f>
@@ -14781,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14816,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" ref="K20:L23" si="3">K$11</f>
@@ -14830,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14865,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="3"/>
@@ -14879,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14914,7 +15372,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="3"/>
@@ -14928,7 +15386,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -14963,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="3"/>
@@ -14977,7 +15435,7 @@
         <v>0.5</v>
       </c>
       <c r="N23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -15010,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K24" s="22">
         <v>0.152</v>
@@ -15022,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -15045,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K25" s="21">
         <v>0.14399999999999999</v>
@@ -15057,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q25" t="s">
         <v>158</v>
@@ -15086,7 +15544,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K26" s="21">
         <v>0.16</v>
@@ -15098,7 +15556,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -15130,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K27" s="21">
         <v>0.19</v>
@@ -15142,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -15193,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -15214,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K30" s="21">
         <f>(2.69+1.41)/31.2</f>
@@ -15227,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
@@ -15292,19 +15750,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K33" s="98">
         <v>0.19</v>
       </c>
-      <c r="L33" s="87" t="s">
-        <v>114</v>
+      <c r="L33" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="M33" s="87">
         <v>0</v>
       </c>
       <c r="N33" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -15325,7 +15783,8 @@
         <v>0.107</v>
       </c>
       <c r="F34" s="130">
-        <v>5.4399999999999997E-2</v>
+        <f>0.054*(K34/K$33)</f>
+        <v>4.5473684210526312E-2</v>
       </c>
       <c r="G34" s="68">
         <v>0.28199999999999997</v>
@@ -15337,19 +15796,19 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K34" s="68">
         <v>0.16</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -15370,7 +15829,8 @@
         <v>0.107</v>
       </c>
       <c r="F35" s="130">
-        <v>5.4399999999999997E-2</v>
+        <f>0.054*(K35/K$33)</f>
+        <v>4.5473684210526312E-2</v>
       </c>
       <c r="G35" s="68">
         <f>G34*0.75</f>
@@ -15383,20 +15843,20 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K35" s="68">
-        <f>K34*0.75</f>
-        <v>0.12</v>
+        <f>K34</f>
+        <v>0.16</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -15412,8 +15872,8 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="D36" s="21">
-        <f>D$33*0.75</f>
-        <v>1.9275E-2</v>
+        <f>D$33*0.9</f>
+        <v>2.3130000000000001E-2</v>
       </c>
       <c r="E36" s="21">
         <f>E$33</f>
@@ -15435,20 +15895,20 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K36" s="21">
         <f>K$33</f>
         <v>0.19</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M36" s="93">
         <v>1</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -15464,8 +15924,8 @@
         <v>0</v>
       </c>
       <c r="D37" s="21">
-        <f>D$34*0.75</f>
-        <v>1.9275E-2</v>
+        <f>D$34*0.9</f>
+        <v>2.3130000000000001E-2</v>
       </c>
       <c r="E37" s="21">
         <f t="shared" ref="E37:L37" si="4">E$34</f>
@@ -15473,7 +15933,7 @@
       </c>
       <c r="F37" s="133">
         <f t="shared" si="4"/>
-        <v>5.4399999999999997E-2</v>
+        <v>4.5473684210526312E-2</v>
       </c>
       <c r="G37" s="21">
         <f t="shared" si="4"/>
@@ -15497,7 +15957,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" si="4"/>
-        <v>coal coking - IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M37" s="53">
         <v>1</v>
@@ -15520,8 +15980,8 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="D38" s="21">
-        <f>D$33*0.75</f>
-        <v>1.9275E-2</v>
+        <f>D$33*0.9</f>
+        <v>2.3130000000000001E-2</v>
       </c>
       <c r="E38" s="21">
         <f>E$33</f>
@@ -15543,20 +16003,20 @@
         <v>0</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K38" s="22">
         <f>K$33</f>
         <v>0.19</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M38" s="94">
         <v>1</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O38" s="3"/>
     </row>
@@ -15573,16 +16033,16 @@
         <v>0</v>
       </c>
       <c r="D39" s="21">
-        <f>D$34*0.75</f>
-        <v>1.9275E-2</v>
+        <f>D$34*0.9</f>
+        <v>2.3130000000000001E-2</v>
       </c>
       <c r="E39" s="21">
-        <f t="shared" ref="E39:L39" si="5">E$34</f>
+        <f t="shared" ref="E39:K39" si="5">E$34</f>
         <v>0.107</v>
       </c>
       <c r="F39" s="133">
         <f t="shared" si="5"/>
-        <v>5.4399999999999997E-2</v>
+        <v>4.5473684210526312E-2</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" si="5"/>
@@ -15604,9 +16064,8 @@
         <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="5"/>
-        <v>coal coking - IPCC</v>
+      <c r="L39" t="s">
+        <v>290</v>
       </c>
       <c r="M39" s="53">
         <v>1</v>
@@ -15629,8 +16088,8 @@
         <v>0</v>
       </c>
       <c r="D40" s="21">
-        <f>D$35*0.75</f>
-        <v>1.9275E-2</v>
+        <f>D$35*0.9</f>
+        <v>2.3130000000000001E-2</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" ref="E40:L40" si="6">E$35</f>
@@ -15638,7 +16097,7 @@
       </c>
       <c r="F40" s="133">
         <f t="shared" si="6"/>
-        <v>5.4399999999999997E-2</v>
+        <v>4.5473684210526312E-2</v>
       </c>
       <c r="G40" s="21">
         <f t="shared" si="6"/>
@@ -15658,11 +16117,11 @@
       </c>
       <c r="K40" s="21">
         <f t="shared" si="6"/>
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="6"/>
-        <v>coal coking - IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M40" s="53">
         <v>1</v>
@@ -15685,8 +16144,8 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="D41" s="21">
-        <f>D$33*0.75</f>
-        <v>1.9275E-2</v>
+        <f>D$33*0.9</f>
+        <v>2.3130000000000001E-2</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" ref="E41:H42" si="7">E$33</f>
@@ -15708,20 +16167,20 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K41" s="21">
         <f>K$33</f>
         <v>0.19</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M41" s="94">
         <v>1</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15737,8 +16196,8 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="D42" s="61">
-        <f>D$33*0.9</f>
-        <v>2.3130000000000001E-2</v>
+        <f>D$33*0.97</f>
+        <v>2.4929E-2</v>
       </c>
       <c r="E42" s="61">
         <f t="shared" si="7"/>
@@ -15760,20 +16219,20 @@
         <v>0</v>
       </c>
       <c r="J42" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K42" s="61">
         <f>K$33</f>
         <v>0.19</v>
       </c>
       <c r="L42" s="60" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M42" s="97">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N42" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -15794,8 +16253,8 @@
         <v>0.264816</v>
       </c>
       <c r="F43" s="130">
-        <f>0.05</f>
-        <v>0.05</v>
+        <f>0.054*(K43/K$33)</f>
+        <v>4.2347368421052634E-2</v>
       </c>
       <c r="G43" s="68">
         <v>0.36199999999999999</v>
@@ -15807,19 +16266,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K43" s="68">
         <v>0.14899999999999999</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>249</v>
@@ -15843,7 +16302,8 @@
         <v>0.21185280000000001</v>
       </c>
       <c r="F44" s="130">
-        <v>0.5</v>
+        <f>0.054*(K44/K$33)</f>
+        <v>5.8263157894736843E-2</v>
       </c>
       <c r="G44" s="68">
         <v>0.28799999999999998</v>
@@ -15855,19 +16315,19 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K44" s="68">
         <v>0.20499999999999999</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -15888,7 +16348,8 @@
         <v>0.15888959999999999</v>
       </c>
       <c r="F45" s="130">
-        <v>0.5</v>
+        <f>0.054*(K45/K$33)</f>
+        <v>5.8263157894736843E-2</v>
       </c>
       <c r="G45" s="68">
         <f>G44*0.8</f>
@@ -15901,20 +16362,20 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K45" s="68">
-        <f>K44*0.8</f>
-        <v>0.16400000000000001</v>
+        <f>K44</f>
+        <v>0.20499999999999999</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -15930,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="21">
-        <f>D$43*0.75</f>
+        <f>D$43*0.9</f>
         <v>0</v>
       </c>
       <c r="E46" s="21">
@@ -15939,7 +16400,7 @@
       </c>
       <c r="F46" s="133">
         <f t="shared" si="8"/>
-        <v>0.05</v>
+        <v>4.2347368421052634E-2</v>
       </c>
       <c r="G46" s="21">
         <f t="shared" si="8"/>
@@ -15962,13 +16423,13 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="M46" s="53">
         <v>1</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -15984,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="21">
-        <f>D$44*0.75</f>
+        <f>D$44*0.9</f>
         <v>0</v>
       </c>
       <c r="E47" s="21">
@@ -15993,7 +16454,7 @@
       </c>
       <c r="F47" s="133">
         <f>F$44</f>
-        <v>0.5</v>
+        <v>5.8263157894736843E-2</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" ref="G47:L47" si="9">G$44</f>
@@ -16017,13 +16478,13 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" si="9"/>
-        <v>coal coking - IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M47" s="53">
         <v>1</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16039,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="21">
-        <f>D$43*0.75</f>
+        <f>D$43*0.9</f>
         <v>0</v>
       </c>
       <c r="E48" s="21">
@@ -16048,7 +16509,7 @@
       </c>
       <c r="F48" s="133">
         <f t="shared" si="10"/>
-        <v>0.05</v>
+        <v>4.2347368421052634E-2</v>
       </c>
       <c r="G48" s="21">
         <f t="shared" si="10"/>
@@ -16071,13 +16532,13 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="M48" s="53">
         <v>1</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16093,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="21">
-        <f>D$44*0.75</f>
+        <f>D$44*0.9</f>
         <v>0</v>
       </c>
       <c r="E49" s="21">
@@ -16102,7 +16563,7 @@
       </c>
       <c r="F49" s="133">
         <f>F$44</f>
-        <v>0.5</v>
+        <v>5.8263157894736843E-2</v>
       </c>
       <c r="G49" s="21">
         <f t="shared" ref="G49:L49" si="11">G$44</f>
@@ -16126,13 +16587,13 @@
       </c>
       <c r="L49" t="str">
         <f t="shared" si="11"/>
-        <v>coal coking - IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M49" s="53">
         <v>1</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16148,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="21">
-        <f>D$45*0.75</f>
+        <f>D$45*0.9</f>
         <v>0</v>
       </c>
       <c r="E50" s="21">
@@ -16157,7 +16618,7 @@
       </c>
       <c r="F50" s="133">
         <f>F$45</f>
-        <v>0.5</v>
+        <v>5.8263157894736843E-2</v>
       </c>
       <c r="G50" s="21">
         <f>G$45</f>
@@ -16177,17 +16638,17 @@
       </c>
       <c r="K50" s="21">
         <f t="shared" si="12"/>
-        <v>0.16400000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="12"/>
-        <v>coal coking - IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M50" s="53">
         <v>1</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16203,7 +16664,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="21">
-        <f>D$43*0.75</f>
+        <f>D$43*0.9</f>
         <v>0</v>
       </c>
       <c r="E51" s="21">
@@ -16212,7 +16673,7 @@
       </c>
       <c r="F51" s="133">
         <f>F$43</f>
-        <v>0.05</v>
+        <v>4.2347368421052634E-2</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" ref="G51:K52" si="13">G$43</f>
@@ -16235,13 +16696,13 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="M51" s="93">
         <v>1</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -16257,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="61">
-        <f>D$43*0.9</f>
+        <f>D$43*0.97</f>
         <v>0</v>
       </c>
       <c r="E52" s="61">
@@ -16266,7 +16727,7 @@
       </c>
       <c r="F52" s="79">
         <f>F$43</f>
-        <v>0.05</v>
+        <v>4.2347368421052634E-2</v>
       </c>
       <c r="G52" s="61">
         <f t="shared" si="13"/>
@@ -16289,13 +16750,13 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="L52" s="60" t="s">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="M52" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="N52" s="62" t="s">
-        <v>282</v>
+        <v>0.3</v>
+      </c>
+      <c r="N52" s="60" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -16316,8 +16777,8 @@
         <v>0.24</v>
       </c>
       <c r="F53" s="130">
-        <f>0.05</f>
-        <v>0.05</v>
+        <f>0.054*(K53/K$33)</f>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G53" s="68">
         <v>0.36499999999999999</v>
@@ -16329,19 +16790,19 @@
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K53" s="68">
         <v>0.14000000000000001</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16357,8 +16818,8 @@
         <v>0.12</v>
       </c>
       <c r="D54" s="21">
-        <f>D$53*0.75</f>
-        <v>1.6800000000000002E-2</v>
+        <f>D$53*0.9</f>
+        <v>2.0160000000000004E-2</v>
       </c>
       <c r="E54" s="21">
         <f t="shared" ref="E54:F57" si="14">E$53</f>
@@ -16366,7 +16827,7 @@
       </c>
       <c r="F54" s="21">
         <f t="shared" si="14"/>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G54" s="21">
         <f t="shared" ref="G54:L57" si="15">G$53</f>
@@ -16388,15 +16849,14 @@
         <f t="shared" si="15"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L54" t="str">
-        <f t="shared" si="15"/>
-        <v>coal PCI - JP IPCC</v>
+      <c r="L54" t="s">
+        <v>290</v>
       </c>
       <c r="M54" s="94">
         <v>1</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16412,8 +16872,8 @@
         <v>0.12</v>
       </c>
       <c r="D55" s="21">
-        <f>D$53*0.75</f>
-        <v>1.6800000000000002E-2</v>
+        <f>D$53*0.9</f>
+        <v>2.0160000000000004E-2</v>
       </c>
       <c r="E55" s="21">
         <f t="shared" si="14"/>
@@ -16421,7 +16881,7 @@
       </c>
       <c r="F55" s="21">
         <f t="shared" si="14"/>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G55" s="21">
         <f t="shared" si="15"/>
@@ -16445,13 +16905,13 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" si="15"/>
-        <v>coal PCI - JP IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M55" s="94">
         <v>1</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16467,8 +16927,8 @@
         <v>0.12</v>
       </c>
       <c r="D56" s="21">
-        <f>D$53*0.75</f>
-        <v>1.6800000000000002E-2</v>
+        <f>D$53*0.9</f>
+        <v>2.0160000000000004E-2</v>
       </c>
       <c r="E56" s="21">
         <f t="shared" si="14"/>
@@ -16476,7 +16936,7 @@
       </c>
       <c r="F56" s="21">
         <f t="shared" si="14"/>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G56" s="21">
         <f t="shared" si="15"/>
@@ -16500,13 +16960,13 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" si="15"/>
-        <v>coal PCI - JP IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M56" s="94">
         <v>1</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -16522,8 +16982,8 @@
         <v>0.12</v>
       </c>
       <c r="D57" s="61">
-        <f>D$53*0.9</f>
-        <v>2.0160000000000004E-2</v>
+        <f>D$53*0.97</f>
+        <v>2.1728000000000004E-2</v>
       </c>
       <c r="E57" s="61">
         <f t="shared" si="14"/>
@@ -16531,7 +16991,7 @@
       </c>
       <c r="F57" s="61">
         <f t="shared" si="14"/>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G57" s="61">
         <f t="shared" si="15"/>
@@ -16555,13 +17015,13 @@
       </c>
       <c r="L57" s="62" t="str">
         <f t="shared" si="15"/>
-        <v>coal PCI - JP IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M57" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="N57" s="62" t="s">
-        <v>282</v>
+        <v>0.3</v>
+      </c>
+      <c r="N57" s="60" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -16584,8 +17044,8 @@
         <v>0.2</v>
       </c>
       <c r="F58" s="130">
-        <f>0.05</f>
-        <v>0.05</v>
+        <f>0.054*(K58/K$33)</f>
+        <v>2.6033684210526317E-2</v>
       </c>
       <c r="G58" s="68">
         <v>0.45300000000000001</v>
@@ -16597,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K58" s="68">
         <v>9.1600000000000001E-2</v>
@@ -16609,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16625,8 +17085,8 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="D59" s="58">
-        <f t="shared" si="17"/>
-        <v>2.2400000000000003E-2</v>
+        <f>D$58*0.9</f>
+        <v>2.0160000000000004E-2</v>
       </c>
       <c r="E59" s="58">
         <f t="shared" si="17"/>
@@ -16634,7 +17094,7 @@
       </c>
       <c r="F59" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G59" s="58">
         <f t="shared" ref="G59:L62" si="18">G$58</f>
@@ -16664,7 +17124,7 @@
         <v>1</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16680,8 +17140,8 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="D60" s="58">
-        <f t="shared" si="17"/>
-        <v>2.2400000000000003E-2</v>
+        <f>D$58*0.9</f>
+        <v>2.0160000000000004E-2</v>
       </c>
       <c r="E60" s="58">
         <f t="shared" si="17"/>
@@ -16689,7 +17149,7 @@
       </c>
       <c r="F60" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G60" s="58">
         <f t="shared" si="18"/>
@@ -16719,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16735,8 +17195,8 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="D61" s="58">
-        <f t="shared" si="17"/>
-        <v>2.2400000000000003E-2</v>
+        <f>D$58*0.9</f>
+        <v>2.0160000000000004E-2</v>
       </c>
       <c r="E61" s="58">
         <f t="shared" si="17"/>
@@ -16744,7 +17204,7 @@
       </c>
       <c r="F61" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G61" s="58">
         <f t="shared" si="18"/>
@@ -16774,7 +17234,7 @@
         <v>1</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -16790,8 +17250,8 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="D62" s="79">
-        <f t="shared" si="17"/>
-        <v>2.2400000000000003E-2</v>
+        <f>D$58*0.97</f>
+        <v>2.1728000000000004E-2</v>
       </c>
       <c r="E62" s="79">
         <f t="shared" si="17"/>
@@ -16799,7 +17259,7 @@
       </c>
       <c r="F62" s="61">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G62" s="79">
         <f t="shared" si="18"/>
@@ -16826,10 +17286,10 @@
         <v>natural gas - IPCC</v>
       </c>
       <c r="M62" s="97">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N62" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -16851,8 +17311,8 @@
         <v>0.27</v>
       </c>
       <c r="F63" s="130">
-        <f>0.05</f>
-        <v>0.05</v>
+        <f>0.054*(K63/K$33)</f>
+        <v>2.4248600223964162E-2</v>
       </c>
       <c r="G63" s="78">
         <f>12.26/30.23</f>
@@ -16865,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K63" s="78">
         <f>(1.88+2.13)/47</f>
@@ -16878,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>257</v>
@@ -16897,8 +17357,8 @@
         <v>1.2904411764705883</v>
       </c>
       <c r="D64" s="21">
-        <f t="shared" si="20"/>
-        <v>0.14000000000000001</v>
+        <f>D$63*0.9</f>
+        <v>0.12600000000000003</v>
       </c>
       <c r="E64" s="21">
         <f t="shared" si="20"/>
@@ -16906,7 +17366,7 @@
       </c>
       <c r="F64" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G64" s="21">
         <f t="shared" ref="G64:L67" si="21">G$63</f>
@@ -16936,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16952,8 +17412,8 @@
         <v>1.2904411764705883</v>
       </c>
       <c r="D65" s="21">
-        <f t="shared" si="20"/>
-        <v>0.14000000000000001</v>
+        <f>D$63*0.9</f>
+        <v>0.12600000000000003</v>
       </c>
       <c r="E65" s="21">
         <f t="shared" si="20"/>
@@ -16961,7 +17421,7 @@
       </c>
       <c r="F65" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G65" s="21">
         <f t="shared" si="21"/>
@@ -16991,7 +17451,7 @@
         <v>1</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -17007,8 +17467,8 @@
         <v>1.2904411764705883</v>
       </c>
       <c r="D66" s="21">
-        <f t="shared" si="20"/>
-        <v>0.14000000000000001</v>
+        <f>D$63*0.9</f>
+        <v>0.12600000000000003</v>
       </c>
       <c r="E66" s="21">
         <f t="shared" si="20"/>
@@ -17016,7 +17476,7 @@
       </c>
       <c r="F66" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G66" s="21">
         <f t="shared" si="21"/>
@@ -17046,7 +17506,7 @@
         <v>1</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -17062,8 +17522,8 @@
         <v>1.2904411764705883</v>
       </c>
       <c r="D67" s="61">
-        <f t="shared" si="20"/>
-        <v>0.14000000000000001</v>
+        <f>D$63*0.97</f>
+        <v>0.1358</v>
       </c>
       <c r="E67" s="61">
         <f t="shared" si="20"/>
@@ -17071,7 +17531,7 @@
       </c>
       <c r="F67" s="61">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G67" s="61">
         <f t="shared" si="21"/>
@@ -17098,10 +17558,10 @@
         <v>natural gas - IPCC</v>
       </c>
       <c r="M67" s="97">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N67" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -17109,20 +17569,20 @@
         <v>232</v>
       </c>
       <c r="B68" s="101">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C68" s="101">
         <v>0</v>
       </c>
       <c r="D68" s="101">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E68" s="101">
         <v>0.1</v>
       </c>
       <c r="F68" s="130">
-        <f>0.05</f>
-        <v>0.05</v>
+        <f>0.054*(K68/K$33)</f>
+        <v>3.126315789473684E-2</v>
       </c>
       <c r="G68" s="68">
         <v>0.59</v>
@@ -17134,19 +17594,19 @@
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K68" s="68">
         <v>0.11</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="M68" s="1">
         <v>0</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>256</v>
@@ -17158,15 +17618,15 @@
       </c>
       <c r="B69" s="58">
         <f>B$68</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C69" s="58">
         <f t="shared" ref="C69:E72" si="23">C$68</f>
         <v>0</v>
       </c>
       <c r="D69" s="58">
-        <f t="shared" si="23"/>
-        <v>0.01</v>
+        <f>D$68*0.9</f>
+        <v>0</v>
       </c>
       <c r="E69" s="58">
         <f t="shared" si="23"/>
@@ -17174,7 +17634,7 @@
       </c>
       <c r="F69" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G69" s="58">
         <f t="shared" ref="G69:L72" si="24">G$68</f>
@@ -17198,13 +17658,13 @@
       </c>
       <c r="L69" s="57" t="str">
         <f t="shared" si="24"/>
-        <v>coal coking - IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M69" s="94">
         <v>1</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -17213,15 +17673,15 @@
       </c>
       <c r="B70" s="58">
         <f t="shared" ref="B70:B72" si="25">B$68</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C70" s="58">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D70" s="58">
-        <f t="shared" si="23"/>
-        <v>0.01</v>
+        <f>D$68*0.9</f>
+        <v>0</v>
       </c>
       <c r="E70" s="58">
         <f t="shared" si="23"/>
@@ -17229,7 +17689,7 @@
       </c>
       <c r="F70" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G70" s="58">
         <f t="shared" si="24"/>
@@ -17251,15 +17711,14 @@
         <f t="shared" si="24"/>
         <v>0.11</v>
       </c>
-      <c r="L70" s="57" t="str">
-        <f t="shared" si="24"/>
-        <v>coal coking - IPCC</v>
+      <c r="L70" s="57" t="s">
+        <v>290</v>
       </c>
       <c r="M70" s="94">
         <v>1</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -17268,15 +17727,15 @@
       </c>
       <c r="B71" s="58">
         <f t="shared" si="25"/>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C71" s="58">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D71" s="58">
-        <f t="shared" si="23"/>
-        <v>0.01</v>
+        <f>D$68*0.9</f>
+        <v>0</v>
       </c>
       <c r="E71" s="58">
         <f t="shared" si="23"/>
@@ -17284,7 +17743,7 @@
       </c>
       <c r="F71" s="21">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G71" s="58">
         <f t="shared" si="24"/>
@@ -17306,15 +17765,14 @@
         <f t="shared" si="24"/>
         <v>0.11</v>
       </c>
-      <c r="L71" s="57" t="str">
-        <f t="shared" si="24"/>
-        <v>coal coking - IPCC</v>
+      <c r="L71" s="57" t="s">
+        <v>290</v>
       </c>
       <c r="M71" s="94">
         <v>1</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -17323,15 +17781,15 @@
       </c>
       <c r="B72" s="79">
         <f t="shared" si="25"/>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C72" s="79">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D72" s="79">
-        <f t="shared" si="23"/>
-        <v>0.01</v>
+        <f>D$68*0.97</f>
+        <v>0</v>
       </c>
       <c r="E72" s="79">
         <f t="shared" si="23"/>
@@ -17339,7 +17797,7 @@
       </c>
       <c r="F72" s="61">
         <f>F$53</f>
-        <v>0.05</v>
+        <v>3.9789473684210527E-2</v>
       </c>
       <c r="G72" s="79">
         <f t="shared" si="24"/>
@@ -17363,13 +17821,13 @@
       </c>
       <c r="L72" s="76" t="str">
         <f t="shared" si="24"/>
-        <v>coal coking - IPCC</v>
+        <v>coal bituminous - IPCC</v>
       </c>
       <c r="M72" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="N72" s="62" t="s">
-        <v>282</v>
+        <v>0.3</v>
+      </c>
+      <c r="N72" s="60" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -17383,11 +17841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17410,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C1" s="73" t="s">
         <v>73</v>
@@ -17448,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="139" t="s">
         <v>74</v>
@@ -17468,7 +17926,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="139"/>
     </row>
@@ -17496,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="116" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -17530,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I5">
         <v>0.1</v>
@@ -17567,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I6" s="24">
         <f>I9</f>
@@ -17663,7 +18121,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I9" s="21">
         <f>0.9136*(0.0755+0.0118)</f>
@@ -17700,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I10" s="23">
         <v>6.9000000000000006E-2</v>
@@ -17736,7 +18194,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I11" s="23">
         <v>6.9000000000000006E-2</v>
@@ -17772,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="23">
         <v>0.04</v>
@@ -17808,7 +18266,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I13" s="23">
         <v>6.9000000000000006E-2</v>
@@ -18023,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I18">
         <f>0.0757*0.913606</f>
@@ -18064,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I19" s="21">
         <f>0.9136*(0.0755+0.0118)</f>
@@ -18103,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I20" s="21">
         <f>0.9136*(0.0755+0.0118)</f>
@@ -18239,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I25" s="87">
         <v>0.05</v>
@@ -18247,9 +18705,8 @@
       <c r="J25" s="87">
         <v>0.1</v>
       </c>
-      <c r="K25" s="87">
-        <f>60*Ref!$C$12</f>
-        <v>8.5657535468903354E-2</v>
+      <c r="K25" s="101">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -18277,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="99" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I26" s="1">
         <v>0.03</v>
@@ -18285,9 +18742,8 @@
       <c r="J26" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K26" s="1">
-        <f>49.5*Ref!C$12</f>
-        <v>7.0667466761845266E-2</v>
+      <c r="K26" s="101">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -18315,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="99" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I27" s="1">
         <v>0.03</v>
@@ -18323,9 +18779,8 @@
       <c r="J27" s="1">
         <v>0.03</v>
       </c>
-      <c r="K27" s="1">
-        <f>49.5*Ref!C$12</f>
-        <v>7.0667466761845266E-2</v>
+      <c r="K27" s="101">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18370,7 +18825,7 @@
       </c>
       <c r="K28" s="21">
         <f t="shared" si="4"/>
-        <v>8.5657535468903354E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18415,7 +18870,7 @@
       </c>
       <c r="K29" s="21">
         <f t="shared" si="5"/>
-        <v>7.0667466761845266E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18460,7 +18915,7 @@
       </c>
       <c r="K30" s="21">
         <f t="shared" si="7"/>
-        <v>8.5657535468903354E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18505,7 +18960,7 @@
       </c>
       <c r="K31" s="21">
         <f t="shared" si="9"/>
-        <v>7.0667466761845266E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18550,7 +19005,7 @@
       </c>
       <c r="K32" s="21">
         <f t="shared" si="10"/>
-        <v>7.0667466761845266E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18595,7 +19050,7 @@
       </c>
       <c r="K33" s="21">
         <f t="shared" si="12"/>
-        <v>8.5657535468903354E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18640,7 +19095,7 @@
       </c>
       <c r="K34" s="21">
         <f t="shared" si="12"/>
-        <v>8.5657535468903354E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18685,7 +19140,7 @@
       </c>
       <c r="K35" s="21">
         <f t="shared" si="12"/>
-        <v>8.5657535468903354E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18730,7 +19185,7 @@
       </c>
       <c r="K36" s="21">
         <f t="shared" si="14"/>
-        <v>7.0667466761845266E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18775,7 +19230,7 @@
       </c>
       <c r="K37" s="21">
         <f t="shared" si="14"/>
-        <v>7.0667466761845266E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -18820,7 +19275,7 @@
       </c>
       <c r="K38" s="21">
         <f t="shared" si="16"/>
-        <v>7.0667466761845266E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -18865,7 +19320,7 @@
       </c>
       <c r="K39" s="61">
         <f t="shared" si="16"/>
-        <v>7.0667466761845266E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -18877,11 +19332,11 @@
         <v>1.0150000000000001</v>
       </c>
       <c r="C40" s="142">
-        <f>40.2/40</f>
+        <f>40.2*(1/0.04)/1000</f>
         <v>1.0050000000000001</v>
       </c>
       <c r="D40" s="68">
-        <f>0.1/10</f>
+        <f>0.1*(1/0.01)/1000</f>
         <v>0.01</v>
       </c>
       <c r="E40" s="68">
@@ -18894,17 +19349,16 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I40" s="100">
-        <f>0.0023*(56/12)</f>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J40" s="68">
         <v>0.13</v>
       </c>
       <c r="K40" s="101">
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -18934,15 +19388,14 @@
         <f t="shared" si="16"/>
         <v>charcoal - IPCC</v>
       </c>
-      <c r="I41" s="101">
-        <f>0.0023*(56/12)</f>
-        <v>1.0733333333333334E-2</v>
+      <c r="I41" s="100">
+        <v>0.05</v>
       </c>
       <c r="J41" s="68">
         <v>0.1278</v>
       </c>
-      <c r="K41" s="68">
-        <v>0.73</v>
+      <c r="K41" s="101">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -18972,15 +19425,14 @@
         <f t="shared" si="16"/>
         <v>charcoal - IPCC</v>
       </c>
-      <c r="I42" s="101">
-        <f>0.0023*(56/12)</f>
-        <v>1.0733333333333334E-2</v>
+      <c r="I42" s="100">
+        <v>0.05</v>
       </c>
       <c r="J42" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K42" s="101">
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19017,7 +19469,7 @@
       </c>
       <c r="I43" s="21">
         <f t="shared" si="18"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J43" s="21">
         <f t="shared" si="18"/>
@@ -19025,7 +19477,7 @@
       </c>
       <c r="K43" s="21">
         <f t="shared" si="18"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19062,7 +19514,7 @@
       </c>
       <c r="I44" s="21">
         <f t="shared" si="19"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="19"/>
@@ -19070,7 +19522,7 @@
       </c>
       <c r="K44" s="21">
         <f t="shared" si="19"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19107,7 +19559,7 @@
       </c>
       <c r="I45" s="21">
         <f t="shared" si="20"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="20"/>
@@ -19115,7 +19567,7 @@
       </c>
       <c r="K45" s="21">
         <f t="shared" si="20"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19152,7 +19604,7 @@
       </c>
       <c r="I46" s="21">
         <f t="shared" si="21"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J46" s="21">
         <f t="shared" si="21"/>
@@ -19160,7 +19612,7 @@
       </c>
       <c r="K46" s="21">
         <f t="shared" si="21"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19197,7 +19649,7 @@
       </c>
       <c r="I47" s="21">
         <f t="shared" si="22"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J47" s="21">
         <f t="shared" si="22"/>
@@ -19205,7 +19657,7 @@
       </c>
       <c r="K47" s="21">
         <f t="shared" si="22"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19242,7 +19694,7 @@
       </c>
       <c r="I48" s="21">
         <f t="shared" si="23"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J48" s="21">
         <f t="shared" si="23"/>
@@ -19250,7 +19702,7 @@
       </c>
       <c r="K48" s="21">
         <f t="shared" si="23"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19287,7 +19739,7 @@
       </c>
       <c r="I49" s="21">
         <f t="shared" si="23"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J49" s="21">
         <f t="shared" si="23"/>
@@ -19295,7 +19747,7 @@
       </c>
       <c r="K49" s="21">
         <f t="shared" si="23"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19332,7 +19784,7 @@
       </c>
       <c r="I50" s="21">
         <f t="shared" si="23"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J50" s="21">
         <f t="shared" si="23"/>
@@ -19340,7 +19792,7 @@
       </c>
       <c r="K50" s="21">
         <f t="shared" si="23"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19377,7 +19829,7 @@
       </c>
       <c r="I51" s="21">
         <f t="shared" si="24"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J51" s="21">
         <f t="shared" si="24"/>
@@ -19385,7 +19837,7 @@
       </c>
       <c r="K51" s="21">
         <f t="shared" si="24"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19422,7 +19874,7 @@
       </c>
       <c r="I52" s="21">
         <f t="shared" si="24"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" si="24"/>
@@ -19430,7 +19882,7 @@
       </c>
       <c r="K52" s="21">
         <f t="shared" si="24"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19467,7 +19919,7 @@
       </c>
       <c r="I53" s="21">
         <f t="shared" si="25"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="25"/>
@@ -19475,7 +19927,7 @@
       </c>
       <c r="K53" s="21">
         <f t="shared" si="25"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -19512,7 +19964,7 @@
       </c>
       <c r="I54" s="61">
         <f t="shared" si="25"/>
-        <v>1.0733333333333334E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J54" s="61">
         <f t="shared" si="25"/>
@@ -19520,7 +19972,7 @@
       </c>
       <c r="K54" s="61">
         <f t="shared" si="25"/>
-        <v>0.73</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -19547,16 +19999,16 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I55" s="101">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J55" s="68">
         <v>0.2</v>
       </c>
       <c r="K55" s="101">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19565,7 +20017,7 @@
       </c>
       <c r="B56" s="58">
         <f>B$70</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C56" s="143">
         <f>C$55</f>
@@ -19593,7 +20045,7 @@
       </c>
       <c r="I56" s="21">
         <f t="shared" si="26"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J56" s="21">
         <f t="shared" si="26"/>
@@ -19601,7 +20053,7 @@
       </c>
       <c r="K56" s="21">
         <f t="shared" si="26"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19610,7 +20062,7 @@
       </c>
       <c r="B57" s="58">
         <f t="shared" ref="B57:B59" si="27">B$70</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C57" s="143">
         <f t="shared" ref="C57:C59" si="28">C$55</f>
@@ -19638,7 +20090,7 @@
       </c>
       <c r="I57" s="21">
         <f t="shared" si="26"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J57" s="21">
         <f t="shared" si="26"/>
@@ -19646,7 +20098,7 @@
       </c>
       <c r="K57" s="21">
         <f t="shared" si="26"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19655,7 +20107,7 @@
       </c>
       <c r="B58" s="58">
         <f t="shared" si="27"/>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C58" s="143">
         <f t="shared" si="28"/>
@@ -19683,7 +20135,7 @@
       </c>
       <c r="I58" s="21">
         <f t="shared" si="26"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J58" s="21">
         <f t="shared" si="26"/>
@@ -19691,7 +20143,7 @@
       </c>
       <c r="K58" s="21">
         <f t="shared" si="26"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -19700,7 +20152,7 @@
       </c>
       <c r="B59" s="79">
         <f t="shared" si="27"/>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C59" s="144">
         <f t="shared" si="28"/>
@@ -19728,7 +20180,7 @@
       </c>
       <c r="I59" s="61">
         <f t="shared" si="26"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J59" s="61">
         <f t="shared" si="26"/>
@@ -19736,7 +20188,7 @@
       </c>
       <c r="K59" s="61">
         <f t="shared" si="26"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -19763,16 +20215,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I60" s="101">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J60" s="101">
         <v>0.13</v>
       </c>
       <c r="K60" s="101">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19781,7 +20233,7 @@
       </c>
       <c r="B61" s="58">
         <f>B$70</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C61" s="143">
         <f>C$60</f>
@@ -19809,7 +20261,7 @@
       </c>
       <c r="I61" s="21">
         <f t="shared" si="29"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J61" s="21">
         <f t="shared" si="29"/>
@@ -19817,7 +20269,7 @@
       </c>
       <c r="K61" s="21">
         <f t="shared" si="29"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19826,7 +20278,7 @@
       </c>
       <c r="B62" s="58">
         <f t="shared" ref="B62:B64" si="30">B$70</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C62" s="143">
         <f t="shared" ref="C62:C64" si="31">C$60</f>
@@ -19854,7 +20306,7 @@
       </c>
       <c r="I62" s="21">
         <f t="shared" si="29"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J62" s="21">
         <f t="shared" si="29"/>
@@ -19862,7 +20314,7 @@
       </c>
       <c r="K62" s="21">
         <f t="shared" si="29"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19871,7 +20323,7 @@
       </c>
       <c r="B63" s="58">
         <f t="shared" si="30"/>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C63" s="143">
         <f t="shared" si="31"/>
@@ -19899,7 +20351,7 @@
       </c>
       <c r="I63" s="21">
         <f t="shared" si="29"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J63" s="21">
         <f t="shared" si="29"/>
@@ -19907,7 +20359,7 @@
       </c>
       <c r="K63" s="21">
         <f t="shared" si="29"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -19916,7 +20368,7 @@
       </c>
       <c r="B64" s="79">
         <f t="shared" si="30"/>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C64" s="144">
         <f t="shared" si="31"/>
@@ -19944,7 +20396,7 @@
       </c>
       <c r="I64" s="61">
         <f t="shared" si="29"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J64" s="61">
         <f t="shared" si="29"/>
@@ -19952,7 +20404,7 @@
       </c>
       <c r="K64" s="61">
         <f t="shared" si="29"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -19982,16 +20434,16 @@
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I65" s="101">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J65" s="68">
         <v>0.13</v>
       </c>
       <c r="K65" s="101">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>259</v>
@@ -20003,7 +20455,7 @@
       </c>
       <c r="B66" s="58">
         <f>B$70</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C66" s="143">
         <f>C$65</f>
@@ -20031,7 +20483,7 @@
       </c>
       <c r="I66" s="21">
         <f t="shared" si="32"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J66" s="21">
         <f t="shared" si="32"/>
@@ -20039,7 +20491,7 @@
       </c>
       <c r="K66" s="21">
         <f t="shared" si="32"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -20048,7 +20500,7 @@
       </c>
       <c r="B67" s="58">
         <f t="shared" ref="B67:B69" si="33">B$70</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C67" s="143">
         <f t="shared" ref="C67:C69" si="34">C$65</f>
@@ -20076,7 +20528,7 @@
       </c>
       <c r="I67" s="21">
         <f t="shared" si="32"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J67" s="21">
         <f t="shared" si="32"/>
@@ -20084,7 +20536,7 @@
       </c>
       <c r="K67" s="21">
         <f t="shared" si="32"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -20093,7 +20545,7 @@
       </c>
       <c r="B68" s="58">
         <f t="shared" si="33"/>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C68" s="143">
         <f t="shared" si="34"/>
@@ -20112,8 +20564,7 @@
         <v>natural gas - IPCC</v>
       </c>
       <c r="G68" s="47">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="47" t="str">
         <f t="shared" si="32"/>
@@ -20121,7 +20572,7 @@
       </c>
       <c r="I68" s="21">
         <f>I$65</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J68" s="21">
         <f t="shared" si="32"/>
@@ -20129,7 +20580,7 @@
       </c>
       <c r="K68" s="21">
         <f t="shared" si="32"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="62" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -20138,7 +20589,7 @@
       </c>
       <c r="B69" s="79">
         <f t="shared" si="33"/>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C69" s="144">
         <f t="shared" si="34"/>
@@ -20166,7 +20617,7 @@
       </c>
       <c r="I69" s="61">
         <f t="shared" si="32"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J69" s="61">
         <f t="shared" si="32"/>
@@ -20174,7 +20625,7 @@
       </c>
       <c r="K69" s="61">
         <f t="shared" si="32"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -20183,13 +20634,15 @@
       </c>
       <c r="B70" s="138">
         <f>SUM(C70:D70)</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C70" s="142">
-        <v>0.95</v>
-      </c>
-      <c r="D70" s="101">
-        <v>0.15</v>
+        <f>C40</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="D70" s="142">
+        <f>D40</f>
+        <v>0.01</v>
       </c>
       <c r="E70" s="101">
         <v>0</v>
@@ -20201,10 +20654,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I70" s="101">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J70" s="101">
         <v>0.2</v>
@@ -20219,15 +20672,15 @@
       </c>
       <c r="B71" s="58">
         <f>B$70</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C71" s="146">
         <f>C$70</f>
-        <v>0.95</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="D71" s="58">
         <f t="shared" ref="D71:K74" si="35">D$70</f>
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E71" s="58">
         <f t="shared" si="35"/>
@@ -20247,7 +20700,7 @@
       </c>
       <c r="I71" s="58">
         <f t="shared" si="35"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J71" s="58">
         <f t="shared" si="35"/>
@@ -20264,15 +20717,15 @@
       </c>
       <c r="B72" s="58">
         <f t="shared" ref="B72:C74" si="36">B$70</f>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C72" s="146">
         <f t="shared" si="36"/>
-        <v>0.95</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="D72" s="58">
         <f t="shared" si="35"/>
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E72" s="58">
         <f t="shared" si="35"/>
@@ -20292,7 +20745,7 @@
       </c>
       <c r="I72" s="58">
         <f t="shared" si="35"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J72" s="58">
         <f t="shared" si="35"/>
@@ -20309,15 +20762,15 @@
       </c>
       <c r="B73" s="58">
         <f t="shared" si="36"/>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C73" s="146">
         <f t="shared" si="36"/>
-        <v>0.95</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="D73" s="58">
         <f t="shared" si="35"/>
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E73" s="58">
         <f t="shared" si="35"/>
@@ -20337,7 +20790,7 @@
       </c>
       <c r="I73" s="58">
         <f t="shared" si="35"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J73" s="58">
         <f t="shared" si="35"/>
@@ -20354,15 +20807,15 @@
       </c>
       <c r="B74" s="79">
         <f t="shared" si="36"/>
-        <v>1.0999999999999999</v>
+        <v>1.0150000000000001</v>
       </c>
       <c r="C74" s="147">
         <f t="shared" si="36"/>
-        <v>0.95</v>
+        <v>1.0050000000000001</v>
       </c>
       <c r="D74" s="79">
         <f t="shared" si="35"/>
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E74" s="79">
         <f t="shared" si="35"/>
@@ -20382,7 +20835,7 @@
       </c>
       <c r="I74" s="79">
         <f t="shared" si="35"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J74" s="79">
         <f t="shared" si="35"/>
@@ -22630,7 +23083,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23058,12 +23511,11 @@
         <v>0.8</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:D26" si="2">C$23</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>natural gas - IPCC</v>
+        <f t="shared" ref="C26" si="2">C$23</f>
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>284</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -23077,12 +23529,11 @@
         <v>0.85</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:D27" si="3">C$24</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>natural gas - IPCC</v>
+        <f t="shared" ref="C27" si="3">C$24</f>
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>284</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -23092,16 +23543,15 @@
         <v>202</v>
       </c>
       <c r="B28" s="15">
-        <f t="shared" ref="B28:D28" si="4">B$23</f>
+        <f t="shared" ref="B28:C28" si="4">B$23</f>
         <v>0.8</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D28" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>natural gas - IPCC</v>
+      <c r="D28" t="s">
+        <v>284</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -23111,16 +23561,15 @@
         <v>203</v>
       </c>
       <c r="B29" s="15">
-        <f t="shared" ref="B29:D29" si="5">B$24</f>
+        <f t="shared" ref="B29:C29" si="5">B$24</f>
         <v>0.85</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>natural gas - IPCC</v>
+      <c r="D29" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -23134,12 +23583,11 @@
         <v>0.9</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:D30" si="6">C$25</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>natural gas - IPCC</v>
+        <f t="shared" ref="C30" si="6">C$25</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -23156,9 +23604,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D31" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>natural gas - IPCC</v>
+      <c r="D31" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -23175,9 +23622,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D32" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>natural gas - IPCC</v>
+      <c r="D32" s="54" t="s">
+        <v>283</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -23232,9 +23678,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D35" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>natural gas - IPCC</v>
+      <c r="D35" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -23270,9 +23715,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D37" s="109" t="str">
-        <f t="shared" si="9"/>
-        <v>natural gas - IPCC</v>
+      <c r="D37" s="109" t="s">
+        <v>284</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="62"/>
@@ -23331,9 +23775,8 @@
         <f t="shared" ref="C41:C43" si="10">C$38</f>
         <v>0</v>
       </c>
-      <c r="D41" t="str">
-        <f>D$38</f>
-        <v>coal coking - IPCC</v>
+      <c r="D41" t="s">
+        <v>284</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -23347,12 +23790,11 @@
         <v>0.85</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:D42" si="11">C$39</f>
-        <v>0</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="11"/>
-        <v>coal coking - IPCC</v>
+        <f t="shared" ref="C42" si="11">C$39</f>
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>284</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -23369,9 +23811,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D43" t="str">
-        <f>D$38</f>
-        <v>coal coking - IPCC</v>
+      <c r="D43" t="s">
+        <v>284</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -23381,16 +23822,15 @@
         <v>213</v>
       </c>
       <c r="B44" s="47">
-        <f t="shared" ref="B44:D44" si="12">B$39</f>
+        <f t="shared" ref="B44:C44" si="12">B$39</f>
         <v>0.85</v>
       </c>
       <c r="C44">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="12"/>
-        <v>coal coking - IPCC</v>
+      <c r="D44" t="s">
+        <v>284</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -23404,12 +23844,11 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:D45" si="13">C$40</f>
-        <v>0</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="13"/>
-        <v>coal coking - IPCC</v>
+        <f t="shared" ref="C45" si="13">C$40</f>
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>284</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -23426,9 +23865,8 @@
         <f t="shared" ref="C46:C48" si="14">C$38</f>
         <v>0</v>
       </c>
-      <c r="D46" t="str">
-        <f>D$38</f>
-        <v>coal coking - IPCC</v>
+      <c r="D46" t="s">
+        <v>284</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -23445,9 +23883,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D47" t="str">
-        <f>D$38</f>
-        <v>coal coking - IPCC</v>
+      <c r="D47" s="54" t="s">
+        <v>283</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -23502,9 +23939,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="15"/>
-        <v>coal coking - IPCC</v>
+      <c r="D50" t="s">
+        <v>284</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
@@ -23540,9 +23976,8 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D52" s="62" t="str">
-        <f t="shared" si="16"/>
-        <v>coal coking - IPCC</v>
+      <c r="D52" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E52" s="62"/>
       <c r="F52" s="62"/>
@@ -23570,12 +24005,11 @@
         <v>0.8</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D57" si="17">C$53</f>
-        <v>0</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="17"/>
-        <v>natural gas - IPCC</v>
+        <f t="shared" ref="C54:C57" si="17">C$53</f>
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>284</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
@@ -23592,9 +24026,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="17"/>
-        <v>natural gas - IPCC</v>
+      <c r="D55" t="s">
+        <v>284</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
@@ -23611,9 +24044,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="17"/>
-        <v>natural gas - IPCC</v>
+      <c r="D56" t="s">
+        <v>284</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
@@ -23630,9 +24062,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="D57" s="62" t="str">
-        <f t="shared" si="17"/>
-        <v>natural gas - IPCC</v>
+      <c r="D57" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="E57" s="62"/>
       <c r="F57" s="62"/>
@@ -23661,12 +24092,11 @@
         <v>0.8</v>
       </c>
       <c r="C59" s="57">
-        <f t="shared" ref="C59:D62" si="19">C$58</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="57" t="str">
-        <f t="shared" si="19"/>
-        <v>natural gas - IPCC</v>
+        <f t="shared" ref="C59:C62" si="19">C$58</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -23683,9 +24113,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D60" s="57" t="str">
-        <f t="shared" si="19"/>
-        <v>natural gas - IPCC</v>
+      <c r="D60" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -23702,9 +24131,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D61" s="57" t="str">
-        <f t="shared" si="19"/>
-        <v>natural gas - IPCC</v>
+      <c r="D61" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -23721,9 +24149,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D62" s="76" t="str">
-        <f t="shared" si="19"/>
-        <v>natural gas - IPCC</v>
+      <c r="D62" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="E62" s="62"/>
       <c r="F62" s="62"/>
@@ -23752,12 +24179,11 @@
         <v>0.8</v>
       </c>
       <c r="C64" s="57">
-        <f t="shared" ref="C64:D67" si="21">C$63</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="57" t="str">
-        <f t="shared" si="21"/>
-        <v>natural gas - IPCC</v>
+        <f t="shared" ref="C64:C67" si="21">C$63</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
@@ -23774,9 +24200,8 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D65" s="57" t="str">
-        <f t="shared" si="21"/>
-        <v>natural gas - IPCC</v>
+      <c r="D65" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
@@ -23793,9 +24218,8 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D66" s="57" t="str">
-        <f t="shared" si="21"/>
-        <v>natural gas - IPCC</v>
+      <c r="D66" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
@@ -23812,9 +24236,8 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D67" s="76" t="str">
-        <f t="shared" si="21"/>
-        <v>natural gas - IPCC</v>
+      <c r="D67" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="E67" s="62"/>
       <c r="F67" s="62"/>
@@ -23846,9 +24269,8 @@
         <f t="shared" ref="C69:C72" si="23">C$68</f>
         <v>0</v>
       </c>
-      <c r="D69" s="57" t="str">
-        <f>D$68</f>
-        <v>coal coking - IPCC</v>
+      <c r="D69" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -23865,9 +24287,8 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="D70" s="57" t="str">
-        <f>D$68</f>
-        <v>coal coking - IPCC</v>
+      <c r="D70" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -23884,9 +24305,8 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="D71" s="57" t="str">
-        <f>D$68</f>
-        <v>coal coking - IPCC</v>
+      <c r="D71" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
@@ -23903,9 +24323,8 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="D72" s="76" t="str">
-        <f>D$68</f>
-        <v>coal coking - IPCC</v>
+      <c r="D72" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="E72" s="62"/>
       <c r="F72" s="62"/>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="465" windowWidth="27495" windowHeight="17535" tabRatio="598" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="300" yWindow="465" windowWidth="27495" windowHeight="17535" tabRatio="598" firstSheet="7" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="17" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2645,6 +2645,8 @@
     <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5751,8 +5753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6628,23 +6630,29 @@
       <c r="H29" s="45">
         <v>1</v>
       </c>
+      <c r="I29" s="176">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="30" spans="1:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="79">
-        <v>0</v>
-      </c>
-      <c r="C30" s="177">
+      <c r="B30" s="80">
+        <v>0</v>
+      </c>
+      <c r="C30" s="178">
         <f>0.753*3.6</f>
         <v>2.7107999999999999</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="65">
         <f>1.024/28.2</f>
         <v>3.6312056737588652E-2</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="170" t="s">
         <v>190</v>
       </c>
       <c r="F30" s="50">
@@ -6655,6 +6663,12 @@
       </c>
       <c r="H30" s="64">
         <v>1</v>
+      </c>
+      <c r="I30" s="179">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J30" s="48">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -9637,10 +9651,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD66"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16013,7 +16027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC4F39-1AD4-1741-926B-2A39676E51D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="465" windowWidth="27495" windowHeight="17535" tabRatio="598" firstSheet="7" activeTab="6"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="27500" windowHeight="17540" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="17" r:id="rId1"/>
@@ -28,8 +29,7 @@
     <sheet name="Fuel" sheetId="10" r:id="rId14"/>
     <sheet name="Ref" sheetId="7" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,12 +45,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -121,13 +121,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="F13" authorId="0" shapeId="0">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="1" shapeId="0">
+    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -222,13 +222,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="1" shapeId="0">
+    <comment ref="F31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0">
+    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -348,13 +348,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="1" shapeId="0">
+    <comment ref="E9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K21" authorId="0" shapeId="0">
+    <comment ref="K21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="1" shapeId="0">
+    <comment ref="K41" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -584,7 +584,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>doi:10.1088/1755-1315/233/5/052016</t>
         </r>
@@ -595,13 +594,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -625,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="1" shapeId="0">
+    <comment ref="L11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -659,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="1" shapeId="0">
+    <comment ref="J15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="1" shapeId="0">
+    <comment ref="L15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -727,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="1" shapeId="0">
+    <comment ref="L19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -761,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="1" shapeId="0">
+    <comment ref="L23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -795,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L27" authorId="1" shapeId="0">
+    <comment ref="L27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -829,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L31" authorId="1" shapeId="0">
+    <comment ref="L31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -863,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -896,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L35" authorId="1" shapeId="0">
+    <comment ref="L35" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -930,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -963,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L39" authorId="1" shapeId="0">
+    <comment ref="L39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -997,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0">
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L43" authorId="1" shapeId="0">
+    <comment ref="L43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0" shapeId="0">
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L47" authorId="1" shapeId="0">
+    <comment ref="L47" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1136,12 +1135,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1170,12 +1169,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1255,12 +1254,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="257">
   <si>
     <t>scenario</t>
   </si>
@@ -2063,19 +2062,25 @@
   </si>
   <si>
     <t>t fresh metal / t EAF steel</t>
+  </si>
+  <si>
+    <t>Scrao Demand</t>
+  </si>
+  <si>
+    <t>t scrap / t EAF steel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2279,13 +2284,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2642,7 +2640,7 @@
     <xf numFmtId="167" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2651,8 +2649,8 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2930,28 +2928,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="26"/>
+    <col min="1" max="1" width="20.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +2972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
@@ -2988,7 +2986,7 @@
       <c r="E2" s="118"/>
       <c r="F2" s="118"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
@@ -3000,7 +2998,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="161" t="s">
         <v>3</v>
       </c>
@@ -3020,7 +3018,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>213</v>
       </c>
@@ -3043,7 +3041,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="136" t="s">
         <v>214</v>
       </c>
@@ -3066,7 +3064,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="136" t="s">
         <v>215</v>
       </c>
@@ -3089,7 +3087,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="136" t="s">
         <v>216</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="163" t="s">
         <v>237</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="52" t="s">
         <v>217</v>
       </c>
@@ -3159,7 +3157,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="136" t="s">
         <v>218</v>
       </c>
@@ -3182,7 +3180,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="136" t="s">
         <v>219</v>
       </c>
@@ -3205,7 +3203,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="163" t="s">
         <v>220</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>221</v>
       </c>
@@ -3249,7 +3247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
         <v>222</v>
       </c>
@@ -3272,7 +3270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>223</v>
       </c>
@@ -3295,7 +3293,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>224</v>
       </c>
@@ -3318,7 +3316,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
         <v>225</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>226</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>227</v>
       </c>
@@ -3386,7 +3384,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>228</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
         <v>229</v>
       </c>
@@ -3433,7 +3431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>230</v>
       </c>
@@ -3457,7 +3455,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
         <v>231</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>232</v>
       </c>
@@ -3505,7 +3503,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
         <v>233</v>
       </c>
@@ -3525,7 +3523,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>234</v>
       </c>
@@ -3548,7 +3546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
         <v>235</v>
       </c>
@@ -3571,7 +3569,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>236</v>
       </c>
@@ -3594,7 +3592,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53" t="s">
         <v>191</v>
       </c>
@@ -3614,7 +3612,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="116" t="s">
         <v>192</v>
       </c>
@@ -3638,7 +3636,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="116" t="s">
         <v>193</v>
       </c>
@@ -3662,7 +3660,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="145" t="s">
         <v>194</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>195</v>
       </c>
@@ -3709,66 +3707,66 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="136" t="s">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="27">
+        <f>B36</f>
+        <v>0.82</v>
+      </c>
+      <c r="C35" s="27">
+        <f>C36</f>
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="26" t="str">
+        <f>D36</f>
+        <v>coal coking - IPCC</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B36" s="27">
         <f>B34</f>
         <v>0.82</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C36" s="27">
         <f>C34</f>
         <v>0.02</v>
       </c>
-      <c r="D35" s="26" t="str">
+      <c r="D36" s="26" t="str">
         <f>D34</f>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="E35" s="114">
+      <c r="E36" s="114">
         <v>0.05</v>
       </c>
-      <c r="F35" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="116" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="27">
-        <f t="shared" ref="B36:B37" si="6">B35</f>
-        <v>0.82</v>
-      </c>
-      <c r="C36" s="27">
-        <f t="shared" ref="C36:C37" si="7">C35</f>
-        <v>0.02</v>
-      </c>
-      <c r="D36" s="26" t="str">
-        <f t="shared" ref="D36:D37" si="8">D35</f>
-        <v>coal coking - IPCC</v>
-      </c>
-      <c r="E36" s="26">
-        <v>0</v>
-      </c>
       <c r="F36" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="145" t="s">
         <v>198</v>
       </c>
       <c r="B37" s="47">
-        <f t="shared" si="6"/>
+        <f>B35</f>
         <v>0.82</v>
       </c>
       <c r="C37" s="47">
-        <f t="shared" si="7"/>
+        <f>C35</f>
         <v>0.02</v>
       </c>
       <c r="D37" s="48" t="str">
-        <f t="shared" si="8"/>
+        <f>D35</f>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E37" s="50">
@@ -3778,7 +3776,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="116" t="s">
         <v>199</v>
       </c>
@@ -3802,7 +3800,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
         <v>200</v>
       </c>
@@ -3826,7 +3824,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="116" t="s">
         <v>201</v>
       </c>
@@ -3850,7 +3848,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="145" t="s">
         <v>202</v>
       </c>
@@ -3874,7 +3872,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="116" t="s">
         <v>204</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="116" t="s">
         <v>205</v>
       </c>
@@ -3910,46 +3908,46 @@
         <f>D42</f>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="E43" s="114">
-        <v>0.05</v>
+      <c r="E43" s="44">
+        <v>0</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="116" t="s">
         <v>241</v>
       </c>
       <c r="B44" s="27">
-        <f t="shared" ref="B44:B45" si="9">B43</f>
+        <f t="shared" ref="B44:B45" si="6">B43</f>
         <v>0.82</v>
       </c>
       <c r="C44" s="27">
-        <f t="shared" ref="C44:C45" si="10">C43</f>
+        <f t="shared" ref="C44:C45" si="7">C43</f>
         <v>0.02</v>
       </c>
       <c r="D44" s="26" t="str">
         <f>D42</f>
         <v>coal coking - IPCC</v>
       </c>
-      <c r="E44" s="26">
-        <v>0</v>
+      <c r="E44" s="114">
+        <v>0.05</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="145" t="s">
         <v>206</v>
       </c>
       <c r="B45" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.82</v>
       </c>
       <c r="C45" s="47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.02</v>
       </c>
       <c r="D45" s="48" t="str">
@@ -3965,7 +3963,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" location="BIB5" display="https://www.sciencedirect.com/science/article/pii/S0301421501001471 - BIB5"/>
+    <hyperlink ref="G10" r:id="rId1" location="BIB5" display="https://www.sciencedirect.com/science/article/pii/S0301421501001471 - BIB5" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3974,23 +3972,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
@@ -4010,7 +4008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>76</v>
       </c>
@@ -4028,7 +4026,7 @@
       </c>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -4042,7 +4040,7 @@
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>213</v>
       </c>
@@ -4082,7 +4080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>214</v>
       </c>
@@ -4103,7 +4101,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -4124,7 +4122,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -4145,7 +4143,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -4162,7 +4160,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -4183,7 +4181,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -4204,7 +4202,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -4225,7 +4223,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>221</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>222</v>
       </c>
@@ -4263,7 +4261,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>223</v>
       </c>
@@ -4284,7 +4282,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>224</v>
       </c>
@@ -4305,7 +4303,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>225</v>
       </c>
@@ -4322,7 +4320,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>226</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>227</v>
       </c>
@@ -4364,7 +4362,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>228</v>
       </c>
@@ -4385,7 +4383,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>229</v>
       </c>
@@ -4402,7 +4400,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>230</v>
       </c>
@@ -4423,7 +4421,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>231</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>232</v>
       </c>
@@ -4465,7 +4463,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>233</v>
       </c>
@@ -4482,7 +4480,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>234</v>
       </c>
@@ -4503,7 +4501,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>235</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>236</v>
       </c>
@@ -4545,7 +4543,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
         <v>191</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -4584,7 +4582,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -4626,7 +4624,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>195</v>
       </c>
@@ -4637,13 +4635,13 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="58">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="136" t="s">
         <v>197</v>
       </c>
@@ -4657,14 +4655,14 @@
       </c>
       <c r="D34">
         <f t="shared" si="17"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="116" t="s">
         <v>196</v>
       </c>
@@ -4678,14 +4676,14 @@
       </c>
       <c r="D35">
         <f t="shared" si="18"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
         <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
@@ -4699,14 +4697,14 @@
       </c>
       <c r="D36" s="48">
         <f t="shared" si="19"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E36" s="48">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>199</v>
       </c>
@@ -4717,13 +4715,13 @@
         <v>0.95</v>
       </c>
       <c r="D37" s="58">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="116" t="s">
         <v>200</v>
       </c>
@@ -4737,14 +4735,14 @@
       </c>
       <c r="D38">
         <f t="shared" si="20"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E38">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
@@ -4758,14 +4756,14 @@
       </c>
       <c r="D39">
         <f t="shared" si="21"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E39">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
@@ -4779,14 +4777,14 @@
       </c>
       <c r="D40" s="48">
         <f t="shared" si="22"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="48">
         <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="144" t="s">
         <v>204</v>
       </c>
@@ -4797,13 +4795,13 @@
         <v>0.95</v>
       </c>
       <c r="D41" s="58">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
@@ -4817,14 +4815,14 @@
       </c>
       <c r="D42">
         <f t="shared" si="23"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="116" t="s">
         <v>241</v>
       </c>
@@ -4838,14 +4836,14 @@
       </c>
       <c r="D43">
         <f t="shared" si="24"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E43">
         <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145" t="s">
         <v>206</v>
       </c>
@@ -4859,11 +4857,11 @@
       </c>
       <c r="D44" s="48">
         <f t="shared" si="25"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="48">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4872,19 +4870,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>76</v>
       </c>
@@ -4906,12 +4904,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
@@ -4922,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -4944,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -4955,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -4966,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -4977,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -5014,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -5027,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -5040,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -5053,37 +5051,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
         <v>213</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>214</v>
       </c>
@@ -5107,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>215</v>
       </c>
@@ -5120,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>216</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>217</v>
       </c>
@@ -5144,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>218</v>
       </c>
@@ -5157,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>219</v>
       </c>
@@ -5170,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>220</v>
       </c>
@@ -5183,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>221</v>
       </c>
@@ -5194,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>222</v>
       </c>
@@ -5207,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>223</v>
       </c>
@@ -5220,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>224</v>
       </c>
@@ -5233,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>225</v>
       </c>
@@ -5244,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
         <v>226</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
         <v>227</v>
       </c>
@@ -5270,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>228</v>
       </c>
@@ -5283,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>229</v>
       </c>
@@ -5294,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>230</v>
       </c>
@@ -5307,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>231</v>
       </c>
@@ -5320,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>232</v>
       </c>
@@ -5333,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="52" t="s">
         <v>233</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>234</v>
       </c>
@@ -5357,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>235</v>
       </c>
@@ -5370,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>236</v>
       </c>
@@ -5383,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="53" t="s">
         <v>191</v>
       </c>
@@ -5395,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="116" t="s">
         <v>192</v>
       </c>
@@ -5408,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="116" t="s">
         <v>193</v>
       </c>
@@ -5421,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="145" t="s">
         <v>194</v>
       </c>
@@ -5434,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="52" t="s">
         <v>195</v>
       </c>
@@ -5446,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="136" t="s">
         <v>197</v>
       </c>
@@ -5459,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="116" t="s">
         <v>196</v>
       </c>
@@ -5472,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="145" t="s">
         <v>198</v>
       </c>
@@ -5485,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="116" t="s">
         <v>199</v>
       </c>
@@ -5497,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="116" t="s">
         <v>200</v>
       </c>
@@ -5510,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="116" t="s">
         <v>201</v>
       </c>
@@ -5523,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="145" t="s">
         <v>202</v>
       </c>
@@ -5536,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="144" t="s">
         <v>204</v>
       </c>
@@ -5548,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="116" t="s">
         <v>205</v>
       </c>
@@ -5561,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="116" t="s">
         <v>241</v>
       </c>
@@ -5574,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="145" t="s">
         <v>206</v>
       </c>
@@ -5593,23 +5591,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5632,7 +5630,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5644,13 +5642,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5662,7 +5660,7 @@
         <v>5.631067961165049E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>243</v>
       </c>
@@ -5689,7 +5687,7 @@
         <v>5.631067961165049E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -5716,7 +5714,7 @@
         <v>5.631067961165049E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -5741,6 +5739,10 @@
       <c r="G7" s="21">
         <f>0.058/1.03</f>
         <v>5.631067961165049E-2</v>
+      </c>
+      <c r="H7">
+        <f>G7*130+E7</f>
+        <v>12.776699029126213</v>
       </c>
     </row>
   </sheetData>
@@ -5750,26 +5752,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5792,19 +5795,22 @@
         <v>122</v>
       </c>
       <c r="H1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" t="s">
         <v>253</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5818,24 +5824,27 @@
         <v>53</v>
       </c>
       <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
         <v>254</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>139</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5857,17 +5866,20 @@
       <c r="G4" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I4" s="21">
         <v>0.01</v>
       </c>
-      <c r="I4" s="21">
+      <c r="J4" s="21">
         <v>0.02</v>
       </c>
-      <c r="J4" s="21">
+      <c r="K4" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -5889,13 +5901,13 @@
       <c r="G5" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="21">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
       <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -5917,13 +5929,13 @@
       <c r="G6" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="21">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
       <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -5945,13 +5957,13 @@
       <c r="G7" t="s">
         <v>184</v>
       </c>
-      <c r="H7" s="21">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
       <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -5973,15 +5985,15 @@
       <c r="G8" t="s">
         <v>184</v>
       </c>
-      <c r="H8" s="21">
-        <v>0</v>
-      </c>
       <c r="I8" s="21">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="21">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -6003,15 +6015,15 @@
       <c r="G9" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
       <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -6033,15 +6045,15 @@
       <c r="G10" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
       <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
         <v>0.04</v>
       </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -6061,18 +6073,18 @@
       <c r="G11" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="21">
-        <v>0</v>
-      </c>
       <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
         <v>0.65</v>
       </c>
-      <c r="J11" s="21">
+      <c r="K11" s="21">
         <f>30*Ref!C$12</f>
         <v>4.2828767734451677E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -6094,18 +6106,18 @@
       <c r="G12" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
       <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J12" s="21">
+      <c r="K12" s="21">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -6127,13 +6139,13 @@
       <c r="G13" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
       <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -6156,13 +6168,13 @@
       <c r="G14" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
       <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -6185,13 +6197,13 @@
       <c r="G15" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
       <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -6213,13 +6225,13 @@
       <c r="G16" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
       <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" s="48" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" s="48" customFormat="1" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="88" t="s">
         <v>167</v>
       </c>
@@ -6232,14 +6244,14 @@
       <c r="E17" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47">
+      <c r="I17" s="47"/>
+      <c r="J17" s="47">
         <f>0.0038*(56/12)</f>
         <v>1.7733333333333334E-2</v>
       </c>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="1:11" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>237</v>
       </c>
@@ -6261,18 +6273,21 @@
       <c r="G18" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="H18" s="27">
-        <v>0</v>
+      <c r="H18">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I18" s="27">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
         <v>0.65</v>
       </c>
-      <c r="J18" s="27">
+      <c r="K18" s="27">
         <f>30*Ref!C$12</f>
         <v>4.2828767734451677E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>145</v>
       </c>
@@ -6294,18 +6309,21 @@
       <c r="G19" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="21">
-        <v>0</v>
+      <c r="H19">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I19" s="21">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J19" s="21">
+      <c r="K19" s="21">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>146</v>
       </c>
@@ -6327,18 +6345,21 @@
       <c r="G20" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="21">
-        <v>0</v>
+      <c r="H20">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J20" s="21">
+      <c r="K20" s="21">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>147</v>
       </c>
@@ -6360,18 +6381,21 @@
       <c r="G21" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="21">
-        <v>0</v>
+      <c r="H21">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J21" s="21">
+      <c r="K21" s="21">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>148</v>
       </c>
@@ -6393,18 +6417,21 @@
       <c r="G22" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="H22" s="47">
-        <v>0</v>
+      <c r="H22" s="48">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I22" s="47">
+        <v>0</v>
+      </c>
+      <c r="J22" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J22" s="47">
+      <c r="K22" s="47">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>239</v>
       </c>
@@ -6426,18 +6453,21 @@
       <c r="G23" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="H23" s="27">
-        <v>0</v>
-      </c>
-      <c r="I23" s="93">
+      <c r="H23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="93">
         <v>0.65</v>
       </c>
-      <c r="J23" s="93">
+      <c r="K23" s="93">
         <f>30*Ref!C$12</f>
         <v>4.2828767734451677E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>149</v>
       </c>
@@ -6459,18 +6489,21 @@
       <c r="G24" t="s">
         <v>184</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="23">
+      <c r="H24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J24" s="23">
+      <c r="K24" s="23">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>150</v>
       </c>
@@ -6492,18 +6525,21 @@
       <c r="G25" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-      <c r="I25" s="23">
+      <c r="H25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="23">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J25" s="23">
+      <c r="K25" s="23">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>151</v>
       </c>
@@ -6525,18 +6561,21 @@
       <c r="G26" t="s">
         <v>184</v>
       </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="23">
+      <c r="H26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="23">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J26" s="23">
+      <c r="K26" s="23">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>152</v>
       </c>
@@ -6558,18 +6597,21 @@
       <c r="G27" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="H27" s="47">
-        <v>0</v>
-      </c>
-      <c r="I27" s="96">
+      <c r="H27" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I27" s="47">
+        <v>0</v>
+      </c>
+      <c r="J27" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J27" s="96">
+      <c r="K27" s="96">
         <f>5*Ref!C$12</f>
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -6593,17 +6635,20 @@
       <c r="G28" t="s">
         <v>184</v>
       </c>
-      <c r="H28" s="45">
-        <v>1</v>
-      </c>
-      <c r="I28" s="176">
+      <c r="H28">
+        <v>0.33</v>
+      </c>
+      <c r="I28" s="45">
+        <v>0.77</v>
+      </c>
+      <c r="J28" s="176">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>244</v>
       </c>
@@ -6627,17 +6672,20 @@
       <c r="G29" t="s">
         <v>184</v>
       </c>
-      <c r="H29" s="45">
-        <v>1</v>
-      </c>
-      <c r="I29" s="176">
+      <c r="H29">
+        <v>0.33</v>
+      </c>
+      <c r="I29" s="45">
+        <v>0.77</v>
+      </c>
+      <c r="J29" s="176">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>252</v>
       </c>
@@ -6661,13 +6709,16 @@
       <c r="G30" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="H30" s="64">
-        <v>1</v>
-      </c>
-      <c r="I30" s="179">
+      <c r="H30" s="48">
+        <v>0.33</v>
+      </c>
+      <c r="I30" s="64">
+        <v>0.77</v>
+      </c>
+      <c r="J30" s="179">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J30" s="48">
+      <c r="K30" s="48">
         <v>0.05</v>
       </c>
     </row>
@@ -6679,22 +6730,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6708,17 +6759,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
@@ -6732,7 +6783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -6746,7 +6797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -6760,7 +6811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -6774,7 +6825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -6788,7 +6839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -6802,7 +6853,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6816,7 +6867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6830,7 +6881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -6844,7 +6895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -6858,7 +6909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6872,7 +6923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -6886,7 +6937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -6900,7 +6951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -6914,7 +6965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -6928,7 +6979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -6942,7 +6993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -6956,7 +7007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -6970,7 +7021,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -6984,7 +7035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="85" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="85" t="s">
         <v>141</v>
       </c>
@@ -6998,7 +7049,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>213</v>
       </c>
@@ -7012,7 +7063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>214</v>
       </c>
@@ -7027,7 +7078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>215</v>
       </c>
@@ -7042,7 +7093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>216</v>
       </c>
@@ -7057,7 +7108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>217</v>
       </c>
@@ -7071,7 +7122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>218</v>
       </c>
@@ -7086,7 +7137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
         <v>219</v>
       </c>
@@ -7101,7 +7152,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>220</v>
       </c>
@@ -7116,7 +7167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>221</v>
       </c>
@@ -7130,7 +7181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>222</v>
       </c>
@@ -7145,7 +7196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
         <v>223</v>
       </c>
@@ -7160,7 +7211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>224</v>
       </c>
@@ -7175,7 +7226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>225</v>
       </c>
@@ -7189,7 +7240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>226</v>
       </c>
@@ -7204,7 +7255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>227</v>
       </c>
@@ -7219,7 +7270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>228</v>
       </c>
@@ -7234,7 +7285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
         <v>229</v>
       </c>
@@ -7248,7 +7299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>230</v>
       </c>
@@ -7263,7 +7314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>231</v>
       </c>
@@ -7278,7 +7329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>232</v>
       </c>
@@ -7293,7 +7344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>233</v>
       </c>
@@ -7307,7 +7358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>234</v>
       </c>
@@ -7322,7 +7373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
         <v>235</v>
       </c>
@@ -7337,7 +7388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>236</v>
       </c>
@@ -7352,7 +7403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="53" t="s">
         <v>191</v>
       </c>
@@ -7366,7 +7417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="116" t="s">
         <v>192</v>
       </c>
@@ -7381,7 +7432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="116" t="s">
         <v>193</v>
       </c>
@@ -7396,7 +7447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="145" t="s">
         <v>194</v>
       </c>
@@ -7411,7 +7462,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
         <v>195</v>
       </c>
@@ -7425,7 +7476,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="136" t="s">
         <v>197</v>
       </c>
@@ -7440,7 +7491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="116" t="s">
         <v>196</v>
       </c>
@@ -7455,7 +7506,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="145" t="s">
         <v>198</v>
       </c>
@@ -7470,7 +7521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="116" t="s">
         <v>199</v>
       </c>
@@ -7484,7 +7535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="116" t="s">
         <v>200</v>
       </c>
@@ -7499,7 +7550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="116" t="s">
         <v>201</v>
       </c>
@@ -7514,7 +7565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="145" t="s">
         <v>202</v>
       </c>
@@ -7529,7 +7580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="144" t="s">
         <v>204</v>
       </c>
@@ -7543,7 +7594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="116" t="s">
         <v>205</v>
       </c>
@@ -7558,7 +7609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="116" t="s">
         <v>241</v>
       </c>
@@ -7573,7 +7624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="145" t="s">
         <v>206</v>
       </c>
@@ -7595,33 +7646,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>29</v>
@@ -7630,7 +7681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -7642,7 +7693,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -7654,7 +7705,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -7666,7 +7717,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -7678,7 +7729,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
@@ -7690,7 +7741,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -7702,7 +7753,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -7715,7 +7766,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
@@ -7727,7 +7778,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -7739,31 +7790,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>42</v>
       </c>
@@ -7772,7 +7823,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>43</v>
       </c>
@@ -7782,7 +7833,7 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>44</v>
       </c>
@@ -7792,7 +7843,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>75</v>
       </c>
@@ -7801,7 +7852,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>77</v>
       </c>
@@ -7817,26 +7868,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.83203125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="63.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7856,7 +7907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7867,12 +7918,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7883,7 +7934,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -7901,7 +7952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -7919,7 +7970,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="67" t="s">
         <v>217</v>
       </c>
@@ -7939,7 +7990,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>219</v>
       </c>
@@ -7952,7 +8003,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>218</v>
       </c>
@@ -7965,7 +8016,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>220</v>
       </c>
@@ -7980,7 +8031,7 @@
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
         <v>213</v>
       </c>
@@ -7994,7 +8045,7 @@
       <c r="E11" s="126"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>215</v>
       </c>
@@ -8007,7 +8058,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>214</v>
       </c>
@@ -8020,7 +8071,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>216</v>
       </c>
@@ -8035,7 +8086,7 @@
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
         <v>233</v>
       </c>
@@ -8046,7 +8097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>235</v>
       </c>
@@ -8059,7 +8110,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>234</v>
       </c>
@@ -8072,7 +8123,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>236</v>
       </c>
@@ -8087,7 +8138,7 @@
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
         <v>221</v>
       </c>
@@ -8098,7 +8149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>223</v>
       </c>
@@ -8111,7 +8162,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="s">
         <v>222</v>
       </c>
@@ -8124,7 +8175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>224</v>
       </c>
@@ -8139,7 +8190,7 @@
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
         <v>225</v>
       </c>
@@ -8153,7 +8204,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
         <v>227</v>
       </c>
@@ -8166,7 +8217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>226</v>
       </c>
@@ -8179,7 +8230,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>228</v>
       </c>
@@ -8194,7 +8245,7 @@
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
         <v>229</v>
       </c>
@@ -8208,7 +8259,7 @@
       <c r="E27" s="60"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
         <v>231</v>
       </c>
@@ -8221,7 +8272,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
         <v>230</v>
       </c>
@@ -8234,7 +8285,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>232</v>
       </c>
@@ -8249,7 +8300,7 @@
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
         <v>191</v>
       </c>
@@ -8260,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="116" t="s">
         <v>192</v>
       </c>
@@ -8273,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="116" t="s">
         <v>193</v>
       </c>
@@ -8286,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="145" t="s">
         <v>194</v>
       </c>
@@ -8301,7 +8352,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>195</v>
       </c>
@@ -8312,7 +8363,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="136" t="s">
         <v>197</v>
       </c>
@@ -8325,7 +8376,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="116" t="s">
         <v>196</v>
       </c>
@@ -8338,7 +8389,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="145" t="s">
         <v>198</v>
       </c>
@@ -8353,7 +8404,7 @@
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
         <v>199</v>
       </c>
@@ -8364,7 +8415,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="116" t="s">
         <v>200</v>
       </c>
@@ -8377,7 +8428,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="116" t="s">
         <v>201</v>
       </c>
@@ -8390,7 +8441,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="145" t="s">
         <v>202</v>
       </c>
@@ -8405,7 +8456,7 @@
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="116" t="s">
         <v>204</v>
       </c>
@@ -8416,7 +8467,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="116" t="s">
         <v>205</v>
       </c>
@@ -8429,7 +8480,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="116" t="s">
         <v>241</v>
       </c>
@@ -8442,7 +8493,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="145" t="s">
         <v>206</v>
       </c>
@@ -8458,11 +8509,11 @@
       <c r="E46" s="61"/>
     </row>
   </sheetData>
-  <sortState ref="A26:F49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:F49">
     <sortCondition ref="A26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" tooltip="Persistent link using digital object identifier"/>
+    <hyperlink ref="F7" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8470,27 +8521,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8516,7 +8567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8524,12 +8575,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8553,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>213</v>
       </c>
@@ -8578,7 +8629,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>214</v>
       </c>
@@ -8607,7 +8658,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -8635,7 +8686,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -8663,7 +8714,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -8686,7 +8737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -8715,7 +8766,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -8743,7 +8794,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -8771,7 +8822,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
         <v>221</v>
       </c>
@@ -8794,7 +8845,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
         <v>222</v>
       </c>
@@ -8823,7 +8874,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
         <v>223</v>
       </c>
@@ -8851,7 +8902,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>224</v>
       </c>
@@ -8879,7 +8930,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
         <v>225</v>
       </c>
@@ -8902,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
         <v>226</v>
       </c>
@@ -8931,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>227</v>
       </c>
@@ -8959,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>228</v>
       </c>
@@ -8987,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53" t="s">
         <v>229</v>
       </c>
@@ -9013,7 +9064,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>230</v>
       </c>
@@ -9042,7 +9093,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>231</v>
       </c>
@@ -9070,7 +9121,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>232</v>
       </c>
@@ -9098,7 +9149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
         <v>233</v>
       </c>
@@ -9121,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
         <v>234</v>
       </c>
@@ -9150,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>235</v>
       </c>
@@ -9178,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>236</v>
       </c>
@@ -9206,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
         <v>191</v>
       </c>
@@ -9230,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -9259,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -9287,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -9315,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>195</v>
       </c>
@@ -9338,7 +9389,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="136" t="s">
         <v>197</v>
       </c>
@@ -9367,7 +9418,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="116" t="s">
         <v>196</v>
       </c>
@@ -9395,7 +9446,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
@@ -9423,7 +9474,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>199</v>
       </c>
@@ -9446,7 +9497,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>200</v>
       </c>
@@ -9475,7 +9526,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
@@ -9503,7 +9554,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
@@ -9531,12 +9582,12 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="116" t="s">
         <v>204</v>
       </c>
       <c r="B41" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C41" s="76" t="s">
         <v>190</v>
@@ -9550,17 +9601,17 @@
       <c r="F41" s="78">
         <v>0</v>
       </c>
-      <c r="G41" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="45">
         <f>B41</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C42" s="45" t="str">
         <f>C41</f>
@@ -9583,13 +9634,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="116" t="s">
         <v>241</v>
       </c>
       <c r="B43" s="45">
         <f>B41</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C43" s="45" t="str">
         <f>C41</f>
@@ -9611,13 +9662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145" t="s">
         <v>206</v>
       </c>
       <c r="B44" s="64">
         <f>B41</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C44" s="64" t="str">
         <f>C41</f>
@@ -9647,29 +9698,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="26"/>
+    <col min="1" max="1" width="22.1640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -9695,7 +9746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
@@ -9712,12 +9763,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
@@ -9742,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>55</v>
       </c>
@@ -9765,7 +9816,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>98</v>
       </c>
@@ -9790,7 +9841,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>99</v>
       </c>
@@ -9813,7 +9864,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>100</v>
       </c>
@@ -9837,7 +9888,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>101</v>
       </c>
@@ -9860,7 +9911,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>102</v>
       </c>
@@ -9889,7 +9940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>111</v>
       </c>
@@ -9914,7 +9965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -9937,7 +9988,7 @@
         <v>9.5491333333333331E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>113</v>
       </c>
@@ -9965,7 +10016,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>114</v>
       </c>
@@ -9993,7 +10044,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>115</v>
       </c>
@@ -10021,7 +10072,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>116</v>
       </c>
@@ -10049,7 +10100,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="139" t="s">
         <v>117</v>
       </c>
@@ -10072,7 +10123,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>129</v>
       </c>
@@ -10098,7 +10149,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>130</v>
       </c>
@@ -10127,7 +10178,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>123</v>
       </c>
@@ -10155,7 +10206,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -10171,7 +10222,7 @@
       </c>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>133</v>
       </c>
@@ -10187,7 +10238,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>142</v>
       </c>
@@ -10198,7 +10249,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>135</v>
       </c>
@@ -10224,7 +10275,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
         <v>166</v>
       </c>
@@ -10249,7 +10300,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>167</v>
       </c>
@@ -10269,7 +10320,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>213</v>
       </c>
@@ -10296,7 +10347,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>214</v>
       </c>
@@ -10325,7 +10376,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>215</v>
       </c>
@@ -10353,7 +10404,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>216</v>
       </c>
@@ -10381,7 +10432,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>217</v>
       </c>
@@ -10405,7 +10456,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>218</v>
       </c>
@@ -10434,7 +10485,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>219</v>
       </c>
@@ -10462,7 +10513,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>220</v>
       </c>
@@ -10490,7 +10541,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53" t="s">
         <v>221</v>
       </c>
@@ -10513,7 +10564,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
         <v>222</v>
       </c>
@@ -10542,7 +10593,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
         <v>223</v>
       </c>
@@ -10570,7 +10621,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>224</v>
       </c>
@@ -10598,7 +10649,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53" t="s">
         <v>225</v>
       </c>
@@ -10621,7 +10672,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>226</v>
       </c>
@@ -10650,7 +10701,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
         <v>227</v>
       </c>
@@ -10678,7 +10729,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>228</v>
       </c>
@@ -10706,7 +10757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
         <v>229</v>
       </c>
@@ -10733,7 +10784,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
         <v>230</v>
       </c>
@@ -10762,7 +10813,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>231</v>
       </c>
@@ -10790,7 +10841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>232</v>
       </c>
@@ -10818,7 +10869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="53" t="s">
         <v>233</v>
       </c>
@@ -10841,7 +10892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
         <v>234</v>
       </c>
@@ -10870,7 +10921,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
         <v>235</v>
       </c>
@@ -10898,7 +10949,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51" t="s">
         <v>236</v>
       </c>
@@ -10926,7 +10977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="53" t="s">
         <v>191</v>
       </c>
@@ -10951,7 +11002,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="116" t="s">
         <v>192</v>
       </c>
@@ -10980,7 +11031,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="116" t="s">
         <v>193</v>
       </c>
@@ -11008,7 +11059,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="145" t="s">
         <v>194</v>
       </c>
@@ -11036,7 +11087,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="52" t="s">
         <v>195</v>
       </c>
@@ -11059,9 +11110,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="136" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="27">
         <f>B55</f>
@@ -11088,9 +11139,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="116" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B57" s="27">
         <f>B55</f>
@@ -11116,7 +11167,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="145" t="s">
         <v>198</v>
       </c>
@@ -11144,7 +11195,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="116" t="s">
         <v>199</v>
       </c>
@@ -11167,7 +11218,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="116" t="s">
         <v>200</v>
       </c>
@@ -11196,7 +11247,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="116" t="s">
         <v>201</v>
       </c>
@@ -11224,7 +11275,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="145" t="s">
         <v>202</v>
       </c>
@@ -11252,7 +11303,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="144" t="s">
         <v>204</v>
       </c>
@@ -11276,7 +11327,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="116" t="s">
         <v>205</v>
       </c>
@@ -11305,7 +11356,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="116" t="s">
         <v>241</v>
       </c>
@@ -11333,7 +11384,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="145" t="s">
         <v>206</v>
       </c>
@@ -11369,30 +11420,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="26" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" style="26"/>
-    <col min="6" max="6" width="11.42578125" style="44"/>
-    <col min="7" max="7" width="9.85546875" style="26" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" style="26"/>
-    <col min="12" max="12" width="20.7109375" style="26" customWidth="1"/>
-    <col min="13" max="16" width="11.42578125" style="26"/>
-    <col min="17" max="17" width="11.42578125" style="118"/>
-    <col min="18" max="16384" width="11.42578125" style="26"/>
+    <col min="2" max="5" width="11.5" style="26"/>
+    <col min="6" max="6" width="11.5" style="44"/>
+    <col min="7" max="7" width="9.83203125" style="26" customWidth="1"/>
+    <col min="8" max="11" width="11.5" style="26"/>
+    <col min="12" max="12" width="20.6640625" style="26" customWidth="1"/>
+    <col min="13" max="16" width="11.5" style="26"/>
+    <col min="17" max="17" width="11.5" style="118"/>
+    <col min="18" max="16384" width="11.5" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -11448,7 +11499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
@@ -11483,7 +11534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
@@ -11491,7 +11542,7 @@
       <c r="C3" s="118"/>
       <c r="D3" s="118"/>
     </row>
-    <row r="4" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
@@ -11518,13 +11569,11 @@
       <c r="H4" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="85" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" s="85" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="I4" s="76">
+        <v>0</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>184</v>
       </c>
       <c r="K4" s="167">
         <v>0.187</v>
@@ -11532,17 +11581,15 @@
       <c r="L4" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="M4" s="85" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" s="85" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="M4" s="76">
+        <v>0</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>184</v>
       </c>
       <c r="Q4" s="168"/>
     </row>
-    <row r="5" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>213</v>
       </c>
@@ -11590,7 +11637,7 @@
         <v>15.0258</v>
       </c>
     </row>
-    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>214</v>
       </c>
@@ -11646,7 +11693,7 @@
         <v>15.0258</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -11703,7 +11750,7 @@
         <v>15.0258</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -11759,7 +11806,7 @@
         <v>15.0258</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -11812,7 +11859,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -11870,7 +11917,7 @@
         <v>14.052599999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -11928,7 +11975,7 @@
         <v>14.052599999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -11986,7 +12033,7 @@
         <v>14.052599999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>221</v>
       </c>
@@ -12036,7 +12083,7 @@
         <v>13.904999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>222</v>
       </c>
@@ -12094,7 +12141,7 @@
         <v>13.904999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>223</v>
       </c>
@@ -12153,7 +12200,7 @@
         <v>13.904999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>224</v>
       </c>
@@ -12212,7 +12259,7 @@
         <v>13.904999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>225</v>
       </c>
@@ -12262,7 +12309,7 @@
         <v>17.171399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>226</v>
       </c>
@@ -12321,7 +12368,7 @@
         <v>17.171399999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>227</v>
       </c>
@@ -12380,7 +12427,7 @@
         <v>17.171399999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>228</v>
       </c>
@@ -12439,7 +12486,7 @@
         <v>17.171399999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>229</v>
       </c>
@@ -12494,7 +12541,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>230</v>
       </c>
@@ -12553,7 +12600,7 @@
         <v>15.532037640500841</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>231</v>
       </c>
@@ -12612,7 +12659,7 @@
         <v>15.532037640500841</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>232</v>
       </c>
@@ -12671,7 +12718,7 @@
         <v>15.532037640500841</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>233</v>
       </c>
@@ -12723,7 +12770,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>234</v>
       </c>
@@ -12782,7 +12829,7 @@
         <v>19.475999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>235</v>
       </c>
@@ -12840,7 +12887,7 @@
         <v>19.475999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>236</v>
       </c>
@@ -12898,7 +12945,7 @@
         <v>19.475999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="132" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
         <v>191</v>
       </c>
@@ -12951,7 +12998,7 @@
         <v>9.5080851063829801</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -13011,7 +13058,7 @@
         <v>9.5080851063829801</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -13071,7 +13118,7 @@
         <v>9.5080851063829801</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -13131,7 +13178,7 @@
         <v>9.5080851063829801</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="116" t="s">
         <v>195</v>
       </c>
@@ -13142,10 +13189,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="54">
-        <f>D31</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="54">
+        <f>0.026</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E33" s="123">
         <v>0.107</v>
       </c>
       <c r="F33" s="78">
@@ -13170,7 +13217,7 @@
         <v>190</v>
       </c>
       <c r="M33" s="124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="76" t="s">
         <v>184</v>
@@ -13180,7 +13227,7 @@
         <v>9.9174000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="116" t="s">
         <v>196</v>
       </c>
@@ -13192,15 +13239,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="123">
-        <f>D5</f>
-        <v>2.5700000000000001E-2</v>
+        <f>D33*0.9</f>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E34" s="123">
+        <f>E33</f>
         <v>0.107</v>
       </c>
       <c r="F34" s="55">
-        <f>0.054*(K34/K$5)</f>
-        <v>5.1157894736842104E-2</v>
+        <f>F33</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="G34" s="123">
         <f>G33</f>
@@ -13233,7 +13281,7 @@
         <v>9.9174000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="116" t="s">
         <v>197</v>
       </c>
@@ -13246,16 +13294,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="27">
-        <f>D$34*0.9</f>
-        <v>2.3130000000000001E-2</v>
+        <f>D33*0.9</f>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E35" s="27">
         <f>E$34</f>
         <v>0.107</v>
       </c>
       <c r="F35" s="45">
-        <f>F$34</f>
-        <v>5.1157894736842104E-2</v>
+        <f>F33</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="G35" s="27">
         <f>G33</f>
@@ -13293,7 +13341,7 @@
         <v>9.9174000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
@@ -13306,15 +13354,15 @@
         <v>0</v>
       </c>
       <c r="D36" s="47">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>D33*0.9</f>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E36" s="47">
         <f t="shared" si="19"/>
         <v>0.107</v>
       </c>
       <c r="F36" s="47">
-        <f t="shared" si="19"/>
+        <f>F33</f>
         <v>0.28199999999999997</v>
       </c>
       <c r="G36" s="47">
@@ -13341,7 +13389,7 @@
         <f t="shared" si="19"/>
         <v>coal bituminous - IPCC</v>
       </c>
-      <c r="M36" s="47">
+      <c r="M36" s="50">
         <v>1</v>
       </c>
       <c r="N36" s="47" t="str">
@@ -13353,7 +13401,7 @@
         <v>9.9174000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="116" t="s">
         <v>199</v>
       </c>
@@ -13363,9 +13411,9 @@
       <c r="C37" s="123">
         <v>0</v>
       </c>
-      <c r="D37" s="123">
-        <f>D5</f>
-        <v>2.5700000000000001E-2</v>
+      <c r="D37" s="54">
+        <f>0.026</f>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E37" s="123">
         <v>0.107</v>
@@ -13403,7 +13451,7 @@
         <v>12.080399999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="116" t="s">
         <v>200</v>
       </c>
@@ -13417,7 +13465,7 @@
       </c>
       <c r="D38" s="27">
         <f>D$37*0.9</f>
-        <v>2.3130000000000001E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E38" s="27">
         <f t="shared" ref="E38:L38" si="20">E$37</f>
@@ -13463,7 +13511,7 @@
         <v>12.080399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
@@ -13477,7 +13525,7 @@
       </c>
       <c r="D39" s="27">
         <f>D$37*0.9</f>
-        <v>2.3130000000000001E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" ref="E39:K39" si="21">E$37</f>
@@ -13522,7 +13570,7 @@
         <v>12.080399999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
@@ -13535,8 +13583,8 @@
         <v>0</v>
       </c>
       <c r="D40" s="47">
-        <f t="shared" si="22"/>
-        <v>2.5700000000000001E-2</v>
+        <f>D37*0.9</f>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E40" s="47">
         <f t="shared" si="22"/>
@@ -13582,7 +13630,7 @@
         <v>12.080399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="144" t="s">
         <v>204</v>
       </c>
@@ -13590,17 +13638,17 @@
         <v>0</v>
       </c>
       <c r="C41" s="76">
-        <v>1.3</v>
-      </c>
-      <c r="D41" s="76">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="54">
+        <f>0.026</f>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E41" s="174">
         <v>0.2</v>
       </c>
       <c r="F41" s="55">
-        <f>500*Ref!C12</f>
-        <v>0.71381279557419464</v>
+        <v>0.1</v>
       </c>
       <c r="G41" s="56">
         <v>0</v>
@@ -13633,7 +13681,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
@@ -13643,11 +13691,11 @@
       </c>
       <c r="C42" s="26">
         <f t="shared" ref="C42:L42" si="23">C41</f>
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D42" s="26">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f>D41*0.9</f>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E42" s="26">
         <f t="shared" si="23"/>
@@ -13655,7 +13703,7 @@
       </c>
       <c r="F42" s="27">
         <f t="shared" si="23"/>
-        <v>0.71381279557419464</v>
+        <v>0.1</v>
       </c>
       <c r="G42" s="26">
         <f>G41</f>
@@ -13682,7 +13730,7 @@
         <v>coal bituminous - IPCC</v>
       </c>
       <c r="M42" s="114">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="N42" s="26" t="str">
         <f>N$37</f>
@@ -13693,7 +13741,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="116" t="s">
         <v>241</v>
       </c>
@@ -13703,11 +13751,11 @@
       </c>
       <c r="C43" s="26">
         <f t="shared" ref="C43:L43" si="24">C41</f>
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D43" s="26">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f>D41*0.9</f>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E43" s="26">
         <f t="shared" si="24"/>
@@ -13715,7 +13763,7 @@
       </c>
       <c r="F43" s="27">
         <f t="shared" si="24"/>
-        <v>0.71381279557419464</v>
+        <v>0.1</v>
       </c>
       <c r="G43" s="26">
         <f>G41</f>
@@ -13753,7 +13801,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145" t="s">
         <v>206</v>
       </c>
@@ -13763,11 +13811,11 @@
       </c>
       <c r="C44" s="48">
         <f t="shared" ref="C44:L44" si="25">C41</f>
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D44" s="48">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>D41*0.9</f>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E44" s="48">
         <f t="shared" si="25"/>
@@ -13775,7 +13823,7 @@
       </c>
       <c r="F44" s="47">
         <f t="shared" si="25"/>
-        <v>0.71381279557419464</v>
+        <v>0.1</v>
       </c>
       <c r="G44" s="48">
         <f>G41</f>
@@ -13821,33 +13869,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="59" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13888,7 +13936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -13908,7 +13956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -13917,7 +13965,7 @@
       </c>
       <c r="C3" s="102"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13955,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -13995,7 +14043,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -14035,7 +14083,7 @@
         <v>7.4236999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14068,7 +14116,7 @@
         <v>8.5657535468903354E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -14101,7 +14149,7 @@
         <v>7.0667466761845266E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -14117,7 +14165,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -14137,7 +14185,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="67" t="s">
         <v>213</v>
       </c>
@@ -14177,7 +14225,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>214</v>
       </c>
@@ -14226,7 +14274,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>215</v>
       </c>
@@ -14275,7 +14323,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>216</v>
       </c>
@@ -14324,7 +14372,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
         <v>217</v>
       </c>
@@ -14365,7 +14413,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>218</v>
       </c>
@@ -14414,7 +14462,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>219</v>
       </c>
@@ -14463,7 +14511,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>220</v>
       </c>
@@ -14512,7 +14560,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>221</v>
       </c>
@@ -14552,7 +14600,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>222</v>
       </c>
@@ -14601,7 +14649,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>223</v>
       </c>
@@ -14650,7 +14698,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>224</v>
       </c>
@@ -14699,7 +14747,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>225</v>
       </c>
@@ -14739,7 +14787,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>226</v>
       </c>
@@ -14788,7 +14836,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>227</v>
       </c>
@@ -14837,7 +14885,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>228</v>
       </c>
@@ -14886,7 +14934,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>229</v>
       </c>
@@ -14929,7 +14977,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>230</v>
       </c>
@@ -14978,7 +15026,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>231</v>
       </c>
@@ -15027,7 +15075,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>232</v>
       </c>
@@ -15075,7 +15123,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>233</v>
       </c>
@@ -15116,7 +15164,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>234</v>
       </c>
@@ -15165,7 +15213,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>235</v>
       </c>
@@ -15214,7 +15262,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>236</v>
       </c>
@@ -15263,7 +15311,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="144" t="s">
         <v>199</v>
       </c>
@@ -15304,7 +15352,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="116" t="s">
         <v>200</v>
       </c>
@@ -15353,7 +15401,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="116" t="s">
         <v>201</v>
       </c>
@@ -15402,7 +15450,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="145" t="s">
         <v>202</v>
       </c>
@@ -15451,7 +15499,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="144" t="s">
         <v>195</v>
       </c>
@@ -15486,13 +15534,13 @@
         <v>0.03</v>
       </c>
       <c r="K39" s="1">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L39" s="78">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="116" t="s">
         <v>196</v>
       </c>
@@ -15534,14 +15582,14 @@
       </c>
       <c r="K40" s="21">
         <f t="shared" si="21"/>
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L40" s="21">
         <f t="shared" si="21"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="116" t="s">
         <v>197</v>
       </c>
@@ -15583,14 +15631,14 @@
       </c>
       <c r="K41" s="21">
         <f t="shared" si="22"/>
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L41" s="21">
         <f t="shared" si="22"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="145" t="s">
         <v>198</v>
       </c>
@@ -15632,14 +15680,14 @@
       </c>
       <c r="K42" s="47">
         <f t="shared" si="23"/>
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L42" s="47">
         <f t="shared" si="23"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
         <v>191</v>
       </c>
@@ -15655,7 +15703,7 @@
         <v>0.33</v>
       </c>
       <c r="E43" s="152">
-        <f t="shared" si="2"/>
+        <f>D43/B43</f>
         <v>0.3</v>
       </c>
       <c r="F43" s="54">
@@ -15674,13 +15722,13 @@
         <v>0.03</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L43" s="78">
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="116" t="s">
         <v>192</v>
       </c>
@@ -15689,15 +15737,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" s="21">
-        <f t="shared" ref="C44:D44" si="24">C43</f>
+        <f t="shared" ref="C44" si="24">C43</f>
         <v>0.77</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="24"/>
+        <f>D43</f>
         <v>0.33</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="2"/>
+        <f>D44/B44</f>
         <v>0.3</v>
       </c>
       <c r="F44" s="21">
@@ -15722,14 +15770,14 @@
       </c>
       <c r="K44" s="21">
         <f t="shared" ref="K44" si="30">K43</f>
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L44" s="21">
         <f t="shared" ref="L44" si="31">L43</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="116" t="s">
         <v>193</v>
       </c>
@@ -15738,11 +15786,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C45" s="21">
-        <f t="shared" ref="C45:D45" si="32">C43</f>
+        <f t="shared" ref="C45" si="32">C43</f>
         <v>0.77</v>
       </c>
       <c r="D45" s="21">
-        <f t="shared" si="32"/>
+        <f>D43</f>
         <v>0.33</v>
       </c>
       <c r="E45" s="153">
@@ -15771,14 +15819,14 @@
       </c>
       <c r="K45" s="21">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L45" s="21">
         <f t="shared" si="33"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="145" t="s">
         <v>194</v>
       </c>
@@ -15787,11 +15835,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" s="47">
-        <f t="shared" ref="C46:D46" si="34">C43</f>
+        <f t="shared" ref="C46" si="34">C43</f>
         <v>0.77</v>
       </c>
       <c r="D46" s="47">
-        <f t="shared" si="34"/>
+        <f>D43</f>
         <v>0.33</v>
       </c>
       <c r="E46" s="154">
@@ -15820,14 +15868,14 @@
       </c>
       <c r="K46" s="47">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L46" s="47">
         <f t="shared" si="35"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="116" t="s">
         <v>204</v>
       </c>
@@ -15862,14 +15910,14 @@
         <v>0.03</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L47" s="78">
         <v>0.05</v>
       </c>
       <c r="M47" s="26"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="116" t="s">
         <v>205</v>
       </c>
@@ -15911,14 +15959,14 @@
       </c>
       <c r="K48" s="21">
         <f t="shared" ref="K48" si="44">K47</f>
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L48" s="21">
         <f t="shared" ref="L48" si="45">L47</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="116" t="s">
         <v>241</v>
       </c>
@@ -15960,14 +16008,14 @@
       </c>
       <c r="K49" s="21">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L49" s="21">
         <f t="shared" si="47"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="145" t="s">
         <v>206</v>
       </c>
@@ -16009,7 +16057,7 @@
       </c>
       <c r="K50" s="47">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L50" s="47">
         <f t="shared" si="49"/>
@@ -16024,26 +16072,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.140625" style="5"/>
+    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16057,7 +16105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -16065,17 +16113,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>213</v>
       </c>
@@ -16090,7 +16138,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>214</v>
       </c>
@@ -16103,7 +16151,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -16116,7 +16164,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -16129,7 +16177,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -16141,7 +16189,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -16154,7 +16202,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -16167,7 +16215,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -16180,7 +16228,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>221</v>
       </c>
@@ -16191,7 +16239,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>222</v>
       </c>
@@ -16204,7 +16252,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>223</v>
       </c>
@@ -16217,7 +16265,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>224</v>
       </c>
@@ -16230,7 +16278,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>225</v>
       </c>
@@ -16242,7 +16290,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>226</v>
       </c>
@@ -16255,7 +16303,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>227</v>
       </c>
@@ -16268,7 +16316,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>228</v>
       </c>
@@ -16281,7 +16329,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>229</v>
       </c>
@@ -16292,7 +16340,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>230</v>
       </c>
@@ -16305,7 +16353,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>231</v>
       </c>
@@ -16318,7 +16366,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>232</v>
       </c>
@@ -16331,7 +16379,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>233</v>
       </c>
@@ -16343,7 +16391,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>234</v>
       </c>
@@ -16356,7 +16404,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>235</v>
       </c>
@@ -16369,7 +16417,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>236</v>
       </c>
@@ -16382,7 +16430,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
         <v>191</v>
       </c>
@@ -16396,7 +16444,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -16409,7 +16457,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -16422,7 +16470,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="84" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -16435,7 +16483,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>195</v>
       </c>
@@ -16449,7 +16497,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="136" t="s">
         <v>197</v>
       </c>
@@ -16462,7 +16510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="116" t="s">
         <v>196</v>
       </c>
@@ -16475,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="84" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
@@ -16488,7 +16536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="116" t="s">
         <v>199</v>
       </c>
@@ -16499,7 +16547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="116" t="s">
         <v>200</v>
       </c>
@@ -16512,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
@@ -16525,7 +16573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="84" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
@@ -16538,7 +16586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="144" t="s">
         <v>204</v>
       </c>
@@ -16549,7 +16597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
@@ -16562,7 +16610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="116" t="s">
         <v>241</v>
       </c>
@@ -16575,7 +16623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="84" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145" t="s">
         <v>206</v>
       </c>
@@ -16590,9 +16638,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" display="https://www.degruyter.com/downloadpdf/j/aoter.2015.36.issue-1/aoter-2015-0011/aoter-2015-0011.pdf"/>
-    <hyperlink ref="D33" r:id="rId2" display="https://www.degruyter.com/downloadpdf/j/aoter.2015.36.issue-1/aoter-2015-0011/aoter-2015-0011.pdf"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://cryogenmash.ru/en/catalog/cryogenic-ASUs/"/>
+    <hyperlink ref="D29" r:id="rId1" display="https://www.degruyter.com/downloadpdf/j/aoter.2015.36.issue-1/aoter-2015-0011/aoter-2015-0011.pdf" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D33" r:id="rId2" display="https://www.degruyter.com/downloadpdf/j/aoter.2015.36.issue-1/aoter-2015-0011/aoter-2015-0011.pdf" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://cryogenmash.ru/en/catalog/cryogenic-ASUs/" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -16601,28 +16649,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.140625" style="5"/>
+    <col min="10" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16646,7 +16694,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -16658,12 +16706,12 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16677,7 +16725,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>213</v>
       </c>
@@ -16691,7 +16739,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>214</v>
       </c>
@@ -16708,7 +16756,7 @@
         <v>electricity PROXY - EU 2016</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -16725,7 +16773,7 @@
         <v>electricity PROXY - EU 2016</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -16742,7 +16790,7 @@
         <v>electricity PROXY - EU 2016</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -16756,7 +16804,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -16773,7 +16821,7 @@
         <v>electricity PROXY - CN 2016</v>
       </c>
     </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -16790,7 +16838,7 @@
         <v>electricity PROXY - CN 2016</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -16807,7 +16855,7 @@
         <v>electricity PROXY - CN 2016</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>221</v>
       </c>
@@ -16821,7 +16869,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>222</v>
       </c>
@@ -16838,7 +16886,7 @@
         <v>electricity PROXY - JP 2016</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>223</v>
       </c>
@@ -16855,7 +16903,7 @@
         <v>electricity PROXY - JP 2016</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>224</v>
       </c>
@@ -16872,7 +16920,7 @@
         <v>electricity PROXY - JP 2016</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>225</v>
       </c>
@@ -16886,7 +16934,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>226</v>
       </c>
@@ -16903,7 +16951,7 @@
         <v>electricity PROXY - RU 2016</v>
       </c>
     </row>
-    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>227</v>
       </c>
@@ -16920,7 +16968,7 @@
         <v>electricity PROXY - RU 2016</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>228</v>
       </c>
@@ -16937,7 +16985,7 @@
         <v>electricity PROXY - RU 2016</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>229</v>
       </c>
@@ -16951,7 +16999,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>230</v>
       </c>
@@ -16968,7 +17016,7 @@
         <v>electricity PROXY - US 2016</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>231</v>
       </c>
@@ -16985,7 +17033,7 @@
         <v>electricity PROXY - US 2016</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>232</v>
       </c>
@@ -17002,7 +17050,7 @@
         <v>electricity PROXY - US 2016</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>233</v>
       </c>
@@ -17016,7 +17064,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>234</v>
       </c>
@@ -17033,7 +17081,7 @@
         <v>electricity PROXY - IN 2016</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>235</v>
       </c>
@@ -17050,7 +17098,7 @@
         <v>electricity PROXY - IN 2016</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>236</v>
       </c>
@@ -17067,7 +17115,7 @@
         <v>electricity PROXY - IN 2016</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
         <v>191</v>
       </c>
@@ -17081,7 +17129,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -17098,7 +17146,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -17115,7 +17163,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="84" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -17132,7 +17180,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>195</v>
       </c>
@@ -17146,7 +17194,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="136" t="s">
         <v>197</v>
       </c>
@@ -17163,7 +17211,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="116" t="s">
         <v>196</v>
       </c>
@@ -17180,7 +17228,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="84" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
@@ -17197,7 +17245,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="144" t="s">
         <v>199</v>
       </c>
@@ -17211,7 +17259,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="116" t="s">
         <v>200</v>
       </c>
@@ -17228,7 +17276,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
@@ -17245,7 +17293,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="84" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
@@ -17262,7 +17310,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="144" t="s">
         <v>204</v>
       </c>
@@ -17276,7 +17324,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
@@ -17293,7 +17341,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="116" t="s">
         <v>241</v>
       </c>
@@ -17310,7 +17358,7 @@
         <v>electricity PROXY - decarbonized</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="84" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145" t="s">
         <v>206</v>
       </c>
@@ -17337,24 +17385,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17374,7 +17422,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -17385,17 +17433,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>213</v>
       </c>
@@ -17412,7 +17460,7 @@
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>214</v>
       </c>
@@ -17430,7 +17478,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -17448,7 +17496,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -17464,7 +17512,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -17478,7 +17526,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -17496,7 +17544,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -17514,7 +17562,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="48" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="48" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -17530,7 +17578,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>221</v>
       </c>
@@ -17544,7 +17592,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>222</v>
       </c>
@@ -17562,7 +17610,7 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>223</v>
       </c>
@@ -17580,7 +17628,7 @@
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>224</v>
       </c>
@@ -17596,7 +17644,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>225</v>
       </c>
@@ -17611,7 +17659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>226</v>
       </c>
@@ -17629,7 +17677,7 @@
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>227</v>
       </c>
@@ -17647,7 +17695,7 @@
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>228</v>
       </c>
@@ -17663,7 +17711,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>229</v>
       </c>
@@ -17678,7 +17726,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>230</v>
       </c>
@@ -17696,7 +17744,7 @@
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>231</v>
       </c>
@@ -17714,7 +17762,7 @@
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>232</v>
       </c>
@@ -17730,7 +17778,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>233</v>
       </c>
@@ -17745,7 +17793,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>234</v>
       </c>
@@ -17763,7 +17811,7 @@
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>235</v>
       </c>
@@ -17781,7 +17829,7 @@
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>236</v>
       </c>
@@ -17797,7 +17845,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
         <v>191</v>
       </c>
@@ -17813,7 +17861,7 @@
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -17829,7 +17877,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -17845,7 +17893,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -17863,7 +17911,7 @@
       <c r="E32" s="84"/>
       <c r="F32" s="84"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>195</v>
       </c>
@@ -17877,7 +17925,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="136" t="s">
         <v>197</v>
       </c>
@@ -17893,7 +17941,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="116" t="s">
         <v>196</v>
       </c>
@@ -17909,7 +17957,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
@@ -17927,7 +17975,7 @@
       <c r="E36" s="84"/>
       <c r="F36" s="84"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="116" t="s">
         <v>199</v>
       </c>
@@ -17941,7 +17989,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="116" t="s">
         <v>200</v>
       </c>
@@ -17957,7 +18005,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
@@ -17973,7 +18021,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
@@ -17991,7 +18039,7 @@
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="144" t="s">
         <v>204</v>
       </c>
@@ -18005,7 +18053,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
@@ -18021,7 +18069,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="116" t="s">
         <v>241</v>
       </c>
@@ -18037,7 +18085,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145" t="s">
         <v>206</v>
       </c>

--- a/data/steel/steel_simplified_var.xlsx
+++ b/data/steel/steel_simplified_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC4F39-1AD4-1741-926B-2A39676E51D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="27500" windowHeight="17540" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="465" windowWidth="27495" windowHeight="17535" tabRatio="598" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="17" r:id="rId1"/>
@@ -26,10 +25,11 @@
     <sheet name="CO2 Storage" sheetId="13" r:id="rId11"/>
     <sheet name="DRI" sheetId="19" r:id="rId12"/>
     <sheet name="EAF" sheetId="16" r:id="rId13"/>
-    <sheet name="Fuel" sheetId="10" r:id="rId14"/>
-    <sheet name="Ref" sheetId="7" r:id="rId15"/>
+    <sheet name="H2" sheetId="20" r:id="rId14"/>
+    <sheet name="Fuel" sheetId="10" r:id="rId15"/>
+    <sheet name="Ref" sheetId="7" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,12 +45,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,13 +121,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="B29" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,13 +222,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="F26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="F39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,13 +348,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="E9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="D21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="K21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="K41" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -594,13 +594,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="L11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="J15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="L15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -726,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="L19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="L23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="L27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -828,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="L31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -862,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="D35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L35" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="L35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
+    <comment ref="D39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
+    <comment ref="L39" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
+    <comment ref="D43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1029,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
+    <comment ref="L43" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
+    <comment ref="D47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L47" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
+    <comment ref="L47" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,12 +1135,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1169,12 +1169,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="C28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1254,12 +1254,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2037,12 +2037,6 @@
     <t>biohydrogen</t>
   </si>
   <si>
-    <t>reductant demand</t>
-  </si>
-  <si>
-    <t>reducing agent</t>
-  </si>
-  <si>
     <t>IPCC - natural gas</t>
   </si>
   <si>
@@ -2064,16 +2058,22 @@
     <t>t fresh metal / t EAF steel</t>
   </si>
   <si>
-    <t>Scrao Demand</t>
-  </si>
-  <si>
     <t>t scrap / t EAF steel</t>
+  </si>
+  <si>
+    <t>hydrogen type</t>
+  </si>
+  <si>
+    <t>hydrogen demand</t>
+  </si>
+  <si>
+    <t>Scrap Demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2642,15 +2642,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2938,18 +2938,18 @@
       <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="26"/>
+    <col min="1" max="1" width="20.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="E2" s="118"/>
       <c r="F2" s="118"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="161" t="s">
         <v>3</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>213</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
         <v>214</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
         <v>215</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
         <v>216</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="163" t="s">
         <v>237</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>217</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="136" t="s">
         <v>218</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="136" t="s">
         <v>219</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="163" t="s">
         <v>220</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>221</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>222</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>223</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>224</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>225</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>226</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>227</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>228</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>229</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>230</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>231</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>232</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>233</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>234</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>235</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
         <v>236</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>191</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="116" t="s">
         <v>192</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="116" t="s">
         <v>193</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="145" t="s">
         <v>194</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>195</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
         <v>196</v>
       </c>
@@ -3730,20 +3730,20 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="136" t="s">
         <v>197</v>
       </c>
       <c r="B36" s="27">
-        <f>B34</f>
+        <f t="shared" ref="B36:D37" si="6">B34</f>
         <v>0.82</v>
       </c>
       <c r="C36" s="27">
-        <f>C34</f>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="D36" s="26" t="str">
-        <f>D34</f>
+        <f t="shared" si="6"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E36" s="114">
@@ -3753,20 +3753,20 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="145" t="s">
         <v>198</v>
       </c>
       <c r="B37" s="47">
-        <f>B35</f>
+        <f t="shared" si="6"/>
         <v>0.82</v>
       </c>
       <c r="C37" s="47">
-        <f>C35</f>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="D37" s="48" t="str">
-        <f>D35</f>
+        <f t="shared" si="6"/>
         <v>coal coking - IPCC</v>
       </c>
       <c r="E37" s="50">
@@ -3776,7 +3776,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="116" t="s">
         <v>199</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
         <v>200</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="116" t="s">
         <v>201</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="145" t="s">
         <v>202</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>charcoal - IPCC</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="116" t="s">
         <v>204</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
         <v>205</v>
       </c>
@@ -3915,16 +3915,16 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="116" t="s">
         <v>241</v>
       </c>
       <c r="B44" s="27">
-        <f t="shared" ref="B44:B45" si="6">B43</f>
+        <f t="shared" ref="B44:B45" si="7">B43</f>
         <v>0.82</v>
       </c>
       <c r="C44" s="27">
-        <f t="shared" ref="C44:C45" si="7">C43</f>
+        <f t="shared" ref="C44:C45" si="8">C43</f>
         <v>0.02</v>
       </c>
       <c r="D44" s="26" t="str">
@@ -3938,16 +3938,16 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="145" t="s">
         <v>206</v>
       </c>
       <c r="B45" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82</v>
       </c>
       <c r="C45" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
       <c r="D45" s="48" t="str">
@@ -3963,7 +3963,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" location="BIB5" display="https://www.sciencedirect.com/science/article/pii/S0301421501001471 - BIB5" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId1" location="BIB5" display="https://www.sciencedirect.com/science/article/pii/S0301421501001471 - BIB5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3972,23 +3972,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>76</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>213</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>214</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>221</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>222</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>223</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>224</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>225</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>226</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>227</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>228</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>229</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>230</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>231</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>232</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>233</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>234</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>235</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>236</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>191</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>195</v>
       </c>
@@ -4635,13 +4635,13 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="136" t="s">
         <v>197</v>
       </c>
@@ -4655,14 +4655,14 @@
       </c>
       <c r="D34">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
         <v>196</v>
       </c>
@@ -4676,14 +4676,14 @@
       </c>
       <c r="D35">
         <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
@@ -4697,14 +4697,14 @@
       </c>
       <c r="D36" s="48">
         <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E36" s="48">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>199</v>
       </c>
@@ -4715,13 +4715,13 @@
         <v>0.95</v>
       </c>
       <c r="D37" s="58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E37" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="116" t="s">
         <v>200</v>
       </c>
@@ -4735,14 +4735,14 @@
       </c>
       <c r="D38">
         <f t="shared" si="20"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
@@ -4756,14 +4756,14 @@
       </c>
       <c r="D39">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
@@ -4777,14 +4777,14 @@
       </c>
       <c r="D40" s="48">
         <f t="shared" si="22"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E40" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="144" t="s">
         <v>204</v>
       </c>
@@ -4795,13 +4795,13 @@
         <v>0.95</v>
       </c>
       <c r="D41" s="58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E41" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
@@ -4815,14 +4815,14 @@
       </c>
       <c r="D42">
         <f t="shared" si="23"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
         <v>241</v>
       </c>
@@ -4836,14 +4836,14 @@
       </c>
       <c r="D43">
         <f t="shared" si="24"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="145" t="s">
         <v>206</v>
       </c>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="D44" s="48">
         <f t="shared" si="25"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="48">
         <f t="shared" si="25"/>
@@ -4870,19 +4870,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>76</v>
       </c>
@@ -4904,12 +4904,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -5051,37 +5051,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>213</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>214</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>215</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>216</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>217</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>218</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>219</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>220</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>221</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>222</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>223</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>224</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>225</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>226</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>227</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>228</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>229</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>230</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>231</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="49" t="s">
         <v>232</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
         <v>233</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>234</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>235</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>236</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>191</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="116" t="s">
         <v>192</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="116" t="s">
         <v>193</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="145" t="s">
         <v>194</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>195</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="136" t="s">
         <v>197</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="116" t="s">
         <v>196</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="145" t="s">
         <v>198</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="116" t="s">
         <v>199</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="116" t="s">
         <v>200</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="116" t="s">
         <v>201</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="145" t="s">
         <v>202</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="144" t="s">
         <v>204</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="116" t="s">
         <v>205</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="116" t="s">
         <v>241</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="145" t="s">
         <v>206</v>
       </c>
@@ -5591,23 +5591,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5624,31 +5624,31 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>5.631067961165049E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>243</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0.44660194174757284</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E5" s="38">
         <f>5.62/1.03</f>
@@ -5687,7 +5687,7 @@
         <v>5.631067961165049E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>0.44660194174757284</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E6" s="38">
         <f>5.62/1.03</f>
@@ -5714,9 +5714,9 @@
         <v>5.631067961165049E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B7" s="38">
         <f>1.66/1.03</f>
@@ -5727,7 +5727,7 @@
         <v>0.44660194174757284</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E7" s="38">
         <f>5.62/1.03</f>
@@ -5752,27 +5752,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5795,10 +5795,10 @@
         <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
         <v>137</v>
@@ -5810,7 +5810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5824,10 +5824,10 @@
         <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K2" t="s">
         <v>139</v>
@@ -5836,7 +5836,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>4.2828767734451677E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -6231,7 +6231,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" s="48" customFormat="1" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="48" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="88" t="s">
         <v>167</v>
       </c>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="K17" s="47"/>
     </row>
-    <row r="18" spans="1:11" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>237</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>4.2828767734451677E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>145</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>146</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>147</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>148</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>239</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>4.2828767734451677E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>149</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>150</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>151</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>152</v>
       </c>
@@ -6611,16 +6611,16 @@
         <v>7.1381279557419458E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>243</v>
       </c>
       <c r="B28" s="79">
         <v>0</v>
       </c>
-      <c r="C28" s="177">
-        <f>0.753*3.6</f>
-        <v>2.7107999999999999</v>
+      <c r="C28" s="178">
+        <f>0.667*3.6+((0.753-0.667)*3.6*I28)</f>
+        <v>2.6395919999999999</v>
       </c>
       <c r="D28" s="38">
         <f>1.024/28.2</f>
@@ -6642,22 +6642,22 @@
         <v>0.77</v>
       </c>
       <c r="J28" s="176">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K28">
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>244</v>
       </c>
       <c r="B29" s="79">
         <v>0</v>
       </c>
-      <c r="C29" s="177">
-        <f>0.753*3.6</f>
-        <v>2.7107999999999999</v>
+      <c r="C29" s="178">
+        <f>0.667*3.6+((0.753-0.667)*3.6*I29)</f>
+        <v>2.6395919999999999</v>
       </c>
       <c r="D29" s="38">
         <f>1.024/28.2</f>
@@ -6679,22 +6679,23 @@
         <v>0.77</v>
       </c>
       <c r="J29" s="176">
-        <v>7.4999999999999997E-2</v>
+        <f>J28</f>
+        <v>0.05</v>
       </c>
       <c r="K29">
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="80">
         <v>0</v>
       </c>
-      <c r="C30" s="178">
-        <f>0.753*3.6</f>
-        <v>2.7107999999999999</v>
+      <c r="C30" s="179">
+        <f>0.667*3.6+((0.753-0.667)*3.6*I30)</f>
+        <v>2.6395919999999999</v>
       </c>
       <c r="D30" s="65">
         <f>1.024/28.2</f>
@@ -6715,8 +6716,9 @@
       <c r="I30" s="64">
         <v>0.77</v>
       </c>
-      <c r="J30" s="179">
-        <v>7.4999999999999997E-2</v>
+      <c r="J30" s="177">
+        <f>J28</f>
+        <v>0.05</v>
       </c>
       <c r="K30" s="48">
         <v>0.05</v>
@@ -6730,22 +6732,36 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6759,17 +6775,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
@@ -6783,7 +6799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -6797,7 +6813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -6811,7 +6827,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -6825,7 +6841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -6839,7 +6855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -6853,7 +6869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6867,7 +6883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6881,7 +6897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -6895,7 +6911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -6909,7 +6925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6923,7 +6939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -6937,7 +6953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -6951,7 +6967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -6965,7 +6981,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -6979,7 +6995,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -6993,7 +7009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -7007,7 +7023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -7021,7 +7037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -7035,7 +7051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="85" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="85" t="s">
         <v>141</v>
       </c>
@@ -7049,7 +7065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>213</v>
       </c>
@@ -7063,7 +7079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>214</v>
       </c>
@@ -7078,7 +7094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>215</v>
       </c>
@@ -7093,7 +7109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>216</v>
       </c>
@@ -7108,7 +7124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>217</v>
       </c>
@@ -7122,7 +7138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>218</v>
       </c>
@@ -7137,7 +7153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>219</v>
       </c>
@@ -7152,7 +7168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>220</v>
       </c>
@@ -7167,7 +7183,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>221</v>
       </c>
@@ -7181,7 +7197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>222</v>
       </c>
@@ -7196,7 +7212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>223</v>
       </c>
@@ -7211,7 +7227,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
         <v>224</v>
       </c>
@@ -7226,7 +7242,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>225</v>
       </c>
@@ -7240,7 +7256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>226</v>
       </c>
@@ -7255,7 +7271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>227</v>
       </c>
@@ -7270,7 +7286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>228</v>
       </c>
@@ -7285,7 +7301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
         <v>229</v>
       </c>
@@ -7299,7 +7315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>230</v>
       </c>
@@ -7314,7 +7330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
         <v>231</v>
       </c>
@@ -7329,7 +7345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>232</v>
       </c>
@@ -7344,7 +7360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>233</v>
       </c>
@@ -7358,7 +7374,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
         <v>234</v>
       </c>
@@ -7373,7 +7389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
         <v>235</v>
       </c>
@@ -7388,7 +7404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
         <v>236</v>
       </c>
@@ -7403,7 +7419,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>191</v>
       </c>
@@ -7417,7 +7433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="116" t="s">
         <v>192</v>
       </c>
@@ -7432,7 +7448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="116" t="s">
         <v>193</v>
       </c>
@@ -7447,7 +7463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="145" t="s">
         <v>194</v>
       </c>
@@ -7462,7 +7478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>195</v>
       </c>
@@ -7476,7 +7492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="136" t="s">
         <v>197</v>
       </c>
@@ -7491,7 +7507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="116" t="s">
         <v>196</v>
       </c>
@@ -7506,7 +7522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="145" t="s">
         <v>198</v>
       </c>
@@ -7521,7 +7537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="116" t="s">
         <v>199</v>
       </c>
@@ -7535,7 +7551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="116" t="s">
         <v>200</v>
       </c>
@@ -7550,7 +7566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="116" t="s">
         <v>201</v>
       </c>
@@ -7565,7 +7581,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="145" t="s">
         <v>202</v>
       </c>
@@ -7580,7 +7596,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="144" t="s">
         <v>204</v>
       </c>
@@ -7594,7 +7610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="116" t="s">
         <v>205</v>
       </c>
@@ -7609,7 +7625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="116" t="s">
         <v>241</v>
       </c>
@@ -7624,7 +7640,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="145" t="s">
         <v>206</v>
       </c>
@@ -7645,34 +7661,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>29</v>
@@ -7681,7 +7697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -7693,7 +7709,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -7705,7 +7721,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -7717,7 +7733,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -7729,7 +7745,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
@@ -7741,7 +7757,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -7753,7 +7769,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -7766,7 +7782,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
@@ -7778,7 +7794,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -7790,31 +7806,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>42</v>
       </c>
@@ -7823,7 +7839,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>43</v>
       </c>
@@ -7833,7 +7849,7 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>44</v>
       </c>
@@ -7843,7 +7859,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>75</v>
       </c>
@@ -7852,7 +7868,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>77</v>
       </c>
@@ -7868,26 +7884,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.83203125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7907,7 +7923,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7918,12 +7934,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7934,7 +7950,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -7952,7 +7968,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -7970,7 +7986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>217</v>
       </c>
@@ -7990,7 +8006,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>219</v>
       </c>
@@ -8003,7 +8019,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>218</v>
       </c>
@@ -8016,7 +8032,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>220</v>
       </c>
@@ -8031,7 +8047,7 @@
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>213</v>
       </c>
@@ -8045,7 +8061,7 @@
       <c r="E11" s="126"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>215</v>
       </c>
@@ -8058,7 +8074,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>214</v>
       </c>
@@ -8071,7 +8087,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>216</v>
       </c>
@@ -8086,7 +8102,7 @@
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>233</v>
       </c>
@@ -8097,7 +8113,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>235</v>
       </c>
@@ -8110,7 +8126,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>234</v>
       </c>
@@ -8123,7 +8139,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>236</v>
       </c>
@@ -8138,7 +8154,7 @@
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>221</v>
       </c>
@@ -8149,7 +8165,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>223</v>
       </c>
@@ -8162,7 +8178,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>222</v>
       </c>
@@ -8175,7 +8191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
         <v>224</v>
       </c>
@@ -8190,7 +8206,7 @@
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>225</v>
       </c>
@@ -8204,7 +8220,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>227</v>
       </c>
@@ -8217,7 +8233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>226</v>
       </c>
@@ -8230,7 +8246,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>228</v>
       </c>
@@ -8245,7 +8261,7 @@
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>229</v>
       </c>
@@ -8259,7 +8275,7 @@
       <c r="E27" s="60"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>231</v>
       </c>
@@ -8272,7 +8288,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>230</v>
       </c>
@@ -8285,7 +8301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
         <v>232</v>
       </c>
@@ -8300,7 +8316,7 @@
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>191</v>
       </c>
@@ -8311,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="116" t="s">
         <v>192</v>
       </c>
@@ -8324,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="116" t="s">
         <v>193</v>
       </c>
@@ -8337,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="145" t="s">
         <v>194</v>
       </c>
@@ -8352,7 +8368,7 @@
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>195</v>
       </c>
@@ -8363,7 +8379,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="136" t="s">
         <v>197</v>
       </c>
@@ -8376,7 +8392,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="116" t="s">
         <v>196</v>
       </c>
@@ -8389,7 +8405,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="145" t="s">
         <v>198</v>
       </c>
@@ -8404,7 +8420,7 @@
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
         <v>199</v>
       </c>
@@ -8415,7 +8431,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="116" t="s">
         <v>200</v>
       </c>
@@ -8428,7 +8444,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="116" t="s">
         <v>201</v>
       </c>
@@ -8441,7 +8457,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="145" t="s">
         <v>202</v>
       </c>
@@ -8456,7 +8472,7 @@
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
         <v>204</v>
       </c>
@@ -8464,10 +8480,10 @@
         <v>0.05</v>
       </c>
       <c r="C43" s="54">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="116" t="s">
         <v>205</v>
       </c>
@@ -8477,10 +8493,10 @@
       </c>
       <c r="C44">
         <f>C43</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="116" t="s">
         <v>241</v>
       </c>
@@ -8490,10 +8506,10 @@
       </c>
       <c r="C45">
         <f>C43</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="145" t="s">
         <v>206</v>
       </c>
@@ -8503,17 +8519,17 @@
       </c>
       <c r="C46" s="48">
         <f>C43</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D46" s="61"/>
       <c r="E46" s="61"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:F49">
+  <sortState ref="A26:F49">
     <sortCondition ref="A26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId1" tooltip="Persistent link using digital object identifier"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8521,27 +8537,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8567,7 +8583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8575,12 +8591,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8604,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>213</v>
       </c>
@@ -8629,7 +8645,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>214</v>
       </c>
@@ -8658,7 +8674,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -8686,7 +8702,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -8714,7 +8730,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -8737,7 +8753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -8766,7 +8782,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -8794,7 +8810,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -8822,7 +8838,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>221</v>
       </c>
@@ -8845,7 +8861,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>222</v>
       </c>
@@ -8874,7 +8890,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>223</v>
       </c>
@@ -8902,7 +8918,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>224</v>
       </c>
@@ -8930,7 +8946,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>225</v>
       </c>
@@ -8953,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>226</v>
       </c>
@@ -8982,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>227</v>
       </c>
@@ -9010,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
         <v>228</v>
       </c>
@@ -9038,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>229</v>
       </c>
@@ -9064,7 +9080,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>230</v>
       </c>
@@ -9093,7 +9109,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>231</v>
       </c>
@@ -9121,7 +9137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>232</v>
       </c>
@@ -9149,7 +9165,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>233</v>
       </c>
@@ -9172,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>234</v>
       </c>
@@ -9201,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>235</v>
       </c>
@@ -9229,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>236</v>
       </c>
@@ -9257,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>191</v>
       </c>
@@ -9281,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -9310,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -9338,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -9366,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>195</v>
       </c>
@@ -9389,7 +9405,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="136" t="s">
         <v>197</v>
       </c>
@@ -9418,7 +9434,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
         <v>196</v>
       </c>
@@ -9446,7 +9462,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
@@ -9474,7 +9490,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>199</v>
       </c>
@@ -9497,7 +9513,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>200</v>
       </c>
@@ -9526,7 +9542,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
@@ -9554,7 +9570,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
@@ -9582,7 +9598,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="116" t="s">
         <v>204</v>
       </c>
@@ -9605,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
@@ -9634,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
         <v>241</v>
       </c>
@@ -9662,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="145" t="s">
         <v>206</v>
       </c>
@@ -9698,29 +9714,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="26"/>
+    <col min="1" max="1" width="22.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -9746,7 +9762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
@@ -9763,12 +9779,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
@@ -9793,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>55</v>
       </c>
@@ -9816,7 +9832,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>98</v>
       </c>
@@ -9841,7 +9857,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>99</v>
       </c>
@@ -9864,7 +9880,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>100</v>
       </c>
@@ -9888,7 +9904,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>101</v>
       </c>
@@ -9911,7 +9927,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>102</v>
       </c>
@@ -9940,7 +9956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>111</v>
       </c>
@@ -9965,7 +9981,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
@@ -9988,7 +10004,7 @@
         <v>9.5491333333333331E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>113</v>
       </c>
@@ -10016,7 +10032,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>114</v>
       </c>
@@ -10044,7 +10060,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>115</v>
       </c>
@@ -10072,7 +10088,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>116</v>
       </c>
@@ -10100,7 +10116,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="139" t="s">
         <v>117</v>
       </c>
@@ -10123,7 +10139,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>129</v>
       </c>
@@ -10149,7 +10165,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>130</v>
       </c>
@@ -10178,7 +10194,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>123</v>
       </c>
@@ -10206,7 +10222,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -10222,7 +10238,7 @@
       </c>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>133</v>
       </c>
@@ -10238,7 +10254,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>142</v>
       </c>
@@ -10249,7 +10265,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>135</v>
       </c>
@@ -10272,10 +10288,10 @@
       </c>
       <c r="G24" s="27">
         <f>G59</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>166</v>
       </c>
@@ -10300,7 +10316,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>167</v>
       </c>
@@ -10320,7 +10336,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>213</v>
       </c>
@@ -10347,7 +10363,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>214</v>
       </c>
@@ -10376,7 +10392,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>215</v>
       </c>
@@ -10404,7 +10420,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
         <v>216</v>
       </c>
@@ -10432,7 +10448,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>217</v>
       </c>
@@ -10456,7 +10472,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>218</v>
       </c>
@@ -10485,7 +10501,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>219</v>
       </c>
@@ -10513,7 +10529,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
         <v>220</v>
       </c>
@@ -10541,7 +10557,7 @@
         <v>1.7748E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>221</v>
       </c>
@@ -10564,7 +10580,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>222</v>
       </c>
@@ -10593,7 +10609,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>223</v>
       </c>
@@ -10621,7 +10637,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="51" t="s">
         <v>224</v>
       </c>
@@ -10649,7 +10665,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>225</v>
       </c>
@@ -10672,7 +10688,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>226</v>
       </c>
@@ -10701,7 +10717,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>227</v>
       </c>
@@ -10729,7 +10745,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="51" t="s">
         <v>228</v>
       </c>
@@ -10757,7 +10773,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
         <v>229</v>
       </c>
@@ -10784,7 +10800,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>230</v>
       </c>
@@ -10813,7 +10829,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>231</v>
       </c>
@@ -10841,7 +10857,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
         <v>232</v>
       </c>
@@ -10869,7 +10885,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
         <v>233</v>
       </c>
@@ -10892,7 +10908,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>234</v>
       </c>
@@ -10921,7 +10937,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>235</v>
       </c>
@@ -10949,7 +10965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
         <v>236</v>
       </c>
@@ -10977,13 +10993,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>191</v>
       </c>
       <c r="B51" s="123">
-        <f>1.2/28.2</f>
-        <v>4.2553191489361701E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C51" s="143" t="str">
         <f t="shared" si="16"/>
@@ -10999,16 +11014,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G51" s="123">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="116" t="s">
         <v>192</v>
       </c>
       <c r="B52" s="27">
         <f>B51</f>
-        <v>4.2553191489361701E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C52" s="27" t="str">
         <f>C47</f>
@@ -11028,16 +11043,16 @@
       </c>
       <c r="G52" s="27">
         <f>G51</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="116" t="s">
         <v>193</v>
       </c>
       <c r="B53" s="27">
         <f>B51</f>
-        <v>4.2553191489361701E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C53" s="27" t="str">
         <f>C47</f>
@@ -11056,16 +11071,16 @@
       </c>
       <c r="G53" s="27">
         <f>G51</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="145" t="s">
         <v>194</v>
       </c>
       <c r="B54" s="47">
         <f>B51</f>
-        <v>4.2553191489361701E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C54" s="47" t="str">
         <f>C47</f>
@@ -11084,10 +11099,10 @@
       </c>
       <c r="G54" s="47">
         <f>G51</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
         <v>195</v>
       </c>
@@ -11107,10 +11122,10 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G55" s="123">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="136" t="s">
         <v>196</v>
       </c>
@@ -11136,10 +11151,10 @@
       </c>
       <c r="G56" s="27">
         <f>G55</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="116" t="s">
         <v>197</v>
       </c>
@@ -11164,10 +11179,10 @@
       </c>
       <c r="G57" s="27">
         <f>G55</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="145" t="s">
         <v>198</v>
       </c>
@@ -11192,10 +11207,10 @@
       </c>
       <c r="G58" s="47">
         <f>G55</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="116" t="s">
         <v>199</v>
       </c>
@@ -11215,10 +11230,10 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G59" s="123">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="116" t="s">
         <v>200</v>
       </c>
@@ -11244,10 +11259,10 @@
       </c>
       <c r="G60" s="27">
         <f>G59</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="116" t="s">
         <v>201</v>
       </c>
@@ -11272,10 +11287,10 @@
       </c>
       <c r="G61" s="27">
         <f>G59</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="145" t="s">
         <v>202</v>
       </c>
@@ -11300,10 +11315,10 @@
       </c>
       <c r="G62" s="47">
         <f>G59</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="144" t="s">
         <v>204</v>
       </c>
@@ -11320,14 +11335,13 @@
         <v>184</v>
       </c>
       <c r="F63" s="82">
-        <f>(0.56*131.1+10.2)/1000</f>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G63" s="123">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="116" t="s">
         <v>205</v>
       </c>
@@ -11349,14 +11363,14 @@
       </c>
       <c r="F64" s="27">
         <f>F63</f>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G64" s="27">
         <f>G63</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="116" t="s">
         <v>241</v>
       </c>
@@ -11377,14 +11391,14 @@
       </c>
       <c r="F65" s="27">
         <f>F63</f>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G65" s="27">
         <f>G63</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="145" t="s">
         <v>206</v>
       </c>
@@ -11405,11 +11419,11 @@
       </c>
       <c r="F66" s="47">
         <f>F63</f>
-        <v>8.3615999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G66" s="47">
         <f>G63</f>
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -11420,30 +11434,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="26" customWidth="1"/>
-    <col min="2" max="5" width="11.5" style="26"/>
-    <col min="6" max="6" width="11.5" style="44"/>
-    <col min="7" max="7" width="9.83203125" style="26" customWidth="1"/>
-    <col min="8" max="11" width="11.5" style="26"/>
-    <col min="12" max="12" width="20.6640625" style="26" customWidth="1"/>
-    <col min="13" max="16" width="11.5" style="26"/>
-    <col min="17" max="17" width="11.5" style="118"/>
-    <col min="18" max="16384" width="11.5" style="26"/>
+    <col min="2" max="5" width="11.42578125" style="26"/>
+    <col min="6" max="6" width="11.42578125" style="44"/>
+    <col min="7" max="7" width="9.85546875" style="26" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" style="26"/>
+    <col min="12" max="12" width="20.7109375" style="26" customWidth="1"/>
+    <col min="13" max="16" width="11.42578125" style="26"/>
+    <col min="17" max="17" width="11.42578125" style="118"/>
+    <col min="18" max="16384" width="11.42578125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -11499,7 +11513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
@@ -11534,7 +11548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
@@ -11542,7 +11556,7 @@
       <c r="C3" s="118"/>
       <c r="D3" s="118"/>
     </row>
-    <row r="4" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
@@ -11589,7 +11603,7 @@
       </c>
       <c r="Q4" s="168"/>
     </row>
-    <row r="5" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>213</v>
       </c>
@@ -11637,7 +11651,7 @@
         <v>15.0258</v>
       </c>
     </row>
-    <row r="6" spans="1:18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="128" t="s">
         <v>214</v>
       </c>
@@ -11693,7 +11707,7 @@
         <v>15.0258</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>215</v>
       </c>
@@ -11750,7 +11764,7 @@
         <v>15.0258</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>216</v>
       </c>
@@ -11806,7 +11820,7 @@
         <v>15.0258</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -11859,7 +11873,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>218</v>
       </c>
@@ -11917,7 +11931,7 @@
         <v>14.052599999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>219</v>
       </c>
@@ -11975,7 +11989,7 @@
         <v>14.052599999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>220</v>
       </c>
@@ -12033,7 +12047,7 @@
         <v>14.052599999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>221</v>
       </c>
@@ -12083,7 +12097,7 @@
         <v>13.904999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>222</v>
       </c>
@@ -12141,7 +12155,7 @@
         <v>13.904999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>223</v>
       </c>
@@ -12200,7 +12214,7 @@
         <v>13.904999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>224</v>
       </c>
@@ -12259,7 +12273,7 @@
         <v>13.904999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>225</v>
       </c>
@@ -12309,7 +12323,7 @@
         <v>17.171399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>226</v>
       </c>
@@ -12368,7 +12382,7 @@
         <v>17.171399999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>227</v>
       </c>
@@ -12427,7 +12441,7 @@
         <v>17.171399999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>228</v>
       </c>
@@ -12486,7 +12500,7 @@
         <v>17.171399999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>229</v>
       </c>
@@ -12541,7 +12555,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>230</v>
       </c>
@@ -12600,7 +12614,7 @@
         <v>15.532037640500841</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>231</v>
       </c>
@@ -12659,7 +12673,7 @@
         <v>15.532037640500841</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>232</v>
       </c>
@@ -12718,7 +12732,7 @@
         <v>15.532037640500841</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>233</v>
       </c>
@@ -12770,7 +12784,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>234</v>
       </c>
@@ -12829,7 +12843,7 @@
         <v>19.475999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>235</v>
       </c>
@@ -12887,7 +12901,7 @@
         <v>19.475999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>236</v>
       </c>
@@ -12945,7 +12959,7 @@
         <v>19.475999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="132" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
         <v>191</v>
       </c>
@@ -12953,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="134">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D29" s="134">
         <v>0</v>
@@ -12998,7 +13012,7 @@
         <v>9.5080851063829801</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="116" t="s">
         <v>192</v>
       </c>
@@ -13008,7 +13022,7 @@
       </c>
       <c r="C30" s="27">
         <f t="shared" ref="C30:N30" si="16">C29</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D30" s="27">
         <f t="shared" si="16"/>
@@ -13058,7 +13072,7 @@
         <v>9.5080851063829801</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="116" t="s">
         <v>193</v>
       </c>
@@ -13068,7 +13082,7 @@
       </c>
       <c r="C31" s="27">
         <f t="shared" ref="C31:N31" si="17">C29</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D31" s="27">
         <f t="shared" si="17"/>
@@ -13118,7 +13132,7 @@
         <v>9.5080851063829801</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="145" t="s">
         <v>194</v>
       </c>
@@ -13128,7 +13142,7 @@
       </c>
       <c r="C32" s="47">
         <f t="shared" ref="C32:N32" si="18">C29</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D32" s="47">
         <f t="shared" si="18"/>
@@ -13178,15 +13192,17 @@
         <v>9.5080851063829801</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="116" t="s">
         <v>195</v>
       </c>
       <c r="B33" s="78">
-        <v>1.3</v>
-      </c>
-      <c r="C33" s="54">
-        <v>0</v>
+        <f>1.4*0.7</f>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="C33" s="78">
+        <f>1.4*0.3</f>
+        <v>0.42</v>
       </c>
       <c r="D33" s="54">
         <f>0.026</f>
@@ -13195,11 +13211,12 @@
       <c r="E33" s="123">
         <v>0.107</v>
       </c>
-      <c r="F33" s="78">
-        <v>0.28199999999999997</v>
+      <c r="F33" s="54">
+        <f>400*Ref!C12</f>
+        <v>0.57105023645935571</v>
       </c>
       <c r="G33" s="54">
-        <v>0.187</v>
+        <v>0.23</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>103</v>
@@ -13211,7 +13228,7 @@
         <v>184</v>
       </c>
       <c r="K33" s="90">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>190</v>
@@ -13224,19 +13241,20 @@
       </c>
       <c r="Q33" s="150">
         <f t="shared" si="12"/>
-        <v>9.9174000000000007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>10.872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="116" t="s">
         <v>196</v>
       </c>
       <c r="B34" s="82">
         <f>B33</f>
-        <v>1.3</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="C34" s="123">
-        <v>0</v>
+        <f>C33</f>
+        <v>0.42</v>
       </c>
       <c r="D34" s="123">
         <f>D33*0.9</f>
@@ -13248,11 +13266,11 @@
       </c>
       <c r="F34" s="55">
         <f>F33</f>
-        <v>0.28199999999999997</v>
+        <v>0.57105023645935571</v>
       </c>
       <c r="G34" s="123">
         <f>G33</f>
-        <v>0.187</v>
+        <v>0.23</v>
       </c>
       <c r="H34" s="76" t="s">
         <v>103</v>
@@ -13265,7 +13283,7 @@
       </c>
       <c r="K34" s="99">
         <f>K33</f>
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L34" s="76" t="s">
         <v>190</v>
@@ -13278,20 +13296,20 @@
       </c>
       <c r="Q34" s="150">
         <f t="shared" si="12"/>
-        <v>9.9174000000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>10.872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
         <v>197</v>
       </c>
       <c r="B35" s="27">
         <f>B33</f>
-        <v>1.3</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="C35" s="27">
-        <f>C$34</f>
-        <v>0</v>
+        <f>C33</f>
+        <v>0.42</v>
       </c>
       <c r="D35" s="27">
         <f>D33*0.9</f>
@@ -13303,11 +13321,11 @@
       </c>
       <c r="F35" s="45">
         <f>F33</f>
-        <v>0.28199999999999997</v>
+        <v>0.57105023645935571</v>
       </c>
       <c r="G35" s="27">
         <f>G33</f>
-        <v>0.187</v>
+        <v>0.23</v>
       </c>
       <c r="H35" s="26" t="str">
         <f>H$34</f>
@@ -13323,7 +13341,7 @@
       </c>
       <c r="K35" s="71">
         <f>K33</f>
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L35" s="26" t="str">
         <f>L$34</f>
@@ -13338,20 +13356,20 @@
       </c>
       <c r="Q35" s="150">
         <f t="shared" si="12"/>
-        <v>9.9174000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10.872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="145" t="s">
         <v>198</v>
       </c>
       <c r="B36" s="47">
         <f>B33</f>
-        <v>1.3</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="C36" s="47">
         <f t="shared" ref="C36:N36" si="19">C33</f>
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="D36" s="47">
         <f>D33*0.9</f>
@@ -13363,11 +13381,11 @@
       </c>
       <c r="F36" s="47">
         <f>F33</f>
-        <v>0.28199999999999997</v>
+        <v>0.57105023645935571</v>
       </c>
       <c r="G36" s="47">
         <f t="shared" si="19"/>
-        <v>0.187</v>
+        <v>0.23</v>
       </c>
       <c r="H36" s="47" t="str">
         <f t="shared" si="19"/>
@@ -13383,7 +13401,7 @@
       </c>
       <c r="K36" s="65">
         <f>K33</f>
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L36" s="47" t="str">
         <f t="shared" si="19"/>
@@ -13398,18 +13416,20 @@
       </c>
       <c r="Q36" s="172">
         <f t="shared" si="12"/>
-        <v>9.9174000000000007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>10.872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="C37" s="123">
-        <v>0</v>
+      <c r="B37" s="78">
+        <f>1.4*0.7</f>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="C37" s="78">
+        <f>1.4*0.3</f>
+        <v>0.42</v>
       </c>
       <c r="D37" s="54">
         <f>0.026</f>
@@ -13451,17 +13471,17 @@
         <v>12.080399999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B38" s="27">
         <f>B$37</f>
-        <v>1.3</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="C38" s="27">
         <f>C$37</f>
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="D38" s="27">
         <f>D$37*0.9</f>
@@ -13511,17 +13531,17 @@
         <v>12.080399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
         <v>201</v>
       </c>
       <c r="B39" s="27">
         <f>B$37</f>
-        <v>1.3</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="C39" s="27">
         <f>C$37</f>
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="D39" s="27">
         <f>D$37*0.9</f>
@@ -13570,17 +13590,17 @@
         <v>12.080399999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="145" t="s">
         <v>202</v>
       </c>
       <c r="B40" s="47">
         <f>B37</f>
-        <v>1.3</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="C40" s="47">
         <f t="shared" ref="C40:L41" si="22">C37</f>
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="D40" s="47">
         <f>D37*0.9</f>
@@ -13630,7 +13650,7 @@
         <v>12.080399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="76" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="144" t="s">
         <v>204</v>
       </c>
@@ -13638,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="76">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D41" s="54">
         <f>0.026</f>
@@ -13648,7 +13668,8 @@
         <v>0.2</v>
       </c>
       <c r="F41" s="55">
-        <v>0.1</v>
+        <f>850*Ref!C12</f>
+        <v>1.2134817524761308</v>
       </c>
       <c r="G41" s="56">
         <v>0</v>
@@ -13665,7 +13686,7 @@
         <v>charcoal - IPCC</v>
       </c>
       <c r="K41" s="99">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="L41" s="76" t="s">
         <v>190</v>
@@ -13678,10 +13699,10 @@
       </c>
       <c r="Q41" s="175">
         <f t="shared" si="12"/>
-        <v>15.48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="116" t="s">
         <v>205</v>
       </c>
@@ -13691,7 +13712,7 @@
       </c>
       <c r="C42" s="26">
         <f t="shared" ref="C42:L42" si="23">C41</f>
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D42" s="26">
         <f>D41*0.9</f>
@@ -13703,7 +13724,7 @@
       </c>
       <c r="F42" s="27">
         <f t="shared" si="23"/>
-        <v>0.1</v>
+        <v>1.2134817524761308</v>
       </c>
       <c r="G42" s="26">
         <f>G41</f>
@@ -13723,7 +13744,7 @@
       </c>
       <c r="K42" s="71">
         <f t="shared" si="23"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="L42" s="26" t="str">
         <f t="shared" si="23"/>
@@ -13738,10 +13759,10 @@
       </c>
       <c r="Q42" s="150">
         <f t="shared" si="12"/>
-        <v>15.48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="